--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F255</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F254"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="B121" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C121">
-        <v>1046369</v>
+        <v>368612</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,18 +2800,18 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>6204005e5a2fea824bf12c398eaba494a661a2ffef9a40ffafa8ec02f4d13c4a</v>
+        <v>8044f34d4833ed1b68f24a17759544c967f02950d9e4c19db4a7542cd9678e11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="B122" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1563936</v>
+        <v>2273817</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2820,18 +2820,18 @@
         <v>0</v>
       </c>
       <c r="F122" t="str">
-        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
+        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="B123" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C123">
-        <v>374439</v>
+        <v>1563936</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2840,18 +2840,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
+        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="B124" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C124">
-        <v>565237</v>
+        <v>374439</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2860,18 +2860,18 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B125" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C125">
-        <v>817919</v>
+        <v>565237</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2880,18 +2880,18 @@
         <v>0</v>
       </c>
       <c r="F125" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B126" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1562400</v>
+        <v>817919</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B127" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C127">
-        <v>1080989</v>
+        <v>1562400</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,18 +2920,18 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C128">
-        <v>922763</v>
+        <v>1080989</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C129">
-        <v>677161</v>
+        <v>922763</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C130">
-        <v>810546</v>
+        <v>677161</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C131">
-        <v>274108</v>
+        <v>810546</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C132">
-        <v>220242</v>
+        <v>274108</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C133">
-        <v>95904</v>
+        <v>220242</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C134">
-        <v>1090288</v>
+        <v>95904</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C135">
-        <v>4141810</v>
+        <v>1090288</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1438335</v>
+        <v>4141810</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C137">
-        <v>883153</v>
+        <v>1438335</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C138">
-        <v>903934</v>
+        <v>883153</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C139">
-        <v>1201327</v>
+        <v>903934</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C140">
-        <v>995070</v>
+        <v>1201327</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C141">
-        <v>1222380</v>
+        <v>995070</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C142">
-        <v>694956</v>
+        <v>1222380</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C143">
-        <v>3816616</v>
+        <v>694956</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C144">
-        <v>1950946</v>
+        <v>3816616</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C145">
-        <v>2974088</v>
+        <v>1950946</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1786522</v>
+        <v>2974088</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C147">
-        <v>2340688</v>
+        <v>1786522</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1950951</v>
+        <v>2340688</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C149">
-        <v>2411027</v>
+        <v>1950951</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C150">
-        <v>2120098</v>
+        <v>2411027</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C151">
-        <v>374486</v>
+        <v>2120098</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>146fe2f3f41260aaf1c14e7ff258f16f6396da62033b3664ba13105530d1953b</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1735997</v>
+        <v>793219</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>0f0f44772ef7970f9d1be2bc31875873673f0dd289d75ccd6addd2b0147a34b2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C153">
-        <v>316197</v>
+        <v>1735997</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C154">
-        <v>164019</v>
+        <v>316197</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C155">
-        <v>214542</v>
+        <v>164019</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C156">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C157">
-        <v>288932</v>
+        <v>310371</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C158">
-        <v>270546</v>
+        <v>288932</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C159">
-        <v>3081876</v>
+        <v>270546</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C160">
-        <v>3190051</v>
+        <v>3081876</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C161">
-        <v>3064592</v>
+        <v>3190051</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C162">
-        <v>3106959</v>
+        <v>3064592</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C163">
-        <v>3228411</v>
+        <v>3106959</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C164">
-        <v>821633</v>
+        <v>3228411</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C165">
-        <v>223504</v>
+        <v>821633</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C166">
-        <v>3173184</v>
+        <v>223504</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C167">
-        <v>3286445</v>
+        <v>3173184</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C168">
-        <v>3140118</v>
+        <v>3286445</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C169">
-        <v>3214863</v>
+        <v>3140118</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C170">
-        <v>816767</v>
+        <v>3214863</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C171">
-        <v>723740</v>
+        <v>816767</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C172">
-        <v>844714</v>
+        <v>723740</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C173">
-        <v>3901688</v>
+        <v>844714</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C174">
-        <v>841468</v>
+        <v>3901688</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C175">
-        <v>762930</v>
+        <v>841468</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C176">
-        <v>825409</v>
+        <v>762930</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C177">
-        <v>761788</v>
+        <v>825409</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C178">
-        <v>3161974</v>
+        <v>761788</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C179">
-        <v>3836054</v>
+        <v>3161974</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C180">
-        <v>4023230</v>
+        <v>3836054</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C181">
-        <v>3228429</v>
+        <v>4023230</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C182">
-        <v>3193169</v>
+        <v>3228429</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C183">
-        <v>3210858</v>
+        <v>3193169</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C184">
-        <v>3139182</v>
+        <v>3210858</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C185">
-        <v>3882737</v>
+        <v>3139182</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C186">
-        <v>2962984</v>
+        <v>3882737</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C187">
-        <v>3065527</v>
+        <v>2962984</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C188">
-        <v>3144785</v>
+        <v>3065527</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C189">
-        <v>2778836</v>
+        <v>3144785</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C190">
-        <v>866673</v>
+        <v>2778836</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C191">
-        <v>844510</v>
+        <v>866673</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C192">
-        <v>804577</v>
+        <v>844510</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C193">
-        <v>799739</v>
+        <v>804577</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C194">
-        <v>3171180</v>
+        <v>799739</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C195">
-        <v>830305</v>
+        <v>3171180</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C196">
-        <v>2503101</v>
+        <v>830305</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C197">
-        <v>2480638</v>
+        <v>2503101</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C198">
-        <v>3917014</v>
+        <v>2480638</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C199">
-        <v>2392971</v>
+        <v>3917014</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C200">
-        <v>2361287</v>
+        <v>2392971</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C201">
-        <v>3150498</v>
+        <v>2361287</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C202">
-        <v>2383533</v>
+        <v>3150498</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C203">
-        <v>5022572</v>
+        <v>2383533</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C204">
-        <v>2335859</v>
+        <v>5022572</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C205">
-        <v>2280048</v>
+        <v>2335859</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C206">
-        <v>2139719</v>
+        <v>2280048</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C207">
-        <v>2204277</v>
+        <v>2139719</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C208">
-        <v>2180973</v>
+        <v>2204277</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C209">
-        <v>2285687</v>
+        <v>2180973</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C210">
-        <v>2378558</v>
+        <v>2285687</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C211">
-        <v>3309246</v>
+        <v>2378558</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C212">
-        <v>786221</v>
+        <v>3309246</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C213">
-        <v>2106871</v>
+        <v>786221</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C214">
-        <v>584752</v>
+        <v>2106871</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C215">
-        <v>817133</v>
+        <v>584752</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C216">
-        <v>784714</v>
+        <v>817133</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C217">
-        <v>846144</v>
+        <v>784714</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C218">
-        <v>841637</v>
+        <v>846144</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C219">
-        <v>847696</v>
+        <v>841637</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C220">
-        <v>814420</v>
+        <v>847696</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C221">
-        <v>789923</v>
+        <v>814420</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C222">
-        <v>809952</v>
+        <v>789923</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C223">
-        <v>827102</v>
+        <v>809952</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C224">
-        <v>825498</v>
+        <v>827102</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C225">
-        <v>836955</v>
+        <v>825498</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C226">
-        <v>812054</v>
+        <v>836955</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C227">
-        <v>2445857</v>
+        <v>812054</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C228">
-        <v>835188</v>
+        <v>2445857</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C229">
-        <v>820544</v>
+        <v>835188</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C230">
-        <v>755734</v>
+        <v>820544</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C231">
-        <v>791779</v>
+        <v>755734</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C232">
-        <v>735348</v>
+        <v>791779</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C233">
-        <v>839955</v>
+        <v>735348</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C234">
-        <v>851153</v>
+        <v>839955</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C235">
-        <v>3264119</v>
+        <v>851153</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C236">
-        <v>3084217</v>
+        <v>3264119</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C237">
-        <v>2455825</v>
+        <v>3084217</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C238">
-        <v>807112</v>
+        <v>2455825</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C239">
-        <v>4718336</v>
+        <v>807112</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C240">
-        <v>3220892</v>
+        <v>4718336</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C241">
-        <v>2952548</v>
+        <v>3220892</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C242">
-        <v>3274402</v>
+        <v>2952548</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C243">
-        <v>3119279</v>
+        <v>3274402</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C244">
-        <v>832384</v>
+        <v>3119279</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C245">
-        <v>813808</v>
+        <v>832384</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C246">
-        <v>2168197</v>
+        <v>813808</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C247">
-        <v>2399059</v>
+        <v>2168197</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C248">
-        <v>2391618</v>
+        <v>2399059</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C249">
-        <v>2427114</v>
+        <v>2391618</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C250">
-        <v>3266558</v>
+        <v>2427114</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C251">
-        <v>2335524</v>
+        <v>3266558</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C252">
-        <v>2490016</v>
+        <v>2335524</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C253">
-        <v>2385791</v>
+        <v>2490016</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,33 +5440,53 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B254" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C254">
+        <v>2385791</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="B254" t="str">
+      <c r="B255" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="C254">
+      <c r="C255">
         <v>560237</v>
       </c>
-      <c r="D254" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="F254" t="str">
+      <c r="D255" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" t="str">
         <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F254"/>
+  <autoFilter ref="A1:F255"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F254"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F255"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F259</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2251,7 +2251,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C94">
-        <v>1238231</v>
+        <v>1319459</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>51d307d1ad5609fbccb7182ac922f926fcb4bc6fb56fdfe992037af4bc951738</v>
+        <v>7ecb2ac3b5c40c2f503a49db33f854c43f596e9c2faff0589a6bbce891df01ce</v>
       </c>
     </row>
     <row r="95">
@@ -3411,7 +3411,7 @@
         <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C152">
-        <v>793219</v>
+        <v>1952744</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>0f0f44772ef7970f9d1be2bc31875873673f0dd289d75ccd6addd2b0147a34b2</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="153">
@@ -3445,13 +3445,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C154">
-        <v>316197</v>
+        <v>88566</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>d1c6f865bd9b88aec090a915dc726c2a97e78f49e38bf1a96d2b5cc27a881c0b</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C155">
-        <v>164019</v>
+        <v>295472</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C156">
-        <v>214542</v>
+        <v>316197</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C157">
-        <v>310371</v>
+        <v>164019</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C158">
-        <v>288932</v>
+        <v>214542</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C159">
-        <v>270546</v>
+        <v>310371</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C160">
-        <v>3081876</v>
+        <v>288932</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C161">
-        <v>3190051</v>
+        <v>270546</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C162">
-        <v>3064592</v>
+        <v>3081876</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C163">
-        <v>3106959</v>
+        <v>3190051</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C164">
-        <v>3228411</v>
+        <v>3064592</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C165">
-        <v>821633</v>
+        <v>3106959</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C166">
-        <v>223504</v>
+        <v>3228411</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C167">
-        <v>3173184</v>
+        <v>821633</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C168">
-        <v>3286445</v>
+        <v>223504</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C169">
-        <v>3140118</v>
+        <v>3173184</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C170">
-        <v>3214863</v>
+        <v>3286445</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C171">
-        <v>816767</v>
+        <v>3140118</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C172">
-        <v>723740</v>
+        <v>3214863</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C173">
-        <v>844714</v>
+        <v>816767</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C174">
-        <v>3901688</v>
+        <v>723740</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C175">
-        <v>841468</v>
+        <v>844714</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C176">
-        <v>762930</v>
+        <v>3901688</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C177">
-        <v>825409</v>
+        <v>841468</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C178">
-        <v>761788</v>
+        <v>762930</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C179">
-        <v>3161974</v>
+        <v>825409</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C180">
-        <v>3836054</v>
+        <v>761788</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C181">
-        <v>4023230</v>
+        <v>3161974</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C182">
-        <v>3228429</v>
+        <v>3836054</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C183">
-        <v>3193169</v>
+        <v>4023230</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C184">
-        <v>3210858</v>
+        <v>3228429</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C185">
-        <v>3139182</v>
+        <v>3193169</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C186">
-        <v>3882737</v>
+        <v>3210858</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C187">
-        <v>2962984</v>
+        <v>3139182</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C188">
-        <v>3065527</v>
+        <v>3882737</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C189">
-        <v>3144785</v>
+        <v>2962984</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C190">
-        <v>2778836</v>
+        <v>3065527</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C191">
-        <v>866673</v>
+        <v>3144785</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C192">
-        <v>844510</v>
+        <v>2778836</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C193">
-        <v>804577</v>
+        <v>866673</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C194">
-        <v>799739</v>
+        <v>844510</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C195">
-        <v>3171180</v>
+        <v>804577</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C196">
-        <v>830305</v>
+        <v>799739</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C197">
-        <v>2503101</v>
+        <v>3171180</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C198">
-        <v>2480638</v>
+        <v>830305</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C199">
-        <v>3917014</v>
+        <v>2503101</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C200">
-        <v>2392971</v>
+        <v>2480638</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C201">
-        <v>2361287</v>
+        <v>3917014</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C202">
-        <v>3150498</v>
+        <v>2392971</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C203">
-        <v>2383533</v>
+        <v>2361287</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C204">
-        <v>5022572</v>
+        <v>3150498</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C205">
-        <v>2335859</v>
+        <v>2383533</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C206">
-        <v>2280048</v>
+        <v>5022572</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C207">
-        <v>2139719</v>
+        <v>2335859</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C208">
-        <v>2204277</v>
+        <v>2280048</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C209">
-        <v>2180973</v>
+        <v>2139719</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C210">
-        <v>2285687</v>
+        <v>2204277</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C211">
-        <v>2378558</v>
+        <v>2180973</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C212">
-        <v>3309246</v>
+        <v>2285687</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C213">
-        <v>786221</v>
+        <v>2378558</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C214">
-        <v>2106871</v>
+        <v>3309246</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C215">
-        <v>584752</v>
+        <v>786221</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C216">
-        <v>817133</v>
+        <v>2106871</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C217">
-        <v>784714</v>
+        <v>584752</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C218">
-        <v>846144</v>
+        <v>817133</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C219">
-        <v>841637</v>
+        <v>784714</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C220">
-        <v>847696</v>
+        <v>846144</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C221">
-        <v>814420</v>
+        <v>841637</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C222">
-        <v>789923</v>
+        <v>847696</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C223">
-        <v>809952</v>
+        <v>814420</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C224">
-        <v>827102</v>
+        <v>789923</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C225">
-        <v>825498</v>
+        <v>809952</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C226">
-        <v>836955</v>
+        <v>827102</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C227">
-        <v>812054</v>
+        <v>825498</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C228">
-        <v>2445857</v>
+        <v>836955</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C229">
-        <v>835188</v>
+        <v>812054</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C230">
-        <v>820544</v>
+        <v>2416625</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C231">
-        <v>755734</v>
+        <v>2445857</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C232">
-        <v>791779</v>
+        <v>835188</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C233">
-        <v>735348</v>
+        <v>820544</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C234">
-        <v>839955</v>
+        <v>755734</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C235">
-        <v>851153</v>
+        <v>791779</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C236">
-        <v>3264119</v>
+        <v>735348</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C237">
-        <v>3084217</v>
+        <v>839955</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C238">
-        <v>2455825</v>
+        <v>851153</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C239">
-        <v>807112</v>
+        <v>3264119</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C240">
-        <v>4718336</v>
+        <v>3084217</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C241">
-        <v>3220892</v>
+        <v>2455825</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C242">
-        <v>2952548</v>
+        <v>807112</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C243">
-        <v>3274402</v>
+        <v>4718336</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C244">
-        <v>3119279</v>
+        <v>3220892</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C245">
-        <v>832384</v>
+        <v>2952548</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C246">
-        <v>813808</v>
+        <v>3274402</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C247">
-        <v>2168197</v>
+        <v>3119279</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C248">
-        <v>2399059</v>
+        <v>832384</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C249">
-        <v>2391618</v>
+        <v>813808</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C250">
-        <v>2427114</v>
+        <v>2168197</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C251">
-        <v>3266558</v>
+        <v>2399059</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C252">
-        <v>2335524</v>
+        <v>2391618</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C253">
-        <v>2490016</v>
+        <v>2427114</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C254">
-        <v>2385791</v>
+        <v>3266558</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,33 +5460,113 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B255" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C255">
+        <v>2335524</v>
+      </c>
+      <c r="D255" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" t="str">
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B256" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C256">
+        <v>2490016</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B257" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C257">
+        <v>2123356</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B258" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C258">
+        <v>2385791</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="B255" t="str">
+      <c r="B259" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="C255">
+      <c r="C259">
         <v>560237</v>
       </c>
-      <c r="D255" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E255">
-        <v>0</v>
-      </c>
-      <c r="F255" t="str">
+      <c r="D259" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" t="str">
         <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F255"/>
+  <autoFilter ref="A1:F259"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F255"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F259"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -2251,7 +2251,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C94">
-        <v>1319459</v>
+        <v>1334007</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>7ecb2ac3b5c40c2f503a49db33f854c43f596e9c2faff0589a6bbce891df01ce</v>
+        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
       </c>
     </row>
     <row r="95">
@@ -2791,7 +2791,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C121">
-        <v>368612</v>
+        <v>674483</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>8044f34d4833ed1b68f24a17759544c967f02950d9e4c19db4a7542cd9678e11</v>
+        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
       </c>
     </row>
     <row r="122">

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F261</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1871,7 +1871,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C75">
-        <v>1561905</v>
+        <v>1572111</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <v>8125e4cf8646c268de0d8fb51e7b98b4167e52b5a6d525d90def16fe64e9af0d</v>
+        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
       </c>
     </row>
     <row r="76">
@@ -2925,13 +2925,13 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1080989</v>
+        <v>710837</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C129">
-        <v>922763</v>
+        <v>1080989</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C130">
-        <v>677161</v>
+        <v>922763</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C131">
-        <v>810546</v>
+        <v>677161</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C132">
-        <v>274108</v>
+        <v>810546</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C133">
-        <v>220242</v>
+        <v>274108</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C134">
-        <v>95904</v>
+        <v>220242</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C135">
-        <v>1090288</v>
+        <v>95904</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C136">
-        <v>4141810</v>
+        <v>1090288</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C137">
-        <v>1438335</v>
+        <v>4141810</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C138">
-        <v>883153</v>
+        <v>1438335</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C139">
-        <v>903934</v>
+        <v>883153</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1201327</v>
+        <v>903934</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C141">
-        <v>995070</v>
+        <v>1201327</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C142">
-        <v>1222380</v>
+        <v>995070</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C143">
-        <v>694956</v>
+        <v>1222380</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C144">
-        <v>3816616</v>
+        <v>694956</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C145">
-        <v>1950946</v>
+        <v>3816616</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C146">
-        <v>2974088</v>
+        <v>1950946</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C147">
-        <v>1786522</v>
+        <v>2974088</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C148">
-        <v>2340688</v>
+        <v>1786522</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1950951</v>
+        <v>2340688</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C150">
-        <v>2411027</v>
+        <v>1950951</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C151">
-        <v>2120098</v>
+        <v>2411027</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1952744</v>
+        <v>2120098</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1735997</v>
+        <v>1952744</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C154">
-        <v>88566</v>
+        <v>1735997</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>d1c6f865bd9b88aec090a915dc726c2a97e78f49e38bf1a96d2b5cc27a881c0b</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C155">
-        <v>295472</v>
+        <v>539191</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
+        <v>14e3bf4dc5d6266f41c1e66d593e5a8a3bf207ec1af947333a880d80e3206c36</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C156">
-        <v>316197</v>
+        <v>295472</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C157">
-        <v>164019</v>
+        <v>316197</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C158">
-        <v>214542</v>
+        <v>164019</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C159">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C160">
-        <v>288932</v>
+        <v>310371</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C161">
-        <v>270546</v>
+        <v>288932</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C162">
-        <v>3081876</v>
+        <v>270546</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C163">
-        <v>3190051</v>
+        <v>3081876</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C164">
-        <v>3064592</v>
+        <v>3190051</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C165">
-        <v>3106959</v>
+        <v>3064592</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C166">
-        <v>3228411</v>
+        <v>3106959</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C167">
-        <v>821633</v>
+        <v>3228411</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C168">
-        <v>223504</v>
+        <v>821633</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C169">
-        <v>3173184</v>
+        <v>223504</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C170">
-        <v>3286445</v>
+        <v>3173184</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C171">
-        <v>3140118</v>
+        <v>3286445</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C172">
-        <v>3214863</v>
+        <v>3140118</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C173">
-        <v>816767</v>
+        <v>3214863</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C174">
-        <v>723740</v>
+        <v>816767</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C175">
-        <v>844714</v>
+        <v>723740</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C176">
-        <v>3901688</v>
+        <v>844714</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C177">
-        <v>841468</v>
+        <v>3901688</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C178">
-        <v>762930</v>
+        <v>841468</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C179">
-        <v>825409</v>
+        <v>762930</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C180">
-        <v>761788</v>
+        <v>825409</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C181">
-        <v>3161974</v>
+        <v>761788</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C182">
-        <v>3836054</v>
+        <v>3161974</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C183">
-        <v>4023230</v>
+        <v>3836054</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C184">
-        <v>3228429</v>
+        <v>4023230</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C185">
-        <v>3193169</v>
+        <v>3228429</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C186">
-        <v>3210858</v>
+        <v>3193169</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C187">
-        <v>3139182</v>
+        <v>3210858</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C188">
-        <v>3882737</v>
+        <v>3139182</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C189">
-        <v>2962984</v>
+        <v>3882737</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C190">
-        <v>3065527</v>
+        <v>2962984</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C191">
-        <v>3144785</v>
+        <v>3065527</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C192">
-        <v>2778836</v>
+        <v>3144785</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C193">
-        <v>866673</v>
+        <v>2778836</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C194">
-        <v>844510</v>
+        <v>866673</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C195">
-        <v>804577</v>
+        <v>844510</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C196">
-        <v>799739</v>
+        <v>804577</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C197">
-        <v>3171180</v>
+        <v>799739</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C198">
-        <v>830305</v>
+        <v>3171180</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C199">
-        <v>2503101</v>
+        <v>830305</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C200">
-        <v>2480638</v>
+        <v>2503101</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C201">
-        <v>3917014</v>
+        <v>2480638</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C202">
-        <v>2392971</v>
+        <v>3917014</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C203">
-        <v>2361287</v>
+        <v>3234189</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C204">
-        <v>3150498</v>
+        <v>2361287</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C205">
-        <v>2383533</v>
+        <v>3150498</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C206">
-        <v>5022572</v>
+        <v>2383533</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C207">
-        <v>2335859</v>
+        <v>5022572</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C208">
-        <v>2280048</v>
+        <v>2335859</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C209">
-        <v>2139719</v>
+        <v>2280048</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C210">
-        <v>2204277</v>
+        <v>2139719</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C211">
-        <v>2180973</v>
+        <v>2204277</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C212">
-        <v>2285687</v>
+        <v>2180973</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C213">
-        <v>2378558</v>
+        <v>2285687</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C214">
-        <v>3309246</v>
+        <v>2378558</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C215">
-        <v>786221</v>
+        <v>4071237</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C216">
-        <v>2106871</v>
+        <v>786221</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C217">
-        <v>584752</v>
+        <v>2106871</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C218">
-        <v>817133</v>
+        <v>584752</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C219">
-        <v>784714</v>
+        <v>817133</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C220">
-        <v>846144</v>
+        <v>784714</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C221">
-        <v>841637</v>
+        <v>846144</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C222">
-        <v>847696</v>
+        <v>841637</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C223">
-        <v>814420</v>
+        <v>847696</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C224">
-        <v>789923</v>
+        <v>814420</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C225">
-        <v>809952</v>
+        <v>789923</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C226">
-        <v>827102</v>
+        <v>809952</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C227">
-        <v>825498</v>
+        <v>827102</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C228">
-        <v>836955</v>
+        <v>825498</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C229">
-        <v>812054</v>
+        <v>836955</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C230">
-        <v>2416625</v>
+        <v>812054</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C231">
-        <v>2445857</v>
+        <v>2416625</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C232">
-        <v>835188</v>
+        <v>2445857</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C233">
-        <v>820544</v>
+        <v>835188</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C234">
-        <v>755734</v>
+        <v>820544</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C235">
-        <v>791779</v>
+        <v>755734</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C236">
-        <v>735348</v>
+        <v>809233</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C237">
-        <v>839955</v>
+        <v>791779</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C238">
-        <v>851153</v>
+        <v>735348</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C239">
-        <v>3264119</v>
+        <v>839955</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C240">
-        <v>3084217</v>
+        <v>851153</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C241">
-        <v>2455825</v>
+        <v>3264119</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C242">
-        <v>807112</v>
+        <v>3084217</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C243">
-        <v>4718336</v>
+        <v>2455825</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C244">
-        <v>3220892</v>
+        <v>807112</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C245">
-        <v>2952548</v>
+        <v>4718336</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C246">
-        <v>3274402</v>
+        <v>3220892</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C247">
-        <v>3119279</v>
+        <v>2952548</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C248">
-        <v>832384</v>
+        <v>3274402</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C249">
-        <v>813808</v>
+        <v>3119279</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C250">
-        <v>2168197</v>
+        <v>832384</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C251">
-        <v>2399059</v>
+        <v>813808</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C252">
-        <v>2391618</v>
+        <v>2168197</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C253">
-        <v>2427114</v>
+        <v>2399059</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C254">
-        <v>3266558</v>
+        <v>2391618</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C255">
-        <v>2335524</v>
+        <v>2427114</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C256">
-        <v>2490016</v>
+        <v>3266558</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C257">
-        <v>2123356</v>
+        <v>2335524</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C258">
-        <v>2385791</v>
+        <v>2490016</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,33 +5540,73 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B259" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C259">
+        <v>2123356</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B260" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C260">
+        <v>2385791</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="B259" t="str">
+      <c r="B261" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="C259">
+      <c r="C261">
         <v>560237</v>
       </c>
-      <c r="D259" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259" t="str">
+      <c r="D261" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" t="str">
         <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F259"/>
+  <autoFilter ref="A1:F261"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F259"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F261"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F265</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1471,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>1717736</v>
+        <v>1992132</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>c3c40437c91139ef28128c508e3ef502e66fd5dcb44a5f7b97e68e010c4eb074</v>
+        <v>3b2dbd5fdb1ed26cc7d1933924e884f1516affe5ad1b168cc5d37da8dda608fd</v>
       </c>
     </row>
     <row r="56">
@@ -1525,13 +1525,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="B58" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="C58">
-        <v>643297</v>
+        <v>356887</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1540,18 +1540,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
+        <v>4f5d5c915f978585d960cf7b6dede58ac819d05b85503c54a16cb01f9753230f</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="B59" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C59">
-        <v>828727</v>
+        <v>250817</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1560,18 +1560,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="str">
-        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
+        <v>99243953ea99579c4f0437c037aa6bd769af9b5fc497e69f3c2ddb8c220bebcb</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="B60" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="C60">
-        <v>872422</v>
+        <v>362001</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1580,18 +1580,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="str">
-        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
+        <v>707141d0a933d98d67bd85c9aca41cc63e0f40ddb08a1ba1abb4c090b51165dc</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="B61" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="C61">
-        <v>859654</v>
+        <v>119622</v>
       </c>
       <c r="D61" t="str">
         <v>Stage_1</v>
@@ -1600,18 +1600,18 @@
         <v>0</v>
       </c>
       <c r="F61" t="str">
-        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
+        <v>08f8adaba276d60e26b3b8b6616d30e24dc93a1a59459067183f488297ee59de</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="B62" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="C62">
-        <v>678591</v>
+        <v>67549</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1620,18 +1620,18 @@
         <v>0</v>
       </c>
       <c r="F62" t="str">
-        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
+        <v>e5c12eb8004c1bd4e5f98ec4c9c1e41b7c9ec83eddead0bed3259d6c8d5aa629</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="B63" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C63">
-        <v>349373</v>
+        <v>643297</v>
       </c>
       <c r="D63" t="str">
         <v>Stage_1</v>
@@ -1640,18 +1640,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="str">
-        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
+        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="B64" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C64">
-        <v>453750</v>
+        <v>828727</v>
       </c>
       <c r="D64" t="str">
         <v>Stage_1</v>
@@ -1660,18 +1660,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="str">
-        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
+        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="B65" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C65">
-        <v>1074562</v>
+        <v>872422</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1680,18 +1680,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
+        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="B66" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C66">
-        <v>740081</v>
+        <v>859654</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1700,18 +1700,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="str">
-        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
+        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="B67" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C67">
-        <v>940844</v>
+        <v>678591</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1720,18 +1720,18 @@
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
+        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="B68" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C68">
-        <v>446569</v>
+        <v>349373</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1740,18 +1740,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
+        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="B69" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C69">
-        <v>698653</v>
+        <v>453750</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1760,18 +1760,18 @@
         <v>0</v>
       </c>
       <c r="F69" t="str">
-        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
+        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="B70" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C70">
-        <v>891784</v>
+        <v>1074562</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1780,18 +1780,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
+        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="B71" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C71">
-        <v>755824</v>
+        <v>740081</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1800,18 +1800,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="str">
-        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
+        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="B72" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C72">
-        <v>1196223</v>
+        <v>940844</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1820,18 +1820,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="str">
-        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
+        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="B73" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C73">
-        <v>985514</v>
+        <v>446569</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1840,18 +1840,18 @@
         <v>0</v>
       </c>
       <c r="F73" t="str">
-        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
+        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="B74" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C74">
-        <v>1681290</v>
+        <v>698653</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1860,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="F74" t="str">
-        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
+        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="B75" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C75">
-        <v>1572111</v>
+        <v>891784</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1880,18 +1880,18 @@
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
+        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="B76" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="C76">
-        <v>937990</v>
+        <v>755824</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1900,18 +1900,18 @@
         <v>0</v>
       </c>
       <c r="F76" t="str">
-        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
+        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="B77" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C77">
-        <v>1291319</v>
+        <v>1196223</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1920,18 +1920,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="str">
-        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
+        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="B78" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C78">
-        <v>1189229</v>
+        <v>985514</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1940,18 +1940,18 @@
         <v>0</v>
       </c>
       <c r="F78" t="str">
-        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
+        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="B79" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C79">
-        <v>1039718</v>
+        <v>1681290</v>
       </c>
       <c r="D79" t="str">
         <v>Stage_1</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="F79" t="str">
-        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
+        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="B80" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C80">
-        <v>785916</v>
+        <v>1572111</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -1980,18 +1980,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="str">
-        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
+        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="B81" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C81">
-        <v>743601</v>
+        <v>937990</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2000,18 +2000,18 @@
         <v>0</v>
       </c>
       <c r="F81" t="str">
-        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
+        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="B82" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C82">
-        <v>611321</v>
+        <v>1291319</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2020,18 +2020,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="str">
-        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
+        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="B83" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C83">
-        <v>587131</v>
+        <v>1189229</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2040,18 +2040,18 @@
         <v>0</v>
       </c>
       <c r="F83" t="str">
-        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
+        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="B84" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C84">
-        <v>525441</v>
+        <v>1039718</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2060,18 +2060,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="str">
-        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
+        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="B85" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C85">
-        <v>955357</v>
+        <v>785916</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2080,18 +2080,18 @@
         <v>0</v>
       </c>
       <c r="F85" t="str">
-        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
+        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="B86" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C86">
-        <v>2421226</v>
+        <v>743601</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2100,18 +2100,18 @@
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
+        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="B87" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C87">
-        <v>619176</v>
+        <v>611321</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2120,18 +2120,18 @@
         <v>0</v>
       </c>
       <c r="F87" t="str">
-        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
+        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="B88" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="C88">
-        <v>538541</v>
+        <v>587131</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2140,18 +2140,18 @@
         <v>0</v>
       </c>
       <c r="F88" t="str">
-        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
+        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="B89" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="C89">
-        <v>5025118</v>
+        <v>525441</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2160,18 +2160,18 @@
         <v>0</v>
       </c>
       <c r="F89" t="str">
-        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
+        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="B90" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C90">
-        <v>1535954</v>
+        <v>955357</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2180,18 +2180,18 @@
         <v>0</v>
       </c>
       <c r="F90" t="str">
-        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
+        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="B91" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C91">
-        <v>276258</v>
+        <v>2421226</v>
       </c>
       <c r="D91" t="str">
         <v>Stage_1</v>
@@ -2200,18 +2200,18 @@
         <v>0</v>
       </c>
       <c r="F91" t="str">
-        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
+        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="B92" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C92">
-        <v>1321256</v>
+        <v>619176</v>
       </c>
       <c r="D92" t="str">
         <v>Stage_1</v>
@@ -2220,18 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F92" t="str">
-        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
+        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="B93" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C93">
-        <v>29710</v>
+        <v>538541</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2240,18 +2240,18 @@
         <v>0</v>
       </c>
       <c r="F93" t="str">
-        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
+        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="B94" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C94">
-        <v>1334007</v>
+        <v>5025118</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,18 +2260,18 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
+        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="B95" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C95">
-        <v>1174271</v>
+        <v>1535954</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2280,18 +2280,18 @@
         <v>0</v>
       </c>
       <c r="F95" t="str">
-        <v>a46253b535fe59de2b8bf1e408798a23825926daa2b1c447f8fe1553514b5bf4</v>
+        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="B96" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C96">
-        <v>2285385</v>
+        <v>276258</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2300,18 +2300,18 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
+        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="B97" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C97">
-        <v>1260481</v>
+        <v>1321256</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2320,18 +2320,18 @@
         <v>0</v>
       </c>
       <c r="F97" t="str">
-        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
+        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="B98" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="C98">
-        <v>2046286</v>
+        <v>29710</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2340,18 +2340,18 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
+        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="B99" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C99">
-        <v>1084296</v>
+        <v>1334007</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2360,18 +2360,18 @@
         <v>0</v>
       </c>
       <c r="F99" t="str">
-        <v>d2dcf5699e9e1a519de2842e9af0018310b9a74e2edd0c47108f599d54bc100e</v>
+        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="B100" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C100">
-        <v>2757183</v>
+        <v>1192259</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2380,18 +2380,18 @@
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
+        <v>78ffacdc2ce16f73ce9f5f4b78992faed82ca79fd9f6d01c3e0dba80f98aa61b</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="B101" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C101">
-        <v>1924659</v>
+        <v>2285385</v>
       </c>
       <c r="D101" t="str">
         <v>Stage_1</v>
@@ -2400,18 +2400,18 @@
         <v>0</v>
       </c>
       <c r="F101" t="str">
-        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
+        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="B102" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1987331</v>
+        <v>1260481</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2420,18 +2420,18 @@
         <v>0</v>
       </c>
       <c r="F102" t="str">
-        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
+        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="B103" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1928499</v>
+        <v>2046286</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2440,18 +2440,18 @@
         <v>0</v>
       </c>
       <c r="F103" t="str">
-        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
+        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="B104" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C104">
-        <v>1498180</v>
+        <v>1236786</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2460,18 +2460,18 @@
         <v>0</v>
       </c>
       <c r="F104" t="str">
-        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
+        <v>1eabfb35ad9a6d1b3faad498c21e7ecb958804820481f6cea31be5c46c615523</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="B105" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1893071</v>
+        <v>2757183</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2480,18 +2480,18 @@
         <v>0</v>
       </c>
       <c r="F105" t="str">
-        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
+        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="B106" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C106">
-        <v>1944079</v>
+        <v>1924659</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2500,18 +2500,18 @@
         <v>0</v>
       </c>
       <c r="F106" t="str">
-        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
+        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="B107" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1305034</v>
+        <v>1987331</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2520,18 +2520,18 @@
         <v>0</v>
       </c>
       <c r="F107" t="str">
-        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
+        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="B108" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="C108">
-        <v>966684</v>
+        <v>1928499</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2540,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="F108" t="str">
-        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
+        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="B109" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1022175</v>
+        <v>1498180</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2560,18 +2560,18 @@
         <v>0</v>
       </c>
       <c r="F109" t="str">
-        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
+        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="B110" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C110">
-        <v>735068</v>
+        <v>1893071</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2580,18 +2580,18 @@
         <v>0</v>
       </c>
       <c r="F110" t="str">
-        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
+        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="B111" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C111">
-        <v>884651</v>
+        <v>1944079</v>
       </c>
       <c r="D111" t="str">
         <v>Stage_1</v>
@@ -2600,18 +2600,18 @@
         <v>0</v>
       </c>
       <c r="F111" t="str">
-        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
+        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="B112" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C112">
-        <v>747201</v>
+        <v>1305034</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2620,18 +2620,18 @@
         <v>0</v>
       </c>
       <c r="F112" t="str">
-        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
+        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="B113" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C113">
-        <v>929564</v>
+        <v>966684</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2640,18 +2640,18 @@
         <v>0</v>
       </c>
       <c r="F113" t="str">
-        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
+        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="B114" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1438158</v>
+        <v>1022175</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2660,18 +2660,18 @@
         <v>0</v>
       </c>
       <c r="F114" t="str">
-        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
+        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="B115" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1738245</v>
+        <v>735068</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2680,18 +2680,18 @@
         <v>0</v>
       </c>
       <c r="F115" t="str">
-        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
+        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="B116" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C116">
-        <v>1379851</v>
+        <v>884651</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2700,18 +2700,18 @@
         <v>0</v>
       </c>
       <c r="F116" t="str">
-        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
+        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="B117" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1668237</v>
+        <v>747201</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2720,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="F117" t="str">
-        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
+        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="B118" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C118">
-        <v>1253455</v>
+        <v>929564</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2740,18 +2740,18 @@
         <v>0</v>
       </c>
       <c r="F118" t="str">
-        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
+        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="B119" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C119">
-        <v>978037</v>
+        <v>1438158</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2760,18 +2760,18 @@
         <v>0</v>
       </c>
       <c r="F119" t="str">
-        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
+        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="B120" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C120">
-        <v>1465797</v>
+        <v>1738245</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2780,18 +2780,18 @@
         <v>0</v>
       </c>
       <c r="F120" t="str">
-        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
+        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="B121" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C121">
-        <v>674483</v>
+        <v>1379851</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,18 +2800,18 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
+        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="B122" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C122">
-        <v>2273817</v>
+        <v>1668237</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2820,18 +2820,18 @@
         <v>0</v>
       </c>
       <c r="F122" t="str">
-        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
+        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="B123" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1563936</v>
+        <v>1253455</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2840,18 +2840,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
+        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="B124" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="C124">
-        <v>374439</v>
+        <v>978037</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2860,18 +2860,18 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
+        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="B125" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C125">
-        <v>565237</v>
+        <v>1465797</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2880,18 +2880,18 @@
         <v>0</v>
       </c>
       <c r="F125" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="B126" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C126">
-        <v>817919</v>
+        <v>674483</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="B127" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C127">
-        <v>1562400</v>
+        <v>2273817</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,18 +2920,18 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C128">
-        <v>710837</v>
+        <v>1563936</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
+        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1080989</v>
+        <v>374439</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C130">
-        <v>922763</v>
+        <v>565237</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C131">
-        <v>677161</v>
+        <v>817919</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C132">
-        <v>810546</v>
+        <v>1562400</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C133">
-        <v>274108</v>
+        <v>710837</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C134">
-        <v>220242</v>
+        <v>1080989</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C135">
-        <v>95904</v>
+        <v>922763</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1090288</v>
+        <v>677161</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C137">
-        <v>4141810</v>
+        <v>810546</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1438335</v>
+        <v>274108</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C139">
-        <v>883153</v>
+        <v>220242</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C140">
-        <v>903934</v>
+        <v>95904</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C141">
-        <v>1201327</v>
+        <v>1380219</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
+        <v>56002e3fcbd62b966c402823e913fd1838b41aec326175d9d11b3e6b69f3ae84</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C142">
-        <v>995070</v>
+        <v>4141810</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C143">
-        <v>1222380</v>
+        <v>1438335</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C144">
-        <v>694956</v>
+        <v>883153</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C145">
-        <v>3816616</v>
+        <v>903934</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1950946</v>
+        <v>1396221</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C147">
-        <v>2974088</v>
+        <v>995070</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1786522</v>
+        <v>1222380</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C149">
-        <v>2340688</v>
+        <v>694956</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1950951</v>
+        <v>3816616</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C151">
-        <v>2411027</v>
+        <v>1950946</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C152">
-        <v>2120098</v>
+        <v>2974088</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1952744</v>
+        <v>1786522</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1735997</v>
+        <v>2340688</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C155">
-        <v>539191</v>
+        <v>1950951</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>14e3bf4dc5d6266f41c1e66d593e5a8a3bf207ec1af947333a880d80e3206c36</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C156">
-        <v>295472</v>
+        <v>2411027</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C157">
-        <v>316197</v>
+        <v>2120098</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C158">
-        <v>164019</v>
+        <v>1952744</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C159">
-        <v>214542</v>
+        <v>1735997</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C160">
-        <v>310371</v>
+        <v>653176</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>64c33351c87b3a144108ae1ded3fe6eefe91efd3c6115bb47ee42605d963b795</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C161">
-        <v>288932</v>
+        <v>295472</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C162">
-        <v>270546</v>
+        <v>316197</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C163">
-        <v>3081876</v>
+        <v>164019</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C164">
-        <v>3190051</v>
+        <v>214542</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C165">
-        <v>3064592</v>
+        <v>310371</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C166">
-        <v>3106959</v>
+        <v>288932</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C167">
-        <v>3228411</v>
+        <v>270546</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C168">
-        <v>821633</v>
+        <v>3081876</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C169">
-        <v>223504</v>
+        <v>3190051</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C170">
-        <v>3173184</v>
+        <v>3064592</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C171">
-        <v>3286445</v>
+        <v>3106959</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C172">
-        <v>3140118</v>
+        <v>3228411</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C173">
-        <v>3214863</v>
+        <v>821633</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C174">
-        <v>816767</v>
+        <v>223504</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C175">
-        <v>723740</v>
+        <v>3173184</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C176">
-        <v>844714</v>
+        <v>3286445</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C177">
-        <v>3901688</v>
+        <v>3140118</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C178">
-        <v>841468</v>
+        <v>3214863</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C179">
-        <v>762930</v>
+        <v>816767</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C180">
-        <v>825409</v>
+        <v>723740</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C181">
-        <v>761788</v>
+        <v>844714</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C182">
-        <v>3161974</v>
+        <v>3901688</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C183">
-        <v>3836054</v>
+        <v>841468</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C184">
-        <v>4023230</v>
+        <v>762930</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C185">
-        <v>3228429</v>
+        <v>825409</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C186">
-        <v>3193169</v>
+        <v>761788</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C187">
-        <v>3210858</v>
+        <v>3161974</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C188">
-        <v>3139182</v>
+        <v>3836054</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C189">
-        <v>3882737</v>
+        <v>4023230</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C190">
-        <v>2962984</v>
+        <v>3228429</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C191">
-        <v>3065527</v>
+        <v>3193169</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C192">
-        <v>3144785</v>
+        <v>3210858</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C193">
-        <v>2778836</v>
+        <v>3139182</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C194">
-        <v>866673</v>
+        <v>3882737</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C195">
-        <v>844510</v>
+        <v>2962984</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C196">
-        <v>804577</v>
+        <v>3065527</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C197">
-        <v>799739</v>
+        <v>3144785</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C198">
-        <v>3171180</v>
+        <v>2778836</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C199">
-        <v>830305</v>
+        <v>866673</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C200">
-        <v>2503101</v>
+        <v>844510</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C201">
-        <v>2480638</v>
+        <v>804577</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C202">
-        <v>3917014</v>
+        <v>799739</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C203">
-        <v>3234189</v>
+        <v>3171180</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C204">
-        <v>2361287</v>
+        <v>830305</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C205">
-        <v>3150498</v>
+        <v>2503101</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C206">
-        <v>2383533</v>
+        <v>2480638</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C207">
-        <v>5022572</v>
+        <v>3917014</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C208">
-        <v>2335859</v>
+        <v>3234189</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C209">
-        <v>2280048</v>
+        <v>2361287</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C210">
-        <v>2139719</v>
+        <v>3150498</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C211">
-        <v>2204277</v>
+        <v>2383533</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C212">
-        <v>2180973</v>
+        <v>5022572</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C213">
-        <v>2285687</v>
+        <v>2335859</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C214">
-        <v>2378558</v>
+        <v>2280048</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C215">
-        <v>4071237</v>
+        <v>2139719</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C216">
-        <v>786221</v>
+        <v>2204277</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C217">
-        <v>2106871</v>
+        <v>2180973</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C218">
-        <v>584752</v>
+        <v>2285687</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C219">
-        <v>817133</v>
+        <v>2378558</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C220">
-        <v>784714</v>
+        <v>4071237</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C221">
-        <v>846144</v>
+        <v>786221</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C222">
-        <v>841637</v>
+        <v>2106871</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C223">
-        <v>847696</v>
+        <v>584752</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C224">
-        <v>814420</v>
+        <v>817133</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C225">
-        <v>789923</v>
+        <v>784714</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C226">
-        <v>809952</v>
+        <v>846144</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C227">
-        <v>827102</v>
+        <v>841637</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C228">
-        <v>825498</v>
+        <v>847696</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C229">
-        <v>836955</v>
+        <v>814420</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C230">
-        <v>812054</v>
+        <v>789923</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C231">
-        <v>2416625</v>
+        <v>809952</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C232">
-        <v>2445857</v>
+        <v>827102</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C233">
-        <v>835188</v>
+        <v>825498</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C234">
-        <v>820544</v>
+        <v>836955</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C235">
-        <v>755734</v>
+        <v>812054</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C236">
-        <v>809233</v>
+        <v>2416625</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C237">
-        <v>791779</v>
+        <v>2445857</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C238">
-        <v>735348</v>
+        <v>835188</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C239">
-        <v>839955</v>
+        <v>820544</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C240">
-        <v>851153</v>
+        <v>755734</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C241">
-        <v>3264119</v>
+        <v>809233</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C242">
-        <v>3084217</v>
+        <v>791779</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C243">
-        <v>2455825</v>
+        <v>735348</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C244">
-        <v>807112</v>
+        <v>839955</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C245">
-        <v>4718336</v>
+        <v>851153</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C246">
-        <v>3220892</v>
+        <v>3264119</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C247">
-        <v>2952548</v>
+        <v>3084217</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C248">
-        <v>3274402</v>
+        <v>2455825</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C249">
-        <v>3119279</v>
+        <v>807112</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C250">
-        <v>832384</v>
+        <v>4718336</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C251">
-        <v>813808</v>
+        <v>3220892</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C252">
-        <v>2168197</v>
+        <v>2952548</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C253">
-        <v>2399059</v>
+        <v>3274402</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C254">
-        <v>2391618</v>
+        <v>3119279</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C255">
-        <v>2427114</v>
+        <v>832384</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C256">
-        <v>3266558</v>
+        <v>813808</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C257">
-        <v>2335524</v>
+        <v>2168197</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C258">
-        <v>2490016</v>
+        <v>2399059</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C259">
-        <v>2123356</v>
+        <v>2391618</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C260">
-        <v>2385791</v>
+        <v>2427114</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C261">
-        <v>560237</v>
+        <v>3266558</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,13 +5600,93 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B262" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C262">
+        <v>2335524</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" t="str">
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B263" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C263">
+        <v>2490016</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B264" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C264">
+        <v>2123356</v>
+      </c>
+      <c r="D264" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B265" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C265">
+        <v>2385791</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F261"/>
+  <autoFilter ref="A1:F265"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F261"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F265"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -1471,7 +1471,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>1992132</v>
+        <v>2011710</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>3b2dbd5fdb1ed26cc7d1933924e884f1516affe5ad1b168cc5d37da8dda608fd</v>
+        <v>60f4c8f3d2a1a07126f4d19af567cc7bfe915d0da30e408f837f2c0941ebf0db</v>
       </c>
     </row>
     <row r="56">
@@ -2371,7 +2371,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C100">
-        <v>1192259</v>
+        <v>1204293</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>78ffacdc2ce16f73ce9f5f4b78992faed82ca79fd9f6d01c3e0dba80f98aa61b</v>
+        <v>059664887ef03ff224f141ce9647e251d19e3b51ccaa287d091da99a4dc449c8</v>
       </c>
     </row>
     <row r="101">
@@ -3191,7 +3191,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C141">
-        <v>1380219</v>
+        <v>1390508</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>56002e3fcbd62b966c402823e913fd1838b41aec326175d9d11b3e6b69f3ae84</v>
+        <v>a55f3ff65c236a494fb23be62673cf1122fde15088b0db57f878b24d3c24ec54</v>
       </c>
     </row>
     <row r="142">

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F273</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>audioclip_sfx_e0002_jp.ab</v>
+        <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="B56" t="str">
-        <v>audioclip_sfx_e0002_jp.ab</v>
+        <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>662020</v>
+        <v>1272251</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1500,18 +1500,18 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>baccaaf24c28cb8600e4f8ba37f18e41258dbfd071571e2793894a07cc024968</v>
+        <v>077698a51de4a1c76770fb90a42825b5dd903a8e6c97127e0b68cf82fa40bafb</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>audioclip_sfx_e0046_jp.ab</v>
+        <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="B57" t="str">
-        <v>audioclip_sfx_e0046_jp.ab</v>
+        <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C57">
-        <v>3100195</v>
+        <v>662020</v>
       </c>
       <c r="D57" t="str">
         <v>Stage_1</v>
@@ -1520,18 +1520,18 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>fcc44e3e32ef9c2eec689464a761a22246a1c29cf89ac7c841d58f5abb88154a</v>
+        <v>baccaaf24c28cb8600e4f8ba37f18e41258dbfd071571e2793894a07cc024968</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>audioclip_sfx_e3489_jp.ab</v>
+        <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="B58" t="str">
-        <v>audioclip_sfx_e3489_jp.ab</v>
+        <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="C58">
-        <v>356887</v>
+        <v>3100195</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1540,18 +1540,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>4f5d5c915f978585d960cf7b6dede58ac819d05b85503c54a16cb01f9753230f</v>
+        <v>fcc44e3e32ef9c2eec689464a761a22246a1c29cf89ac7c841d58f5abb88154a</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>audioclip_sfx_e3497_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="B59" t="str">
-        <v>audioclip_sfx_e3497_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="C59">
-        <v>250817</v>
+        <v>356887</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1560,18 +1560,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="str">
-        <v>99243953ea99579c4f0437c037aa6bd769af9b5fc497e69f3c2ddb8c220bebcb</v>
+        <v>4f5d5c915f978585d960cf7b6dede58ac819d05b85503c54a16cb01f9753230f</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>audioclip_sfx_e3498_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="B60" t="str">
-        <v>audioclip_sfx_e3498_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C60">
-        <v>362001</v>
+        <v>250817</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1580,18 +1580,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="str">
-        <v>707141d0a933d98d67bd85c9aca41cc63e0f40ddb08a1ba1abb4c090b51165dc</v>
+        <v>99243953ea99579c4f0437c037aa6bd769af9b5fc497e69f3c2ddb8c220bebcb</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>audioclip_sfx_e3499_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="B61" t="str">
-        <v>audioclip_sfx_e3499_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="C61">
-        <v>119622</v>
+        <v>362001</v>
       </c>
       <c r="D61" t="str">
         <v>Stage_1</v>
@@ -1600,18 +1600,18 @@
         <v>0</v>
       </c>
       <c r="F61" t="str">
-        <v>08f8adaba276d60e26b3b8b6616d30e24dc93a1a59459067183f488297ee59de</v>
+        <v>707141d0a933d98d67bd85c9aca41cc63e0f40ddb08a1ba1abb4c090b51165dc</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>audioclip_sfx_e3500_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="B62" t="str">
-        <v>audioclip_sfx_e3500_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="C62">
-        <v>67549</v>
+        <v>119622</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1620,18 +1620,18 @@
         <v>0</v>
       </c>
       <c r="F62" t="str">
-        <v>e5c12eb8004c1bd4e5f98ec4c9c1e41b7c9ec83eddead0bed3259d6c8d5aa629</v>
+        <v>08f8adaba276d60e26b3b8b6616d30e24dc93a1a59459067183f488297ee59de</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="B63" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="C63">
-        <v>643297</v>
+        <v>67549</v>
       </c>
       <c r="D63" t="str">
         <v>Stage_1</v>
@@ -1640,18 +1640,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="str">
-        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
+        <v>e5c12eb8004c1bd4e5f98ec4c9c1e41b7c9ec83eddead0bed3259d6c8d5aa629</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="B64" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C64">
-        <v>828727</v>
+        <v>643297</v>
       </c>
       <c r="D64" t="str">
         <v>Stage_1</v>
@@ -1660,18 +1660,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="str">
-        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
+        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="B65" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C65">
-        <v>872422</v>
+        <v>828727</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1680,18 +1680,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
+        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="B66" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C66">
-        <v>859654</v>
+        <v>872422</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1700,18 +1700,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="str">
-        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
+        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="B67" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C67">
-        <v>678591</v>
+        <v>859654</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1720,18 +1720,18 @@
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
+        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="B68" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C68">
-        <v>349373</v>
+        <v>678591</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1740,18 +1740,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
+        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="B69" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C69">
-        <v>453750</v>
+        <v>349373</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1760,18 +1760,18 @@
         <v>0</v>
       </c>
       <c r="F69" t="str">
-        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
+        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="B70" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C70">
-        <v>1074562</v>
+        <v>453750</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1780,18 +1780,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
+        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="B71" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C71">
-        <v>740081</v>
+        <v>1074562</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1800,18 +1800,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="str">
-        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
+        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="B72" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C72">
-        <v>940844</v>
+        <v>740081</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1820,18 +1820,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="str">
-        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
+        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="B73" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C73">
-        <v>446569</v>
+        <v>940844</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1840,18 +1840,18 @@
         <v>0</v>
       </c>
       <c r="F73" t="str">
-        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
+        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="B74" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C74">
-        <v>698653</v>
+        <v>446569</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1860,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="F74" t="str">
-        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
+        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="B75" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C75">
-        <v>891784</v>
+        <v>698653</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1880,18 +1880,18 @@
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
+        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="B76" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C76">
-        <v>755824</v>
+        <v>891784</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1900,18 +1900,18 @@
         <v>0</v>
       </c>
       <c r="F76" t="str">
-        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
+        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="B77" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="C77">
-        <v>1196223</v>
+        <v>755824</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1920,18 +1920,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="str">
-        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
+        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="B78" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C78">
-        <v>985514</v>
+        <v>1196223</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1940,18 +1940,18 @@
         <v>0</v>
       </c>
       <c r="F78" t="str">
-        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
+        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="B79" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C79">
-        <v>1681290</v>
+        <v>985514</v>
       </c>
       <c r="D79" t="str">
         <v>Stage_1</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="F79" t="str">
-        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
+        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="B80" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1572111</v>
+        <v>1681290</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -1980,18 +1980,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="str">
-        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
+        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="B81" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C81">
-        <v>937990</v>
+        <v>1572111</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2000,18 +2000,18 @@
         <v>0</v>
       </c>
       <c r="F81" t="str">
-        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
+        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="B82" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1291319</v>
+        <v>937990</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2020,18 +2020,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="str">
-        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
+        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="B83" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1189229</v>
+        <v>1291319</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2040,18 +2040,18 @@
         <v>0</v>
       </c>
       <c r="F83" t="str">
-        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
+        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="B84" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C84">
-        <v>1039718</v>
+        <v>1189229</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2060,18 +2060,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="str">
-        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
+        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="B85" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C85">
-        <v>785916</v>
+        <v>1039718</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2080,18 +2080,18 @@
         <v>0</v>
       </c>
       <c r="F85" t="str">
-        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
+        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="B86" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C86">
-        <v>743601</v>
+        <v>785916</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2100,18 +2100,18 @@
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
+        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="B87" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C87">
-        <v>611321</v>
+        <v>743601</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2120,18 +2120,18 @@
         <v>0</v>
       </c>
       <c r="F87" t="str">
-        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
+        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="B88" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C88">
-        <v>587131</v>
+        <v>611321</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2140,18 +2140,18 @@
         <v>0</v>
       </c>
       <c r="F88" t="str">
-        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
+        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="B89" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="C89">
-        <v>525441</v>
+        <v>587131</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2160,18 +2160,18 @@
         <v>0</v>
       </c>
       <c r="F89" t="str">
-        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
+        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="B90" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="C90">
-        <v>955357</v>
+        <v>525441</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2180,18 +2180,18 @@
         <v>0</v>
       </c>
       <c r="F90" t="str">
-        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
+        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="B91" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C91">
-        <v>2421226</v>
+        <v>955357</v>
       </c>
       <c r="D91" t="str">
         <v>Stage_1</v>
@@ -2200,18 +2200,18 @@
         <v>0</v>
       </c>
       <c r="F91" t="str">
-        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
+        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="B92" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C92">
-        <v>619176</v>
+        <v>2421226</v>
       </c>
       <c r="D92" t="str">
         <v>Stage_1</v>
@@ -2220,18 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F92" t="str">
-        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
+        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="B93" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C93">
-        <v>538541</v>
+        <v>619176</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2240,18 +2240,18 @@
         <v>0</v>
       </c>
       <c r="F93" t="str">
-        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
+        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="B94" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C94">
-        <v>5025118</v>
+        <v>538541</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,18 +2260,18 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
+        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="B95" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C95">
-        <v>1535954</v>
+        <v>5025118</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2280,18 +2280,18 @@
         <v>0</v>
       </c>
       <c r="F95" t="str">
-        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
+        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="B96" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C96">
-        <v>276258</v>
+        <v>1535954</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2300,18 +2300,18 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
+        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="B97" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C97">
-        <v>1321256</v>
+        <v>276258</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2320,18 +2320,18 @@
         <v>0</v>
       </c>
       <c r="F97" t="str">
-        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
+        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="B98" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C98">
-        <v>29710</v>
+        <v>1321256</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2340,18 +2340,18 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
+        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="B99" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="C99">
-        <v>1334007</v>
+        <v>29710</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2360,18 +2360,18 @@
         <v>0</v>
       </c>
       <c r="F99" t="str">
-        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
+        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="B100" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C100">
-        <v>1204293</v>
+        <v>1334007</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2380,18 +2380,18 @@
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>059664887ef03ff224f141ce9647e251d19e3b51ccaa287d091da99a4dc449c8</v>
+        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="B101" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C101">
-        <v>2285385</v>
+        <v>1204293</v>
       </c>
       <c r="D101" t="str">
         <v>Stage_1</v>
@@ -2400,18 +2400,18 @@
         <v>0</v>
       </c>
       <c r="F101" t="str">
-        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
+        <v>059664887ef03ff224f141ce9647e251d19e3b51ccaa287d091da99a4dc449c8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="B102" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1260481</v>
+        <v>2285385</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2420,18 +2420,18 @@
         <v>0</v>
       </c>
       <c r="F102" t="str">
-        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
+        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="B103" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C103">
-        <v>2046286</v>
+        <v>1260481</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2440,18 +2440,18 @@
         <v>0</v>
       </c>
       <c r="F103" t="str">
-        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
+        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="B104" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C104">
-        <v>1236786</v>
+        <v>2046286</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2460,18 +2460,18 @@
         <v>0</v>
       </c>
       <c r="F104" t="str">
-        <v>1eabfb35ad9a6d1b3faad498c21e7ecb958804820481f6cea31be5c46c615523</v>
+        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="B105" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C105">
-        <v>2757183</v>
+        <v>1236786</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2480,18 +2480,18 @@
         <v>0</v>
       </c>
       <c r="F105" t="str">
-        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
+        <v>1eabfb35ad9a6d1b3faad498c21e7ecb958804820481f6cea31be5c46c615523</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="B106" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C106">
-        <v>1924659</v>
+        <v>2757183</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2500,18 +2500,18 @@
         <v>0</v>
       </c>
       <c r="F106" t="str">
-        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
+        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="B107" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1987331</v>
+        <v>1924659</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2520,18 +2520,18 @@
         <v>0</v>
       </c>
       <c r="F107" t="str">
-        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
+        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="B108" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C108">
-        <v>1928499</v>
+        <v>1987331</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2540,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="F108" t="str">
-        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
+        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="B109" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1498180</v>
+        <v>1928499</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2560,18 +2560,18 @@
         <v>0</v>
       </c>
       <c r="F109" t="str">
-        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
+        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="B110" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1893071</v>
+        <v>1498180</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2580,18 +2580,18 @@
         <v>0</v>
       </c>
       <c r="F110" t="str">
-        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
+        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="B111" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C111">
-        <v>1944079</v>
+        <v>1893071</v>
       </c>
       <c r="D111" t="str">
         <v>Stage_1</v>
@@ -2600,18 +2600,18 @@
         <v>0</v>
       </c>
       <c r="F111" t="str">
-        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
+        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="B112" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1305034</v>
+        <v>1944079</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2620,18 +2620,18 @@
         <v>0</v>
       </c>
       <c r="F112" t="str">
-        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
+        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="B113" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C113">
-        <v>966684</v>
+        <v>1305034</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2640,18 +2640,18 @@
         <v>0</v>
       </c>
       <c r="F113" t="str">
-        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
+        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="B114" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1022175</v>
+        <v>966684</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2660,18 +2660,18 @@
         <v>0</v>
       </c>
       <c r="F114" t="str">
-        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
+        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="B115" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C115">
-        <v>735068</v>
+        <v>1022175</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2680,18 +2680,18 @@
         <v>0</v>
       </c>
       <c r="F115" t="str">
-        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
+        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="B116" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C116">
-        <v>884651</v>
+        <v>735068</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2700,18 +2700,18 @@
         <v>0</v>
       </c>
       <c r="F116" t="str">
-        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
+        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="B117" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C117">
-        <v>747201</v>
+        <v>884651</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2720,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="F117" t="str">
-        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
+        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="B118" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C118">
-        <v>929564</v>
+        <v>747201</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2740,18 +2740,18 @@
         <v>0</v>
       </c>
       <c r="F118" t="str">
-        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
+        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="B119" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C119">
-        <v>1438158</v>
+        <v>929564</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2760,18 +2760,18 @@
         <v>0</v>
       </c>
       <c r="F119" t="str">
-        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
+        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="B120" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C120">
-        <v>1738245</v>
+        <v>1438158</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2780,18 +2780,18 @@
         <v>0</v>
       </c>
       <c r="F120" t="str">
-        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
+        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="B121" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C121">
-        <v>1379851</v>
+        <v>1738245</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,18 +2800,18 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
+        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="B122" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1668237</v>
+        <v>1379851</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2820,18 +2820,18 @@
         <v>0</v>
       </c>
       <c r="F122" t="str">
-        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
+        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="B123" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1253455</v>
+        <v>1668237</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2840,18 +2840,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
+        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="B124" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C124">
-        <v>978037</v>
+        <v>1253455</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2860,18 +2860,18 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
+        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="B125" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="C125">
-        <v>1465797</v>
+        <v>978037</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2880,18 +2880,18 @@
         <v>0</v>
       </c>
       <c r="F125" t="str">
-        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
+        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="B126" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C126">
-        <v>674483</v>
+        <v>1465797</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
+        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="B127" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C127">
-        <v>2273817</v>
+        <v>674483</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,18 +2920,18 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
+        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1563936</v>
+        <v>2273817</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
+        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C129">
-        <v>374439</v>
+        <v>1563936</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
+        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>565237</v>
+        <v>374439</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C131">
-        <v>817919</v>
+        <v>565237</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C132">
-        <v>1562400</v>
+        <v>817919</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C133">
-        <v>710837</v>
+        <v>1562400</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C134">
-        <v>1080989</v>
+        <v>710837</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C135">
-        <v>922763</v>
+        <v>1080989</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C136">
-        <v>677161</v>
+        <v>922763</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C137">
-        <v>810546</v>
+        <v>677161</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C138">
-        <v>274108</v>
+        <v>810546</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C139">
-        <v>220242</v>
+        <v>967961</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C140">
-        <v>95904</v>
+        <v>274108</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C141">
-        <v>1390508</v>
+        <v>220242</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>a55f3ff65c236a494fb23be62673cf1122fde15088b0db57f878b24d3c24ec54</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C142">
-        <v>4141810</v>
+        <v>95904</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C143">
-        <v>1438335</v>
+        <v>1390701</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C144">
-        <v>883153</v>
+        <v>4141810</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C145">
-        <v>903934</v>
+        <v>1438335</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1396221</v>
+        <v>1066335</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C147">
-        <v>995070</v>
+        <v>883153</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1222380</v>
+        <v>903934</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C149">
-        <v>694956</v>
+        <v>1396221</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C150">
-        <v>3816616</v>
+        <v>995070</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1950946</v>
+        <v>1222380</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C152">
-        <v>2974088</v>
+        <v>694956</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1786522</v>
+        <v>3816616</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C154">
-        <v>2340688</v>
+        <v>1950946</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1950951</v>
+        <v>2974088</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C156">
-        <v>2411027</v>
+        <v>1786522</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C157">
-        <v>2120098</v>
+        <v>2340688</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1952744</v>
+        <v>1950951</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1735997</v>
+        <v>2411027</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C160">
-        <v>653176</v>
+        <v>2120098</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>64c33351c87b3a144108ae1ded3fe6eefe91efd3c6115bb47ee42605d963b795</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C161">
-        <v>295472</v>
+        <v>1952744</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C162">
-        <v>316197</v>
+        <v>1735997</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C163">
-        <v>164019</v>
+        <v>653176</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>64c33351c87b3a144108ae1ded3fe6eefe91efd3c6115bb47ee42605d963b795</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C164">
-        <v>214542</v>
+        <v>295472</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C165">
-        <v>310371</v>
+        <v>1290290</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C166">
-        <v>288932</v>
+        <v>316197</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C167">
-        <v>270546</v>
+        <v>164019</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C168">
-        <v>3081876</v>
+        <v>214542</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C169">
-        <v>3190051</v>
+        <v>310371</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C170">
-        <v>3064592</v>
+        <v>288932</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C171">
-        <v>3106959</v>
+        <v>270546</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C172">
-        <v>3228411</v>
+        <v>3081876</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C173">
-        <v>821633</v>
+        <v>3190051</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C174">
-        <v>223504</v>
+        <v>3064592</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C175">
-        <v>3173184</v>
+        <v>3106959</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C176">
-        <v>3286445</v>
+        <v>816613</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C177">
-        <v>3140118</v>
+        <v>3228411</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C178">
-        <v>3214863</v>
+        <v>821633</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C179">
-        <v>816767</v>
+        <v>223504</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C180">
-        <v>723740</v>
+        <v>3173184</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C181">
-        <v>844714</v>
+        <v>3286445</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C182">
-        <v>3901688</v>
+        <v>3140118</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C183">
-        <v>841468</v>
+        <v>3214863</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C184">
-        <v>762930</v>
+        <v>816767</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C185">
-        <v>825409</v>
+        <v>723740</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C186">
-        <v>761788</v>
+        <v>844714</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C187">
-        <v>3161974</v>
+        <v>3901688</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C188">
-        <v>3836054</v>
+        <v>841468</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C189">
-        <v>4023230</v>
+        <v>762930</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C190">
-        <v>3228429</v>
+        <v>825409</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C191">
-        <v>3193169</v>
+        <v>761788</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C192">
-        <v>3210858</v>
+        <v>3161974</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C193">
-        <v>3139182</v>
+        <v>3836054</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C194">
-        <v>3882737</v>
+        <v>4023230</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C195">
-        <v>2962984</v>
+        <v>3228429</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C196">
-        <v>3065527</v>
+        <v>3193169</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C197">
-        <v>3144785</v>
+        <v>3210858</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C198">
-        <v>2778836</v>
+        <v>3139182</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C199">
-        <v>866673</v>
+        <v>3882737</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C200">
-        <v>844510</v>
+        <v>2962984</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C201">
-        <v>804577</v>
+        <v>3065527</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C202">
-        <v>799739</v>
+        <v>3144785</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C203">
-        <v>3171180</v>
+        <v>2778836</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C204">
-        <v>830305</v>
+        <v>866673</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C205">
-        <v>2503101</v>
+        <v>844510</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C206">
-        <v>2480638</v>
+        <v>804577</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C207">
-        <v>3917014</v>
+        <v>799739</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C208">
-        <v>3234189</v>
+        <v>3171180</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C209">
-        <v>2361287</v>
+        <v>830305</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C210">
-        <v>3150498</v>
+        <v>2503101</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C211">
-        <v>2383533</v>
+        <v>2480638</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C212">
-        <v>5022572</v>
+        <v>3917014</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C213">
-        <v>2335859</v>
+        <v>3234189</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C214">
-        <v>2280048</v>
+        <v>2361287</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C215">
-        <v>2139719</v>
+        <v>3150498</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C216">
-        <v>2204277</v>
+        <v>2383533</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C217">
-        <v>2180973</v>
+        <v>5022572</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C218">
-        <v>2285687</v>
+        <v>2335859</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C219">
-        <v>2378558</v>
+        <v>2280048</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C220">
-        <v>4071237</v>
+        <v>2139719</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C221">
-        <v>786221</v>
+        <v>2204277</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C222">
-        <v>2106871</v>
+        <v>2180973</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C223">
-        <v>584752</v>
+        <v>2285687</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C224">
-        <v>817133</v>
+        <v>2378558</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C225">
-        <v>784714</v>
+        <v>4071237</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C226">
-        <v>846144</v>
+        <v>786221</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C227">
-        <v>841637</v>
+        <v>2106871</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C228">
-        <v>847696</v>
+        <v>584752</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C229">
-        <v>814420</v>
+        <v>817133</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C230">
-        <v>789923</v>
+        <v>784714</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C231">
-        <v>809952</v>
+        <v>846144</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C232">
-        <v>827102</v>
+        <v>841637</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C233">
-        <v>825498</v>
+        <v>847696</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C234">
-        <v>836955</v>
+        <v>814420</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C235">
-        <v>812054</v>
+        <v>789923</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C236">
-        <v>2416625</v>
+        <v>809952</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C237">
-        <v>2445857</v>
+        <v>827102</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C238">
-        <v>835188</v>
+        <v>825498</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C239">
-        <v>820544</v>
+        <v>836955</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C240">
-        <v>755734</v>
+        <v>812054</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C241">
-        <v>809233</v>
+        <v>2416625</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C242">
-        <v>791779</v>
+        <v>2445857</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C243">
-        <v>735348</v>
+        <v>835188</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C244">
-        <v>839955</v>
+        <v>820544</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C245">
-        <v>851153</v>
+        <v>755734</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C246">
-        <v>3264119</v>
+        <v>809233</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C247">
-        <v>3084217</v>
+        <v>791779</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C248">
-        <v>2455825</v>
+        <v>735348</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C249">
-        <v>807112</v>
+        <v>839955</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C250">
-        <v>4718336</v>
+        <v>851153</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C251">
-        <v>3220892</v>
+        <v>833075</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C252">
-        <v>2952548</v>
+        <v>3264119</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C253">
-        <v>3274402</v>
+        <v>3084217</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C254">
-        <v>3119279</v>
+        <v>2455825</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C255">
-        <v>832384</v>
+        <v>807112</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C256">
-        <v>813808</v>
+        <v>852141</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C257">
-        <v>2168197</v>
+        <v>4718336</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C258">
-        <v>2399059</v>
+        <v>3220892</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C259">
-        <v>2391618</v>
+        <v>2952548</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C260">
-        <v>2427114</v>
+        <v>3274402</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C261">
-        <v>3266558</v>
+        <v>3119279</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C262">
-        <v>2335524</v>
+        <v>832384</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C263">
-        <v>2490016</v>
+        <v>813808</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C264">
-        <v>2123356</v>
+        <v>2168197</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,33 +5660,193 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
+        <v>character_largeimage_t0153.ab</v>
+      </c>
+      <c r="B265" t="str">
+        <v>character_largeimage_t0153.ab</v>
+      </c>
+      <c r="C265">
+        <v>2399059</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" t="str">
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>character_largeimage_t0155.ab</v>
+      </c>
+      <c r="B266" t="str">
+        <v>character_largeimage_t0155.ab</v>
+      </c>
+      <c r="C266">
+        <v>2391618</v>
+      </c>
+      <c r="D266" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266" t="str">
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>character_largeimage_t0156.ab</v>
+      </c>
+      <c r="B267" t="str">
+        <v>character_largeimage_t0156.ab</v>
+      </c>
+      <c r="C267">
+        <v>2427114</v>
+      </c>
+      <c r="D267" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267" t="str">
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="B268" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="C268">
+        <v>3266558</v>
+      </c>
+      <c r="D268" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" t="str">
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B269" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C269">
+        <v>2335524</v>
+      </c>
+      <c r="D269" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269" t="str">
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B270" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C270">
+        <v>2490016</v>
+      </c>
+      <c r="D270" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B271" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C271">
+        <v>2123356</v>
+      </c>
+      <c r="D271" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
         <v>character_largeimage_t0184.ab</v>
       </c>
-      <c r="B265" t="str">
+      <c r="B272" t="str">
         <v>character_largeimage_t0184.ab</v>
       </c>
-      <c r="C265">
+      <c r="C272">
         <v>2385791</v>
       </c>
-      <c r="D265" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E265">
-        <v>0</v>
-      </c>
-      <c r="F265" t="str">
+      <c r="D272" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272" t="str">
         <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="B273" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="C273">
+        <v>858112</v>
+      </c>
+      <c r="D273" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" t="str">
+        <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F265"/>
+  <autoFilter ref="A1:F273"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F265"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F273"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>374439</v>
+        <v>609933</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
+        <v>3e02d373ce50c16881eae6ca546fb28ba3fce6d63b2ea9712ea26d796fcb08bc</v>
       </c>
     </row>
     <row r="131">
@@ -3651,7 +3651,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C164">
-        <v>295472</v>
+        <v>337704</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
+        <v>2b4a0a38cebf7ee45187b5f9467b239e479f73053743145060cb1ad20a3d0630</v>
       </c>
     </row>
     <row r="165">

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -3651,7 +3651,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C164">
-        <v>337704</v>
+        <v>480330</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>2b4a0a38cebf7ee45187b5f9467b239e479f73053743145060cb1ad20a3d0630</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="165">

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>609933</v>
+        <v>666654</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>3e02d373ce50c16881eae6ca546fb28ba3fce6d63b2ea9712ea26d796fcb08bc</v>
+        <v>bdb9c80c68b78350625b9157d7dd44d5860637edd9736284aa6b8e7f6414229c</v>
       </c>
     </row>
     <row r="131">

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F276</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2911,7 +2911,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C127">
-        <v>674483</v>
+        <v>1838030</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
+        <v>042afc6bbfa105ab70c982bafc71b087961b64fbb0215cde27d11b926c0f0ad5</v>
       </c>
     </row>
     <row r="128">
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>666654</v>
+        <v>1892975</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>bdb9c80c68b78350625b9157d7dd44d5860637edd9736284aa6b8e7f6414229c</v>
+        <v>c0a5cc39be87b9c267fdb6331ac3028dc9edc83e920d25c6e652a2d480019cc2</v>
       </c>
     </row>
     <row r="131">
@@ -3665,13 +3665,13 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C165">
-        <v>1290290</v>
+        <v>549865</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>4243fbda40925c1d259b8785aeeebdb55702ea9fc048d288b3fcc3e1b8641f66</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C166">
-        <v>316197</v>
+        <v>1290290</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C167">
-        <v>164019</v>
+        <v>316197</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C168">
-        <v>214542</v>
+        <v>164019</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C169">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C170">
-        <v>288932</v>
+        <v>310371</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C171">
-        <v>270546</v>
+        <v>288932</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C172">
-        <v>3081876</v>
+        <v>270546</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C173">
-        <v>3190051</v>
+        <v>3081876</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C174">
-        <v>3064592</v>
+        <v>3190051</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C175">
-        <v>3106959</v>
+        <v>3064592</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C176">
-        <v>816613</v>
+        <v>3106959</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C177">
-        <v>3228411</v>
+        <v>816613</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C178">
-        <v>821633</v>
+        <v>3228411</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C179">
-        <v>223504</v>
+        <v>821633</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C180">
-        <v>3173184</v>
+        <v>223504</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C181">
-        <v>3286445</v>
+        <v>3173184</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C182">
-        <v>3140118</v>
+        <v>3286445</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C183">
-        <v>3214863</v>
+        <v>3140118</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C184">
-        <v>816767</v>
+        <v>3214863</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C185">
-        <v>723740</v>
+        <v>816767</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C186">
-        <v>844714</v>
+        <v>723740</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C187">
-        <v>3901688</v>
+        <v>844714</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C188">
-        <v>841468</v>
+        <v>3901688</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C189">
-        <v>762930</v>
+        <v>841468</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C190">
-        <v>825409</v>
+        <v>762930</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C191">
-        <v>761788</v>
+        <v>825409</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C192">
-        <v>3161974</v>
+        <v>761788</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C193">
-        <v>3836054</v>
+        <v>3161974</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C194">
-        <v>4023230</v>
+        <v>3836054</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C195">
-        <v>3228429</v>
+        <v>4023230</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C196">
-        <v>3193169</v>
+        <v>3228429</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C197">
-        <v>3210858</v>
+        <v>3193169</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C198">
-        <v>3139182</v>
+        <v>3210858</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C199">
-        <v>3882737</v>
+        <v>3139182</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C200">
-        <v>2962984</v>
+        <v>3882737</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C201">
-        <v>3065527</v>
+        <v>2962984</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C202">
-        <v>3144785</v>
+        <v>3065527</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C203">
-        <v>2778836</v>
+        <v>3144785</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C204">
-        <v>866673</v>
+        <v>2778836</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C205">
-        <v>844510</v>
+        <v>866673</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C206">
-        <v>804577</v>
+        <v>844510</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C207">
-        <v>799739</v>
+        <v>804577</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C208">
-        <v>3171180</v>
+        <v>799739</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C209">
-        <v>830305</v>
+        <v>3171180</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C210">
-        <v>2503101</v>
+        <v>830305</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C211">
-        <v>2480638</v>
+        <v>2503101</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C212">
-        <v>3917014</v>
+        <v>2480638</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C213">
-        <v>3234189</v>
+        <v>3917014</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C214">
-        <v>2361287</v>
+        <v>3234189</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C215">
-        <v>3150498</v>
+        <v>2361287</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C216">
-        <v>2383533</v>
+        <v>3150498</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C217">
-        <v>5022572</v>
+        <v>2383533</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C218">
-        <v>2335859</v>
+        <v>5022572</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C219">
-        <v>2280048</v>
+        <v>2335859</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C220">
-        <v>2139719</v>
+        <v>2280048</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C221">
-        <v>2204277</v>
+        <v>2139719</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C222">
-        <v>2180973</v>
+        <v>2204277</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C223">
-        <v>2285687</v>
+        <v>2180973</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C224">
-        <v>2378558</v>
+        <v>2285687</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C225">
-        <v>4071237</v>
+        <v>2378558</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C226">
-        <v>786221</v>
+        <v>4071237</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C227">
-        <v>2106871</v>
+        <v>786221</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C228">
-        <v>584752</v>
+        <v>2106871</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C229">
-        <v>817133</v>
+        <v>584752</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C230">
-        <v>784714</v>
+        <v>817133</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C231">
-        <v>846144</v>
+        <v>784714</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C232">
-        <v>841637</v>
+        <v>846144</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C233">
-        <v>847696</v>
+        <v>841637</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C234">
-        <v>814420</v>
+        <v>847696</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C235">
-        <v>789923</v>
+        <v>814420</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C236">
-        <v>809952</v>
+        <v>789923</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C237">
-        <v>827102</v>
+        <v>809952</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C238">
-        <v>825498</v>
+        <v>827102</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C239">
-        <v>836955</v>
+        <v>825498</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C240">
-        <v>812054</v>
+        <v>836955</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C241">
-        <v>2416625</v>
+        <v>812054</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C242">
-        <v>2445857</v>
+        <v>2414316</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C243">
-        <v>835188</v>
+        <v>2416625</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C244">
-        <v>820544</v>
+        <v>2445857</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C245">
-        <v>755734</v>
+        <v>2433042</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C246">
-        <v>809233</v>
+        <v>835188</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C247">
-        <v>791779</v>
+        <v>820544</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C248">
-        <v>735348</v>
+        <v>755734</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C249">
-        <v>839955</v>
+        <v>809233</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C250">
-        <v>851153</v>
+        <v>791779</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C251">
-        <v>833075</v>
+        <v>735348</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C252">
-        <v>3264119</v>
+        <v>839955</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C253">
-        <v>3084217</v>
+        <v>851153</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C254">
-        <v>2455825</v>
+        <v>833075</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C255">
-        <v>807112</v>
+        <v>3264119</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C256">
-        <v>852141</v>
+        <v>3084217</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C257">
-        <v>4718336</v>
+        <v>2455825</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C258">
-        <v>3220892</v>
+        <v>807112</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C259">
-        <v>2952548</v>
+        <v>852141</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C260">
-        <v>3274402</v>
+        <v>4718336</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C261">
-        <v>3119279</v>
+        <v>3220892</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C262">
-        <v>832384</v>
+        <v>2952548</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C263">
-        <v>813808</v>
+        <v>3274402</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C264">
-        <v>2168197</v>
+        <v>3119279</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C265">
-        <v>2399059</v>
+        <v>832384</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C266">
-        <v>2391618</v>
+        <v>813808</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C267">
-        <v>2427114</v>
+        <v>2168197</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C268">
-        <v>3266558</v>
+        <v>2399059</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C269">
-        <v>2335524</v>
+        <v>2391618</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C270">
-        <v>2490016</v>
+        <v>2427114</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C271">
-        <v>2123356</v>
+        <v>3266558</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C272">
-        <v>2385791</v>
+        <v>2335524</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,33 +5820,93 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B273" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C273">
+        <v>2490016</v>
+      </c>
+      <c r="D273" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B274" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C274">
+        <v>2123356</v>
+      </c>
+      <c r="D274" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B275" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C275">
+        <v>2385791</v>
+      </c>
+      <c r="D275" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B273" t="str">
+      <c r="B276" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C273">
+      <c r="C276">
         <v>858112</v>
       </c>
-      <c r="D273" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273" t="str">
+      <c r="D276" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276" t="str">
         <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F273"/>
+  <autoFilter ref="A1:F276"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F273"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F276"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F278</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C135">
-        <v>1080989</v>
+        <v>1046777</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>3c8d9f0931acb0a572371f00e9ef548ed3ea0f8a126ca689c4032ba4bc6be583</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C136">
-        <v>922763</v>
+        <v>1080989</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C137">
-        <v>677161</v>
+        <v>922763</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C138">
-        <v>810546</v>
+        <v>677161</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C139">
-        <v>967961</v>
+        <v>810546</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C140">
-        <v>274108</v>
+        <v>967961</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C141">
-        <v>220242</v>
+        <v>274108</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C142">
-        <v>95904</v>
+        <v>220242</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C143">
-        <v>1390701</v>
+        <v>95904</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C144">
-        <v>4141810</v>
+        <v>1390701</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C145">
-        <v>1438335</v>
+        <v>4141810</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1066335</v>
+        <v>1438335</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C147">
-        <v>883153</v>
+        <v>1066335</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C148">
-        <v>903934</v>
+        <v>883153</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1396221</v>
+        <v>903934</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C150">
-        <v>995070</v>
+        <v>1396221</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1222380</v>
+        <v>995070</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C152">
-        <v>694956</v>
+        <v>1222380</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C153">
-        <v>3816616</v>
+        <v>694956</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1950946</v>
+        <v>3816616</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C155">
-        <v>2974088</v>
+        <v>1950946</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1786522</v>
+        <v>2974088</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C157">
-        <v>2340688</v>
+        <v>1786522</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1950951</v>
+        <v>2340688</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C159">
-        <v>2411027</v>
+        <v>1950951</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2120098</v>
+        <v>2411027</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1952744</v>
+        <v>2120098</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1735997</v>
+        <v>1952744</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C163">
-        <v>653176</v>
+        <v>1735997</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>64c33351c87b3a144108ae1ded3fe6eefe91efd3c6115bb47ee42605d963b795</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C164">
-        <v>480330</v>
+        <v>1554521</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>09d5ca33be2fc5cf89832c29881ccaef1024e058b662b918fe60aafa15b3cc95</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C165">
-        <v>549865</v>
+        <v>480330</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>4243fbda40925c1d259b8785aeeebdb55702ea9fc048d288b3fcc3e1b8641f66</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C166">
-        <v>1290290</v>
+        <v>908370</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>b85fa03337e60ae1270406df0098d1fe8043e81c08da91531fe2eeb3838e4ec0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C167">
-        <v>316197</v>
+        <v>1290290</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C168">
-        <v>164019</v>
+        <v>316197</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C169">
-        <v>214542</v>
+        <v>164019</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C170">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C171">
-        <v>288932</v>
+        <v>310371</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C172">
-        <v>270546</v>
+        <v>288932</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C173">
-        <v>3081876</v>
+        <v>270546</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C174">
-        <v>3190051</v>
+        <v>3081876</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C175">
-        <v>3064592</v>
+        <v>3190051</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C176">
-        <v>3106959</v>
+        <v>3064592</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C177">
-        <v>816613</v>
+        <v>3106959</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C178">
-        <v>3228411</v>
+        <v>816613</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C179">
-        <v>821633</v>
+        <v>3228411</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C180">
-        <v>223504</v>
+        <v>821633</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C181">
-        <v>3173184</v>
+        <v>223504</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C182">
-        <v>3286445</v>
+        <v>3173184</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C183">
-        <v>3140118</v>
+        <v>3286445</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C184">
-        <v>3214863</v>
+        <v>3140118</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C185">
-        <v>816767</v>
+        <v>3214863</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C186">
-        <v>723740</v>
+        <v>816767</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C187">
-        <v>844714</v>
+        <v>723740</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C188">
-        <v>3901688</v>
+        <v>844714</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C189">
-        <v>841468</v>
+        <v>3901688</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C190">
-        <v>762930</v>
+        <v>841468</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C191">
-        <v>825409</v>
+        <v>762930</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C192">
-        <v>761788</v>
+        <v>825409</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C193">
-        <v>3161974</v>
+        <v>761788</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C194">
-        <v>3836054</v>
+        <v>3161974</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C195">
-        <v>4023230</v>
+        <v>3836054</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C196">
-        <v>3228429</v>
+        <v>4023230</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C197">
-        <v>3193169</v>
+        <v>3228429</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C198">
-        <v>3210858</v>
+        <v>3193169</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C199">
-        <v>3139182</v>
+        <v>3210858</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C200">
-        <v>3882737</v>
+        <v>3139182</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C201">
-        <v>2962984</v>
+        <v>3882737</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C202">
-        <v>3065527</v>
+        <v>2962984</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C203">
-        <v>3144785</v>
+        <v>3065527</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C204">
-        <v>2778836</v>
+        <v>3144785</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C205">
-        <v>866673</v>
+        <v>2778836</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C206">
-        <v>844510</v>
+        <v>866673</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C207">
-        <v>804577</v>
+        <v>844510</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C208">
-        <v>799739</v>
+        <v>804577</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C209">
-        <v>3171180</v>
+        <v>799739</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C210">
-        <v>830305</v>
+        <v>3171180</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C211">
-        <v>2503101</v>
+        <v>830305</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C212">
-        <v>2480638</v>
+        <v>2503101</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C213">
-        <v>3917014</v>
+        <v>2480638</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C214">
-        <v>3234189</v>
+        <v>3917014</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C215">
-        <v>2361287</v>
+        <v>3234189</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C216">
-        <v>3150498</v>
+        <v>2361287</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C217">
-        <v>2383533</v>
+        <v>3150498</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C218">
-        <v>5022572</v>
+        <v>2383533</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C219">
-        <v>2335859</v>
+        <v>5022572</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C220">
-        <v>2280048</v>
+        <v>2335859</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C221">
-        <v>2139719</v>
+        <v>2280048</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C222">
-        <v>2204277</v>
+        <v>2139719</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C223">
-        <v>2180973</v>
+        <v>2204277</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C224">
-        <v>2285687</v>
+        <v>2180973</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C225">
-        <v>2378558</v>
+        <v>3067615</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C226">
-        <v>4071237</v>
+        <v>2378558</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C227">
-        <v>786221</v>
+        <v>4071237</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C228">
-        <v>2106871</v>
+        <v>786221</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C229">
-        <v>584752</v>
+        <v>2106871</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C230">
-        <v>817133</v>
+        <v>584752</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C231">
-        <v>784714</v>
+        <v>817133</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C232">
-        <v>846144</v>
+        <v>784714</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C233">
-        <v>841637</v>
+        <v>846144</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C234">
-        <v>847696</v>
+        <v>841637</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C235">
-        <v>814420</v>
+        <v>847696</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C236">
-        <v>789923</v>
+        <v>814420</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C237">
-        <v>809952</v>
+        <v>789923</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C238">
-        <v>827102</v>
+        <v>809952</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C239">
-        <v>825498</v>
+        <v>827102</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C240">
-        <v>836955</v>
+        <v>825498</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C241">
-        <v>812054</v>
+        <v>836955</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C242">
-        <v>2414316</v>
+        <v>812054</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C243">
-        <v>2416625</v>
+        <v>2414316</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C244">
-        <v>2445857</v>
+        <v>2416625</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C245">
-        <v>2433042</v>
+        <v>2445857</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C246">
-        <v>835188</v>
+        <v>2433042</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C247">
-        <v>820544</v>
+        <v>835188</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C248">
-        <v>755734</v>
+        <v>820544</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C249">
-        <v>809233</v>
+        <v>755734</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C250">
-        <v>791779</v>
+        <v>809233</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C251">
-        <v>735348</v>
+        <v>830435</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C252">
-        <v>839955</v>
+        <v>791779</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C253">
-        <v>851153</v>
+        <v>735348</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C254">
-        <v>833075</v>
+        <v>839955</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C255">
-        <v>3264119</v>
+        <v>851153</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C256">
-        <v>3084217</v>
+        <v>833075</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C257">
-        <v>2455825</v>
+        <v>3264119</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C258">
-        <v>807112</v>
+        <v>3084217</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C259">
-        <v>852141</v>
+        <v>2455825</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C260">
-        <v>4718336</v>
+        <v>807112</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C261">
-        <v>3220892</v>
+        <v>852141</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C262">
-        <v>2952548</v>
+        <v>4718336</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C263">
-        <v>3274402</v>
+        <v>3220892</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C264">
-        <v>3119279</v>
+        <v>2952548</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C265">
-        <v>832384</v>
+        <v>3274402</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C266">
-        <v>813808</v>
+        <v>3119279</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C267">
-        <v>2168197</v>
+        <v>832384</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C268">
-        <v>2399059</v>
+        <v>813808</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C269">
-        <v>2391618</v>
+        <v>2168197</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C270">
-        <v>2427114</v>
+        <v>2399059</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C271">
-        <v>3266558</v>
+        <v>3209465</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C272">
-        <v>2335524</v>
+        <v>2427114</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C273">
-        <v>2490016</v>
+        <v>3266558</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C274">
-        <v>2123356</v>
+        <v>2335524</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C275">
-        <v>2385791</v>
+        <v>2490016</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,33 +5880,73 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B276" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C276">
+        <v>2123356</v>
+      </c>
+      <c r="D276" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B277" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C277">
+        <v>2385791</v>
+      </c>
+      <c r="D277" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B276" t="str">
+      <c r="B278" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C276">
+      <c r="C278">
         <v>858112</v>
       </c>
-      <c r="D276" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276" t="str">
+      <c r="D278" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" t="str">
         <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F276"/>
+  <autoFilter ref="A1:F278"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F276"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F278"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F281</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2985,13 +2985,13 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>565237</v>
+        <v>379329</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>ed823395e796783d2916261289f44a44fe40072db4029d73d7b7dbc6782f5f30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C132">
-        <v>817919</v>
+        <v>565237</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C133">
-        <v>1562400</v>
+        <v>817919</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C134">
-        <v>710837</v>
+        <v>1562400</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_h0196_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_h0196_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C135">
-        <v>1046777</v>
+        <v>710837</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>3c8d9f0931acb0a572371f00e9ef548ed3ea0f8a126ca689c4032ba4bc6be583</v>
+        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1080989</v>
+        <v>1046777</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>3c8d9f0931acb0a572371f00e9ef548ed3ea0f8a126ca689c4032ba4bc6be583</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C137">
-        <v>922763</v>
+        <v>1080989</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C138">
-        <v>677161</v>
+        <v>922763</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C139">
-        <v>810546</v>
+        <v>677161</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C140">
-        <v>967961</v>
+        <v>810546</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C141">
-        <v>274108</v>
+        <v>967961</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C142">
-        <v>220242</v>
+        <v>274108</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C143">
-        <v>95904</v>
+        <v>220242</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C144">
-        <v>1390701</v>
+        <v>95904</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C145">
-        <v>4141810</v>
+        <v>1390701</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1438335</v>
+        <v>4141810</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C147">
-        <v>1066335</v>
+        <v>1438335</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C148">
-        <v>883153</v>
+        <v>1066335</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C149">
-        <v>903934</v>
+        <v>883153</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1396221</v>
+        <v>903934</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C151">
-        <v>995070</v>
+        <v>1396221</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1222380</v>
+        <v>995070</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C153">
-        <v>694956</v>
+        <v>1222380</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C154">
-        <v>3816616</v>
+        <v>694956</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1950946</v>
+        <v>3816616</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C156">
-        <v>2974088</v>
+        <v>1950946</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1786522</v>
+        <v>2974088</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C158">
-        <v>2340688</v>
+        <v>1786522</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1950951</v>
+        <v>2340688</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2411027</v>
+        <v>1950951</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C161">
-        <v>2120098</v>
+        <v>2411027</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1952744</v>
+        <v>2120098</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C163">
-        <v>1735997</v>
+        <v>1952744</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1554521</v>
+        <v>1735997</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>09d5ca33be2fc5cf89832c29881ccaef1024e058b662b918fe60aafa15b3cc95</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C165">
-        <v>480330</v>
+        <v>2460135</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C166">
-        <v>908370</v>
+        <v>480330</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>b85fa03337e60ae1270406df0098d1fe8043e81c08da91531fe2eeb3838e4ec0</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C167">
-        <v>1290290</v>
+        <v>2403875</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C168">
-        <v>316197</v>
+        <v>1290290</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C169">
-        <v>164019</v>
+        <v>316197</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C170">
-        <v>214542</v>
+        <v>164019</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C171">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C172">
-        <v>288932</v>
+        <v>310371</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C173">
-        <v>270546</v>
+        <v>288932</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C174">
-        <v>3081876</v>
+        <v>270546</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C175">
-        <v>3190051</v>
+        <v>3081876</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C176">
-        <v>3064592</v>
+        <v>3190051</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C177">
-        <v>3106959</v>
+        <v>3064592</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C178">
-        <v>816613</v>
+        <v>3106959</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C179">
-        <v>3228411</v>
+        <v>816613</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C180">
-        <v>821633</v>
+        <v>3228411</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C181">
-        <v>223504</v>
+        <v>821633</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C182">
-        <v>3173184</v>
+        <v>223504</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C183">
-        <v>3286445</v>
+        <v>3173184</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C184">
-        <v>3140118</v>
+        <v>3286445</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C185">
-        <v>3214863</v>
+        <v>3140118</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C186">
-        <v>816767</v>
+        <v>3214863</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C187">
-        <v>723740</v>
+        <v>816767</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C188">
-        <v>844714</v>
+        <v>723740</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C189">
-        <v>3901688</v>
+        <v>844714</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C190">
-        <v>841468</v>
+        <v>3901688</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C191">
-        <v>762930</v>
+        <v>841468</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C192">
-        <v>825409</v>
+        <v>762930</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C193">
-        <v>761788</v>
+        <v>825409</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C194">
-        <v>3161974</v>
+        <v>761788</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C195">
-        <v>3836054</v>
+        <v>3161974</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C196">
-        <v>4023230</v>
+        <v>3836054</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C197">
-        <v>3228429</v>
+        <v>4023230</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C198">
-        <v>3193169</v>
+        <v>3228429</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C199">
-        <v>3210858</v>
+        <v>3193169</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C200">
-        <v>3139182</v>
+        <v>3210858</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C201">
-        <v>3882737</v>
+        <v>3139182</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C202">
-        <v>2962984</v>
+        <v>3882737</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C203">
-        <v>3065527</v>
+        <v>2962984</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C204">
-        <v>3144785</v>
+        <v>3065527</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C205">
-        <v>2778836</v>
+        <v>3144785</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C206">
-        <v>866673</v>
+        <v>2778836</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C207">
-        <v>844510</v>
+        <v>866673</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C208">
-        <v>804577</v>
+        <v>844510</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C209">
-        <v>799739</v>
+        <v>804577</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C210">
-        <v>3171180</v>
+        <v>799739</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C211">
-        <v>830305</v>
+        <v>3171180</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C212">
-        <v>2503101</v>
+        <v>830305</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C213">
-        <v>2480638</v>
+        <v>2503101</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C214">
-        <v>3917014</v>
+        <v>2480638</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C215">
-        <v>3234189</v>
+        <v>3917014</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C216">
-        <v>2361287</v>
+        <v>3234189</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C217">
-        <v>3150498</v>
+        <v>2361287</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C218">
-        <v>2383533</v>
+        <v>3150498</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C219">
-        <v>5022572</v>
+        <v>2383533</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C220">
-        <v>2335859</v>
+        <v>5022572</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C221">
-        <v>2280048</v>
+        <v>2335859</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C222">
-        <v>2139719</v>
+        <v>2280048</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C223">
-        <v>2204277</v>
+        <v>2139719</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C224">
-        <v>2180973</v>
+        <v>2204277</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C225">
-        <v>3067615</v>
+        <v>2180973</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C226">
-        <v>2378558</v>
+        <v>3067615</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C227">
-        <v>4071237</v>
+        <v>2378558</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C228">
-        <v>786221</v>
+        <v>4071237</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C229">
-        <v>2106871</v>
+        <v>786221</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C230">
-        <v>584752</v>
+        <v>2106871</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C231">
-        <v>817133</v>
+        <v>584752</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C232">
-        <v>784714</v>
+        <v>817133</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C233">
-        <v>846144</v>
+        <v>784714</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C234">
-        <v>841637</v>
+        <v>846144</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C235">
-        <v>847696</v>
+        <v>841637</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C236">
-        <v>814420</v>
+        <v>847696</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C237">
-        <v>789923</v>
+        <v>814420</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C238">
-        <v>809952</v>
+        <v>789923</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C239">
-        <v>827102</v>
+        <v>809952</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C240">
-        <v>825498</v>
+        <v>827102</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C241">
-        <v>836955</v>
+        <v>825498</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C242">
-        <v>812054</v>
+        <v>836955</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C243">
-        <v>2414316</v>
+        <v>812054</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C244">
-        <v>2416625</v>
+        <v>2414316</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C245">
-        <v>2445857</v>
+        <v>2416625</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C246">
-        <v>2433042</v>
+        <v>2445857</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C247">
-        <v>835188</v>
+        <v>2433042</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C248">
-        <v>820544</v>
+        <v>835188</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C249">
-        <v>755734</v>
+        <v>820544</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C250">
-        <v>809233</v>
+        <v>755734</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C251">
-        <v>830435</v>
+        <v>809233</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C252">
-        <v>791779</v>
+        <v>830435</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C253">
-        <v>735348</v>
+        <v>791779</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C254">
-        <v>839955</v>
+        <v>735348</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C255">
-        <v>851153</v>
+        <v>839955</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C256">
-        <v>833075</v>
+        <v>851153</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C257">
-        <v>3264119</v>
+        <v>833075</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C258">
-        <v>3084217</v>
+        <v>3264119</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C259">
-        <v>2455825</v>
+        <v>3084217</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C260">
-        <v>807112</v>
+        <v>2455825</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C261">
-        <v>852141</v>
+        <v>807112</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C262">
-        <v>4718336</v>
+        <v>852141</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C263">
-        <v>3220892</v>
+        <v>4718336</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C264">
-        <v>2952548</v>
+        <v>3220892</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C265">
-        <v>3274402</v>
+        <v>2952548</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C266">
-        <v>3119279</v>
+        <v>3274402</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C267">
-        <v>832384</v>
+        <v>3119279</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C268">
-        <v>813808</v>
+        <v>832384</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C269">
-        <v>2168197</v>
+        <v>813808</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C270">
-        <v>2399059</v>
+        <v>2168197</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C271">
-        <v>3209465</v>
+        <v>2399059</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C272">
-        <v>2427114</v>
+        <v>3209465</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C273">
-        <v>3266558</v>
+        <v>2427114</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C274">
-        <v>2335524</v>
+        <v>3266558</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C275">
-        <v>2490016</v>
+        <v>2335524</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C276">
-        <v>2123356</v>
+        <v>2490016</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C277">
-        <v>2385791</v>
+        <v>2123356</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,33 +5920,93 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B278" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C278">
+        <v>2385791</v>
+      </c>
+      <c r="D278" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="B279" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="C279">
+        <v>2431906</v>
+      </c>
+      <c r="D279" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" t="str">
+        <v>d1216da219d3f0c448cfe932077ec7095f2ca73aaf86a5a60189f67387305a90</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B280" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C280">
+        <v>2337877</v>
+      </c>
+      <c r="D280" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280" t="str">
+        <v>c6b7e3bb6ee1e5fcb23c4178c809cf5a626a903a311ce82c5a1434f041dd29af</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B278" t="str">
+      <c r="B281" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C278">
+      <c r="C281">
         <v>858112</v>
       </c>
-      <c r="D278" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278" t="str">
+      <c r="D281" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" t="str">
         <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F278"/>
+  <autoFilter ref="A1:F281"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F278"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F281"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F283</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>379329</v>
+        <v>480985</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>ed823395e796783d2916261289f44a44fe40072db4029d73d7b7dbc6782f5f30</v>
+        <v>352f4b8594f5982ca55113bfa515f9db306b6c8361a4337738cbff48d6608458</v>
       </c>
     </row>
     <row r="132">
@@ -3105,13 +3105,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="C137">
-        <v>1080989</v>
+        <v>877431</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>5af7ae5ab782a8ead145aab803f512b693183586329f030c5931bfa1545e49c1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C138">
-        <v>922763</v>
+        <v>1080989</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C139">
-        <v>677161</v>
+        <v>922763</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C140">
-        <v>810546</v>
+        <v>677161</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C141">
-        <v>967961</v>
+        <v>810546</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C142">
-        <v>274108</v>
+        <v>967961</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C143">
-        <v>220242</v>
+        <v>274108</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C144">
-        <v>95904</v>
+        <v>220242</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C145">
-        <v>1390701</v>
+        <v>95904</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C146">
-        <v>4141810</v>
+        <v>1390701</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C147">
-        <v>1438335</v>
+        <v>4141810</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1066335</v>
+        <v>1438335</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C149">
-        <v>883153</v>
+        <v>1066335</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C150">
-        <v>903934</v>
+        <v>883153</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1396221</v>
+        <v>903934</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C152">
-        <v>995070</v>
+        <v>1396221</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1222380</v>
+        <v>995070</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C154">
-        <v>694956</v>
+        <v>1222380</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C155">
-        <v>3816616</v>
+        <v>694956</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1950946</v>
+        <v>3816616</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C157">
-        <v>2974088</v>
+        <v>1950946</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1786522</v>
+        <v>2974088</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C159">
-        <v>2340688</v>
+        <v>1786522</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1950951</v>
+        <v>2340688</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C161">
-        <v>2411027</v>
+        <v>1950951</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2120098</v>
+        <v>2411027</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C163">
-        <v>1952744</v>
+        <v>2120098</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1735997</v>
+        <v>1952744</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C165">
-        <v>2460135</v>
+        <v>1735997</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C166">
-        <v>480330</v>
+        <v>2460135</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C167">
-        <v>2403875</v>
+        <v>480330</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C168">
-        <v>1290290</v>
+        <v>2403875</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C169">
-        <v>316197</v>
+        <v>1290290</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C170">
-        <v>164019</v>
+        <v>316197</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C171">
-        <v>214542</v>
+        <v>164019</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C172">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C173">
-        <v>288932</v>
+        <v>310371</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C174">
-        <v>270546</v>
+        <v>288932</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C175">
-        <v>3081876</v>
+        <v>270546</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C176">
-        <v>3190051</v>
+        <v>3081876</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C177">
-        <v>3064592</v>
+        <v>3190051</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C178">
-        <v>3106959</v>
+        <v>3064592</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C179">
-        <v>816613</v>
+        <v>3106959</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C180">
-        <v>3228411</v>
+        <v>816613</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C181">
-        <v>821633</v>
+        <v>3228411</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C182">
-        <v>223504</v>
+        <v>821633</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C183">
-        <v>3173184</v>
+        <v>223504</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C184">
-        <v>3286445</v>
+        <v>3173184</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C185">
-        <v>3140118</v>
+        <v>3286445</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C186">
-        <v>3214863</v>
+        <v>3140118</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C187">
-        <v>816767</v>
+        <v>3214863</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C188">
-        <v>723740</v>
+        <v>816767</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C189">
-        <v>844714</v>
+        <v>723740</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C190">
-        <v>3901688</v>
+        <v>844714</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C191">
-        <v>841468</v>
+        <v>3901688</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C192">
-        <v>762930</v>
+        <v>841468</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C193">
-        <v>825409</v>
+        <v>762930</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C194">
-        <v>761788</v>
+        <v>825409</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C195">
-        <v>3161974</v>
+        <v>761788</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C196">
-        <v>3836054</v>
+        <v>3161974</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C197">
-        <v>4023230</v>
+        <v>3836054</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C198">
-        <v>3228429</v>
+        <v>4023230</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C199">
-        <v>3193169</v>
+        <v>3228429</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C200">
-        <v>3210858</v>
+        <v>3193169</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C201">
-        <v>3139182</v>
+        <v>3210858</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C202">
-        <v>3882737</v>
+        <v>3139182</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C203">
-        <v>2962984</v>
+        <v>3882737</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C204">
-        <v>3065527</v>
+        <v>2962984</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C205">
-        <v>3144785</v>
+        <v>3065527</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C206">
-        <v>2778836</v>
+        <v>3144785</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C207">
-        <v>866673</v>
+        <v>2778836</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C208">
-        <v>844510</v>
+        <v>866673</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C209">
-        <v>804577</v>
+        <v>844510</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C210">
-        <v>799739</v>
+        <v>804577</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C211">
-        <v>3171180</v>
+        <v>799739</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C212">
-        <v>830305</v>
+        <v>3171180</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C213">
-        <v>2503101</v>
+        <v>830305</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C214">
-        <v>2480638</v>
+        <v>2503101</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C215">
-        <v>3917014</v>
+        <v>2480638</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C216">
-        <v>3234189</v>
+        <v>3917014</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C217">
-        <v>2361287</v>
+        <v>3234189</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C218">
-        <v>3150498</v>
+        <v>2361287</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C219">
-        <v>2383533</v>
+        <v>3150498</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C220">
-        <v>5022572</v>
+        <v>2383533</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C221">
-        <v>2335859</v>
+        <v>5022572</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C222">
-        <v>2280048</v>
+        <v>2335859</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C223">
-        <v>2139719</v>
+        <v>2280048</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C224">
-        <v>2204277</v>
+        <v>2139719</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C225">
-        <v>2180973</v>
+        <v>2204277</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C226">
-        <v>3067615</v>
+        <v>2180973</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C227">
-        <v>2378558</v>
+        <v>3067615</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C228">
-        <v>4071237</v>
+        <v>2378558</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C229">
-        <v>786221</v>
+        <v>4071237</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C230">
-        <v>2106871</v>
+        <v>786221</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C231">
-        <v>584752</v>
+        <v>2106871</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C232">
-        <v>817133</v>
+        <v>584752</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C233">
-        <v>784714</v>
+        <v>817133</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C234">
-        <v>846144</v>
+        <v>784714</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C235">
-        <v>841637</v>
+        <v>846144</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C236">
-        <v>847696</v>
+        <v>841637</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C237">
-        <v>814420</v>
+        <v>847696</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C238">
-        <v>789923</v>
+        <v>814420</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C239">
-        <v>809952</v>
+        <v>789923</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C240">
-        <v>827102</v>
+        <v>809952</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C241">
-        <v>825498</v>
+        <v>827102</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C242">
-        <v>836955</v>
+        <v>825498</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C243">
-        <v>812054</v>
+        <v>836955</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C244">
-        <v>2414316</v>
+        <v>812054</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C245">
-        <v>2416625</v>
+        <v>2414316</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C246">
-        <v>2445857</v>
+        <v>2416625</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C247">
-        <v>2433042</v>
+        <v>2445857</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C248">
-        <v>835188</v>
+        <v>2433042</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C249">
-        <v>820544</v>
+        <v>835188</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C250">
-        <v>755734</v>
+        <v>820544</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C251">
-        <v>809233</v>
+        <v>755734</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C252">
-        <v>830435</v>
+        <v>809233</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C253">
-        <v>791779</v>
+        <v>830435</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C254">
-        <v>735348</v>
+        <v>809690</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>403fae0f34dadb9418b32cf95d59dc80489966ce269cb34aa52460bf12399fe0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C255">
-        <v>839955</v>
+        <v>791779</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C256">
-        <v>851153</v>
+        <v>735348</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C257">
-        <v>833075</v>
+        <v>839955</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C258">
-        <v>3264119</v>
+        <v>851153</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C259">
-        <v>3084217</v>
+        <v>833075</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C260">
-        <v>2455825</v>
+        <v>3264119</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C261">
-        <v>807112</v>
+        <v>3084217</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C262">
-        <v>852141</v>
+        <v>2455825</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C263">
-        <v>4718336</v>
+        <v>807112</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C264">
-        <v>3220892</v>
+        <v>852141</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C265">
-        <v>2952548</v>
+        <v>4718336</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C266">
-        <v>3274402</v>
+        <v>3220892</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C267">
-        <v>3119279</v>
+        <v>2952548</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C268">
-        <v>832384</v>
+        <v>3274402</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C269">
-        <v>813808</v>
+        <v>3119279</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C270">
-        <v>2168197</v>
+        <v>832384</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C271">
-        <v>2399059</v>
+        <v>813808</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C272">
-        <v>3209465</v>
+        <v>2168197</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C273">
-        <v>2427114</v>
+        <v>2399059</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C274">
-        <v>3266558</v>
+        <v>3209465</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C275">
-        <v>2335524</v>
+        <v>2427114</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C276">
-        <v>2490016</v>
+        <v>3266558</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C277">
-        <v>2123356</v>
+        <v>2335524</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C278">
-        <v>2385791</v>
+        <v>2490016</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C279">
-        <v>2431906</v>
+        <v>2123356</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>d1216da219d3f0c448cfe932077ec7095f2ca73aaf86a5a60189f67387305a90</v>
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C280">
-        <v>2337877</v>
+        <v>2385791</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,33 +5980,73 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>c6b7e3bb6ee1e5fcb23c4178c809cf5a626a903a311ce82c5a1434f041dd29af</v>
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="B281" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="C281">
+        <v>2431906</v>
+      </c>
+      <c r="D281" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" t="str">
+        <v>d1216da219d3f0c448cfe932077ec7095f2ca73aaf86a5a60189f67387305a90</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B282" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C282">
+        <v>2337877</v>
+      </c>
+      <c r="D282" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282" t="str">
+        <v>c6b7e3bb6ee1e5fcb23c4178c809cf5a626a903a311ce82c5a1434f041dd29af</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B281" t="str">
+      <c r="B283" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C281">
+      <c r="C283">
         <v>858112</v>
       </c>
-      <c r="D281" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281" t="str">
+      <c r="D283" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" t="str">
         <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F281"/>
+  <autoFilter ref="A1:F283"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F281"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F283"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -1671,7 +1671,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C65">
-        <v>828727</v>
+        <v>1029416</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
+        <v>53250d30f127ecbdf8f2c61e4dad263eef1c5ce588731850be7e6c64dae7558b</v>
       </c>
     </row>
     <row r="66">
@@ -2291,7 +2291,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C96">
-        <v>1535954</v>
+        <v>1634969</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
+        <v>e7e82684323ba2bf5469908930578e527a6f3aa1e48055cfde4a443717f6a50d</v>
       </c>
     </row>
     <row r="97">
@@ -2331,7 +2331,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1321256</v>
+        <v>1504175</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
+        <v>0c035d662f7ed6ec090809c93d8ab7875d4caab360cedaa7979b4c3689846401</v>
       </c>
     </row>
     <row r="99">
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>480985</v>
+        <v>897748</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>352f4b8594f5982ca55113bfa515f9db306b6c8361a4337738cbff48d6608458</v>
+        <v>f44b2f455a248453cd396129a632ea8f6410bd7dd155e650f6e93392334e9d4e</v>
       </c>
     </row>
     <row r="132">
@@ -3551,7 +3551,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1786522</v>
+        <v>1992954</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
       </c>
     </row>
     <row r="160">
@@ -4351,7 +4351,7 @@
         <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C199">
-        <v>3228429</v>
+        <v>4079330</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>89ab9439e30ab231cd3d228ee131241f804c965f7e60e2cf07ed263de20d2180</v>
       </c>
     </row>
     <row r="200">
@@ -5891,7 +5891,7 @@
         <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C276">
-        <v>3266558</v>
+        <v>4040730</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>42fe7c0d36f79c07f2dd7837ff9290627f2c2865eb93a658f362a7f181fbf426</v>
       </c>
     </row>
     <row r="277">

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -411,7 +411,7 @@
         <v>audioclip_sfx_0_jp.ab</v>
       </c>
       <c r="C2">
-        <v>133074</v>
+        <v>133108</v>
       </c>
       <c r="D2" t="str">
         <v>Stage_1</v>
@@ -431,7 +431,7 @@
         <v>audioclip_sfx_10_jp.ab</v>
       </c>
       <c r="C3">
-        <v>61177</v>
+        <v>61209</v>
       </c>
       <c r="D3" t="str">
         <v>Stage_1</v>
@@ -451,7 +451,7 @@
         <v>audioclip_sfx_11_jp.ab</v>
       </c>
       <c r="C4">
-        <v>104154</v>
+        <v>104189</v>
       </c>
       <c r="D4" t="str">
         <v>Stage_1</v>
@@ -471,7 +471,7 @@
         <v>audioclip_sfx_12_jp.ab</v>
       </c>
       <c r="C5">
-        <v>67408</v>
+        <v>67441</v>
       </c>
       <c r="D5" t="str">
         <v>Stage_1</v>
@@ -491,7 +491,7 @@
         <v>audioclip_sfx_13_jp.ab</v>
       </c>
       <c r="C6">
-        <v>148999</v>
+        <v>149033</v>
       </c>
       <c r="D6" t="str">
         <v>Stage_1</v>
@@ -511,7 +511,7 @@
         <v>audioclip_sfx_14_jp.ab</v>
       </c>
       <c r="C7">
-        <v>43261</v>
+        <v>43296</v>
       </c>
       <c r="D7" t="str">
         <v>Stage_1</v>
@@ -531,7 +531,7 @@
         <v>audioclip_sfx_15_jp.ab</v>
       </c>
       <c r="C8">
-        <v>88501</v>
+        <v>88536</v>
       </c>
       <c r="D8" t="str">
         <v>Stage_1</v>
@@ -551,7 +551,7 @@
         <v>audioclip_sfx_16_jp.ab</v>
       </c>
       <c r="C9">
-        <v>96132</v>
+        <v>96165</v>
       </c>
       <c r="D9" t="str">
         <v>Stage_1</v>
@@ -571,7 +571,7 @@
         <v>audioclip_sfx_17_jp.ab</v>
       </c>
       <c r="C10">
-        <v>43721</v>
+        <v>43756</v>
       </c>
       <c r="D10" t="str">
         <v>Stage_1</v>
@@ -591,7 +591,7 @@
         <v>audioclip_sfx_18_jp.ab</v>
       </c>
       <c r="C11">
-        <v>84508</v>
+        <v>84544</v>
       </c>
       <c r="D11" t="str">
         <v>Stage_1</v>
@@ -611,7 +611,7 @@
         <v>audioclip_sfx_19_jp.ab</v>
       </c>
       <c r="C12">
-        <v>77222</v>
+        <v>77257</v>
       </c>
       <c r="D12" t="str">
         <v>Stage_1</v>
@@ -631,7 +631,7 @@
         <v>audioclip_sfx_1_jp.ab</v>
       </c>
       <c r="C13">
-        <v>161072</v>
+        <v>161105</v>
       </c>
       <c r="D13" t="str">
         <v>Stage_1</v>
@@ -651,7 +651,7 @@
         <v>audioclip_sfx_20_jp.ab</v>
       </c>
       <c r="C14">
-        <v>147227</v>
+        <v>147262</v>
       </c>
       <c r="D14" t="str">
         <v>Stage_1</v>
@@ -671,7 +671,7 @@
         <v>audioclip_sfx_21_jp.ab</v>
       </c>
       <c r="C15">
-        <v>105478</v>
+        <v>105512</v>
       </c>
       <c r="D15" t="str">
         <v>Stage_1</v>
@@ -691,7 +691,7 @@
         <v>audioclip_sfx_22_jp.ab</v>
       </c>
       <c r="C16">
-        <v>77746</v>
+        <v>77782</v>
       </c>
       <c r="D16" t="str">
         <v>Stage_1</v>
@@ -711,7 +711,7 @@
         <v>audioclip_sfx_23_jp.ab</v>
       </c>
       <c r="C17">
-        <v>84618</v>
+        <v>84650</v>
       </c>
       <c r="D17" t="str">
         <v>Stage_1</v>
@@ -731,7 +731,7 @@
         <v>audioclip_sfx_24_jp.ab</v>
       </c>
       <c r="C18">
-        <v>71968</v>
+        <v>72002</v>
       </c>
       <c r="D18" t="str">
         <v>Stage_1</v>
@@ -751,7 +751,7 @@
         <v>audioclip_sfx_25_jp.ab</v>
       </c>
       <c r="C19">
-        <v>135480</v>
+        <v>135511</v>
       </c>
       <c r="D19" t="str">
         <v>Stage_1</v>
@@ -771,7 +771,7 @@
         <v>audioclip_sfx_26_jp.ab</v>
       </c>
       <c r="C20">
-        <v>219099</v>
+        <v>219129</v>
       </c>
       <c r="D20" t="str">
         <v>Stage_1</v>
@@ -791,7 +791,7 @@
         <v>audioclip_sfx_27_jp.ab</v>
       </c>
       <c r="C21">
-        <v>139330</v>
+        <v>139366</v>
       </c>
       <c r="D21" t="str">
         <v>Stage_1</v>
@@ -811,7 +811,7 @@
         <v>audioclip_sfx_28_jp.ab</v>
       </c>
       <c r="C22">
-        <v>108379</v>
+        <v>108411</v>
       </c>
       <c r="D22" t="str">
         <v>Stage_1</v>
@@ -831,7 +831,7 @@
         <v>audioclip_sfx_29_jp.ab</v>
       </c>
       <c r="C23">
-        <v>121284</v>
+        <v>121316</v>
       </c>
       <c r="D23" t="str">
         <v>Stage_1</v>
@@ -851,7 +851,7 @@
         <v>audioclip_sfx_2_jp.ab</v>
       </c>
       <c r="C24">
-        <v>154618</v>
+        <v>154649</v>
       </c>
       <c r="D24" t="str">
         <v>Stage_1</v>
@@ -871,7 +871,7 @@
         <v>audioclip_sfx_30_jp.ab</v>
       </c>
       <c r="C25">
-        <v>52957</v>
+        <v>52990</v>
       </c>
       <c r="D25" t="str">
         <v>Stage_1</v>
@@ -891,7 +891,7 @@
         <v>audioclip_sfx_31_jp.ab</v>
       </c>
       <c r="C26">
-        <v>92480</v>
+        <v>92511</v>
       </c>
       <c r="D26" t="str">
         <v>Stage_1</v>
@@ -911,7 +911,7 @@
         <v>audioclip_sfx_32_jp.ab</v>
       </c>
       <c r="C27">
-        <v>83607</v>
+        <v>83642</v>
       </c>
       <c r="D27" t="str">
         <v>Stage_1</v>
@@ -931,7 +931,7 @@
         <v>audioclip_sfx_33_jp.ab</v>
       </c>
       <c r="C28">
-        <v>64465</v>
+        <v>64498</v>
       </c>
       <c r="D28" t="str">
         <v>Stage_1</v>
@@ -951,7 +951,7 @@
         <v>audioclip_sfx_34_jp.ab</v>
       </c>
       <c r="C29">
-        <v>84962</v>
+        <v>84995</v>
       </c>
       <c r="D29" t="str">
         <v>Stage_1</v>
@@ -971,7 +971,7 @@
         <v>audioclip_sfx_35_jp.ab</v>
       </c>
       <c r="C30">
-        <v>202288</v>
+        <v>202319</v>
       </c>
       <c r="D30" t="str">
         <v>Stage_1</v>
@@ -991,7 +991,7 @@
         <v>audioclip_sfx_36_jp.ab</v>
       </c>
       <c r="C31">
-        <v>104751</v>
+        <v>104785</v>
       </c>
       <c r="D31" t="str">
         <v>Stage_1</v>
@@ -1011,7 +1011,7 @@
         <v>audioclip_sfx_37_jp.ab</v>
       </c>
       <c r="C32">
-        <v>67884</v>
+        <v>67919</v>
       </c>
       <c r="D32" t="str">
         <v>Stage_1</v>
@@ -1031,7 +1031,7 @@
         <v>audioclip_sfx_38_jp.ab</v>
       </c>
       <c r="C33">
-        <v>68437</v>
+        <v>68472</v>
       </c>
       <c r="D33" t="str">
         <v>Stage_1</v>
@@ -1051,7 +1051,7 @@
         <v>audioclip_sfx_39_jp.ab</v>
       </c>
       <c r="C34">
-        <v>136086</v>
+        <v>136120</v>
       </c>
       <c r="D34" t="str">
         <v>Stage_1</v>
@@ -1071,7 +1071,7 @@
         <v>audioclip_sfx_3_jp.ab</v>
       </c>
       <c r="C35">
-        <v>137689</v>
+        <v>137719</v>
       </c>
       <c r="D35" t="str">
         <v>Stage_1</v>
@@ -1091,7 +1091,7 @@
         <v>audioclip_sfx_40_jp.ab</v>
       </c>
       <c r="C36">
-        <v>63186</v>
+        <v>63219</v>
       </c>
       <c r="D36" t="str">
         <v>Stage_1</v>
@@ -1111,7 +1111,7 @@
         <v>audioclip_sfx_41_jp.ab</v>
       </c>
       <c r="C37">
-        <v>74976</v>
+        <v>75011</v>
       </c>
       <c r="D37" t="str">
         <v>Stage_1</v>
@@ -1131,7 +1131,7 @@
         <v>audioclip_sfx_42_jp.ab</v>
       </c>
       <c r="C38">
-        <v>118407</v>
+        <v>118443</v>
       </c>
       <c r="D38" t="str">
         <v>Stage_1</v>
@@ -1151,7 +1151,7 @@
         <v>audioclip_sfx_43_jp.ab</v>
       </c>
       <c r="C39">
-        <v>23432</v>
+        <v>23470</v>
       </c>
       <c r="D39" t="str">
         <v>Stage_1</v>
@@ -1171,7 +1171,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123347</v>
+        <v>123379</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1191,7 +1191,7 @@
         <v>audioclip_sfx_45_jp.ab</v>
       </c>
       <c r="C41">
-        <v>75384</v>
+        <v>75416</v>
       </c>
       <c r="D41" t="str">
         <v>Stage_1</v>
@@ -1211,7 +1211,7 @@
         <v>audioclip_sfx_46_jp.ab</v>
       </c>
       <c r="C42">
-        <v>38470</v>
+        <v>38505</v>
       </c>
       <c r="D42" t="str">
         <v>Stage_1</v>
@@ -1231,7 +1231,7 @@
         <v>audioclip_sfx_47_jp.ab</v>
       </c>
       <c r="C43">
-        <v>29254</v>
+        <v>29284</v>
       </c>
       <c r="D43" t="str">
         <v>Stage_1</v>
@@ -1251,7 +1251,7 @@
         <v>audioclip_sfx_48_jp.ab</v>
       </c>
       <c r="C44">
-        <v>88419</v>
+        <v>88452</v>
       </c>
       <c r="D44" t="str">
         <v>Stage_1</v>
@@ -1271,7 +1271,7 @@
         <v>audioclip_sfx_49_jp.ab</v>
       </c>
       <c r="C45">
-        <v>141504</v>
+        <v>141537</v>
       </c>
       <c r="D45" t="str">
         <v>Stage_1</v>
@@ -1291,7 +1291,7 @@
         <v>audioclip_sfx_4_jp.ab</v>
       </c>
       <c r="C46">
-        <v>102682</v>
+        <v>102715</v>
       </c>
       <c r="D46" t="str">
         <v>Stage_1</v>
@@ -1311,7 +1311,7 @@
         <v>audioclip_sfx_5_jp.ab</v>
       </c>
       <c r="C47">
-        <v>118741</v>
+        <v>118773</v>
       </c>
       <c r="D47" t="str">
         <v>Stage_1</v>
@@ -1331,7 +1331,7 @@
         <v>audioclip_sfx_6_jp.ab</v>
       </c>
       <c r="C48">
-        <v>103489</v>
+        <v>103524</v>
       </c>
       <c r="D48" t="str">
         <v>Stage_1</v>
@@ -1351,7 +1351,7 @@
         <v>audioclip_sfx_7_jp.ab</v>
       </c>
       <c r="C49">
-        <v>87114</v>
+        <v>87147</v>
       </c>
       <c r="D49" t="str">
         <v>Stage_1</v>
@@ -1371,7 +1371,7 @@
         <v>audioclip_sfx_8_jp.ab</v>
       </c>
       <c r="C50">
-        <v>61866</v>
+        <v>61899</v>
       </c>
       <c r="D50" t="str">
         <v>Stage_1</v>
@@ -1391,7 +1391,7 @@
         <v>audioclip_sfx_9_jp.ab</v>
       </c>
       <c r="C51">
-        <v>54552</v>
+        <v>54582</v>
       </c>
       <c r="D51" t="str">
         <v>Stage_1</v>
@@ -1411,7 +1411,7 @@
         <v>audioclip_sfx_b0001_jp.ab</v>
       </c>
       <c r="C52">
-        <v>63624</v>
+        <v>63659</v>
       </c>
       <c r="D52" t="str">
         <v>Stage_1</v>
@@ -1431,7 +1431,7 @@
         <v>audioclip_sfx_b0015_jp.ab</v>
       </c>
       <c r="C53">
-        <v>116833</v>
+        <v>116863</v>
       </c>
       <c r="D53" t="str">
         <v>Stage_1</v>
@@ -1451,7 +1451,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875207</v>
+        <v>875238</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1491,7 +1491,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272251</v>
+        <v>1272279</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1511,7 +1511,7 @@
         <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C57">
-        <v>662020</v>
+        <v>662047</v>
       </c>
       <c r="D57" t="str">
         <v>Stage_1</v>
@@ -1531,7 +1531,7 @@
         <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="C58">
-        <v>3100195</v>
+        <v>3100224</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1551,7 +1551,7 @@
         <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="C59">
-        <v>356887</v>
+        <v>356923</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1571,7 +1571,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C60">
-        <v>250817</v>
+        <v>250848</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1591,7 +1591,7 @@
         <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="C61">
-        <v>362001</v>
+        <v>362039</v>
       </c>
       <c r="D61" t="str">
         <v>Stage_1</v>
@@ -1611,7 +1611,7 @@
         <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="C62">
-        <v>119622</v>
+        <v>119659</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1631,7 +1631,7 @@
         <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="C63">
-        <v>67549</v>
+        <v>67578</v>
       </c>
       <c r="D63" t="str">
         <v>Stage_1</v>
@@ -1651,7 +1651,7 @@
         <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C64">
-        <v>643297</v>
+        <v>643323</v>
       </c>
       <c r="D64" t="str">
         <v>Stage_1</v>
@@ -1671,7 +1671,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C65">
-        <v>1029416</v>
+        <v>1029448</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1691,7 +1691,7 @@
         <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C66">
-        <v>872422</v>
+        <v>872447</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1711,7 +1711,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C67">
-        <v>859654</v>
+        <v>859684</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1731,7 +1731,7 @@
         <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C68">
-        <v>678591</v>
+        <v>678622</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1751,7 +1751,7 @@
         <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C69">
-        <v>349373</v>
+        <v>349409</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1771,7 +1771,7 @@
         <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C70">
-        <v>453750</v>
+        <v>453780</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1791,7 +1791,7 @@
         <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C71">
-        <v>1074562</v>
+        <v>1074563</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1811,7 +1811,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C72">
-        <v>740081</v>
+        <v>740112</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1831,7 +1831,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C73">
-        <v>940844</v>
+        <v>940879</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1851,7 +1851,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C74">
-        <v>446569</v>
+        <v>446593</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1871,7 +1871,7 @@
         <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C75">
-        <v>698653</v>
+        <v>698675</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1891,7 +1891,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C76">
-        <v>891784</v>
+        <v>891810</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1911,7 +1911,7 @@
         <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="C77">
-        <v>755824</v>
+        <v>755854</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1931,7 +1931,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C78">
-        <v>1196223</v>
+        <v>1196253</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1951,7 +1951,7 @@
         <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C79">
-        <v>985514</v>
+        <v>985543</v>
       </c>
       <c r="D79" t="str">
         <v>Stage_1</v>
@@ -1971,7 +1971,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1681290</v>
+        <v>1681293</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -1991,7 +1991,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C81">
-        <v>1572111</v>
+        <v>1572138</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2011,7 +2011,7 @@
         <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C82">
-        <v>937990</v>
+        <v>938013</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2031,7 +2031,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1291319</v>
+        <v>1291348</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2051,7 +2051,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C84">
-        <v>1189229</v>
+        <v>1189249</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2071,7 +2071,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1039718</v>
+        <v>1039743</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2091,7 +2091,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C86">
-        <v>785916</v>
+        <v>785941</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2111,7 +2111,7 @@
         <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C87">
-        <v>743601</v>
+        <v>743616</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2131,7 +2131,7 @@
         <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C88">
-        <v>611321</v>
+        <v>611354</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2151,7 +2151,7 @@
         <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="C89">
-        <v>587131</v>
+        <v>587163</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2171,7 +2171,7 @@
         <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="C90">
-        <v>525441</v>
+        <v>525469</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2191,7 +2191,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C91">
-        <v>955357</v>
+        <v>955386</v>
       </c>
       <c r="D91" t="str">
         <v>Stage_1</v>
@@ -2211,7 +2211,7 @@
         <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C92">
-        <v>2421226</v>
+        <v>2421244</v>
       </c>
       <c r="D92" t="str">
         <v>Stage_1</v>
@@ -2231,7 +2231,7 @@
         <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C93">
-        <v>619176</v>
+        <v>619205</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2251,7 +2251,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C94">
-        <v>538541</v>
+        <v>538574</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2271,7 +2271,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C95">
-        <v>5025118</v>
+        <v>5025128</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2291,7 +2291,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C96">
-        <v>1634969</v>
+        <v>1635044</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2311,7 +2311,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C97">
-        <v>276258</v>
+        <v>276294</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2331,7 +2331,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1504175</v>
+        <v>1504204</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2351,7 +2351,7 @@
         <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="C99">
-        <v>29710</v>
+        <v>29746</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2371,7 +2371,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C100">
-        <v>1334007</v>
+        <v>1334024</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2391,7 +2391,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C101">
-        <v>1204293</v>
+        <v>1204314</v>
       </c>
       <c r="D101" t="str">
         <v>Stage_1</v>
@@ -2411,7 +2411,7 @@
         <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C102">
-        <v>2285385</v>
+        <v>2285406</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2431,7 +2431,7 @@
         <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1260481</v>
+        <v>1260469</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2451,7 +2451,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C104">
-        <v>2046286</v>
+        <v>2046308</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2471,7 +2471,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1236786</v>
+        <v>1236799</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2491,7 +2491,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2757183</v>
+        <v>2757244</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2511,7 +2511,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1924659</v>
+        <v>1924694</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2531,7 +2531,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C108">
-        <v>1987331</v>
+        <v>1987348</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2551,7 +2551,7 @@
         <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1928499</v>
+        <v>1928568</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2571,7 +2571,7 @@
         <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1498180</v>
+        <v>1498195</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2591,7 +2591,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C111">
-        <v>1893071</v>
+        <v>1893095</v>
       </c>
       <c r="D111" t="str">
         <v>Stage_1</v>
@@ -2611,7 +2611,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1944079</v>
+        <v>1944108</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2631,7 +2631,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1305034</v>
+        <v>1305054</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2651,7 +2651,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C114">
-        <v>966684</v>
+        <v>966703</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2671,7 +2671,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1022175</v>
+        <v>1022199</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2691,7 +2691,7 @@
         <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C116">
-        <v>735068</v>
+        <v>735097</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2711,7 +2711,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C117">
-        <v>884651</v>
+        <v>884678</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2731,7 +2731,7 @@
         <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C118">
-        <v>747201</v>
+        <v>747233</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2751,7 +2751,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C119">
-        <v>929564</v>
+        <v>929588</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2771,7 +2771,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C120">
-        <v>1438158</v>
+        <v>1438187</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2791,7 +2791,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C121">
-        <v>1738245</v>
+        <v>1738271</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2811,7 +2811,7 @@
         <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1379851</v>
+        <v>1379887</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2831,7 +2831,7 @@
         <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1668237</v>
+        <v>1668211</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2851,7 +2851,7 @@
         <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C124">
-        <v>1253455</v>
+        <v>1253483</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2871,7 +2871,7 @@
         <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="C125">
-        <v>978037</v>
+        <v>978057</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2891,7 +2891,7 @@
         <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1465797</v>
+        <v>1465821</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2911,7 +2911,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C127">
-        <v>1838030</v>
+        <v>1838012</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2931,7 +2931,7 @@
         <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C128">
-        <v>2273817</v>
+        <v>2273863</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2951,7 +2951,7 @@
         <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1563936</v>
+        <v>1563966</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>1892975</v>
+        <v>1892958</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>897748</v>
+        <v>897779</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3011,7 +3011,7 @@
         <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C132">
-        <v>565237</v>
+        <v>565267</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3031,7 +3031,7 @@
         <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C133">
-        <v>817919</v>
+        <v>817949</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3051,7 +3051,7 @@
         <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C134">
-        <v>1562400</v>
+        <v>1562435</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3071,7 +3071,7 @@
         <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C135">
-        <v>710837</v>
+        <v>710862</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3091,7 +3091,7 @@
         <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1046777</v>
+        <v>1046813</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3111,7 +3111,7 @@
         <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="C137">
-        <v>877431</v>
+        <v>877460</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3131,7 +3131,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1080989</v>
+        <v>1081020</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3151,7 +3151,7 @@
         <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C139">
-        <v>922763</v>
+        <v>922797</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3171,7 +3171,7 @@
         <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C140">
-        <v>677161</v>
+        <v>677194</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3191,7 +3191,7 @@
         <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C141">
-        <v>810546</v>
+        <v>810572</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3211,7 +3211,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C142">
-        <v>967961</v>
+        <v>967995</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3231,7 +3231,7 @@
         <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C143">
-        <v>274108</v>
+        <v>274141</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3251,7 +3251,7 @@
         <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C144">
-        <v>220242</v>
+        <v>220278</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3271,7 +3271,7 @@
         <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C145">
-        <v>95904</v>
+        <v>95937</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3291,7 +3291,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1390701</v>
+        <v>1390715</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3311,7 +3311,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C147">
-        <v>4141810</v>
+        <v>4141815</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3331,7 +3331,7 @@
         <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1438335</v>
+        <v>1438361</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3351,7 +3351,7 @@
         <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1066335</v>
+        <v>1066357</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3371,7 +3371,7 @@
         <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C150">
-        <v>883153</v>
+        <v>883192</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3391,7 +3391,7 @@
         <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C151">
-        <v>903934</v>
+        <v>903959</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3411,7 +3411,7 @@
         <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1396221</v>
+        <v>1396254</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3431,7 +3431,7 @@
         <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C153">
-        <v>995070</v>
+        <v>995093</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3451,7 +3451,7 @@
         <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1222380</v>
+        <v>1222449</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3471,7 +3471,7 @@
         <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C155">
-        <v>694956</v>
+        <v>694989</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3491,7 +3491,7 @@
         <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C156">
-        <v>3816616</v>
+        <v>3816644</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3511,7 +3511,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1950946</v>
+        <v>1950973</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3531,7 +3531,7 @@
         <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C158">
-        <v>2974088</v>
+        <v>2974111</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3551,7 +3551,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1992954</v>
+        <v>1992973</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3571,7 +3571,7 @@
         <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2340688</v>
+        <v>2340716</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3591,7 +3591,7 @@
         <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1950951</v>
+        <v>1950992</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3611,7 +3611,7 @@
         <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2411027</v>
+        <v>2411042</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3631,7 +3631,7 @@
         <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2120098</v>
+        <v>2120062</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3651,7 +3651,7 @@
         <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1952744</v>
+        <v>1952779</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3671,7 +3671,7 @@
         <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C165">
-        <v>1735997</v>
+        <v>1736027</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3691,7 +3691,7 @@
         <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2460135</v>
+        <v>2460159</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3711,7 +3711,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C167">
-        <v>480330</v>
+        <v>480361</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3731,7 +3731,7 @@
         <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C168">
-        <v>2403875</v>
+        <v>2403904</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3751,7 +3751,7 @@
         <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C169">
-        <v>1290290</v>
+        <v>1290320</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3771,7 +3771,7 @@
         <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C170">
-        <v>316197</v>
+        <v>316223</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3791,7 +3791,7 @@
         <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C171">
-        <v>164019</v>
+        <v>164049</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3811,7 +3811,7 @@
         <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C172">
-        <v>214542</v>
+        <v>214576</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3831,7 +3831,7 @@
         <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C173">
-        <v>310371</v>
+        <v>310401</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3851,7 +3851,7 @@
         <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C174">
-        <v>288932</v>
+        <v>288961</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3871,7 +3871,7 @@
         <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C175">
-        <v>270546</v>
+        <v>270577</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3891,7 +3891,7 @@
         <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C176">
-        <v>3081876</v>
+        <v>3023645</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
       </c>
     </row>
     <row r="177">
@@ -3911,7 +3911,7 @@
         <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C177">
-        <v>3190051</v>
+        <v>3145123</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
       </c>
     </row>
     <row r="178">
@@ -3931,7 +3931,7 @@
         <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C178">
-        <v>3064592</v>
+        <v>3043802</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
       </c>
     </row>
     <row r="179">
@@ -3951,7 +3951,7 @@
         <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C179">
-        <v>3106959</v>
+        <v>3028083</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
       </c>
     </row>
     <row r="180">
@@ -3971,7 +3971,7 @@
         <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C180">
-        <v>816613</v>
+        <v>798875</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
       </c>
     </row>
     <row r="181">
@@ -3991,7 +3991,7 @@
         <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C181">
-        <v>3228411</v>
+        <v>3219161</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
       </c>
     </row>
     <row r="182">
@@ -4011,7 +4011,7 @@
         <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C182">
-        <v>821633</v>
+        <v>804705</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
       </c>
     </row>
     <row r="183">
@@ -4031,7 +4031,7 @@
         <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C183">
-        <v>223504</v>
+        <v>217175</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
       </c>
     </row>
     <row r="184">
@@ -4051,7 +4051,7 @@
         <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C184">
-        <v>3173184</v>
+        <v>3141151</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
       </c>
     </row>
     <row r="185">
@@ -4071,7 +4071,7 @@
         <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C185">
-        <v>3286445</v>
+        <v>3284284</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
       </c>
     </row>
     <row r="186">
@@ -4091,7 +4091,7 @@
         <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C186">
-        <v>3140118</v>
+        <v>3137676</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
       </c>
     </row>
     <row r="187">
@@ -4111,7 +4111,7 @@
         <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C187">
-        <v>3214863</v>
+        <v>3204144</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
       </c>
     </row>
     <row r="188">
@@ -4131,7 +4131,7 @@
         <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C188">
-        <v>816767</v>
+        <v>808087</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
       </c>
     </row>
     <row r="189">
@@ -4151,7 +4151,7 @@
         <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C189">
-        <v>723740</v>
+        <v>723046</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
       </c>
     </row>
     <row r="190">
@@ -4171,7 +4171,7 @@
         <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C190">
-        <v>844714</v>
+        <v>835305</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
       </c>
     </row>
     <row r="191">
@@ -4191,7 +4191,7 @@
         <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C191">
-        <v>3901688</v>
+        <v>3854073</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
       </c>
     </row>
     <row r="192">
@@ -4211,7 +4211,7 @@
         <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C192">
-        <v>841468</v>
+        <v>832994</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
       </c>
     </row>
     <row r="193">
@@ -4231,7 +4231,7 @@
         <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C193">
-        <v>762930</v>
+        <v>735348</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
       </c>
     </row>
     <row r="194">
@@ -4251,7 +4251,7 @@
         <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C194">
-        <v>825409</v>
+        <v>823171</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
       </c>
     </row>
     <row r="195">
@@ -4271,7 +4271,7 @@
         <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C195">
-        <v>761788</v>
+        <v>758108</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
       </c>
     </row>
     <row r="196">
@@ -4291,7 +4291,7 @@
         <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C196">
-        <v>3161974</v>
+        <v>3115598</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
       </c>
     </row>
     <row r="197">
@@ -4311,7 +4311,7 @@
         <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C197">
-        <v>3836054</v>
+        <v>3805217</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
       </c>
     </row>
     <row r="198">
@@ -4331,7 +4331,7 @@
         <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C198">
-        <v>4023230</v>
+        <v>3993369</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
       </c>
     </row>
     <row r="199">
@@ -4351,7 +4351,7 @@
         <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C199">
-        <v>4079330</v>
+        <v>4051885</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>89ab9439e30ab231cd3d228ee131241f804c965f7e60e2cf07ed263de20d2180</v>
+        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
       </c>
     </row>
     <row r="200">
@@ -4371,7 +4371,7 @@
         <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C200">
-        <v>3193169</v>
+        <v>3131428</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
       </c>
     </row>
     <row r="201">
@@ -4391,7 +4391,7 @@
         <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C201">
-        <v>3210858</v>
+        <v>3199815</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
       </c>
     </row>
     <row r="202">
@@ -4411,7 +4411,7 @@
         <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C202">
-        <v>3139182</v>
+        <v>3118717</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
       </c>
     </row>
     <row r="203">
@@ -4431,7 +4431,7 @@
         <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C203">
-        <v>3882737</v>
+        <v>3862309</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
       </c>
     </row>
     <row r="204">
@@ -4451,7 +4451,7 @@
         <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C204">
-        <v>2962984</v>
+        <v>2953626</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
       </c>
     </row>
     <row r="205">
@@ -4471,7 +4471,7 @@
         <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C205">
-        <v>3065527</v>
+        <v>3037074</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
       </c>
     </row>
     <row r="206">
@@ -4491,7 +4491,7 @@
         <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C206">
-        <v>3144785</v>
+        <v>3142149</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4556f1ece01dd02cedc6688c3c8f3b122d69ffdb4b66158b801caa4a9d5620c1</v>
       </c>
     </row>
     <row r="207">
@@ -4511,7 +4511,7 @@
         <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C207">
-        <v>2778836</v>
+        <v>2729122</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
       </c>
     </row>
     <row r="208">
@@ -4531,7 +4531,7 @@
         <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C208">
-        <v>866673</v>
+        <v>863303</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
       </c>
     </row>
     <row r="209">
@@ -4551,7 +4551,7 @@
         <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C209">
-        <v>844510</v>
+        <v>840754</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
       </c>
     </row>
     <row r="210">
@@ -4571,7 +4571,7 @@
         <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C210">
-        <v>804577</v>
+        <v>805251</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
       </c>
     </row>
     <row r="211">
@@ -4591,7 +4591,7 @@
         <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C211">
-        <v>799739</v>
+        <v>792882</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
       </c>
     </row>
     <row r="212">
@@ -4611,7 +4611,7 @@
         <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C212">
-        <v>3171180</v>
+        <v>3092283</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
       </c>
     </row>
     <row r="213">
@@ -4631,7 +4631,7 @@
         <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C213">
-        <v>830305</v>
+        <v>815755</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
       </c>
     </row>
     <row r="214">
@@ -4651,7 +4651,7 @@
         <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C214">
-        <v>2503101</v>
+        <v>2490004</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
       </c>
     </row>
     <row r="215">
@@ -4671,7 +4671,7 @@
         <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C215">
-        <v>2480638</v>
+        <v>2453815</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
       </c>
     </row>
     <row r="216">
@@ -4691,7 +4691,7 @@
         <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C216">
-        <v>3917014</v>
+        <v>3878494</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
       </c>
     </row>
     <row r="217">
@@ -4711,7 +4711,7 @@
         <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C217">
-        <v>3234189</v>
+        <v>3218703</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
       </c>
     </row>
     <row r="218">
@@ -4731,7 +4731,7 @@
         <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C218">
-        <v>2361287</v>
+        <v>2360335</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
       </c>
     </row>
     <row r="219">
@@ -4751,7 +4751,7 @@
         <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C219">
-        <v>3150498</v>
+        <v>3115693</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
       </c>
     </row>
     <row r="220">
@@ -4771,7 +4771,7 @@
         <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C220">
-        <v>2383533</v>
+        <v>2370438</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
       </c>
     </row>
     <row r="221">
@@ -4791,7 +4791,7 @@
         <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C221">
-        <v>5022572</v>
+        <v>5000044</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
       </c>
     </row>
     <row r="222">
@@ -4811,7 +4811,7 @@
         <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C222">
-        <v>2335859</v>
+        <v>2294738</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>ef61e78d1c7a37ac623126d0bded61b9e48ac89679a7fb06babd42e5365e20b4</v>
       </c>
     </row>
     <row r="223">
@@ -4831,7 +4831,7 @@
         <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C223">
-        <v>2280048</v>
+        <v>2269590</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>6f333a9e43573786e42d4b22b134662f993e5ddc208318ac85db6cd3079d1ed0</v>
       </c>
     </row>
     <row r="224">
@@ -4851,7 +4851,7 @@
         <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C224">
-        <v>2139719</v>
+        <v>2121106</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
       </c>
     </row>
     <row r="225">
@@ -4871,7 +4871,7 @@
         <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C225">
-        <v>2204277</v>
+        <v>2194737</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
       </c>
     </row>
     <row r="226">
@@ -4891,7 +4891,7 @@
         <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C226">
-        <v>2180973</v>
+        <v>2182076</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
       </c>
     </row>
     <row r="227">
@@ -4911,7 +4911,7 @@
         <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C227">
-        <v>3067615</v>
+        <v>3062513</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
+        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
       </c>
     </row>
     <row r="228">
@@ -4931,7 +4931,7 @@
         <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C228">
-        <v>2378558</v>
+        <v>2305933</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
       </c>
     </row>
     <row r="229">
@@ -4951,7 +4951,7 @@
         <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C229">
-        <v>4071237</v>
+        <v>4010041</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
       </c>
     </row>
     <row r="230">
@@ -4971,7 +4971,7 @@
         <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C230">
-        <v>786221</v>
+        <v>755259</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
       </c>
     </row>
     <row r="231">
@@ -4991,7 +4991,7 @@
         <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C231">
-        <v>2106871</v>
+        <v>2076970</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
       </c>
     </row>
     <row r="232">
@@ -5011,7 +5011,7 @@
         <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C232">
-        <v>584752</v>
+        <v>584345</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
       </c>
     </row>
     <row r="233">
@@ -5031,7 +5031,7 @@
         <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C233">
-        <v>817133</v>
+        <v>814180</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
       </c>
     </row>
     <row r="234">
@@ -5051,7 +5051,7 @@
         <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C234">
-        <v>784714</v>
+        <v>778963</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
       </c>
     </row>
     <row r="235">
@@ -5071,7 +5071,7 @@
         <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C235">
-        <v>846144</v>
+        <v>838014</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
       </c>
     </row>
     <row r="236">
@@ -5091,7 +5091,7 @@
         <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C236">
-        <v>841637</v>
+        <v>831448</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
       </c>
     </row>
     <row r="237">
@@ -5111,7 +5111,7 @@
         <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C237">
-        <v>847696</v>
+        <v>842933</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
       </c>
     </row>
     <row r="238">
@@ -5131,7 +5131,7 @@
         <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C238">
-        <v>814420</v>
+        <v>813230</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
       </c>
     </row>
     <row r="239">
@@ -5151,7 +5151,7 @@
         <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C239">
-        <v>789923</v>
+        <v>787191</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
       </c>
     </row>
     <row r="240">
@@ -5171,7 +5171,7 @@
         <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C240">
-        <v>809952</v>
+        <v>785032</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
       </c>
     </row>
     <row r="241">
@@ -5191,7 +5191,7 @@
         <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C241">
-        <v>827102</v>
+        <v>824423</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
       </c>
     </row>
     <row r="242">
@@ -5211,7 +5211,7 @@
         <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C242">
-        <v>825498</v>
+        <v>815518</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
       </c>
     </row>
     <row r="243">
@@ -5231,7 +5231,7 @@
         <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C243">
-        <v>836955</v>
+        <v>834843</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
       </c>
     </row>
     <row r="244">
@@ -5251,7 +5251,7 @@
         <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C244">
-        <v>812054</v>
+        <v>796594</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
       </c>
     </row>
     <row r="245">
@@ -5271,7 +5271,7 @@
         <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C245">
-        <v>2414316</v>
+        <v>2360877</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
+        <v>58f176cc309521fcc267660d7a3b1a5dac506a1ca94350432f2a3301e2ac9137</v>
       </c>
     </row>
     <row r="246">
@@ -5291,7 +5291,7 @@
         <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C246">
-        <v>2416625</v>
+        <v>2354713</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
       </c>
     </row>
     <row r="247">
@@ -5311,7 +5311,7 @@
         <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C247">
-        <v>2445857</v>
+        <v>2409483</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
       </c>
     </row>
     <row r="248">
@@ -5331,7 +5331,7 @@
         <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C248">
-        <v>2433042</v>
+        <v>2373406</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
+        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
       </c>
     </row>
     <row r="249">
@@ -5351,7 +5351,7 @@
         <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C249">
-        <v>835188</v>
+        <v>821386</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="250">
@@ -5371,7 +5371,7 @@
         <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C250">
-        <v>820544</v>
+        <v>801661</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="251">
@@ -5391,7 +5391,7 @@
         <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C251">
-        <v>755734</v>
+        <v>734943</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="252">
@@ -5411,7 +5411,7 @@
         <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C252">
-        <v>809233</v>
+        <v>789416</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="253">
@@ -5431,7 +5431,7 @@
         <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C253">
-        <v>830435</v>
+        <v>830625</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="254">
@@ -5451,7 +5451,7 @@
         <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C254">
-        <v>809690</v>
+        <v>809405</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>403fae0f34dadb9418b32cf95d59dc80489966ce269cb34aa52460bf12399fe0</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="255">
@@ -5471,7 +5471,7 @@
         <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C255">
-        <v>791779</v>
+        <v>790581</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="256">
@@ -5491,7 +5491,7 @@
         <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C256">
-        <v>735348</v>
+        <v>730871</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="257">
@@ -5511,7 +5511,7 @@
         <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C257">
-        <v>839955</v>
+        <v>832495</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="258">
@@ -5531,7 +5531,7 @@
         <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C258">
-        <v>851153</v>
+        <v>845422</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="259">
@@ -5551,7 +5551,7 @@
         <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C259">
-        <v>833075</v>
+        <v>824082</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="260">
@@ -5571,7 +5571,7 @@
         <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C260">
-        <v>3264119</v>
+        <v>3260452</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="261">
@@ -5591,7 +5591,7 @@
         <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C261">
-        <v>3084217</v>
+        <v>3057578</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="262">
@@ -5611,7 +5611,7 @@
         <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C262">
-        <v>2455825</v>
+        <v>2418183</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="263">
@@ -5631,7 +5631,7 @@
         <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C263">
-        <v>807112</v>
+        <v>801172</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="264">
@@ -5651,7 +5651,7 @@
         <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C264">
-        <v>852141</v>
+        <v>845890</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="265">
@@ -5671,7 +5671,7 @@
         <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C265">
-        <v>4718336</v>
+        <v>4674865</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="266">
@@ -5691,7 +5691,7 @@
         <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C266">
-        <v>3220892</v>
+        <v>3206957</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="267">
@@ -5711,7 +5711,7 @@
         <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C267">
-        <v>2952548</v>
+        <v>2932816</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="268">
@@ -5731,7 +5731,7 @@
         <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C268">
-        <v>3274402</v>
+        <v>3249855</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="269">
@@ -5751,7 +5751,7 @@
         <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C269">
-        <v>3119279</v>
+        <v>3083079</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="270">
@@ -5771,7 +5771,7 @@
         <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C270">
-        <v>832384</v>
+        <v>814925</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="271">
@@ -5791,7 +5791,7 @@
         <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C271">
-        <v>813808</v>
+        <v>796054</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="272">
@@ -5811,7 +5811,7 @@
         <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C272">
-        <v>2168197</v>
+        <v>2108392</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="273">
@@ -5831,7 +5831,7 @@
         <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C273">
-        <v>2399059</v>
+        <v>2325081</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="274">
@@ -5851,7 +5851,7 @@
         <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C274">
-        <v>3209465</v>
+        <v>3136109</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="275">
@@ -5871,7 +5871,7 @@
         <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C275">
-        <v>2427114</v>
+        <v>2384012</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="276">
@@ -5891,7 +5891,7 @@
         <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C276">
-        <v>4040730</v>
+        <v>3990712</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>42fe7c0d36f79c07f2dd7837ff9290627f2c2865eb93a658f362a7f181fbf426</v>
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
       </c>
     </row>
     <row r="277">
@@ -5911,7 +5911,7 @@
         <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C277">
-        <v>2335524</v>
+        <v>2337620</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
       </c>
     </row>
     <row r="278">
@@ -5931,7 +5931,7 @@
         <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C278">
-        <v>2490016</v>
+        <v>2488786</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
       </c>
     </row>
     <row r="279">
@@ -5951,7 +5951,7 @@
         <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C279">
-        <v>2123356</v>
+        <v>2009306</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
       </c>
     </row>
     <row r="280">
@@ -5971,7 +5971,7 @@
         <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C280">
-        <v>2385791</v>
+        <v>2311052</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
       </c>
     </row>
     <row r="281">
@@ -5991,7 +5991,7 @@
         <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C281">
-        <v>2431906</v>
+        <v>2377977</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>d1216da219d3f0c448cfe932077ec7095f2ca73aaf86a5a60189f67387305a90</v>
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
       </c>
     </row>
     <row r="282">
@@ -6011,7 +6011,7 @@
         <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C282">
-        <v>2337877</v>
+        <v>2329645</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>c6b7e3bb6ee1e5fcb23c4178c809cf5a626a903a311ce82c5a1434f041dd29af</v>
+        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
       </c>
     </row>
     <row r="283">
@@ -6031,7 +6031,7 @@
         <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C283">
-        <v>858112</v>
+        <v>852233</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
+        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F291</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C143">
-        <v>274141</v>
+        <v>774136</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>0f1e10418d145d3280d48cf884a851410fd1caf031be41b30c339d7d1db0bad0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="C144">
-        <v>220278</v>
+        <v>967131</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>e7d22691dd2776a44d68e50548123000f69163c62f873b57d611657849e3d0e0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0210_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0210_jp.ab</v>
       </c>
       <c r="C145">
-        <v>95937</v>
+        <v>976464</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>e5dd499dce7c2ee183b41c1fe0bb0ebe0265a9500a8a07aceef39ee060b69461</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1390715</v>
+        <v>274141</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C147">
-        <v>4141815</v>
+        <v>220278</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1438361</v>
+        <v>95937</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1066357</v>
+        <v>1390715</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C150">
-        <v>883192</v>
+        <v>4141815</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C151">
-        <v>903959</v>
+        <v>1438361</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1396254</v>
+        <v>1066357</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C153">
-        <v>995093</v>
+        <v>883192</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1222449</v>
+        <v>903959</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C155">
-        <v>694989</v>
+        <v>1396254</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C156">
-        <v>3816644</v>
+        <v>995093</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1950973</v>
+        <v>1222449</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C158">
-        <v>2974111</v>
+        <v>694989</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1992973</v>
+        <v>3816644</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2340716</v>
+        <v>1950973</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1950992</v>
+        <v>2974111</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2411042</v>
+        <v>1992973</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2120062</v>
+        <v>2340716</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1952779</v>
+        <v>1950992</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C165">
-        <v>1736027</v>
+        <v>2411042</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2460159</v>
+        <v>2120062</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C167">
-        <v>480361</v>
+        <v>1952779</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C168">
-        <v>2403904</v>
+        <v>1736027</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C169">
-        <v>1290320</v>
+        <v>2460159</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C170">
-        <v>316223</v>
+        <v>480361</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C171">
-        <v>164049</v>
+        <v>2403904</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C172">
-        <v>214576</v>
+        <v>1290320</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C173">
-        <v>310401</v>
+        <v>940740</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9303999680361d4a349d365b6857314694775dd90aad23c0787615730521bd0d</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C174">
-        <v>288961</v>
+        <v>316223</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C175">
-        <v>270577</v>
+        <v>164049</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C176">
-        <v>3023645</v>
+        <v>214576</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C177">
-        <v>3145123</v>
+        <v>310401</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C178">
-        <v>3043802</v>
+        <v>288961</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C179">
-        <v>3028083</v>
+        <v>270577</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C180">
-        <v>798875</v>
+        <v>3023645</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
+        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C181">
-        <v>3219161</v>
+        <v>3145123</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
+        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C182">
-        <v>804705</v>
+        <v>3043802</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
+        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C183">
-        <v>217175</v>
+        <v>3028083</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
+        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C184">
-        <v>3141151</v>
+        <v>798875</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
+        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C185">
-        <v>3284284</v>
+        <v>3219161</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
+        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C186">
-        <v>3137676</v>
+        <v>804705</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
+        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C187">
-        <v>3204144</v>
+        <v>217175</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
+        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C188">
-        <v>808087</v>
+        <v>3141151</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
+        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C189">
-        <v>723046</v>
+        <v>3284284</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
+        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C190">
-        <v>835305</v>
+        <v>3137676</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
+        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C191">
-        <v>3854073</v>
+        <v>3204144</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
+        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C192">
-        <v>832994</v>
+        <v>808087</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
+        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C193">
-        <v>735348</v>
+        <v>723046</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
+        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C194">
-        <v>823171</v>
+        <v>835305</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
+        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C195">
-        <v>758108</v>
+        <v>3854073</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
+        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C196">
-        <v>3115598</v>
+        <v>832994</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
+        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C197">
-        <v>3805217</v>
+        <v>735348</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
+        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C198">
-        <v>3993369</v>
+        <v>823171</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
+        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C199">
-        <v>4051885</v>
+        <v>758108</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
+        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C200">
-        <v>3131428</v>
+        <v>3115598</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
+        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C201">
-        <v>3199815</v>
+        <v>3805217</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
+        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C202">
-        <v>3118717</v>
+        <v>3993369</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
+        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C203">
-        <v>3862309</v>
+        <v>4051885</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
+        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C204">
-        <v>2953626</v>
+        <v>3131428</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
+        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C205">
-        <v>3037074</v>
+        <v>3199815</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
+        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C206">
-        <v>3142149</v>
+        <v>3118717</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>4556f1ece01dd02cedc6688c3c8f3b122d69ffdb4b66158b801caa4a9d5620c1</v>
+        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C207">
-        <v>2729122</v>
+        <v>3862309</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
+        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C208">
-        <v>863303</v>
+        <v>2953626</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
+        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C209">
-        <v>840754</v>
+        <v>3037074</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
+        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C210">
-        <v>805251</v>
+        <v>3930601</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
+        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C211">
-        <v>792882</v>
+        <v>2729122</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
+        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C212">
-        <v>3092283</v>
+        <v>863303</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
+        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C213">
-        <v>815755</v>
+        <v>840754</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
+        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C214">
-        <v>2490004</v>
+        <v>805251</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
+        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C215">
-        <v>2453815</v>
+        <v>792882</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
+        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C216">
-        <v>3878494</v>
+        <v>3092283</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
+        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C217">
-        <v>3218703</v>
+        <v>815755</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
+        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C218">
-        <v>2360335</v>
+        <v>2490004</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
+        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C219">
-        <v>3115693</v>
+        <v>2453815</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
+        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C220">
-        <v>2370438</v>
+        <v>3878494</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
+        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C221">
-        <v>5000044</v>
+        <v>3218703</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
+        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C222">
-        <v>2294738</v>
+        <v>2360335</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>ef61e78d1c7a37ac623126d0bded61b9e48ac89679a7fb06babd42e5365e20b4</v>
+        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C223">
-        <v>2269590</v>
+        <v>3115693</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>6f333a9e43573786e42d4b22b134662f993e5ddc208318ac85db6cd3079d1ed0</v>
+        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C224">
-        <v>2121106</v>
+        <v>2370438</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
+        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C225">
-        <v>2194737</v>
+        <v>5000044</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
+        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C226">
-        <v>2182076</v>
+        <v>3102521</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
+        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C227">
-        <v>3062513</v>
+        <v>2269590</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
+        <v>6f333a9e43573786e42d4b22b134662f993e5ddc208318ac85db6cd3079d1ed0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C228">
-        <v>2305933</v>
+        <v>2121106</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
+        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C229">
-        <v>4010041</v>
+        <v>2194737</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
+        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C230">
-        <v>755259</v>
+        <v>2182076</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
+        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C231">
-        <v>2076970</v>
+        <v>3062513</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
+        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C232">
-        <v>584345</v>
+        <v>2305933</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
+        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C233">
-        <v>814180</v>
+        <v>4010041</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
+        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C234">
-        <v>778963</v>
+        <v>755259</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
+        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C235">
-        <v>838014</v>
+        <v>2076970</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
+        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C236">
-        <v>831448</v>
+        <v>584345</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
+        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C237">
-        <v>842933</v>
+        <v>814180</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
+        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C238">
-        <v>813230</v>
+        <v>778963</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
+        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C239">
-        <v>787191</v>
+        <v>838014</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
+        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C240">
-        <v>785032</v>
+        <v>831448</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
+        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C241">
-        <v>824423</v>
+        <v>842933</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
+        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C242">
-        <v>815518</v>
+        <v>813230</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
+        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C243">
-        <v>834843</v>
+        <v>787191</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
+        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C244">
-        <v>796594</v>
+        <v>785032</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
+        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C245">
-        <v>2360877</v>
+        <v>824423</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>58f176cc309521fcc267660d7a3b1a5dac506a1ca94350432f2a3301e2ac9137</v>
+        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C246">
-        <v>2354713</v>
+        <v>815518</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
+        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C247">
-        <v>2409483</v>
+        <v>834843</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
+        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C248">
-        <v>2373406</v>
+        <v>796594</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
+        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C249">
-        <v>821386</v>
+        <v>2360877</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>58f176cc309521fcc267660d7a3b1a5dac506a1ca94350432f2a3301e2ac9137</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C250">
-        <v>801661</v>
+        <v>2354713</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C251">
-        <v>734943</v>
+        <v>2409483</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C252">
-        <v>789416</v>
+        <v>2373406</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C253">
-        <v>830625</v>
+        <v>821386</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C254">
-        <v>809405</v>
+        <v>801661</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C255">
-        <v>790581</v>
+        <v>734943</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C256">
-        <v>730871</v>
+        <v>789416</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C257">
-        <v>832495</v>
+        <v>830625</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C258">
-        <v>845422</v>
+        <v>809405</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C259">
-        <v>824082</v>
+        <v>790581</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C260">
-        <v>3260452</v>
+        <v>730871</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C261">
-        <v>3057578</v>
+        <v>832495</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C262">
-        <v>2418183</v>
+        <v>845422</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C263">
-        <v>801172</v>
+        <v>824082</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C264">
-        <v>845890</v>
+        <v>793706</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C265">
-        <v>4674865</v>
+        <v>844492</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C266">
-        <v>3206957</v>
+        <v>840170</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C267">
-        <v>2932816</v>
+        <v>3260452</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C268">
-        <v>3249855</v>
+        <v>3057578</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C269">
-        <v>3083079</v>
+        <v>2418183</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C270">
-        <v>814925</v>
+        <v>801172</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C271">
-        <v>796054</v>
+        <v>845890</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C272">
-        <v>2108392</v>
+        <v>4674865</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C273">
-        <v>2325081</v>
+        <v>3206957</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C274">
-        <v>3136109</v>
+        <v>2932816</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C275">
-        <v>2384012</v>
+        <v>3249855</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C276">
-        <v>3990712</v>
+        <v>3083079</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C277">
-        <v>2337620</v>
+        <v>814925</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C278">
-        <v>2488786</v>
+        <v>796054</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C279">
-        <v>2009306</v>
+        <v>2108392</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C280">
-        <v>2311052</v>
+        <v>2325081</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C281">
-        <v>2377977</v>
+        <v>3136109</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C282">
-        <v>2329645</v>
+        <v>2384012</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,33 +6020,193 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="B283" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="C283">
+        <v>3990712</v>
+      </c>
+      <c r="D283" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" t="str">
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B284" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C284">
+        <v>2337620</v>
+      </c>
+      <c r="D284" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284" t="str">
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B285" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C285">
+        <v>2488786</v>
+      </c>
+      <c r="D285" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" t="str">
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B286" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C286">
+        <v>2009306</v>
+      </c>
+      <c r="D286" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286" t="str">
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B287" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C287">
+        <v>2311052</v>
+      </c>
+      <c r="D287" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" t="str">
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="B288" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="C288">
+        <v>2377977</v>
+      </c>
+      <c r="D288" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" t="str">
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B289" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C289">
+        <v>2329645</v>
+      </c>
+      <c r="D289" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" t="str">
+        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B283" t="str">
+      <c r="B290" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C283">
+      <c r="C290">
         <v>852233</v>
       </c>
-      <c r="D283" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283" t="str">
+      <c r="D290" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290" t="str">
         <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="B291" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="C291">
+        <v>797159</v>
+      </c>
+      <c r="D291" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" t="str">
+        <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F283"/>
+  <autoFilter ref="A1:F291"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F283"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F291"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>897779</v>
+        <v>926356</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>f44b2f455a248453cd396129a632ea8f6410bd7dd155e650f6e93392334e9d4e</v>
+        <v>418dae45fa4944e088025e8dec67699ab5ab57e6c7aa7e0cd8d72603b084b500</v>
       </c>
     </row>
     <row r="132">

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F293</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>926356</v>
+        <v>2642993</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>418dae45fa4944e088025e8dec67699ab5ab57e6c7aa7e0cd8d72603b084b500</v>
+        <v>aa653015ced1307bd789943bf410ab0a5fc0eba4ecc36a5d0afa339acc21bc24</v>
       </c>
     </row>
     <row r="132">
@@ -3771,7 +3771,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C170">
-        <v>480361</v>
+        <v>1973738</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>d3a4fb169f6ae64ef5cd27a33779e03f93867e3959f708a16d6461e270d49a29</v>
       </c>
     </row>
     <row r="171">
@@ -5351,7 +5351,7 @@
         <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C249">
-        <v>2360877</v>
+        <v>3141917</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>58f176cc309521fcc267660d7a3b1a5dac506a1ca94350432f2a3301e2ac9137</v>
+        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
       </c>
     </row>
     <row r="250">
@@ -5425,13 +5425,13 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C253">
-        <v>821386</v>
+        <v>2410234</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C254">
-        <v>801661</v>
+        <v>821386</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C255">
-        <v>734943</v>
+        <v>801661</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C256">
-        <v>789416</v>
+        <v>734943</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C257">
-        <v>830625</v>
+        <v>789416</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C258">
-        <v>809405</v>
+        <v>830625</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C259">
-        <v>790581</v>
+        <v>809405</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C260">
-        <v>730871</v>
+        <v>790581</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C261">
-        <v>832495</v>
+        <v>730871</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C262">
-        <v>845422</v>
+        <v>832495</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C263">
-        <v>824082</v>
+        <v>845422</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C264">
-        <v>793706</v>
+        <v>824082</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C265">
-        <v>844492</v>
+        <v>793706</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
+        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C266">
-        <v>840170</v>
+        <v>844492</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
+        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C267">
-        <v>3260452</v>
+        <v>840170</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C268">
-        <v>3057578</v>
+        <v>3260452</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C269">
-        <v>2418183</v>
+        <v>3057578</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C270">
-        <v>801172</v>
+        <v>2418183</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C271">
-        <v>845890</v>
+        <v>801172</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C272">
-        <v>4674865</v>
+        <v>845890</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C273">
-        <v>3206957</v>
+        <v>4674865</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C274">
-        <v>2932816</v>
+        <v>3206957</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C275">
-        <v>3249855</v>
+        <v>2932816</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C276">
-        <v>3083079</v>
+        <v>3249855</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C277">
-        <v>814925</v>
+        <v>3083079</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C278">
-        <v>796054</v>
+        <v>814925</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C279">
-        <v>2108392</v>
+        <v>796054</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C280">
-        <v>2325081</v>
+        <v>2108392</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C281">
-        <v>3136109</v>
+        <v>2325081</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C282">
-        <v>2384012</v>
+        <v>3136109</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C283">
-        <v>3990712</v>
+        <v>2384012</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C284">
-        <v>2337620</v>
+        <v>3990712</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C285">
-        <v>2488786</v>
+        <v>2337620</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C286">
-        <v>2009306</v>
+        <v>2488786</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C287">
-        <v>2311052</v>
+        <v>2009306</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C288">
-        <v>2377977</v>
+        <v>2311052</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C289">
-        <v>2329645</v>
+        <v>2377977</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C290">
-        <v>852233</v>
+        <v>2300378</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,33 +6180,73 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B291" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C291">
+        <v>2329645</v>
+      </c>
+      <c r="D291" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" t="str">
+        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="B292" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="C292">
+        <v>852233</v>
+      </c>
+      <c r="D292" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" t="str">
+        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
         <v>character_largeimage_t0207.ab</v>
       </c>
-      <c r="B291" t="str">
+      <c r="B293" t="str">
         <v>character_largeimage_t0207.ab</v>
       </c>
-      <c r="C291">
+      <c r="C293">
         <v>797159</v>
       </c>
-      <c r="D291" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-      <c r="F291" t="str">
+      <c r="D293" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" t="str">
         <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F291"/>
+  <autoFilter ref="A1:F293"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F291"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F293"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -1711,7 +1711,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C67">
-        <v>859684</v>
+        <v>1013609</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
+        <v>ab3b0eccfa6b508a19802b889a8f10a8a026ab85a8b03c1233a70b5518053402</v>
       </c>
     </row>
     <row r="68">

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,9 +6,31 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$402</definedName>
   </definedNames>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F402"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +433,7 @@
         <v>audioclip_sfx_0_jp.ab</v>
       </c>
       <c r="C2">
-        <v>133108</v>
+        <v>133115</v>
       </c>
       <c r="D2" t="str">
         <v>Stage_1</v>
@@ -420,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>4768f8b52010ec75d1405616f48546d9886a3578efeb75eaa4b006292aab8287</v>
+        <v>890e33d92d14059e0179f994483031b11decc8d8593ed95649cd021a969d4ea3</v>
       </c>
     </row>
     <row r="3">
@@ -431,7 +453,7 @@
         <v>audioclip_sfx_10_jp.ab</v>
       </c>
       <c r="C3">
-        <v>61209</v>
+        <v>61210</v>
       </c>
       <c r="D3" t="str">
         <v>Stage_1</v>
@@ -440,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>26c8a461d82d8f9f894f060c098fbbb7245a1bd1fbbbab515d36b7b4f20bf397</v>
+        <v>a161f7e149821f6c4588d25fc0e4044182348ad6d89c237cf154a7d61212d942</v>
       </c>
     </row>
     <row r="4">
@@ -451,7 +473,7 @@
         <v>audioclip_sfx_11_jp.ab</v>
       </c>
       <c r="C4">
-        <v>104189</v>
+        <v>104193</v>
       </c>
       <c r="D4" t="str">
         <v>Stage_1</v>
@@ -460,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>cc8d57104774d575edcaa044c1a6be985d1e5d272aa55437cbc44b0a52933dc2</v>
+        <v>f71c7d64b3557435aa19917b507f2781b741a39bc85db5a8d40ff7c8361ee4a3</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +493,7 @@
         <v>audioclip_sfx_12_jp.ab</v>
       </c>
       <c r="C5">
-        <v>67441</v>
+        <v>67445</v>
       </c>
       <c r="D5" t="str">
         <v>Stage_1</v>
@@ -480,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>096b07eecdbab0943f6417f78d1e82372f378ab253feebf806dd1fd99c991ab2</v>
+        <v>eea5c13492a64148547669e3da83d9f999d0c3cce4cf1587bb182e0e14b80695</v>
       </c>
     </row>
     <row r="6">
@@ -491,7 +513,7 @@
         <v>audioclip_sfx_13_jp.ab</v>
       </c>
       <c r="C6">
-        <v>149033</v>
+        <v>149034</v>
       </c>
       <c r="D6" t="str">
         <v>Stage_1</v>
@@ -500,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>a13dea27fd157f3e9935551af56eeb2d93f65565ca4d8263a4e8b047cb14c554</v>
+        <v>6e09d91410c90038ae74ae887452fd44c428b0a83d08a3af87f97747a4ba6e75</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +533,7 @@
         <v>audioclip_sfx_14_jp.ab</v>
       </c>
       <c r="C7">
-        <v>43296</v>
+        <v>43300</v>
       </c>
       <c r="D7" t="str">
         <v>Stage_1</v>
@@ -520,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>abcd1141a63f2f2262d48d9e2f46b01427d5e09ccf3f038a7e338a68f7127682</v>
+        <v>3e5dd5fad421e50edbefe100346cba05e4a9ac0c7c70e528ae77e0d84be8b68f</v>
       </c>
     </row>
     <row r="8">
@@ -531,7 +553,7 @@
         <v>audioclip_sfx_15_jp.ab</v>
       </c>
       <c r="C8">
-        <v>88536</v>
+        <v>88537</v>
       </c>
       <c r="D8" t="str">
         <v>Stage_1</v>
@@ -540,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <v>deddb5c321174a15c8cd0a42c25414cacb75d20cd573cdd86a3ebd5a3a42d449</v>
+        <v>c95541bb1417c22250da7380ce5b78c7e844132fbbc24f2943fe09f4ca1e3703</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +573,7 @@
         <v>audioclip_sfx_16_jp.ab</v>
       </c>
       <c r="C9">
-        <v>96165</v>
+        <v>96170</v>
       </c>
       <c r="D9" t="str">
         <v>Stage_1</v>
@@ -560,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <v>142579d30137c9c091298269a631985dba75a5143583ef0e399ac730daf1f2c6</v>
+        <v>2ca557d2d20b132e86a5f3a69b87f184b7567f28cdf300802571c584ac2036e7</v>
       </c>
     </row>
     <row r="10">
@@ -571,7 +593,7 @@
         <v>audioclip_sfx_17_jp.ab</v>
       </c>
       <c r="C10">
-        <v>43756</v>
+        <v>43759</v>
       </c>
       <c r="D10" t="str">
         <v>Stage_1</v>
@@ -580,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>2d7faeba8b79646deb84098167ed5ad37b3a879573b516ffbd970b9282b62200</v>
+        <v>fb2606e1b32043ff01dd36b98ea5d5d3f17612d6ae8ec13ce42201358399b8e8</v>
       </c>
     </row>
     <row r="11">
@@ -591,7 +613,7 @@
         <v>audioclip_sfx_18_jp.ab</v>
       </c>
       <c r="C11">
-        <v>84544</v>
+        <v>84546</v>
       </c>
       <c r="D11" t="str">
         <v>Stage_1</v>
@@ -600,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>c845194944f3614c2a1f5ac6957a9b23a8059adaf12c9c104e4cf4fd646e67bc</v>
+        <v>f29c026e180ee7c9175037b0e4559a412bba16b5877a643e9bec130ee1f5f8d2</v>
       </c>
     </row>
     <row r="12">
@@ -611,7 +633,7 @@
         <v>audioclip_sfx_19_jp.ab</v>
       </c>
       <c r="C12">
-        <v>77257</v>
+        <v>77260</v>
       </c>
       <c r="D12" t="str">
         <v>Stage_1</v>
@@ -620,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="str">
-        <v>3f7d3ef4dcffa3f84d9ffcc93acdee2f8fe11b89af02546baf960e67439c6d07</v>
+        <v>0b580d57e86b11979e2a5d223db7a26834fc03d1af8156a99987d9eac155f43a</v>
       </c>
     </row>
     <row r="13">
@@ -631,7 +653,7 @@
         <v>audioclip_sfx_1_jp.ab</v>
       </c>
       <c r="C13">
-        <v>161105</v>
+        <v>161108</v>
       </c>
       <c r="D13" t="str">
         <v>Stage_1</v>
@@ -640,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="str">
-        <v>0981c81b14ea5959c429c98165ade449cfc106e1df011ab2bbe8f27a323743b2</v>
+        <v>47cf4e5d72f98319dc8eb108861051cb6d1ae586ab677b7a66faa3d89ee77898</v>
       </c>
     </row>
     <row r="14">
@@ -651,7 +673,7 @@
         <v>audioclip_sfx_20_jp.ab</v>
       </c>
       <c r="C14">
-        <v>147262</v>
+        <v>147265</v>
       </c>
       <c r="D14" t="str">
         <v>Stage_1</v>
@@ -660,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <v>0a05861ff4097d231167fbb79ee737bc8d00fae1a858779c0e7fef67cf0f3911</v>
+        <v>8c576ff7b4357602ab4e2aa893762a835dabac7e3f34673b3c1d2cb42ed70cf7</v>
       </c>
     </row>
     <row r="15">
@@ -671,7 +693,7 @@
         <v>audioclip_sfx_21_jp.ab</v>
       </c>
       <c r="C15">
-        <v>105512</v>
+        <v>105516</v>
       </c>
       <c r="D15" t="str">
         <v>Stage_1</v>
@@ -680,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="str">
-        <v>fd4bfb5511e7414287dfebb357d012710bc5568b944befaef37ea32f425fdf4e</v>
+        <v>5e96032b51fc8f19db981aa31444adc017b7321bb9ca8c43e947f05ddd9baf32</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +713,7 @@
         <v>audioclip_sfx_22_jp.ab</v>
       </c>
       <c r="C16">
-        <v>77782</v>
+        <v>77788</v>
       </c>
       <c r="D16" t="str">
         <v>Stage_1</v>
@@ -700,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="str">
-        <v>7aa80d8fed4659745fa0b231b3bcbeb52d83a55d025702bcb45f3c21f48109d8</v>
+        <v>efd13aa03b15bd3cd2981db1514991753e4e171bb5c2c59f540e72f7e852ad9f</v>
       </c>
     </row>
     <row r="17">
@@ -711,7 +733,7 @@
         <v>audioclip_sfx_23_jp.ab</v>
       </c>
       <c r="C17">
-        <v>84650</v>
+        <v>84652</v>
       </c>
       <c r="D17" t="str">
         <v>Stage_1</v>
@@ -720,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="str">
-        <v>d2319e5859fcec099b952c884acc360465c44c3a83a981f771e983c93c5b10c4</v>
+        <v>ef02f66fd410547d9b891e3bba0858d0c2d72bb9165adb0cd065d6fef6b557c4</v>
       </c>
     </row>
     <row r="18">
@@ -731,7 +753,7 @@
         <v>audioclip_sfx_24_jp.ab</v>
       </c>
       <c r="C18">
-        <v>72002</v>
+        <v>72005</v>
       </c>
       <c r="D18" t="str">
         <v>Stage_1</v>
@@ -740,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <v>7b634285e82cd52f2d958d792dc4de2473d72abc4b957614db710a7e728907bb</v>
+        <v>8b445603b39b42c937c2e3e130212a4590907e104788decf29d15ea2f03e2f0a</v>
       </c>
     </row>
     <row r="19">
@@ -751,7 +773,7 @@
         <v>audioclip_sfx_25_jp.ab</v>
       </c>
       <c r="C19">
-        <v>135511</v>
+        <v>135514</v>
       </c>
       <c r="D19" t="str">
         <v>Stage_1</v>
@@ -760,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <v>04af1fc87ed3136cd22f954d5917bf35dccf95b1f45da4ca42d8394fe7904f89</v>
+        <v>70877cba46b595b19ce6a714e26878232ad3c6d949401695f73eeff927927b0a</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <v>fd1e555935c95f2d9acd3d36a881613e3700ede349732ddd279dcd7fa6b7916b</v>
+        <v>dd10247797195c509f2ac05cbdc9544a669f20b4cc6b318e4c9c4a335f8a3b9c</v>
       </c>
     </row>
     <row r="21">
@@ -791,7 +813,7 @@
         <v>audioclip_sfx_27_jp.ab</v>
       </c>
       <c r="C21">
-        <v>139366</v>
+        <v>139363</v>
       </c>
       <c r="D21" t="str">
         <v>Stage_1</v>
@@ -800,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>a0f69ec7a907aaafde48fb6a4824c4c5cc162d967724d511a935fd6b11d818d8</v>
+        <v>412892d5d5491bacc2e9d44d5b35189408d46782579dcdefaee8caf20dae01ee</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +833,7 @@
         <v>audioclip_sfx_28_jp.ab</v>
       </c>
       <c r="C22">
-        <v>108411</v>
+        <v>108416</v>
       </c>
       <c r="D22" t="str">
         <v>Stage_1</v>
@@ -820,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <v>0c6744514a18e9dccad9fede9d4e3b68f9af1cef83cc481093fbb1a7111bfe52</v>
+        <v>de5866f2f83d4b8604c94740b8a7eb68f8cf0a3b7cf14f64bcd8a0542e5d76a5</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +853,7 @@
         <v>audioclip_sfx_29_jp.ab</v>
       </c>
       <c r="C23">
-        <v>121316</v>
+        <v>121319</v>
       </c>
       <c r="D23" t="str">
         <v>Stage_1</v>
@@ -840,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="str">
-        <v>03b9864bda86386b05d7934cd8e026a59d323aaa9cf69c376da0af3f410ef338</v>
+        <v>5e0f02a17c0995499c87630c91ac8cd5243f7600e2f8b176e68fd88da64b247d</v>
       </c>
     </row>
     <row r="24">
@@ -860,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <v>5cf607d4d0aac0777010835a1f0ffc9883f1583d2d0b130569e65bd263fafd72</v>
+        <v>5bd66eb186de336d595b8d2b996896b108c04ccd94ad331ae24ac24b3276bb86</v>
       </c>
     </row>
     <row r="25">
@@ -871,7 +893,7 @@
         <v>audioclip_sfx_30_jp.ab</v>
       </c>
       <c r="C25">
-        <v>52990</v>
+        <v>52991</v>
       </c>
       <c r="D25" t="str">
         <v>Stage_1</v>
@@ -880,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>68175ed68168cbda140fb234821bf8a4164c9812ff239176cdc63b510a67757c</v>
+        <v>cf3701dbc43f6057f733452a41098367e782f940fabfa38b2745517456a01f2f</v>
       </c>
     </row>
     <row r="26">
@@ -891,7 +913,7 @@
         <v>audioclip_sfx_31_jp.ab</v>
       </c>
       <c r="C26">
-        <v>92511</v>
+        <v>92510</v>
       </c>
       <c r="D26" t="str">
         <v>Stage_1</v>
@@ -900,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <v>d590e8b8402066507d9bd72d8a7768487a5e69ff7099079b220298aa59911027</v>
+        <v>594b96e46256e9f45f2c199999fce932398ddf45262411f5a345109beec2a9ad</v>
       </c>
     </row>
     <row r="27">
@@ -911,7 +933,7 @@
         <v>audioclip_sfx_32_jp.ab</v>
       </c>
       <c r="C27">
-        <v>83642</v>
+        <v>83645</v>
       </c>
       <c r="D27" t="str">
         <v>Stage_1</v>
@@ -920,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>a3e744a916d33a22013129bb605b400905ef157d6a5c56a2d0ac2a5676978cf1</v>
+        <v>4463dc1dbced7de4ed6d6d5c42fdeb28d185f2d5068e2b247f4caa0c9422bb90</v>
       </c>
     </row>
     <row r="28">
@@ -931,7 +953,7 @@
         <v>audioclip_sfx_33_jp.ab</v>
       </c>
       <c r="C28">
-        <v>64498</v>
+        <v>64496</v>
       </c>
       <c r="D28" t="str">
         <v>Stage_1</v>
@@ -940,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>23bfe26fee8dbd670d30c66e0e2c4443ce6e818d1a6f13077de4113c7f7cf7e9</v>
+        <v>a1e06131c71f952c79a7ebffc38db5710032a0e5745d4d3ee35a5d3dfd64d292</v>
       </c>
     </row>
     <row r="29">
@@ -951,7 +973,7 @@
         <v>audioclip_sfx_34_jp.ab</v>
       </c>
       <c r="C29">
-        <v>84995</v>
+        <v>84996</v>
       </c>
       <c r="D29" t="str">
         <v>Stage_1</v>
@@ -960,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="str">
-        <v>dd0b20dc6b11d09724cd3581bb0139a4267ac2d2fdae7259e96692a4dc00b400</v>
+        <v>085909aceab020f18df83ed24a23cf055a863b25bd6176ec33b19b5d985a0757</v>
       </c>
     </row>
     <row r="30">
@@ -971,7 +993,7 @@
         <v>audioclip_sfx_35_jp.ab</v>
       </c>
       <c r="C30">
-        <v>202319</v>
+        <v>202321</v>
       </c>
       <c r="D30" t="str">
         <v>Stage_1</v>
@@ -980,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>15ad834e81a6b25de63e6811b5b4f8c04dfec95d9a0873c184e610511ce6417a</v>
+        <v>0e36fc4bd38f93180af2a64a60cce7876748da8711e1ff0d396536c3248e1296</v>
       </c>
     </row>
     <row r="31">
@@ -991,7 +1013,7 @@
         <v>audioclip_sfx_36_jp.ab</v>
       </c>
       <c r="C31">
-        <v>104785</v>
+        <v>104787</v>
       </c>
       <c r="D31" t="str">
         <v>Stage_1</v>
@@ -1000,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>ae9f574f24e4194cb8b700e4b94fed70aec072854eee9bd7f6fb94735a21a005</v>
+        <v>280bd35bcf98ecde2881f0dbf7e9a13033948660b477e51732e3134a4a47b3f4</v>
       </c>
     </row>
     <row r="32">
@@ -1011,7 +1033,7 @@
         <v>audioclip_sfx_37_jp.ab</v>
       </c>
       <c r="C32">
-        <v>67919</v>
+        <v>67922</v>
       </c>
       <c r="D32" t="str">
         <v>Stage_1</v>
@@ -1020,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <v>43eb877f8cd753a8e5f942b6c9600de1f9712d7ae14306d97a625f98fd00d823</v>
+        <v>49380d4c9301ac285a45e124e9e58febea9c84ad4f1e1a52c987506447c659cc</v>
       </c>
     </row>
     <row r="33">
@@ -1031,7 +1053,7 @@
         <v>audioclip_sfx_38_jp.ab</v>
       </c>
       <c r="C33">
-        <v>68472</v>
+        <v>68479</v>
       </c>
       <c r="D33" t="str">
         <v>Stage_1</v>
@@ -1040,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="str">
-        <v>73bebdb2f036e934fe14cf61f3e8c8b01687485ec7249ed924e9eb9afc976cda</v>
+        <v>83ad836c51bd3889843337882ed030f846bf51d1f1c76807e2e4b5571279fac3</v>
       </c>
     </row>
     <row r="34">
@@ -1051,7 +1073,7 @@
         <v>audioclip_sfx_39_jp.ab</v>
       </c>
       <c r="C34">
-        <v>136120</v>
+        <v>136123</v>
       </c>
       <c r="D34" t="str">
         <v>Stage_1</v>
@@ -1060,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="str">
-        <v>9268a4e6c0e1f761815bb446b50580c7ddf0e47c4ba9a9ded787e3b9765ec76c</v>
+        <v>49af5040246bf34e4574ff8d596a101b293e8f1e1b4f64681b2ea78d2835a9dd</v>
       </c>
     </row>
     <row r="35">
@@ -1071,7 +1093,7 @@
         <v>audioclip_sfx_3_jp.ab</v>
       </c>
       <c r="C35">
-        <v>137719</v>
+        <v>137726</v>
       </c>
       <c r="D35" t="str">
         <v>Stage_1</v>
@@ -1080,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="str">
-        <v>fc99b207e7f9c599747a6eafd60827ce2b06b4b1db6641ad2eeb4eb4187560c2</v>
+        <v>16c7340f6b17d45c54b6b3a55526e727c010cf872ddb519cac9f6d105374da9e</v>
       </c>
     </row>
     <row r="36">
@@ -1091,7 +1113,7 @@
         <v>audioclip_sfx_40_jp.ab</v>
       </c>
       <c r="C36">
-        <v>63219</v>
+        <v>63225</v>
       </c>
       <c r="D36" t="str">
         <v>Stage_1</v>
@@ -1100,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="str">
-        <v>c35acd72bdbd60e04debb3641b32d5f3a8d9c586884adbccd70129281dbe5665</v>
+        <v>486554aa196492e0e848a439b6a00f07514a6f7538e6e77f56d717509f2296aa</v>
       </c>
     </row>
     <row r="37">
@@ -1111,7 +1133,7 @@
         <v>audioclip_sfx_41_jp.ab</v>
       </c>
       <c r="C37">
-        <v>75011</v>
+        <v>75014</v>
       </c>
       <c r="D37" t="str">
         <v>Stage_1</v>
@@ -1120,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="str">
-        <v>a2294327368b619226f50224562cf05e8f109a2e34574c6953a439da1d7d50a3</v>
+        <v>bb89de55d2eaa45cd37847bbb338534260cde23534b032d9046b0af8c27fbb7f</v>
       </c>
     </row>
     <row r="38">
@@ -1131,7 +1153,7 @@
         <v>audioclip_sfx_42_jp.ab</v>
       </c>
       <c r="C38">
-        <v>118443</v>
+        <v>118445</v>
       </c>
       <c r="D38" t="str">
         <v>Stage_1</v>
@@ -1140,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="str">
-        <v>86c7a22ff4458a553b4258c65ac3a50556732fc780870dcda1e69ac67707c03b</v>
+        <v>ba0d7c2a8f5929e624f4a10bb2c631d97d9f93cb3f4af42e1cda5c492e0be34b</v>
       </c>
     </row>
     <row r="39">
@@ -1151,7 +1173,7 @@
         <v>audioclip_sfx_43_jp.ab</v>
       </c>
       <c r="C39">
-        <v>23470</v>
+        <v>23465</v>
       </c>
       <c r="D39" t="str">
         <v>Stage_1</v>
@@ -1160,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="str">
-        <v>b8ac9cc6d3ea4f6bbcce8877f13a477b863fc0febca4905a01042eac04636c03</v>
+        <v>55a55f76e1f20b64a3f2acad0e6670e8ec21b3ce986fc06dfb4390619e9d6951</v>
       </c>
     </row>
     <row r="40">
@@ -1171,7 +1193,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123379</v>
+        <v>123386</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1180,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="str">
-        <v>abc05acb1aa1e889d4467a1cf70ee1806aba383db33e89f6a23a2ffdca7c1252</v>
+        <v>cf44a93898f3aa894abad96bd9255e364684cb29eb8e7c9216c548976aef029b</v>
       </c>
     </row>
     <row r="41">
@@ -1191,7 +1213,7 @@
         <v>audioclip_sfx_45_jp.ab</v>
       </c>
       <c r="C41">
-        <v>75416</v>
+        <v>75422</v>
       </c>
       <c r="D41" t="str">
         <v>Stage_1</v>
@@ -1200,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="str">
-        <v>ee816a9fc118b01c584f332b2dc7e111048ba761e148dde9c30203a82c7310b7</v>
+        <v>78f90e80cab664c0b2f89d6622ffbebd8dcba87d5d7047dc9d1e4c0b32231a9c</v>
       </c>
     </row>
     <row r="42">
@@ -1211,7 +1233,7 @@
         <v>audioclip_sfx_46_jp.ab</v>
       </c>
       <c r="C42">
-        <v>38505</v>
+        <v>38504</v>
       </c>
       <c r="D42" t="str">
         <v>Stage_1</v>
@@ -1220,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>c2a50e8faa6c7467cf2c77d3e15b3bcbdac1c51a8945697d7990d0dd64c5b744</v>
+        <v>c5efa43dd93e4d922ca477cdc358f0e88ecbf96ddcfcd710147d4091fa1423ff</v>
       </c>
     </row>
     <row r="43">
@@ -1240,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>d209a94b9d85515c2ff81e96cd92b7d73fbc859e84510e9c31e2456c1d6c45ed</v>
+        <v>d7106d13ca785a9a39f95810e1fd81a00caffef45a1a8c54a089bb0e0051802e</v>
       </c>
     </row>
     <row r="44">
@@ -1251,7 +1273,7 @@
         <v>audioclip_sfx_48_jp.ab</v>
       </c>
       <c r="C44">
-        <v>88452</v>
+        <v>88456</v>
       </c>
       <c r="D44" t="str">
         <v>Stage_1</v>
@@ -1260,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>d011e233404af9bdf0a5344d9fcc1404af74675ef08ab88cdaaafb6f9c2a63be</v>
+        <v>f3fa284ebab08f2e976144b0549a6ecf85cb98f97d00b7c5077da6d28cd8129e</v>
       </c>
     </row>
     <row r="45">
@@ -1271,7 +1293,7 @@
         <v>audioclip_sfx_49_jp.ab</v>
       </c>
       <c r="C45">
-        <v>141537</v>
+        <v>141539</v>
       </c>
       <c r="D45" t="str">
         <v>Stage_1</v>
@@ -1280,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <v>56f695a97786f0988b106d4116014e9be96c50f5549b0ba110830b79df82ae0b</v>
+        <v>3572df08e735fd70db2564ce46c03bc12db08c099809ef3031e8baba0f5b1b51</v>
       </c>
     </row>
     <row r="46">
@@ -1291,7 +1313,7 @@
         <v>audioclip_sfx_4_jp.ab</v>
       </c>
       <c r="C46">
-        <v>102715</v>
+        <v>102717</v>
       </c>
       <c r="D46" t="str">
         <v>Stage_1</v>
@@ -1300,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="str">
-        <v>67fc887ca71425d8434eddafada3b6312fede867c0999eb2cc00cab1f6b02539</v>
+        <v>0f92c5523f8520f750968d74c0e7d685b7a45ba7d5505b50eedd9ba4f012f716</v>
       </c>
     </row>
     <row r="47">
@@ -1311,7 +1333,7 @@
         <v>audioclip_sfx_5_jp.ab</v>
       </c>
       <c r="C47">
-        <v>118773</v>
+        <v>118774</v>
       </c>
       <c r="D47" t="str">
         <v>Stage_1</v>
@@ -1320,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="str">
-        <v>b46e0ad94173d7749bb9a85dad2b3c56fb1701dfedad47f5e4b0afa77d8548fb</v>
+        <v>79a9300efbf748a1d33cc6dd6c68e13be4681865621a710867a22cb9c63591ec</v>
       </c>
     </row>
     <row r="48">
@@ -1331,7 +1353,7 @@
         <v>audioclip_sfx_6_jp.ab</v>
       </c>
       <c r="C48">
-        <v>103524</v>
+        <v>103527</v>
       </c>
       <c r="D48" t="str">
         <v>Stage_1</v>
@@ -1340,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="str">
-        <v>6a132a9c4a4142da025a0b2c41d6ec1ad071c83358228fd8bba5e2a689065369</v>
+        <v>45a30dcef01d78985b03fe87c5514a1385da2ddae219150409533c732bdb6f6c</v>
       </c>
     </row>
     <row r="49">
@@ -1351,7 +1373,7 @@
         <v>audioclip_sfx_7_jp.ab</v>
       </c>
       <c r="C49">
-        <v>87147</v>
+        <v>87150</v>
       </c>
       <c r="D49" t="str">
         <v>Stage_1</v>
@@ -1360,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="str">
-        <v>8528ffbdc9ea309ee7bbcd7d996e73a5f4ac360de3c8230e2b7c6185123dc1bc</v>
+        <v>a7ae1d87362c97840abf5f97a9c7330636679fc0077e1a5cc0bb10d10b8c4e93</v>
       </c>
     </row>
     <row r="50">
@@ -1371,7 +1393,7 @@
         <v>audioclip_sfx_8_jp.ab</v>
       </c>
       <c r="C50">
-        <v>61899</v>
+        <v>61903</v>
       </c>
       <c r="D50" t="str">
         <v>Stage_1</v>
@@ -1380,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="str">
-        <v>8c1d432269a7c7f88ae1bd68d4d09db48b94c94094edbb078be155e2e9ea2a9a</v>
+        <v>5e5a794490aad5112aacf96e2a54ae89b87fa39596a30d6a911a0abebb64e083</v>
       </c>
     </row>
     <row r="51">
@@ -1391,7 +1413,7 @@
         <v>audioclip_sfx_9_jp.ab</v>
       </c>
       <c r="C51">
-        <v>54582</v>
+        <v>54584</v>
       </c>
       <c r="D51" t="str">
         <v>Stage_1</v>
@@ -1400,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="str">
-        <v>517cb4beb108fd606ddcba3e25a2d306e4005d6e41e61e984ed0d8a7042ae805</v>
+        <v>d13235b36e319581aa1beb0d69a2d8751495ba546f11894b346114ca6e89cac3</v>
       </c>
     </row>
     <row r="52">
@@ -1411,7 +1433,7 @@
         <v>audioclip_sfx_b0001_jp.ab</v>
       </c>
       <c r="C52">
-        <v>63659</v>
+        <v>63661</v>
       </c>
       <c r="D52" t="str">
         <v>Stage_1</v>
@@ -1420,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="str">
-        <v>254ca2572c117a75e62083e57c5cc58a8c6433c6d8e684c4ed9400ea4957931d</v>
+        <v>9c257b0b019e7316c418c6c5812c79c3da690d95d981f2cb5829727f5e2a2242</v>
       </c>
     </row>
     <row r="53">
@@ -1431,7 +1453,7 @@
         <v>audioclip_sfx_b0015_jp.ab</v>
       </c>
       <c r="C53">
-        <v>116863</v>
+        <v>116862</v>
       </c>
       <c r="D53" t="str">
         <v>Stage_1</v>
@@ -1440,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="str">
-        <v>600c6d5efc37e0184492dd7c02faf39c8ab8fefbbc6243de27ca395839eb45df</v>
+        <v>0d55727eff6ab320e7e465a6bee247b8894e186509f82081fc9eb03ad9815e6f</v>
       </c>
     </row>
     <row r="54">
@@ -1451,7 +1473,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875238</v>
+        <v>875308</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1460,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="str">
-        <v>ec8699ce204587a30e2d1b49a696fd2b37fb586c381ae0ef423113e9c039525a</v>
+        <v>f41e78f1dc96308d5601037d8daf2ec4d04edcebdf93d7818c00310612af47d2</v>
       </c>
     </row>
     <row r="55">
@@ -1471,7 +1493,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>2011710</v>
+        <v>2011713</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1480,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>60f4c8f3d2a1a07126f4d19af567cc7bfe915d0da30e408f837f2c0941ebf0db</v>
+        <v>a9d2061d1ff0d76aa12b6549a96d83d7bf0ddcd8a620f9ac8046d2bd3c4aeb86</v>
       </c>
     </row>
     <row r="56">
@@ -1491,7 +1513,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272279</v>
+        <v>1272281</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1500,18 +1522,18 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>077698a51de4a1c76770fb90a42825b5dd903a8e6c97127e0b68cf82fa40bafb</v>
+        <v>c69e2ca037763652c03dd9330708f484b0ae7c94befab8d9355e832b3db44a86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>audioclip_sfx_e0002_jp.ab</v>
+        <v>audioclip_sfx_b0260_jp.ab</v>
       </c>
       <c r="B57" t="str">
-        <v>audioclip_sfx_e0002_jp.ab</v>
+        <v>audioclip_sfx_b0260_jp.ab</v>
       </c>
       <c r="C57">
-        <v>662047</v>
+        <v>1037836</v>
       </c>
       <c r="D57" t="str">
         <v>Stage_1</v>
@@ -1520,18 +1542,18 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>baccaaf24c28cb8600e4f8ba37f18e41258dbfd071571e2793894a07cc024968</v>
+        <v>3c1402ca0bdf715ef318d2da6828d055f2b1d7757570fae50e1513cf58b8d8d6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>audioclip_sfx_e0046_jp.ab</v>
+        <v>audioclip_sfx_b0267_jp.ab</v>
       </c>
       <c r="B58" t="str">
-        <v>audioclip_sfx_e0046_jp.ab</v>
+        <v>audioclip_sfx_b0267_jp.ab</v>
       </c>
       <c r="C58">
-        <v>3100224</v>
+        <v>230609</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1540,18 +1562,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>fcc44e3e32ef9c2eec689464a761a22246a1c29cf89ac7c841d58f5abb88154a</v>
+        <v>f628e764479d5dde0841aa0803ecf053c265ffd80ed19d87174d81d177fdbcf4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>audioclip_sfx_e3489_jp.ab</v>
+        <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="B59" t="str">
-        <v>audioclip_sfx_e3489_jp.ab</v>
+        <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C59">
-        <v>356923</v>
+        <v>662050</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1560,18 +1582,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="str">
-        <v>4f5d5c915f978585d960cf7b6dede58ac819d05b85503c54a16cb01f9753230f</v>
+        <v>adeabd1b5f0bf5bb34af428cd3b35f0a452177a62632266cecd60e5272192235</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>audioclip_sfx_e3497_jp.ab</v>
+        <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="B60" t="str">
-        <v>audioclip_sfx_e3497_jp.ab</v>
+        <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="C60">
-        <v>250848</v>
+        <v>3100225</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1580,18 +1602,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="str">
-        <v>99243953ea99579c4f0437c037aa6bd769af9b5fc497e69f3c2ddb8c220bebcb</v>
+        <v>fcec458dcad9b29617768b0faaf871b94d31358645d085e2a1434527f12dbc1a</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>audioclip_sfx_e3498_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="B61" t="str">
-        <v>audioclip_sfx_e3498_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="C61">
-        <v>362039</v>
+        <v>356926</v>
       </c>
       <c r="D61" t="str">
         <v>Stage_1</v>
@@ -1600,18 +1622,18 @@
         <v>0</v>
       </c>
       <c r="F61" t="str">
-        <v>707141d0a933d98d67bd85c9aca41cc63e0f40ddb08a1ba1abb4c090b51165dc</v>
+        <v>8ff2302352e152d67e1be227662840b0356267debc4fdfb784e57989cf65ea58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>audioclip_sfx_e3499_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="B62" t="str">
-        <v>audioclip_sfx_e3499_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C62">
-        <v>119659</v>
+        <v>250850</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1620,18 +1642,18 @@
         <v>0</v>
       </c>
       <c r="F62" t="str">
-        <v>08f8adaba276d60e26b3b8b6616d30e24dc93a1a59459067183f488297ee59de</v>
+        <v>7f9a3784be67ddd3d0970fd9cc635703e80e50f6b6a2296ff5b324d2b08aa43d</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>audioclip_sfx_e3500_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="B63" t="str">
-        <v>audioclip_sfx_e3500_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="C63">
-        <v>67578</v>
+        <v>362038</v>
       </c>
       <c r="D63" t="str">
         <v>Stage_1</v>
@@ -1640,18 +1662,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="str">
-        <v>e5c12eb8004c1bd4e5f98ec4c9c1e41b7c9ec83eddead0bed3259d6c8d5aa629</v>
+        <v>8a55a93a8a49010f7f74991d104b76f51687c7d0b5b553213aad268a3491ed5a</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="B64" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="C64">
-        <v>643323</v>
+        <v>119661</v>
       </c>
       <c r="D64" t="str">
         <v>Stage_1</v>
@@ -1660,18 +1682,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="str">
-        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
+        <v>ee82ccb938b94753a3df70ae2b6638de853c6267f339c80beb144556ad390f08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="B65" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="C65">
-        <v>1029448</v>
+        <v>67579</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1680,18 +1702,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <v>53250d30f127ecbdf8f2c61e4dad263eef1c5ce588731850be7e6c64dae7558b</v>
+        <v>15a3c99a6f4ed868313bd40bf55b9443d3e88339aed6759efa79bae8cab14e01</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="B66" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C66">
-        <v>872447</v>
+        <v>643327</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1700,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="str">
-        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
+        <v>38cda980665bcc2ee02221f6531dc5c8616bd6dd5292bb823bb91b76379a6756</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="B67" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C67">
-        <v>1013609</v>
+        <v>1029445</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1720,18 +1742,18 @@
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <v>ab3b0eccfa6b508a19802b889a8f10a8a026ab85a8b03c1233a70b5518053402</v>
+        <v>4cdd681196c9041aec808a4eb4510564c5ea7c87471ab68fa5c616bc36ae30e7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="B68" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C68">
-        <v>678622</v>
+        <v>872452</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1740,18 +1762,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
+        <v>c248966768838040fbec69b4a486eacf28ab42b45b94f839593822317091ac9c</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="B69" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>349409</v>
+        <v>1013616</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1760,18 +1782,18 @@
         <v>0</v>
       </c>
       <c r="F69" t="str">
-        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
+        <v>fe5665d034ec98e1969f6ee708de66c13424fa272415354b0cbc10f61449ab84</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="B70" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C70">
-        <v>453780</v>
+        <v>678622</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1780,18 +1802,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
+        <v>6c6efc850314bcdb8639d5b62dc7fc0b898371bed825864299474cabca00bd2a</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="B71" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C71">
-        <v>1074563</v>
+        <v>349413</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1800,18 +1822,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="str">
-        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
+        <v>f91653546cf0855966fc35f3cd88cc1e9d49611451d848c903614cd26c8d1e2a</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="B72" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C72">
-        <v>740112</v>
+        <v>453782</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1820,18 +1842,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="str">
-        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
+        <v>18969559c1f15295cdc2017e4a41934609f3ebfaccc27f49ca018e2cf3429415</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="B73" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C73">
-        <v>940879</v>
+        <v>1074575</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1840,18 +1862,18 @@
         <v>0</v>
       </c>
       <c r="F73" t="str">
-        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
+        <v>a2e3e7310fd172229dbc8359bdbe5a3e097cb3d916562aa1dcafeb788b84a2b9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="B74" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C74">
-        <v>446593</v>
+        <v>740116</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1860,18 +1882,18 @@
         <v>0</v>
       </c>
       <c r="F74" t="str">
-        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
+        <v>bdd77632d712f23ecda336b8bccd55412f2f06199f32346f7fcdad68ed5ade2c</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="B75" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>698675</v>
+        <v>940884</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1880,18 +1902,18 @@
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
+        <v>c3f82328888aee14300bb033d8657e09ac7b65c8e08443da5c31a0974d0718fc</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="B76" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C76">
-        <v>891810</v>
+        <v>446594</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1900,18 +1922,18 @@
         <v>0</v>
       </c>
       <c r="F76" t="str">
-        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
+        <v>35f5f17eda0d80e254cb565711de1f1ab5782a2453eafe916ff2fc3ef8903a1b</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="B77" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C77">
-        <v>755854</v>
+        <v>698681</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1920,18 +1942,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="str">
-        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
+        <v>33e5c6e86712def040f301e65d532d7650be5293f0f35c767ccf32e5110d99e0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="B78" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C78">
-        <v>1196253</v>
+        <v>891814</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1940,18 +1962,18 @@
         <v>0</v>
       </c>
       <c r="F78" t="str">
-        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
+        <v>99daea97362cee1dc7bcc7619a57cf95ef560474c2beee51818a9a906d5d8f9a</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="B79" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="C79">
-        <v>985543</v>
+        <v>928965</v>
       </c>
       <c r="D79" t="str">
         <v>Stage_1</v>
@@ -1960,18 +1982,18 @@
         <v>0</v>
       </c>
       <c r="F79" t="str">
-        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
+        <v>af10a421ece4b6b4723db946651144c23c358dc970b69d58db1ed6e80bf56b86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="B80" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1681293</v>
+        <v>1196250</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -1980,18 +2002,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="str">
-        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
+        <v>e4bc105e612fea2c563e47fb9211b0d23649b75e2c9ce15bc5758fc6f49a6623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="B81" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C81">
-        <v>1572138</v>
+        <v>985554</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2000,18 +2022,18 @@
         <v>0</v>
       </c>
       <c r="F81" t="str">
-        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
+        <v>403941619aa6b4ec1c545c41af196e706ee31be632f015365946f95a4d99c32f</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="B82" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>938013</v>
+        <v>1374152</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2020,18 +2042,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="str">
-        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
+        <v>33354945932815d98a072bcc88e5faff53b738f7df04e0c6c0eb8a07b6068dc6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="B83" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1291348</v>
+        <v>1572147</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2040,18 +2062,18 @@
         <v>0</v>
       </c>
       <c r="F83" t="str">
-        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
+        <v>9119409d957f484946d109fa6be78d9d5a71aee8eab53400583aa891f2dff5c9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="B84" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C84">
-        <v>1189249</v>
+        <v>938019</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2060,18 +2082,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="str">
-        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
+        <v>7202dbfd6bcc3cb7947c548923d644c4ea84d843ea3ed27920eeb10aa4470dfe</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="B85" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1039743</v>
+        <v>1291354</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2080,18 +2102,18 @@
         <v>0</v>
       </c>
       <c r="F85" t="str">
-        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
+        <v>409b575c22378888d40b22fc0c30b7ee216da4ef3885e8a9db9dc42fca78130d</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="B86" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>785941</v>
+        <v>1189226</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2100,18 +2122,18 @@
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
+        <v>0ca988613b7f8e0ffbb52895f6e2bbedbfbd69c992fb25e0da33a068abf63fe1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="B87" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C87">
-        <v>743616</v>
+        <v>1039749</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2120,18 +2142,18 @@
         <v>0</v>
       </c>
       <c r="F87" t="str">
-        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
+        <v>750ad4d435684553f67d82fa3170ca674d3328b0452f38cc5ec85be69c54148e</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="B88" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C88">
-        <v>611354</v>
+        <v>785945</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2140,18 +2162,18 @@
         <v>0</v>
       </c>
       <c r="F88" t="str">
-        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
+        <v>14c0f8fe66adffe92f313ce297eab95516e0a7971907c25768525069e0a6db7d</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="B89" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C89">
-        <v>587163</v>
+        <v>743620</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2160,18 +2182,18 @@
         <v>0</v>
       </c>
       <c r="F89" t="str">
-        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
+        <v>ebc9ec2f8fd0db2084a75c98bf5e78f3560a39031d4e70de22dc6c51a7dae254</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="B90" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C90">
-        <v>525469</v>
+        <v>611357</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2180,18 +2202,18 @@
         <v>0</v>
       </c>
       <c r="F90" t="str">
-        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
+        <v>a11a523fb00e0004217c67cec973c963a5d4d854cab28483c4adf3c9b14d08a9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="B91" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="C91">
-        <v>955386</v>
+        <v>587167</v>
       </c>
       <c r="D91" t="str">
         <v>Stage_1</v>
@@ -2200,18 +2222,18 @@
         <v>0</v>
       </c>
       <c r="F91" t="str">
-        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
+        <v>e34fa3770191d389fd93e77fd1fd621a5ef3e87987bbcecd0e26e5babad238f8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="B92" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="C92">
-        <v>2421244</v>
+        <v>525471</v>
       </c>
       <c r="D92" t="str">
         <v>Stage_1</v>
@@ -2220,18 +2242,18 @@
         <v>0</v>
       </c>
       <c r="F92" t="str">
-        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
+        <v>daa9a4039aafc609c9f42b8e6f19f9cec548b86ac300a23e108561aece93fcf1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="B93" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>619205</v>
+        <v>955387</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2240,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="F93" t="str">
-        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
+        <v>04b7aecda37a086ada634e13ea646e0a62a529f263e288253d7f2698cbd8bd4a</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="B94" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C94">
-        <v>538574</v>
+        <v>2421241</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,18 +2282,18 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
+        <v>d175374e6bab9b23a69e513fdd83a1b1aeedd66364afc933ac29de3c5691c714</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="B95" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C95">
-        <v>5025128</v>
+        <v>619213</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2280,18 +2302,18 @@
         <v>0</v>
       </c>
       <c r="F95" t="str">
-        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
+        <v>5d16f740f777446bcdad7f018c1c1607daf806f181571a7c1c70b43b0e3d42c1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="B96" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C96">
-        <v>1635044</v>
+        <v>538568</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2300,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>e7e82684323ba2bf5469908930578e527a6f3aa1e48055cfde4a443717f6a50d</v>
+        <v>55cf50bcb056c1951bb7c311b083b7707bc58cabe23721eb397e2a259809c92f</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="B97" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>276294</v>
+        <v>8510836</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2320,18 +2342,18 @@
         <v>0</v>
       </c>
       <c r="F97" t="str">
-        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
+        <v>4148901efe719a9c838f285e694d6c38be28f187e87aef00f55f28e322b0aa91</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="B98" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1504204</v>
+        <v>1635040</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2340,18 +2362,18 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>0c035d662f7ed6ec090809c93d8ab7875d4caab360cedaa7979b4c3689846401</v>
+        <v>b4ee10e13e2c3ebee2399b286cfa4a5bac81b7bc70b4d639390e4479e46c03c7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="B99" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C99">
-        <v>29746</v>
+        <v>276295</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2360,18 +2382,18 @@
         <v>0</v>
       </c>
       <c r="F99" t="str">
-        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
+        <v>f84a3ba7c55b027a7694adae501f5afbae9f70113a4f45a917f3c9f4fdc2ca16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="B100" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C100">
-        <v>1334024</v>
+        <v>2057511</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2380,18 +2402,18 @@
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
+        <v>315a03e97d996689a7c644ee1a59b1d037ea146c266ae6194c17c26ed31b96b6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="B101" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="C101">
-        <v>1204314</v>
+        <v>29752</v>
       </c>
       <c r="D101" t="str">
         <v>Stage_1</v>
@@ -2400,18 +2422,18 @@
         <v>0</v>
       </c>
       <c r="F101" t="str">
-        <v>059664887ef03ff224f141ce9647e251d19e3b51ccaa287d091da99a4dc449c8</v>
+        <v>da1e3516a29e374e62d2ac3127385d51fd5e98315812fc8d4efcdfa1cced77da</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="B102" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C102">
-        <v>2285406</v>
+        <v>1334021</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2420,18 +2442,18 @@
         <v>0</v>
       </c>
       <c r="F102" t="str">
-        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
+        <v>61bbe4809c0a4c470d122e46fa99640ed560c27aa6b2d464523f2e06bea20efc</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="B103" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1260469</v>
+        <v>1204318</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2440,18 +2462,18 @@
         <v>0</v>
       </c>
       <c r="F103" t="str">
-        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
+        <v>c65dfbcfb0a32ac473562418675ff0d7ab4ad89a9bcd72870254d6a9539cfbaf</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="B104" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C104">
-        <v>2046308</v>
+        <v>2285418</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2460,18 +2482,18 @@
         <v>0</v>
       </c>
       <c r="F104" t="str">
-        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
+        <v>4b8dce7d7fa2d5bc8277c11d2ad0950d4a7a26d0c4e0abe13aee5e5dac6c108e</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="B105" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1236799</v>
+        <v>1316079</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2480,18 +2502,18 @@
         <v>0</v>
       </c>
       <c r="F105" t="str">
-        <v>1eabfb35ad9a6d1b3faad498c21e7ecb958804820481f6cea31be5c46c615523</v>
+        <v>7cd49bbc7ab509252736e2487d822ec9dc7cb9e4e8787803276e4bdfef5ba5fa</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="B106" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2757244</v>
+        <v>2046304</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2500,18 +2522,18 @@
         <v>0</v>
       </c>
       <c r="F106" t="str">
-        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
+        <v>d4db8b9f33f7e17e60f704a1720d7bdcec0bf9c7e0f7b935a46f5f932b8674d6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="B107" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1924694</v>
+        <v>1236792</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2520,18 +2542,18 @@
         <v>0</v>
       </c>
       <c r="F107" t="str">
-        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
+        <v>f4510f71a0bdf8dc0074cd49a6c1a199857f5504e91e36a4387e961ed876b58a</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="B108" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C108">
-        <v>1987348</v>
+        <v>2757250</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2540,18 +2562,18 @@
         <v>0</v>
       </c>
       <c r="F108" t="str">
-        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
+        <v>ed10788a5b4bb57f608bc8ff9092774c78c773ce39911de61b1a5e223d3c41bf</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="B109" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1928568</v>
+        <v>1924708</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2560,18 +2582,18 @@
         <v>0</v>
       </c>
       <c r="F109" t="str">
-        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
+        <v>1228a4f8efdd7de6eb5361417059f3c9b81b16e919fdb478ca83b1ba5b1eaac5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="B110" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1498195</v>
+        <v>1987359</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2580,18 +2602,18 @@
         <v>0</v>
       </c>
       <c r="F110" t="str">
-        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
+        <v>41830d55b2bb2f00c5a9bf4b85d59fe8647f2b3a16fa74242d4535293936b68b</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="B111" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="C111">
-        <v>1893095</v>
+        <v>1986335</v>
       </c>
       <c r="D111" t="str">
         <v>Stage_1</v>
@@ -2600,18 +2622,18 @@
         <v>0</v>
       </c>
       <c r="F111" t="str">
-        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
+        <v>3c419c58c29aca43bc6f5991a9c45b7426608b6e4b495260f4185b9b9d1a929a</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="B112" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1944108</v>
+        <v>1681371</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2620,18 +2642,18 @@
         <v>0</v>
       </c>
       <c r="F112" t="str">
-        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
+        <v>6bf8ea921571ab35978f726263e641cbe60d288bd3eba577a4ccb27306c0e603</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="B113" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1305054</v>
+        <v>1893111</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2640,18 +2662,18 @@
         <v>0</v>
       </c>
       <c r="F113" t="str">
-        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
+        <v>e5762e77d248b75da3b3c2a85a340d38ce00b4e8451728efc9fccfb564c869b6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="B114" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C114">
-        <v>966703</v>
+        <v>1944101</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2660,18 +2682,18 @@
         <v>0</v>
       </c>
       <c r="F114" t="str">
-        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
+        <v>a6a3c7727bc8da7d557a64b3a14d9db538f5195e0d0ce5c77f4e59b83ea46c7a</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="B115" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1022199</v>
+        <v>1305068</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2680,18 +2702,18 @@
         <v>0</v>
       </c>
       <c r="F115" t="str">
-        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
+        <v>9131266dbd51ea7c34048d4d037f6f18eb241fc3cdbadb0600b5dc6d348b26ba</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="B116" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C116">
-        <v>735097</v>
+        <v>966707</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2700,18 +2722,18 @@
         <v>0</v>
       </c>
       <c r="F116" t="str">
-        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
+        <v>34146bd0a9ef27120b69314da4b7412ac20fd64db230510643a7d3d16de963c4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="B117" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>884678</v>
+        <v>1022206</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2720,18 +2742,18 @@
         <v>0</v>
       </c>
       <c r="F117" t="str">
-        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
+        <v>6f7b73eff36fcbe18229782a1dd704302b7099692798f6f27e8ccf345e59a9ee</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="B118" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C118">
-        <v>747233</v>
+        <v>735094</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2740,18 +2762,18 @@
         <v>0</v>
       </c>
       <c r="F118" t="str">
-        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
+        <v>7957019b935106ab080f157aeb3056eaa4e1e5bd0b817658968f76b9f68f90fa</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="B119" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C119">
-        <v>929588</v>
+        <v>884679</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2760,18 +2782,18 @@
         <v>0</v>
       </c>
       <c r="F119" t="str">
-        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
+        <v>0bdf0643b3a6e2199b619cf39bc6eb8601c03aeca632afe96f0e7fc86b42df96</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="B120" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C120">
-        <v>1438187</v>
+        <v>747236</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2780,18 +2802,18 @@
         <v>0</v>
       </c>
       <c r="F120" t="str">
-        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
+        <v>0a148ee36dba2e00613145baf984f53d89c2c4464fa4bf4acb66cf8c0452c116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="B121" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C121">
-        <v>1738271</v>
+        <v>929593</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,18 +2822,18 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
+        <v>b01c27758fa0e5b0fdba0d051e47ae4450d2d0db87470db42cff2d2c332cfb7a</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="B122" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1379887</v>
+        <v>1438189</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2820,18 +2842,18 @@
         <v>0</v>
       </c>
       <c r="F122" t="str">
-        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
+        <v>a5a6e13b828701c18cc4ab0a1aefcdfe26b0dbd575d076e60886494bd137d3e2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="B123" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1668211</v>
+        <v>1738272</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2840,18 +2862,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
+        <v>0a48a089874026a617c92d3149fb5313b33dc3b9c2d21621c5ebcd1d06f0df4a</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="B124" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C124">
-        <v>1253483</v>
+        <v>1379889</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2860,18 +2882,18 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
+        <v>1420127fd1db7990b956039fb1bce3236c87c420d601a54beb857e4727ceabcc</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="B125" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C125">
-        <v>978057</v>
+        <v>1668214</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2880,18 +2902,18 @@
         <v>0</v>
       </c>
       <c r="F125" t="str">
-        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
+        <v>d473cfb3d47b34b4072fed757a235d08b1da54254badf92fed295bdae60dc36b</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="B126" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1465821</v>
+        <v>1253485</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2900,18 +2922,18 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
+        <v>81a7309611f728f29e5c00631b5e0a08b35d74eb20a2d5e4cd7b15e263ad8f7e</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="B127" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="C127">
-        <v>1838012</v>
+        <v>978059</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,18 +2942,18 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>042afc6bbfa105ab70c982bafc71b087961b64fbb0215cde27d11b926c0f0ad5</v>
+        <v>b0db55ebb96cfd8cf7b2564d7b6b75532fc8989f4db04c432a98fe926d047ac3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C128">
-        <v>2273863</v>
+        <v>1465823</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2962,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
+        <v>b0a817a1a9005afc751bc1a5087e5c5775c108dbfb89ea5c00747ecafe37e6b8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1563966</v>
+        <v>1837989</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2982,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
+        <v>6813d60ca42e0e1e22d63348220ad08c804726b63e82c9517144cf5af794cd05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C130">
-        <v>1892958</v>
+        <v>2327470</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +3002,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>c0a5cc39be87b9c267fdb6331ac3028dc9edc83e920d25c6e652a2d480019cc2</v>
+        <v>476b25f25ea3680cf684b91a4a8e964551244ef20e7bb6a30c5bb7fd3760fa4c</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0190_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0190_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C131">
-        <v>2642993</v>
+        <v>1563967</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3022,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>aa653015ced1307bd789943bf410ab0a5fc0eba4ecc36a5d0afa339acc21bc24</v>
+        <v>677e44364439c03b2643be703ae756e7e78061beaa471e6e3ad23b10dec20b8b</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C132">
-        <v>565267</v>
+        <v>1892919</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3042,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>df19f27bfd0b5259401459e4f18d2afb51c8e78a1140ee638b5d0579c76f1707</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C133">
-        <v>817949</v>
+        <v>2643057</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3062,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>2b49deab28ea069582df30c53cff3f05162b1bdc9a211a313f337da600cc0174</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C134">
-        <v>1562435</v>
+        <v>573980</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3082,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>94e7fa17b3264d905f51cefcc8ff91db036dddedc576fa3d92b08aaf964ef208</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C135">
-        <v>710862</v>
+        <v>817952</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3102,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
+        <v>fda664a7b0c6a0a5ef51ef1b9d2e68dc187ff2b4282beec74ff77b5bef1c6583</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_h0196_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_h0196_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1046813</v>
+        <v>1562440</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3122,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>3c8d9f0931acb0a572371f00e9ef548ed3ea0f8a126ca689c4032ba4bc6be583</v>
+        <v>cd0d43f866594894092bfa72f7c925b6e01e2662eea17335fc6584abd07c8c91</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0197_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0197_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C137">
-        <v>877460</v>
+        <v>710862</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3142,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>5af7ae5ab782a8ead145aab803f512b693183586329f030c5931bfa1545e49c1</v>
+        <v>ef87d99f4fc6edb7783a7dddcd0ca0e2cb8a65a05962052ce27946e94de30b51</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1081020</v>
+        <v>1046814</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3162,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>36df798c043b3182a277a897bc26df44edfd4988bc457710d141f3f37dce330f</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="C139">
-        <v>922797</v>
+        <v>877462</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3182,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>1cd0623cbf20262dcee322c4b462efcbe4a83d69349377baafd77a029ec92999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C140">
-        <v>677194</v>
+        <v>1081026</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3202,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>f65310500a4e202dcedc2243da1d940229e85f0539fe21379ffe8582e2523bd2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C141">
-        <v>810572</v>
+        <v>922796</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3222,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>ee9f9754b469cddb2593c2a91508b672f428447cc9db7753f3aabb2928d1ea40</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C142">
-        <v>967995</v>
+        <v>677195</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3242,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
+        <v>7db247d6fabc5ce716729393c6c9a5b645a97cdc9720e11459f7befcfd4e045d</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_h0208_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_h0208_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C143">
-        <v>774136</v>
+        <v>810575</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3262,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>0f1e10418d145d3280d48cf884a851410fd1caf031be41b30c339d7d1db0bad0</v>
+        <v>0090c7ade6da67f5b74141a06485a49c378a240de417a4c22636d124121b76de</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_h0209_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_h0209_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967131</v>
+        <v>967998</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3282,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>e7d22691dd2776a44d68e50548123000f69163c62f873b57d611657849e3d0e0</v>
+        <v>217be4bf21d335cb71b55fdb4d31a9a7279d445f0fe85f9cf24c1bef1caf62d4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_h0210_jp.ab</v>
+        <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_h0210_jp.ab</v>
+        <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>976464</v>
+        <v>774137</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3302,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>e5dd499dce7c2ee183b41c1fe0bb0ebe0265a9500a8a07aceef39ee060b69461</v>
+        <v>bbfa58683b15e0f13ff91790ddb3e3c89a40a836a21fb5db765bf26c9ced5e65</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="C146">
-        <v>274141</v>
+        <v>1046540</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3322,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>1760ef2f6ba0fbbeed78e2a625e68724d36c698bdc6b96860edd7ef5db67eaa0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0210_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0210_jp.ab</v>
       </c>
       <c r="C147">
-        <v>220278</v>
+        <v>976467</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3342,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>536a0eafaf49dac589a428dc01427c474cbd6c2e042cd154302895731591cd9e</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0213_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0213_jp.ab</v>
       </c>
       <c r="C148">
-        <v>95937</v>
+        <v>1108279</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3362,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>c57d9f9aa94faeeccc5dc0e8541f7bbb2c05bee5cce4211df599ac14eb66f8bf</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h0215_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h0215_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1390715</v>
+        <v>1225724</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3382,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>454d5ab9e2b2cfea6ab7d81449d4bbe2cf8b238a5ce38f76c4b2f3b539fef92e</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h0216_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h0216_jp.ab</v>
       </c>
       <c r="C150">
-        <v>4141815</v>
+        <v>1220952</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3402,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>78e22da6aa4588298544512d6e7e380dc1a2a37718643ffaf3167986358f2f99</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_h0217_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_h0217_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1438361</v>
+        <v>974982</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3422,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>b7c139fa195fdf9b40fd7e1c8e5d76ea88b3b6da8b86114b5e60509a961f0c08</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_h0219_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_h0219_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1066357</v>
+        <v>977562</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3442,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>4acb3205b612aea769180c93ae17da31d2cfe494199e0777510a443e2f35e05e</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_h0220_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_h0220_jp.ab</v>
       </c>
       <c r="C153">
-        <v>883192</v>
+        <v>1002160</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3462,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>cf822740486ee3d6f60df636628b4fdd55d0e35452d4aa071ad977b4e435f9a9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_h0221_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_h0221_jp.ab</v>
       </c>
       <c r="C154">
-        <v>903959</v>
+        <v>1054460</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3482,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>86d343e001bdcd963f79a4918f42764020840e169a4127babd4d256b02f0b5b4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1396254</v>
+        <v>1031308</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3502,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>76f90c57f1b3b8f107a6a52a4eab7e7733623a4c6adcfdaafa0b2b22298922c7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_h0226_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_h0226_jp.ab</v>
       </c>
       <c r="C156">
-        <v>995093</v>
+        <v>1134470</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3522,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>bd55288f714ffa1a604086bc4c89238afb248fd2421509659d915715637fa8b2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_h0227_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_h0227_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1222449</v>
+        <v>1040337</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3542,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>6e35359d3dc746289c40e93c7448ff3399ff5d161e36365509b2cc69bc744f7d</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_h0230_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_h0230_jp.ab</v>
       </c>
       <c r="C158">
-        <v>694989</v>
+        <v>1022960</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3562,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>cb87d87d276794017e98533f2d373f1db0f9fe3c0b84632c170df759557928ac</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C159">
-        <v>3816644</v>
+        <v>1390240</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3582,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>b7baecc4fcf1876a72169d231b584b62a7febaa95667f0fe67ad0ae7216a78f1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1950973</v>
+        <v>1911214</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3602,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>22edb1607a5d8c1b1b848c39fad542cfee030ba5a858f71ce73abb226e7769da</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_h0234_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_h0234_jp.ab</v>
       </c>
       <c r="C161">
-        <v>2974111</v>
+        <v>1859302</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3622,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>7dbd7a286d2e447bdca0849f6b1befed5583672236f82c8b1b68b31f5df11bd3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_h0235_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_h0235_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1992973</v>
+        <v>2384177</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3642,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
+        <v>6946e74191b3cba83ad0a1e57e00805cfee6ac3de31b62e38a1487950dfcb4ab</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_h0236_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_h0236_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2340716</v>
+        <v>2245978</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3662,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>aff7002ec327dea73b14b732b71b51102f006c7bc536f8d2eaafbdb8af526711</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1950992</v>
+        <v>2431132</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3682,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>4fa53f95c47734fb4c441e1343aa0b0c20b0683fbac31c6e79e4715453aab59c</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_h0238_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_h0238_jp.ab</v>
       </c>
       <c r="C165">
-        <v>2411042</v>
+        <v>867922</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3702,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>dd407d7f143de4db0455f9f5fafb92cea85bb015b84aa8a88187e7aa9521959e</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_h0239_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_h0239_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2120062</v>
+        <v>5844653</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3722,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>5ecbb7f695b47f60808c7da0b568b60580ab57403df3b3eca4909cfd43248975</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_h0240_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_h0240_jp.ab</v>
       </c>
       <c r="C167">
-        <v>1952779</v>
+        <v>924349</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3742,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>d6cacfb89ee8d43ee5b1a873e0d46863a69766df01c69031b8b31e7e86cb55b8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_h0241_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_h0241_jp.ab</v>
       </c>
       <c r="C168">
-        <v>1736027</v>
+        <v>1125056</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3762,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>6aa95d4b324419af4caf29cf9c68b7d98bd1fd822c1860dd6a4a468137a1a3b3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_h0243_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_h0243_jp.ab</v>
       </c>
       <c r="C169">
-        <v>2460159</v>
+        <v>608160</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3782,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
+        <v>1acca5d8814bbfc23a6b51bcfa7f59958e1032a45a4c0f8ce08dcc35f3c19476</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1973738</v>
+        <v>1110558</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3802,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>d3a4fb169f6ae64ef5cd27a33779e03f93867e3959f708a16d6461e270d49a29</v>
+        <v>155e713aec39971edc4bf23abd4297404d9f05b629382c37889994db8c37e1a1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_h0245_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_h0245_jp.ab</v>
       </c>
       <c r="C171">
-        <v>2403904</v>
+        <v>1354431</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3822,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
+        <v>071ee9f43965eb6ca632db3bbf8478ea81286141004c84821878d850d78f283e</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_h0247_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_h0247_jp.ab</v>
       </c>
       <c r="C172">
-        <v>1290320</v>
+        <v>939767</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3842,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>c563c1d35fba9a7bfd0bd8c801cfa6680ddb52ceda9bd90e9ddfddda47463aa4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_h0248_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_h0248_jp.ab</v>
       </c>
       <c r="C173">
-        <v>940740</v>
+        <v>1234718</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3862,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>9303999680361d4a349d365b6857314694775dd90aad23c0787615730521bd0d</v>
+        <v>17ef73fed5ee585179a5649820d2471d9cbac18000667f2a621bc3cda3621652</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_h0249_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_h0249_jp.ab</v>
       </c>
       <c r="C174">
-        <v>316223</v>
+        <v>899110</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3882,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>cef22b20458d9a8546073050e97baf61aaf1311bb9b0d9a32680d3fecefd92ac</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_h0253_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_h0253_jp.ab</v>
       </c>
       <c r="C175">
-        <v>164049</v>
+        <v>1011101</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3902,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>48c338b37ad6c5bb8a451791d71d64b8837d013f37472934d328af59f84c38a7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_h0255_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_h0255_jp.ab</v>
       </c>
       <c r="C176">
-        <v>214576</v>
+        <v>983158</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3922,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>a7ff5d0f98a1dd62ae5190e11716ac0239aaa57ca7a2f727ee62edbc04b9b165</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_h0256_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_h0256_jp.ab</v>
       </c>
       <c r="C177">
-        <v>310401</v>
+        <v>1317836</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3942,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>4dd2dbeafa47a9126d648ae1e287b45ced3859c8786957c9ed1345ac5e67234e</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_h0257_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_h0257_jp.ab</v>
       </c>
       <c r="C178">
-        <v>288961</v>
+        <v>1131207</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3962,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>ce2a97ebb0ccff50b76fba38d4287320ac6ce63b15c681a3204a1f396fdffc94</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_h0259_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_h0259_jp.ab</v>
       </c>
       <c r="C179">
-        <v>270577</v>
+        <v>1446713</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3982,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>54c06eff4ff4c3553541d47dc4995d0832ff5e51c2428d1a0c8f08e330568659</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_h0262_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_h0262_jp.ab</v>
       </c>
       <c r="C180">
-        <v>3023645</v>
+        <v>1140808</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +4002,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
+        <v>25d7d3a23455f14c5e75dc7b70b7d31503c90f0d94c29436174fa96fb869a2a5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_h0264_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_h0264_jp.ab</v>
       </c>
       <c r="C181">
-        <v>3145123</v>
+        <v>973033</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4022,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
+        <v>0448a14211f66d92c46f8d0430373d1b36713c5875506be5502af3cf690292ac</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_h0265_jp.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_h0265_jp.ab</v>
       </c>
       <c r="C182">
-        <v>3043802</v>
+        <v>1201262</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4042,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
+        <v>36b01de1a2b39e0f7de44d7edc242d5029eb8cac21ed3a33604ec185dc118d8a</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_h0266_jp.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_h0266_jp.ab</v>
       </c>
       <c r="C183">
-        <v>3028083</v>
+        <v>1292356</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4062,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
+        <v>585c7fcd0fe3b15fc204e0f74dbd7c90ca5ee1b899777f0a277b3b578729a20e</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C184">
-        <v>798875</v>
+        <v>274141</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4082,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C185">
-        <v>3219161</v>
+        <v>220279</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4102,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C186">
-        <v>804705</v>
+        <v>95939</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4122,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C187">
-        <v>217175</v>
+        <v>1390720</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4142,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C188">
-        <v>3141151</v>
+        <v>4141827</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4162,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C189">
-        <v>3284284</v>
+        <v>1438365</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4182,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C190">
-        <v>3137676</v>
+        <v>1066358</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4202,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C191">
-        <v>3204144</v>
+        <v>883188</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4222,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C192">
-        <v>808087</v>
+        <v>903966</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4242,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C193">
-        <v>723046</v>
+        <v>1396256</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4262,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C194">
-        <v>835305</v>
+        <v>995096</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4282,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C195">
-        <v>3854073</v>
+        <v>1222454</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4302,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C196">
-        <v>832994</v>
+        <v>694990</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4322,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C197">
-        <v>735348</v>
+        <v>3816646</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4342,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C198">
-        <v>823171</v>
+        <v>1950973</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4362,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C199">
-        <v>758108</v>
+        <v>2974171</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4382,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C200">
-        <v>3115598</v>
+        <v>1992962</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4402,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C201">
-        <v>3805217</v>
+        <v>2340708</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4422,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C202">
-        <v>3993369</v>
+        <v>1950991</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4442,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C203">
-        <v>4051885</v>
+        <v>2527577</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4462,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
+        <v>6f31b6b3134e7be9114828c534a1bd1df6311033e5cde7af58e453a261307349</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C204">
-        <v>3131428</v>
+        <v>2120062</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4482,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C205">
-        <v>3199815</v>
+        <v>1952767</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4502,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C206">
-        <v>3118717</v>
+        <v>1736024</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4522,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C207">
-        <v>3862309</v>
+        <v>2460156</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4542,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C208">
-        <v>2953626</v>
+        <v>1973755</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4562,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C209">
-        <v>3037074</v>
+        <v>2403910</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4582,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C210">
-        <v>3930601</v>
+        <v>1290319</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4602,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C211">
-        <v>2729122</v>
+        <v>940739</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4622,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C212">
-        <v>863303</v>
+        <v>1484342</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4642,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C213">
-        <v>840754</v>
+        <v>1202868</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4662,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>audioclip_sfx_t0218_jp.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>audioclip_sfx_t0218_jp.ab</v>
       </c>
       <c r="C214">
-        <v>805251</v>
+        <v>619268</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4682,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
+        <v>76c2f395f7dd3e6968171d854f1a945ff726837685d2a94e2a19c1fe8c217be8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="C215">
-        <v>792882</v>
+        <v>781277</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4702,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
+        <v>c1be58c088b69a1fd1f997ba5f0d043bb187c8feb06162a49a38b291cde93ed5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="C216">
-        <v>3092283</v>
+        <v>988345</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4722,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
+        <v>1f449da36a5721d749c0a977bfc07acd9568c1e47886840b5d6eca12d7ba7911</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>audioclip_sfx_t0225_jp.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>audioclip_sfx_t0225_jp.ab</v>
       </c>
       <c r="C217">
-        <v>815755</v>
+        <v>867411</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4742,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
+        <v>2403978508b152e347b3f46dda625a4f30324882f2594dd64dcade93354bca03</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="C218">
-        <v>2490004</v>
+        <v>1009845</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4762,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
+        <v>c501f9ab00ed7a5a51aa0e3f5e6c69e2f59abe0a18f0989109e95f748974c93b</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="C219">
-        <v>2453815</v>
+        <v>1117663</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4782,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
+        <v>9f7f6b1d211cc28e51714ec88ca1c3e39dd93ff9915f15d9f74be6b519c65ede</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="C220">
-        <v>3878494</v>
+        <v>1242757</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4802,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
+        <v>ce08981162e66466b4ee4e4da78ceb0ffc741426c58cd5e7fd42f26741c67bfb</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C221">
-        <v>3218703</v>
+        <v>955689</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4822,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
+        <v>b7ace3ce40220f62e3d18d05ec7660b190503c1030c184741d45181e67939878</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="C222">
-        <v>2360335</v>
+        <v>890771</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4842,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
+        <v>983311ac98117dad253ea5b6a92e1c836692f5f1be8f54da5e2c61e3f0085062</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>audioclip_sfx_t0250_jp.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>audioclip_sfx_t0250_jp.ab</v>
       </c>
       <c r="C223">
-        <v>3115693</v>
+        <v>1509664</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4862,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
+        <v>1af58272bb08ddde51eb1ba60f0704e4df9b5465bdfeeac1ff193ce56384bdb3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>audioclip_sfx_t0251_jp.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>audioclip_sfx_t0251_jp.ab</v>
       </c>
       <c r="C224">
-        <v>2370438</v>
+        <v>1812579</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4882,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
+        <v>83103a7a033808c88ac06462bb696421ca4aefe89e7096d385cd786c89d83f7e</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="C225">
-        <v>5000044</v>
+        <v>2885317</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4902,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
+        <v>148649f548044e6098a6642c2fa9ad1b9ff8e00150a71f5809dda3927fe4701f</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>audioclip_sfx_t0254_jp.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>audioclip_sfx_t0254_jp.ab</v>
       </c>
       <c r="C226">
-        <v>3102521</v>
+        <v>1288917</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4922,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
+        <v>d904be8b981ba87777b1f00a5a758bc50493dacb6f15c975bde4aebd7d563ca8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>audioclip_sfx_t0258_jp.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>audioclip_sfx_t0258_jp.ab</v>
       </c>
       <c r="C227">
-        <v>2269590</v>
+        <v>1912958</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4942,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>6f333a9e43573786e42d4b22b134662f993e5ddc208318ac85db6cd3079d1ed0</v>
+        <v>b5c1c04a2837264abf5aabfdb7cd0e6b28f8d9c1552e191d433be8dedb7018db</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C228">
-        <v>2121106</v>
+        <v>316226</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4962,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C229">
-        <v>2194737</v>
+        <v>164051</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4982,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C230">
-        <v>2182076</v>
+        <v>214580</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +5002,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C231">
-        <v>3062513</v>
+        <v>310407</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5022,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C232">
-        <v>2305933</v>
+        <v>288969</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5042,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C233">
-        <v>4010041</v>
+        <v>270580</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5062,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C234">
-        <v>755259</v>
+        <v>3127774</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5082,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
+        <v>78e784ceac79715e6f390d5b83f7fb527e8cb5b0404a6f1be45b313a5ba02dc1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C235">
-        <v>2076970</v>
+        <v>3331653</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5102,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
+        <v>dd04ef36d2763124089134dbe7458b80907450a71e52752c5290f0de6f4e7eae</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C236">
-        <v>584345</v>
+        <v>3412887</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5122,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
+        <v>24f9a0b1ca8b96b3da27e0f1d94e381499f584471f56b3c2a7241ae4f6141d8c</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C237">
-        <v>814180</v>
+        <v>4001030</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5142,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
+        <v>1bb8cecd4d65d3465875868908bde0e58a0c63eb9afd917907feb7180b3b8914</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C238">
-        <v>778963</v>
+        <v>790826</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5162,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
+        <v>be4310c123d2b37d7bdd180f406795da17db9276c2abcf6d33c7f2d834798ba0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_b0260.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_b0260.ab</v>
       </c>
       <c r="C239">
-        <v>838014</v>
+        <v>809446</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5182,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
+        <v>5545e61f9af50ea439bb9425d49679c265b4b04153e748be9d8dff61b7f46113</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C240">
-        <v>831448</v>
+        <v>3558177</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5202,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
+        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C241">
-        <v>842933</v>
+        <v>797567</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5222,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
+        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C242">
-        <v>813230</v>
+        <v>208090</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5242,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
+        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C243">
-        <v>787191</v>
+        <v>3975187</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5262,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
+        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C244">
-        <v>785032</v>
+        <v>4306043</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5282,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
+        <v>8b2ed468e2fcba7d477e3da1fe08a3c2d69c7a5b700f1e557d14a5b1a72ba120</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C245">
-        <v>824423</v>
+        <v>3547758</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5302,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
+        <v>e3fca3c426d6ee0a3cf9dd6f304f8f25d2fef2a9b1ae6de05627d3db37e3fc6a</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C246">
-        <v>815518</v>
+        <v>3671173</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5322,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
+        <v>b5b543aee2a4ed561a42e5107bbea10ef79b2ad93842b832eb235533f7ca4f99</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C247">
-        <v>834843</v>
+        <v>803840</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5342,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
+        <v>e7a218ee7d7a55f01a0e251a424c46bcf384be8b50176d5cac868f9da0dde6d7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C248">
-        <v>796594</v>
+        <v>713224</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5362,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
+        <v>bbc9c213346cd9c77b113965f05ffa7d0b05ac187f68681435bf67674b00e146</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C249">
-        <v>3141917</v>
+        <v>831282</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5382,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
+        <v>c38406c3168894ab382175e94b7976eb5ea0caf4f1d7a22fe7b3860d8dc0759e</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C250">
-        <v>2354713</v>
+        <v>4679298</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5402,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
+        <v>6f4c0ef7a8999f67fbe814d23dd3f4bdd1d22cc0f44a0f13a9953615ce2d6580</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C251">
-        <v>2409483</v>
+        <v>823851</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5422,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
+        <v>8ce801de023c56fbb01494c4ca701ac2a955973683af0de63eb113c470fe54c3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C252">
-        <v>2373406</v>
+        <v>730593</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5442,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
+        <v>70018ef62ee1aa1a3b56fd711fb01a33ba58f72ed71b0ee34e169894cad9a529</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C253">
-        <v>2410234</v>
+        <v>808031</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5462,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
+        <v>da212d22735b71006f7bbebd8d2cf847ddf21d859344229cddf9f6ccf80c5372</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C254">
-        <v>821386</v>
+        <v>758977</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5482,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>8b88365c69bb5344a0f0022c3e0ae2283422666aca080b856f449d7397992782</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C255">
-        <v>801661</v>
+        <v>4615070</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5502,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>78559c267f1b3412982acc007d76441d8b75e93eb4bfcdb0e95485e9ecd87318</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C256">
-        <v>734943</v>
+        <v>3928747</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5522,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>649021775c3d944ec66710dc2833a8df8f6e11c44878c62f3b931ff660a3c2da</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C257">
-        <v>789416</v>
+        <v>4234934</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5542,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>95f82d1cb182f0d594eb6125d7b4f828b8e2b54c03c6a9b2a8a2688ae2b427ef</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C258">
-        <v>830625</v>
+        <v>4332457</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5562,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>4d633e8de21a01527f9364d84f44895010d4a5dec9f0ede8402c19749280609a</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C259">
-        <v>809405</v>
+        <v>3265010</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5582,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>ffdbdb5c7c3a5f8aec334500f40226b14d82ac63ff43d51fa83131e6be67c680</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C260">
-        <v>790581</v>
+        <v>3281917</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5602,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>055d98eaa385323f6b431d57d9158c227ec5ff8f3fa628b8fdac15595b44a475</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C261">
-        <v>730871</v>
+        <v>3268737</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5622,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>2a72b0b0d6249cd756219728440dca77f1388f67427663ba12f8ddac14f3a5c5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C262">
-        <v>832495</v>
+        <v>3878946</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5642,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>4d62229cbd284aa9391c2ae5728483edcdd7c3664570bc6980b143987362b95d</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C263">
-        <v>845422</v>
+        <v>3068963</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5662,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>d43431a351343bcce91b2b6839f9998d1c36be4e3f4f103a9b7bed45056690a6</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C264">
-        <v>824082</v>
+        <v>3311210</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5682,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>f844caa4342233c882176f4b3d3b5df3aa38df5704837c4e17b36f772a18fe85</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C265">
-        <v>793706</v>
+        <v>3958978</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5702,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
+        <v>5a7f4c68dffa0013111cececfe93648f43ea44a9d2ecc2f353cf7b7c8cb8f59c</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C266">
-        <v>844492</v>
+        <v>2916298</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5722,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
+        <v>b9696daa9252dec4261611f1f256637ee51cb3b8b33d0b92cfd3bba149001c6e</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C267">
-        <v>840170</v>
+        <v>855003</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5742,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
+        <v>289b0ed905365cd5e8cb89fe42ac33d47e5f572cfc93a7419bb99f39ea7341d1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C268">
-        <v>3260452</v>
+        <v>834045</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5762,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>6b42ad4bbc2598a1f1702e175d9bf9f511e485fa19f3fa86a86c22eb8cc7f23e</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C269">
-        <v>3057578</v>
+        <v>799261</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5782,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>5f1d547ddd7b8ce59a4e005ebe350bdc99957ad7f687d685d31014cccf81c0fc</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C270">
-        <v>2418183</v>
+        <v>777116</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5802,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>ec22258063c80e1c82446b8a02dd46be8a92091df93f324eb9cf423dbee75c4a</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C271">
-        <v>801172</v>
+        <v>4131491</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5822,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>2e3087d8674c5bff6c4f6a7957f7b459bfefc77083b6fa9050da6c234e5fcd06</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C272">
-        <v>845890</v>
+        <v>806083</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5842,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>75ea8ae022a44b3b64d866c990239078893ea0883aa85a84522e0d99fff85500</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C273">
-        <v>4674865</v>
+        <v>4289279</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5862,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>3f3f9d99623d7683093487b65cfd461be53bd2b8153a9419bb9880bf3086fee3</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C274">
-        <v>3206957</v>
+        <v>3816882</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5882,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>e342bcc9d451f54427e9e676142ce9d3e42283c78c64adf074fd6754f8b711c9</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C275">
-        <v>2932816</v>
+        <v>5051199</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5902,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>a85ef6c19ca8f47ed76b9c9f22aa8d48512b3d1dc156cdb37fdebe8d80ff9e1a</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C276">
-        <v>3249855</v>
+        <v>4176002</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5922,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>206d98bef7c96e960896ee8ee4a7b90e71f4c30bd73f9833cbe46d246c450f78</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C277">
-        <v>3083079</v>
+        <v>4242518</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5942,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>824b86c0e40aefc0770c167f978bc2fd4c1925a9efe1e9691c60a2eb5122c14e</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C278">
-        <v>814925</v>
+        <v>3266671</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5962,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>6242bc0a6af6955ac2a0a8d31fee0a742dd006425a34614572a0ff0a6cf3ac30</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C279">
-        <v>796054</v>
+        <v>3395405</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5982,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>c07b0a8e238a880228b5a27ac66e50bd4cd42ef64dd35769fbadb7ef4f9419aa</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C280">
-        <v>2108392</v>
+        <v>5218305</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +6002,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>0202ec87f638f3fd76d7a98dd5eb291a5d0c8125ded3ecb47f078dccd09f3a0b</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C281">
-        <v>2325081</v>
+        <v>3156222</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6022,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>23b70b245fb51ad1ff3124e47b98d8fd49cfc73ff7c5b97409552acded965e5c</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C282">
-        <v>3136109</v>
+        <v>4037956</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6042,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>d7d2064c4b7799f6f05c0bea7820d77879988674b6cbb863fc6ffff294516853</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C283">
-        <v>2384012</v>
+        <v>2589817</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6062,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>e319306d4c24fd23c4a7473ad0c6218a96d6abcbf8062198b2d17c4362a88c65</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C284">
-        <v>3990712</v>
+        <v>3232149</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6082,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>3d27bb9df8d360989f595c83964e2a94d8e5fd22b8f7a6c1193e7c4cc257a6dd</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C285">
-        <v>2337620</v>
+        <v>3117108</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6102,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>2ce3ea84a16615d2d212b5c34a99171686d2a4e36cff83cf509ebbfb367e0b2d</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C286">
-        <v>2488786</v>
+        <v>4175238</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6122,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>54cf04627438a03b859ddb2f4687af86522a3814168449e0f183e1fc0bb2a847</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C287">
-        <v>2009306</v>
+        <v>3438941</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6142,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>69896b88d7b878ed3a9ae0ccaac412a1dcead089da47686152318321fd1de238</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C288">
-        <v>2311052</v>
+        <v>4097341</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6162,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>a660b7d68977f955ba7ceced1adadab138e4fc76cc5208da43d9369b9dc59e23</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C289">
-        <v>2377977</v>
+        <v>750978</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6182,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>38de7487f089a655ef8ef162c0d101525d83e7f406dabf459b3a9c8390380122</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C290">
-        <v>2300378</v>
+        <v>2078410</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,18 +6202,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
+        <v>6cb30643d3b6c9be725cce1f64f07b98426ba01da9ad3e9b127862d8b8dbccf8</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C291">
-        <v>2329645</v>
+        <v>562150</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6200,18 +6222,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+        <v>8950a764fe423f950c36d8d8c330f207f071139213a0be60bebb3ded5fe329cd</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C292">
-        <v>852233</v>
+        <v>796221</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6220,33 +6242,2213 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+        <v>1e0a607d278479f68829b034dc3e31e3ff73f88dee2ff778c5c4398d845d97e6</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
+        <v>character_largeimage_h0166.ab</v>
+      </c>
+      <c r="B293" t="str">
+        <v>character_largeimage_h0166.ab</v>
+      </c>
+      <c r="C293">
+        <v>770702</v>
+      </c>
+      <c r="D293" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" t="str">
+        <v>e434b87a3241dae1f7d81acd86f8102e93895ec6ab30272f57fd9721c6d1bcfa</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>character_largeimage_h0167.ab</v>
+      </c>
+      <c r="B294" t="str">
+        <v>character_largeimage_h0167.ab</v>
+      </c>
+      <c r="C294">
+        <v>820636</v>
+      </c>
+      <c r="D294" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294" t="str">
+        <v>c5d28976c731cae2d777b0675466878565052af34c557d71d7009162fbe813e8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>character_largeimage_h0168.ab</v>
+      </c>
+      <c r="B295" t="str">
+        <v>character_largeimage_h0168.ab</v>
+      </c>
+      <c r="C295">
+        <v>817925</v>
+      </c>
+      <c r="D295" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295" t="str">
+        <v>d596388ecc3145e4279aed0ec7f8b25c8a5abbfeaf17c76560902f42fd6fd46c</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>character_largeimage_h0169.ab</v>
+      </c>
+      <c r="B296" t="str">
+        <v>character_largeimage_h0169.ab</v>
+      </c>
+      <c r="C296">
+        <v>830548</v>
+      </c>
+      <c r="D296" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296" t="str">
+        <v>694f5ecefeccf73e0d79fcbde42e9a7552d32c2dc69d3894af27e1b92e9c9327</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>character_largeimage_h0170.ab</v>
+      </c>
+      <c r="B297" t="str">
+        <v>character_largeimage_h0170.ab</v>
+      </c>
+      <c r="C297">
+        <v>802577</v>
+      </c>
+      <c r="D297" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" t="str">
+        <v>22ce1b1174d04d190ad9105ae99b8268e4b5b4bce7d43dbd7bac3a6930162aa5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>character_largeimage_h0171.ab</v>
+      </c>
+      <c r="B298" t="str">
+        <v>character_largeimage_h0171.ab</v>
+      </c>
+      <c r="C298">
+        <v>782755</v>
+      </c>
+      <c r="D298" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" t="str">
+        <v>fa33b1b6747266a27a42f0fe654fadc5c45d1b7ca97b1b8f2d52b3b0d3c7c647</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>character_largeimage_h0172.ab</v>
+      </c>
+      <c r="B299" t="str">
+        <v>character_largeimage_h0172.ab</v>
+      </c>
+      <c r="C299">
+        <v>783966</v>
+      </c>
+      <c r="D299" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" t="str">
+        <v>6c80e0e30faa685a6e8861942e4283309563a109980a7b43ad0f6c8f7b3fd812</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>character_largeimage_h0174.ab</v>
+      </c>
+      <c r="B300" t="str">
+        <v>character_largeimage_h0174.ab</v>
+      </c>
+      <c r="C300">
+        <v>818586</v>
+      </c>
+      <c r="D300" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" t="str">
+        <v>4189f28a4927c0faa536e86f0b2978390507c7e2a3f7182854f18827713a9ae6</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>character_largeimage_h0175.ab</v>
+      </c>
+      <c r="B301" t="str">
+        <v>character_largeimage_h0175.ab</v>
+      </c>
+      <c r="C301">
+        <v>804643</v>
+      </c>
+      <c r="D301" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="str">
+        <v>5779e4f64a588b7ba406c3f77cbe5a7623a881612f260d82d0fdd015454ce4e5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>character_largeimage_h0176.ab</v>
+      </c>
+      <c r="B302" t="str">
+        <v>character_largeimage_h0176.ab</v>
+      </c>
+      <c r="C302">
+        <v>815725</v>
+      </c>
+      <c r="D302" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302" t="str">
+        <v>670e37924a1dc65b3257f7ea9ea57af53ef77c50e363aa558450edda73a3971e</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>character_largeimage_h0177.ab</v>
+      </c>
+      <c r="B303" t="str">
+        <v>character_largeimage_h0177.ab</v>
+      </c>
+      <c r="C303">
+        <v>787384</v>
+      </c>
+      <c r="D303" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303" t="str">
+        <v>72c7aa064bb39180b9f70c05d799875beb09b87e0863e05312f2b613f6296aaa</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>character_largeimage_h0179.ab</v>
+      </c>
+      <c r="B304" t="str">
+        <v>character_largeimage_h0179.ab</v>
+      </c>
+      <c r="C304">
+        <v>3226990</v>
+      </c>
+      <c r="D304" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304" t="str">
+        <v>78cff653adce00a0271b9b386462b605c5155aa5328a916a2c1e7472ef53800b</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>character_largeimage_h0183.ab</v>
+      </c>
+      <c r="B305" t="str">
+        <v>character_largeimage_h0183.ab</v>
+      </c>
+      <c r="C305">
+        <v>3520720</v>
+      </c>
+      <c r="D305" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305" t="str">
+        <v>f0b995ef5d339afb76d7292b967c27ba26b3f240505eddecf275b18d014acabe</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>character_largeimage_h0185.ab</v>
+      </c>
+      <c r="B306" t="str">
+        <v>character_largeimage_h0185.ab</v>
+      </c>
+      <c r="C306">
+        <v>2771089</v>
+      </c>
+      <c r="D306" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306" t="str">
+        <v>bfa55cdf6f0750acee979cdf5cdc7840f4de769c34b7e38431644cf7a21ae6ba</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>character_largeimage_h0186.ab</v>
+      </c>
+      <c r="B307" t="str">
+        <v>character_largeimage_h0186.ab</v>
+      </c>
+      <c r="C307">
+        <v>3669448</v>
+      </c>
+      <c r="D307" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307" t="str">
+        <v>d9f408df598bbed9f98731ebbbc24dd54c87d8faf6db4f9f6ed0bbdc627164f9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>character_largeimage_h0190.ab</v>
+      </c>
+      <c r="B308" t="str">
+        <v>character_largeimage_h0190.ab</v>
+      </c>
+      <c r="C308">
+        <v>3422472</v>
+      </c>
+      <c r="D308" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308" t="str">
+        <v>6a96ed9bc7dae9b6a94560a7a2a2c4c968aa9c666608866700784adbd28efe9e</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>character_largeimage_h0191.ab</v>
+      </c>
+      <c r="B309" t="str">
+        <v>character_largeimage_h0191.ab</v>
+      </c>
+      <c r="C309">
+        <v>808827</v>
+      </c>
+      <c r="D309" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309" t="str">
+        <v>b849caca8249392ed9cb5fbc69ad00daebd22a57c5dbe8dd0ef8e36a983745d0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>character_largeimage_h0192.ab</v>
+      </c>
+      <c r="B310" t="str">
+        <v>character_largeimage_h0192.ab</v>
+      </c>
+      <c r="C310">
+        <v>792810</v>
+      </c>
+      <c r="D310" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310" t="str">
+        <v>2b02b549d1958dcd7765bd6847f70978d863dd130ffa8e646f5fdc031cdc8351</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>character_largeimage_h0193.ab</v>
+      </c>
+      <c r="B311" t="str">
+        <v>character_largeimage_h0193.ab</v>
+      </c>
+      <c r="C311">
+        <v>725025</v>
+      </c>
+      <c r="D311" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311" t="str">
+        <v>c54d37a9842bc35f6a53430f7b78bf25398c17e364d4fd7af908f2f9e6a41a4a</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>character_largeimage_h0194.ab</v>
+      </c>
+      <c r="B312" t="str">
+        <v>character_largeimage_h0194.ab</v>
+      </c>
+      <c r="C312">
+        <v>785465</v>
+      </c>
+      <c r="D312" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312" t="str">
+        <v>36cc8950d881f726e02b7e855085ff44ade33666176018a788d9faec4f87090f</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>character_largeimage_h0196.ab</v>
+      </c>
+      <c r="B313" t="str">
+        <v>character_largeimage_h0196.ab</v>
+      </c>
+      <c r="C313">
+        <v>815412</v>
+      </c>
+      <c r="D313" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313" t="str">
+        <v>6a6748aa0319948886214cb8c63c8cec143ea660d596ef8d6d978fdd3511b82a</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>character_largeimage_h0197.ab</v>
+      </c>
+      <c r="B314" t="str">
+        <v>character_largeimage_h0197.ab</v>
+      </c>
+      <c r="C314">
+        <v>798179</v>
+      </c>
+      <c r="D314" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314" t="str">
+        <v>c7d74889421f50783e19f16bfee0461d528a543471b9b45ae4aa772b774876c0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>character_largeimage_h0198.ab</v>
+      </c>
+      <c r="B315" t="str">
+        <v>character_largeimage_h0198.ab</v>
+      </c>
+      <c r="C315">
+        <v>781740</v>
+      </c>
+      <c r="D315" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315" t="str">
+        <v>2055d9937e4e0b0a8811536085a0478651eb0f01fc6dfec0c170ac2391a1d44b</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>character_largeimage_h0199.ab</v>
+      </c>
+      <c r="B316" t="str">
+        <v>character_largeimage_h0199.ab</v>
+      </c>
+      <c r="C316">
+        <v>723932</v>
+      </c>
+      <c r="D316" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316" t="str">
+        <v>54fb809610bab1d842ba2f6c9092c659035994f46801d54970375ee2ea3c5dac</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>character_largeimage_h0200.ab</v>
+      </c>
+      <c r="B317" t="str">
+        <v>character_largeimage_h0200.ab</v>
+      </c>
+      <c r="C317">
+        <v>817588</v>
+      </c>
+      <c r="D317" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317" t="str">
+        <v>b19a3f8eb2a00ec2e2fafcdb4ae347a5e27c5d935a48a989071d64f8daa7c711</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>character_largeimage_h0201.ab</v>
+      </c>
+      <c r="B318" t="str">
+        <v>character_largeimage_h0201.ab</v>
+      </c>
+      <c r="C318">
+        <v>835275</v>
+      </c>
+      <c r="D318" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318" t="str">
+        <v>976aa2fcf5e09deb4a3ab659fb8a8e9afc3c27bbb832920dde15ea1cb2d990db</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>character_largeimage_h0203.ab</v>
+      </c>
+      <c r="B319" t="str">
+        <v>character_largeimage_h0203.ab</v>
+      </c>
+      <c r="C319">
+        <v>810774</v>
+      </c>
+      <c r="D319" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319" t="str">
+        <v>8a135d2928943c0ee8f93db24bb041ac0925554dfa5e69c1d8ed784c1517bab2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>character_largeimage_h0208.ab</v>
+      </c>
+      <c r="B320" t="str">
+        <v>character_largeimage_h0208.ab</v>
+      </c>
+      <c r="C320">
+        <v>782587</v>
+      </c>
+      <c r="D320" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320" t="str">
+        <v>c8b75ce568e328d85fb21c02c1ab9c4309d261e1771ad612854e065b528e80b6</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>character_largeimage_h0209.ab</v>
+      </c>
+      <c r="B321" t="str">
+        <v>character_largeimage_h0209.ab</v>
+      </c>
+      <c r="C321">
+        <v>832318</v>
+      </c>
+      <c r="D321" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321" t="str">
+        <v>551c9d38c10aaa35dc668fa95d4ab634ea90021e999ec43e3b3692a33f37308c</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>character_largeimage_h0210.ab</v>
+      </c>
+      <c r="B322" t="str">
+        <v>character_largeimage_h0210.ab</v>
+      </c>
+      <c r="C322">
+        <v>825127</v>
+      </c>
+      <c r="D322" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322" t="str">
+        <v>8589c6aa5e2a1402cd077069b6a7c5b7963e4990bf24ef1ae425fa5b6fe77851</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>character_largeimage_h0213.ab</v>
+      </c>
+      <c r="B323" t="str">
+        <v>character_largeimage_h0213.ab</v>
+      </c>
+      <c r="C323">
+        <v>765539</v>
+      </c>
+      <c r="D323" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323" t="str">
+        <v>7ceaafb884feff69f0cad1625495c0b9623b4abcdb13918dee5ec9782b9e7c6f</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>character_largeimage_h0215.ab</v>
+      </c>
+      <c r="B324" t="str">
+        <v>character_largeimage_h0215.ab</v>
+      </c>
+      <c r="C324">
+        <v>759394</v>
+      </c>
+      <c r="D324" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324" t="str">
+        <v>8e6f4b217298f11e5493e50b5f41aefd8b49f8f0d3d68747e30ebde5fcb495af</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>character_largeimage_h0216.ab</v>
+      </c>
+      <c r="B325" t="str">
+        <v>character_largeimage_h0216.ab</v>
+      </c>
+      <c r="C325">
+        <v>736440</v>
+      </c>
+      <c r="D325" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325" t="str">
+        <v>1ba74f46cf112a8fbabd9dbe94f3e47c6b8fae0f59caf2cbd33d263176d536eb</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>character_largeimage_h0217.ab</v>
+      </c>
+      <c r="B326" t="str">
+        <v>character_largeimage_h0217.ab</v>
+      </c>
+      <c r="C326">
+        <v>828877</v>
+      </c>
+      <c r="D326" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326" t="str">
+        <v>84f2c50e0b0f149fc2a5da0a87b10af733ba6c544daf4e3f9dd4c2c2e702fe60</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>character_largeimage_h0219.ab</v>
+      </c>
+      <c r="B327" t="str">
+        <v>character_largeimage_h0219.ab</v>
+      </c>
+      <c r="C327">
+        <v>817529</v>
+      </c>
+      <c r="D327" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327" t="str">
+        <v>87101cadb86464c4b19e924805d524f2a1700367f5a505fb1ae5f7bc289886f2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>character_largeimage_h0220.ab</v>
+      </c>
+      <c r="B328" t="str">
+        <v>character_largeimage_h0220.ab</v>
+      </c>
+      <c r="C328">
+        <v>689304</v>
+      </c>
+      <c r="D328" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328" t="str">
+        <v>0838c201cac6aa71480937da9424b05a4dfbe7d617bb0811c64a08f8fbc44329</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>character_largeimage_h0221.ab</v>
+      </c>
+      <c r="B329" t="str">
+        <v>character_largeimage_h0221.ab</v>
+      </c>
+      <c r="C329">
+        <v>774852</v>
+      </c>
+      <c r="D329" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329" t="str">
+        <v>260c6ef2907458fb0b24e79b4fdc8f2daf248b54e954c202b89e87fa45a79917</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>character_largeimage_h0224.ab</v>
+      </c>
+      <c r="B330" t="str">
+        <v>character_largeimage_h0224.ab</v>
+      </c>
+      <c r="C330">
+        <v>734210</v>
+      </c>
+      <c r="D330" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330" t="str">
+        <v>8f88f1319c7298174ac3aa8a82b6986761610cbb74ef14c82c7e1ede1fc0b15d</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>character_largeimage_h0226.ab</v>
+      </c>
+      <c r="B331" t="str">
+        <v>character_largeimage_h0226.ab</v>
+      </c>
+      <c r="C331">
+        <v>761235</v>
+      </c>
+      <c r="D331" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331" t="str">
+        <v>6bc4336199b83047446c82c6a230574f05b6e130a41d9f33770766aeac9436f2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>character_largeimage_h0227.ab</v>
+      </c>
+      <c r="B332" t="str">
+        <v>character_largeimage_h0227.ab</v>
+      </c>
+      <c r="C332">
+        <v>786760</v>
+      </c>
+      <c r="D332" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332" t="str">
+        <v>0ec3a2ddea2c5f14762b1d53cf2a6c9b959342b7c2d7cb8c53f5de78389a1a9f</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>character_largeimage_h0230.ab</v>
+      </c>
+      <c r="B333" t="str">
+        <v>character_largeimage_h0230.ab</v>
+      </c>
+      <c r="C333">
+        <v>795281</v>
+      </c>
+      <c r="D333" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333" t="str">
+        <v>29ca1d6c0d021948d89276ee888dd3f034a0a0efe30c90a4af695d44e14e409d</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>character_largeimage_h0232.ab</v>
+      </c>
+      <c r="B334" t="str">
+        <v>character_largeimage_h0232.ab</v>
+      </c>
+      <c r="C334">
+        <v>2084078</v>
+      </c>
+      <c r="D334" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334" t="str">
+        <v>dfe3d19d68019845ae4ece6c9574a5495c0a7e2d7b2bd5731672a07a39334105</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>character_largeimage_h0233.ab</v>
+      </c>
+      <c r="B335" t="str">
+        <v>character_largeimage_h0233.ab</v>
+      </c>
+      <c r="C335">
+        <v>3216689</v>
+      </c>
+      <c r="D335" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335" t="str">
+        <v>aef3828cf7528b7b93a7e0d7408ad22b191692c1de64519b9f768867bc7b11a4</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>character_largeimage_h0234.ab</v>
+      </c>
+      <c r="B336" t="str">
+        <v>character_largeimage_h0234.ab</v>
+      </c>
+      <c r="C336">
+        <v>3069501</v>
+      </c>
+      <c r="D336" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336" t="str">
+        <v>b2537f99faf6708c1597ef8c25e62f4355e6f32459e915e721ed323c337327f5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>character_largeimage_h0235.ab</v>
+      </c>
+      <c r="B337" t="str">
+        <v>character_largeimage_h0235.ab</v>
+      </c>
+      <c r="C337">
+        <v>2226899</v>
+      </c>
+      <c r="D337" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337" t="str">
+        <v>465a56a4e220bd39de58cf59e525a9aa2450c8f08870c2d8368c8fd7339d7ac1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>character_largeimage_h0236.ab</v>
+      </c>
+      <c r="B338" t="str">
+        <v>character_largeimage_h0236.ab</v>
+      </c>
+      <c r="C338">
+        <v>2098839</v>
+      </c>
+      <c r="D338" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338" t="str">
+        <v>861fe308f08e7ddd65e35b46d651cf70e0bf5a6ece93c69910f51b1910bc60b5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>character_largeimage_h0237.ab</v>
+      </c>
+      <c r="B339" t="str">
+        <v>character_largeimage_h0237.ab</v>
+      </c>
+      <c r="C339">
+        <v>2342886</v>
+      </c>
+      <c r="D339" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339" t="str">
+        <v>8e06426b9ef92077864f5f81f17f7da0e94162e7d8d2e1b0da5e5b0492ef2638</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>character_largeimage_h0238.ab</v>
+      </c>
+      <c r="B340" t="str">
+        <v>character_largeimage_h0238.ab</v>
+      </c>
+      <c r="C340">
+        <v>848742</v>
+      </c>
+      <c r="D340" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340" t="str">
+        <v>eebcd817999436e6de65383cf189412ca4c12f9058f159cae52fef68555ccbbe</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>character_largeimage_h0239.ab</v>
+      </c>
+      <c r="B341" t="str">
+        <v>character_largeimage_h0239.ab</v>
+      </c>
+      <c r="C341">
+        <v>812643</v>
+      </c>
+      <c r="D341" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341" t="str">
+        <v>a53f4a28d98d240b9ebf9ab9a21802b22ca3f01a9cbe43c7605471e8b69e8c22</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>character_largeimage_h0240.ab</v>
+      </c>
+      <c r="B342" t="str">
+        <v>character_largeimage_h0240.ab</v>
+      </c>
+      <c r="C342">
+        <v>819235</v>
+      </c>
+      <c r="D342" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342" t="str">
+        <v>416f932b7f7a15646a65e059ebb8f7a18b000b78fcdbdf6f5b0f6e99feee60a4</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>character_largeimage_h0241.ab</v>
+      </c>
+      <c r="B343" t="str">
+        <v>character_largeimage_h0241.ab</v>
+      </c>
+      <c r="C343">
+        <v>824553</v>
+      </c>
+      <c r="D343" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343" t="str">
+        <v>0b513268be4ebfb7b998c19702c89e727831fcc9a6c44799632362eae33a7917</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>character_largeimage_h0243.ab</v>
+      </c>
+      <c r="B344" t="str">
+        <v>character_largeimage_h0243.ab</v>
+      </c>
+      <c r="C344">
+        <v>810706</v>
+      </c>
+      <c r="D344" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344" t="str">
+        <v>cb1bfb37585c135009aab9b0583e3d251dabfdd75817f9cb75d7b54ab1d86778</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>character_largeimage_h0244.ab</v>
+      </c>
+      <c r="B345" t="str">
+        <v>character_largeimage_h0244.ab</v>
+      </c>
+      <c r="C345">
+        <v>778524</v>
+      </c>
+      <c r="D345" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345" t="str">
+        <v>41a7d16ec3600f10cab4dee7f9c437082021de8e22902f3b82af1db8c5b220fb</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>character_largeimage_h0245.ab</v>
+      </c>
+      <c r="B346" t="str">
+        <v>character_largeimage_h0245.ab</v>
+      </c>
+      <c r="C346">
+        <v>795404</v>
+      </c>
+      <c r="D346" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346" t="str">
+        <v>22925c8d03dde32eb604d7ecfd799e03d9032c974272d0823790b7d6b18967ba</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>character_largeimage_h0247.ab</v>
+      </c>
+      <c r="B347" t="str">
+        <v>character_largeimage_h0247.ab</v>
+      </c>
+      <c r="C347">
+        <v>837487</v>
+      </c>
+      <c r="D347" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347" t="str">
+        <v>ef401029e4a4b055b381ebbe633554d5daf4a3e23b60c62b852b185c4c663bf5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>character_largeimage_h0248.ab</v>
+      </c>
+      <c r="B348" t="str">
+        <v>character_largeimage_h0248.ab</v>
+      </c>
+      <c r="C348">
+        <v>836258</v>
+      </c>
+      <c r="D348" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348" t="str">
+        <v>f8dc41278c1bfbb1635e74efb4ceb293b4de54b87f0626cf7e2b6c0f4972b150</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>character_largeimage_h0249.ab</v>
+      </c>
+      <c r="B349" t="str">
+        <v>character_largeimage_h0249.ab</v>
+      </c>
+      <c r="C349">
+        <v>839134</v>
+      </c>
+      <c r="D349" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349" t="str">
+        <v>9b91af750de18d7afe93e1d3cba66a0bdd3c7db49a03c5ebcf3b8c44fee32fc4</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>character_largeimage_h0253.ab</v>
+      </c>
+      <c r="B350" t="str">
+        <v>character_largeimage_h0253.ab</v>
+      </c>
+      <c r="C350">
+        <v>823722</v>
+      </c>
+      <c r="D350" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350" t="str">
+        <v>9c5c84a37c920c2e4b79f9013c9c5db129735e6375cc195a90117b4cf7802999</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>character_largeimage_h0255.ab</v>
+      </c>
+      <c r="B351" t="str">
+        <v>character_largeimage_h0255.ab</v>
+      </c>
+      <c r="C351">
+        <v>800474</v>
+      </c>
+      <c r="D351" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351" t="str">
+        <v>450ab00dbd5b8f991797ab6c83f3ee7cb54290e9971ebd6d51273ff327ed5e15</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>character_largeimage_h0256.ab</v>
+      </c>
+      <c r="B352" t="str">
+        <v>character_largeimage_h0256.ab</v>
+      </c>
+      <c r="C352">
+        <v>805509</v>
+      </c>
+      <c r="D352" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352" t="str">
+        <v>297c419fbd877b05bfc9add448ff76132757333cae20eccc028647aea7da7255</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>character_largeimage_h0257.ab</v>
+      </c>
+      <c r="B353" t="str">
+        <v>character_largeimage_h0257.ab</v>
+      </c>
+      <c r="C353">
+        <v>808381</v>
+      </c>
+      <c r="D353" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353" t="str">
+        <v>d05147b2b6be03ef2ce9c9de4dec8d3ff71bd96053222a4f476707092d75fa72</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>character_largeimage_h0259.ab</v>
+      </c>
+      <c r="B354" t="str">
+        <v>character_largeimage_h0259.ab</v>
+      </c>
+      <c r="C354">
+        <v>810068</v>
+      </c>
+      <c r="D354" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354" t="str">
+        <v>172c2c74277241aa72cedda739d55d17e54f6959a7474b0780a9ed33d03daa33</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>character_largeimage_h0262.ab</v>
+      </c>
+      <c r="B355" t="str">
+        <v>character_largeimage_h0262.ab</v>
+      </c>
+      <c r="C355">
+        <v>847775</v>
+      </c>
+      <c r="D355" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355" t="str">
+        <v>42dc7a9aeedfb2f6754bbff5a20c0649221fbd710df2fb2229837dbf798d580a</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>character_largeimage_h0264.ab</v>
+      </c>
+      <c r="B356" t="str">
+        <v>character_largeimage_h0264.ab</v>
+      </c>
+      <c r="C356">
+        <v>718190</v>
+      </c>
+      <c r="D356" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356" t="str">
+        <v>ab84d41ed01d417a5c5cd0109bca96e438f4f56f3472560b99958ac4137677ca</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>character_largeimage_h0265.ab</v>
+      </c>
+      <c r="B357" t="str">
+        <v>character_largeimage_h0265.ab</v>
+      </c>
+      <c r="C357">
+        <v>795432</v>
+      </c>
+      <c r="D357" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357" t="str">
+        <v>43942d89eafcb8381ae779ac97b86df469078014bca34c2803baa9d16040a97e</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>character_largeimage_h0266.ab</v>
+      </c>
+      <c r="B358" t="str">
+        <v>character_largeimage_h0266.ab</v>
+      </c>
+      <c r="C358">
+        <v>808588</v>
+      </c>
+      <c r="D358" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358" t="str">
+        <v>ed1bd287702b2f736b9ad9fb7524ec06f5777b21a9511818d78a3ad00dc9d423</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>character_largeimage_m0011.ab</v>
+      </c>
+      <c r="B359" t="str">
+        <v>character_largeimage_m0011.ab</v>
+      </c>
+      <c r="C359">
+        <v>3645563</v>
+      </c>
+      <c r="D359" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359" t="str">
+        <v>6d163c0aa3de03702199280db17c4bbe2fddeea97fa709543044a1864c59ac4e</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>character_largeimage_r0034.ab</v>
+      </c>
+      <c r="B360" t="str">
+        <v>character_largeimage_r0034.ab</v>
+      </c>
+      <c r="C360">
+        <v>3192016</v>
+      </c>
+      <c r="D360" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360" t="str">
+        <v>a95c21cd1ab779a63db9047ad68d79e913fce1d1229cd60959433c515fa2b15f</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>character_largeimage_r0160.ab</v>
+      </c>
+      <c r="B361" t="str">
+        <v>character_largeimage_r0160.ab</v>
+      </c>
+      <c r="C361">
+        <v>4547639</v>
+      </c>
+      <c r="D361" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361" t="str">
+        <v>964ea8e902241d88c58f2ac99db9982703da97b02c7609af5438b4a03a8a0efe</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>character_largeimage_r0173.ab</v>
+      </c>
+      <c r="B362" t="str">
+        <v>character_largeimage_r0173.ab</v>
+      </c>
+      <c r="C362">
+        <v>783778</v>
+      </c>
+      <c r="D362" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362" t="str">
+        <v>8195c3708ce8e882a3d95cb265160b057eb3bf5d286f64493dab9ff905fdaab6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>character_largeimage_r0205.ab</v>
+      </c>
+      <c r="B363" t="str">
+        <v>character_largeimage_r0205.ab</v>
+      </c>
+      <c r="C363">
+        <v>835262</v>
+      </c>
+      <c r="D363" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363" t="str">
+        <v>527e90522ce04f745056b9caedcb86a53d46219da877b5661b2d167770d26dcb</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>character_largeimage_t0017.ab</v>
+      </c>
+      <c r="B364" t="str">
+        <v>character_largeimage_t0017.ab</v>
+      </c>
+      <c r="C364">
+        <v>5048467</v>
+      </c>
+      <c r="D364" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364" t="str">
+        <v>569f2fd821c168371bd7ba0fad110a99c067d9153288ec5b7dc7dba7fadbef87</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>character_largeimage_t0026.ab</v>
+      </c>
+      <c r="B365" t="str">
+        <v>character_largeimage_t0026.ab</v>
+      </c>
+      <c r="C365">
+        <v>3324659</v>
+      </c>
+      <c r="D365" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365" t="str">
+        <v>3f68cff42a6b9b5f70e4727bbbc4ca79a4b5e3f36eabee4e6ac677e471042212</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>character_largeimage_t0027.ab</v>
+      </c>
+      <c r="B366" t="str">
+        <v>character_largeimage_t0027.ab</v>
+      </c>
+      <c r="C366">
+        <v>3241554</v>
+      </c>
+      <c r="D366" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366" t="str">
+        <v>5c1ed78edf2589ba18b2fd63c792819e2092273556283005ee4e832864ad3852</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>character_largeimage_t0032.ab</v>
+      </c>
+      <c r="B367" t="str">
+        <v>character_largeimage_t0032.ab</v>
+      </c>
+      <c r="C367">
+        <v>3632341</v>
+      </c>
+      <c r="D367" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367" t="str">
+        <v>3f275335ed88fbd6088516a978efb3cd60af951a07bbdb0cd82a834ccaccbc07</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>character_largeimage_t0033.ab</v>
+      </c>
+      <c r="B368" t="str">
+        <v>character_largeimage_t0033.ab</v>
+      </c>
+      <c r="C368">
+        <v>3771149</v>
+      </c>
+      <c r="D368" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368" t="str">
+        <v>26a7366f49bb32607c93b69268e6fc0693e08fef6296452290871b2fb08fc2c7</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>character_largeimage_t0039.ab</v>
+      </c>
+      <c r="B369" t="str">
+        <v>character_largeimage_t0039.ab</v>
+      </c>
+      <c r="C369">
+        <v>813283</v>
+      </c>
+      <c r="D369" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369" t="str">
+        <v>5350ab84baed9d974062a833ee3cabfdea3208b429a787505b7863cd88d02e59</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>character_largeimage_t0044.ab</v>
+      </c>
+      <c r="B370" t="str">
+        <v>character_largeimage_t0044.ab</v>
+      </c>
+      <c r="C370">
+        <v>791961</v>
+      </c>
+      <c r="D370" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370" t="str">
+        <v>eb3fb4c4fbec62853ced6c63348bda093239167910e1975c24786721e5c36945</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>character_largeimage_t0049.ab</v>
+      </c>
+      <c r="B371" t="str">
+        <v>character_largeimage_t0049.ab</v>
+      </c>
+      <c r="C371">
+        <v>2772613</v>
+      </c>
+      <c r="D371" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371" t="str">
+        <v>95bcb0bd9154f014e06084d19d720ac2bac3315b2829a51f748bab806188e50e</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>character_largeimage_t0153.ab</v>
+      </c>
+      <c r="B372" t="str">
+        <v>character_largeimage_t0153.ab</v>
+      </c>
+      <c r="C372">
+        <v>2756611</v>
+      </c>
+      <c r="D372" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372" t="str">
+        <v>3c97d4a5953e712f3dfdd8ab30d02f527616fcb3d801dd8b86b3c0cf522a0eef</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>character_largeimage_t0155.ab</v>
+      </c>
+      <c r="B373" t="str">
+        <v>character_largeimage_t0155.ab</v>
+      </c>
+      <c r="C373">
+        <v>4381513</v>
+      </c>
+      <c r="D373" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373" t="str">
+        <v>38ad3eaafbadfa98327d0d5542f2f0d88f7f31f659055e6d5d7f5d8ecadaaf25</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>character_largeimage_t0156.ab</v>
+      </c>
+      <c r="B374" t="str">
+        <v>character_largeimage_t0156.ab</v>
+      </c>
+      <c r="C374">
+        <v>2462163</v>
+      </c>
+      <c r="D374" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374" t="str">
+        <v>d47db6ea8061d6508d44fdbc8629a568db3385a88c1f450c53188c37a306fbd1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="B375" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="C375">
+        <v>5260995</v>
+      </c>
+      <c r="D375" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375" t="str">
+        <v>60e32e2c51b82894f308157ead5044b1e8a536bc973703711b4f8eb6ab332f30</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B376" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C376">
+        <v>2585586</v>
+      </c>
+      <c r="D376" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376" t="str">
+        <v>c5811705c032100ad1a16583021dca2fb02a11ed596ad6f58b79f2775150edc1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B377" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C377">
+        <v>3294655</v>
+      </c>
+      <c r="D377" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377" t="str">
+        <v>3ce7bff8c5c6bff24697ac51035be274c30bba43c89704245ba4d5ece12532a8</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B378" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C378">
+        <v>2283005</v>
+      </c>
+      <c r="D378" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378" t="str">
+        <v>f08896641300c346a1e73ed169d426147c629133d6b99fc0d0b053d6f89dea33</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B379" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C379">
+        <v>2289827</v>
+      </c>
+      <c r="D379" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379" t="str">
+        <v>aa09e9c0a10976e05321eeed5a37397f867e1377acd71dc4e3d2d5d1417daf28</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="B380" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="C380">
+        <v>2887185</v>
+      </c>
+      <c r="D380" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380" t="str">
+        <v>84cffe40a80fe5c71df8f44503bbdce8bbffb4c01dc57012fb621fc40fd4230d</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>character_largeimage_t0188.ab</v>
+      </c>
+      <c r="B381" t="str">
+        <v>character_largeimage_t0188.ab</v>
+      </c>
+      <c r="C381">
+        <v>2744938</v>
+      </c>
+      <c r="D381" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381" t="str">
+        <v>4f854b7d0c3b92905dd2311a69ab83cea017de02730b719a6608464f27e269d4</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B382" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C382">
+        <v>4473711</v>
+      </c>
+      <c r="D382" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382" t="str">
+        <v>8fc73aa493d889c8325fbef52adf15dac0c8ee19e212564b6ae16b08b266144f</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="B383" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="C383">
+        <v>839510</v>
+      </c>
+      <c r="D383" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383" t="str">
+        <v>3339401d70ded15a0020af038f486a0d2a6e2bf7e4ca29d2fc52483eba92f982</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
         <v>character_largeimage_t0207.ab</v>
       </c>
-      <c r="B293" t="str">
+      <c r="B384" t="str">
         <v>character_largeimage_t0207.ab</v>
       </c>
-      <c r="C293">
-        <v>797159</v>
-      </c>
-      <c r="D293" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293" t="str">
-        <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
+      <c r="C384">
+        <v>788109</v>
+      </c>
+      <c r="D384" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384" t="str">
+        <v>884a61acb6fc59583fb23f817ab1ee2aad0b3edba982eb01c5e3d4409e1db73f</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="B385" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="C385">
+        <v>843123</v>
+      </c>
+      <c r="D385" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385" t="str">
+        <v>e442a6b286187dcc18ca56751536e1758d5953d5b913e759d2ed412148611a38</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>character_largeimage_t0214.ab</v>
+      </c>
+      <c r="B386" t="str">
+        <v>character_largeimage_t0214.ab</v>
+      </c>
+      <c r="C386">
+        <v>828387</v>
+      </c>
+      <c r="D386" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386" t="str">
+        <v>342fd529c964664d600e232cd94bd8b1675ded9c1b64945ef103993a6b5b300c</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>character_largeimage_t0218.ab</v>
+      </c>
+      <c r="B387" t="str">
+        <v>character_largeimage_t0218.ab</v>
+      </c>
+      <c r="C387">
+        <v>811612</v>
+      </c>
+      <c r="D387" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387" t="str">
+        <v>bda0c6f7dc7407f7c344f85b171a48370f75519c50e728784f647c83169bd94c</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>character_largeimage_t0222.ab</v>
+      </c>
+      <c r="B388" t="str">
+        <v>character_largeimage_t0222.ab</v>
+      </c>
+      <c r="C388">
+        <v>774259</v>
+      </c>
+      <c r="D388" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388" t="str">
+        <v>8ab646da7e9d3f088d7b6a87436ba651ca2f50198534bb4838143a45e096932e</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>character_largeimage_t0223.ab</v>
+      </c>
+      <c r="B389" t="str">
+        <v>character_largeimage_t0223.ab</v>
+      </c>
+      <c r="C389">
+        <v>844248</v>
+      </c>
+      <c r="D389" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389" t="str">
+        <v>18c1161759d4a71ed98ffc241b6626b1e001387f1a6c5ce54150f250abf64248</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>character_largeimage_t0225.ab</v>
+      </c>
+      <c r="B390" t="str">
+        <v>character_largeimage_t0225.ab</v>
+      </c>
+      <c r="C390">
+        <v>815023</v>
+      </c>
+      <c r="D390" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390" t="str">
+        <v>f2a096a766a2689633f4d106cf0a6a439a759aea742a118791bd76a6648f267d</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>character_largeimage_t0228.ab</v>
+      </c>
+      <c r="B391" t="str">
+        <v>character_largeimage_t0228.ab</v>
+      </c>
+      <c r="C391">
+        <v>829894</v>
+      </c>
+      <c r="D391" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391" t="str">
+        <v>94f3e6cc4c0a6a79f10a543d83f614303bc3a05333d39f4403ef896f4dcf07f5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>character_largeimage_t0229.ab</v>
+      </c>
+      <c r="B392" t="str">
+        <v>character_largeimage_t0229.ab</v>
+      </c>
+      <c r="C392">
+        <v>1662213</v>
+      </c>
+      <c r="D392" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392" t="str">
+        <v>69e6216c55eeaaab8fd283f59f25c316734a73644b13941d4d1fe1e1c31f8c1f</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>character_largeimage_t0231.ab</v>
+      </c>
+      <c r="B393" t="str">
+        <v>character_largeimage_t0231.ab</v>
+      </c>
+      <c r="C393">
+        <v>823425</v>
+      </c>
+      <c r="D393" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393" t="str">
+        <v>3cb4f02d9303d1a2b5fc53ad0acd0aa27db034c6c97e9bef02dacf3febc0eee6</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>character_largeimage_t0242.ab</v>
+      </c>
+      <c r="B394" t="str">
+        <v>character_largeimage_t0242.ab</v>
+      </c>
+      <c r="C394">
+        <v>777670</v>
+      </c>
+      <c r="D394" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394" t="str">
+        <v>7c281124753083a4db690ee47b450f4f89e3d56fc805d995ace8e49efa5bc50f</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>character_largeimage_t0246.ab</v>
+      </c>
+      <c r="B395" t="str">
+        <v>character_largeimage_t0246.ab</v>
+      </c>
+      <c r="C395">
+        <v>819675</v>
+      </c>
+      <c r="D395" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395" t="str">
+        <v>c9ff420c4cd5404f687592c9851a9c3c9b90d6aba4ec3215e4213794c4ec8651</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>character_largeimage_t0250.ab</v>
+      </c>
+      <c r="B396" t="str">
+        <v>character_largeimage_t0250.ab</v>
+      </c>
+      <c r="C396">
+        <v>835064</v>
+      </c>
+      <c r="D396" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396" t="str">
+        <v>cabd53f65c1283e0ac5773bc89f0d3baf8df60f587a2629bb61ff5df5f38e998</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>character_largeimage_t0251.ab</v>
+      </c>
+      <c r="B397" t="str">
+        <v>character_largeimage_t0251.ab</v>
+      </c>
+      <c r="C397">
+        <v>817439</v>
+      </c>
+      <c r="D397" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397" t="str">
+        <v>35de9505e776e1b88eff26e7adc6f554d89c0d74424c46ac4d6b966cac281dae</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>character_largeimage_t0252.ab</v>
+      </c>
+      <c r="B398" t="str">
+        <v>character_largeimage_t0252.ab</v>
+      </c>
+      <c r="C398">
+        <v>3182222</v>
+      </c>
+      <c r="D398" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398" t="str">
+        <v>041e2f53d9fa84b5baeb43cbf5b681fe1c1a09fc422e5db7e8abc8f70bc26348</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>character_largeimage_t0254.ab</v>
+      </c>
+      <c r="B399" t="str">
+        <v>character_largeimage_t0254.ab</v>
+      </c>
+      <c r="C399">
+        <v>821577</v>
+      </c>
+      <c r="D399" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399" t="str">
+        <v>0ec094e49c6f0bef8aeec78857eeaae95127b56d79ef9f59be4ec966f8258c66</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>character_largeimage_t0258.ab</v>
+      </c>
+      <c r="B400" t="str">
+        <v>character_largeimage_t0258.ab</v>
+      </c>
+      <c r="C400">
+        <v>799096</v>
+      </c>
+      <c r="D400" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400" t="str">
+        <v>18672ae7cdd8fbc33c3c3fb113d9cc3cb1797d9336d487d7d2cc71564bb4a621</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>character_largeimage_uncategorized_0.ab</v>
+      </c>
+      <c r="B401" t="str">
+        <v>character_largeimage_uncategorized_0.ab</v>
+      </c>
+      <c r="C401">
+        <v>173461</v>
+      </c>
+      <c r="D401" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401" t="str">
+        <v>9c40f907ab459375c76b4a51919f83aa971bac3c394a4d64e8e549d7879abebf</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>character_largeimage_uncategorized_3.ab</v>
+      </c>
+      <c r="B402" t="str">
+        <v>character_largeimage_uncategorized_3.ab</v>
+      </c>
+      <c r="C402">
+        <v>214292</v>
+      </c>
+      <c r="D402" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402" t="str">
+        <v>baa10ce33b3b4d5a88452011578fd5a338303e27f2f7e58822f6cbbf2f359f10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F293"/>
+  <autoFilter ref="A1:F402"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F293"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F402"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$402</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$406</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F402"/>
+  <dimension ref="A1:F406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1193,7 +1193,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123386</v>
+        <v>123385</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1453,7 +1453,7 @@
         <v>audioclip_sfx_b0015_jp.ab</v>
       </c>
       <c r="C53">
-        <v>116862</v>
+        <v>116863</v>
       </c>
       <c r="D53" t="str">
         <v>Stage_1</v>
@@ -1573,7 +1573,7 @@
         <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C59">
-        <v>662050</v>
+        <v>662049</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1633,7 +1633,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C62">
-        <v>250850</v>
+        <v>250851</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1713,7 +1713,7 @@
         <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C66">
-        <v>643327</v>
+        <v>643325</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1733,7 +1733,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C67">
-        <v>1029445</v>
+        <v>1029442</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1773,7 +1773,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>1013616</v>
+        <v>1013614</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1813,7 +1813,7 @@
         <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C71">
-        <v>349413</v>
+        <v>349414</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1893,7 +1893,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>940884</v>
+        <v>940881</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1993,7 +1993,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1196250</v>
+        <v>1196245</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -2013,7 +2013,7 @@
         <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C81">
-        <v>985554</v>
+        <v>985555</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2033,7 +2033,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1374152</v>
+        <v>1374151</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2053,7 +2053,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1572147</v>
+        <v>1572148</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2073,7 +2073,7 @@
         <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C84">
-        <v>938019</v>
+        <v>938020</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2093,7 +2093,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1291354</v>
+        <v>1291353</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2113,7 +2113,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>1189226</v>
+        <v>1189227</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2153,7 +2153,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C88">
-        <v>785945</v>
+        <v>785947</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2193,7 +2193,7 @@
         <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C90">
-        <v>611357</v>
+        <v>611356</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2253,7 +2253,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>955387</v>
+        <v>955388</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2273,7 +2273,7 @@
         <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C94">
-        <v>2421241</v>
+        <v>2421243</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2313,7 +2313,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C96">
-        <v>538568</v>
+        <v>538569</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2333,7 +2333,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>8510836</v>
+        <v>8510835</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2353,7 +2353,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1635040</v>
+        <v>1635039</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2393,7 +2393,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C100">
-        <v>2057511</v>
+        <v>2057509</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2433,7 +2433,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1334021</v>
+        <v>1334023</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2453,7 +2453,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1204318</v>
+        <v>1204320</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2493,7 +2493,7 @@
         <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1316079</v>
+        <v>1316078</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2513,7 +2513,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2046304</v>
+        <v>2046305</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2533,7 +2533,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1236792</v>
+        <v>1236790</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2573,7 +2573,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1924708</v>
+        <v>1924709</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2693,7 +2693,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1305068</v>
+        <v>1305067</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2713,7 +2713,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C116">
-        <v>966707</v>
+        <v>966709</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022206</v>
+        <v>1022201</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2753,7 +2753,7 @@
         <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C118">
-        <v>735094</v>
+        <v>735096</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2773,7 +2773,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C119">
-        <v>884679</v>
+        <v>884678</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2793,7 +2793,7 @@
         <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C120">
-        <v>747236</v>
+        <v>747235</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2813,7 +2813,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C121">
-        <v>929593</v>
+        <v>929591</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2853,7 +2853,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1738272</v>
+        <v>1738274</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2973,7 +2973,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1837989</v>
+        <v>1837986</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -3033,7 +3033,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C132">
-        <v>1892919</v>
+        <v>1892918</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3193,7 +3193,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1081026</v>
+        <v>1081025</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3253,7 +3253,7 @@
         <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C143">
-        <v>810575</v>
+        <v>810576</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3273,7 +3273,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967998</v>
+        <v>967999</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774137</v>
+        <v>774135</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3393,7 +3393,7 @@
         <v>audioclip_sfx_h0216_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1220952</v>
+        <v>1220953</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3433,7 +3433,7 @@
         <v>audioclip_sfx_h0219_jp.ab</v>
       </c>
       <c r="C152">
-        <v>977562</v>
+        <v>977561</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3473,7 +3473,7 @@
         <v>audioclip_sfx_h0221_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1054460</v>
+        <v>1054459</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3513,7 +3513,7 @@
         <v>audioclip_sfx_h0226_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1134470</v>
+        <v>1134472</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3553,7 +3553,7 @@
         <v>audioclip_sfx_h0230_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1022960</v>
+        <v>1022961</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3573,7 +3573,7 @@
         <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1390240</v>
+        <v>1390239</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3593,7 +3593,7 @@
         <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1911214</v>
+        <v>1911213</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3613,7 +3613,7 @@
         <v>audioclip_sfx_h0234_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1859302</v>
+        <v>1859303</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3673,7 +3673,7 @@
         <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2431132</v>
+        <v>2431130</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3793,7 +3793,7 @@
         <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1110558</v>
+        <v>1110561</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3853,7 +3853,7 @@
         <v>audioclip_sfx_h0248_jp.ab</v>
       </c>
       <c r="C173">
-        <v>1234718</v>
+        <v>1234716</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3873,7 +3873,7 @@
         <v>audioclip_sfx_h0249_jp.ab</v>
       </c>
       <c r="C174">
-        <v>899110</v>
+        <v>899108</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3953,7 +3953,7 @@
         <v>audioclip_sfx_h0257_jp.ab</v>
       </c>
       <c r="C178">
-        <v>1131207</v>
+        <v>1131208</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3987,13 +3987,13 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>audioclip_sfx_h0262_jp.ab</v>
+        <v>audioclip_sfx_h0261_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>audioclip_sfx_h0262_jp.ab</v>
+        <v>audioclip_sfx_h0261_jp.ab</v>
       </c>
       <c r="C180">
-        <v>1140808</v>
+        <v>1220852</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -4002,18 +4002,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>25d7d3a23455f14c5e75dc7b70b7d31503c90f0d94c29436174fa96fb869a2a5</v>
+        <v>d068cdce37e2f25589c80a88251e5f20a3f1479718192a8938d37f4c436f9de2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>audioclip_sfx_h0264_jp.ab</v>
+        <v>audioclip_sfx_h0262_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>audioclip_sfx_h0264_jp.ab</v>
+        <v>audioclip_sfx_h0262_jp.ab</v>
       </c>
       <c r="C181">
-        <v>973033</v>
+        <v>1140807</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4022,18 +4022,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>0448a14211f66d92c46f8d0430373d1b36713c5875506be5502af3cf690292ac</v>
+        <v>25d7d3a23455f14c5e75dc7b70b7d31503c90f0d94c29436174fa96fb869a2a5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>audioclip_sfx_h0265_jp.ab</v>
+        <v>audioclip_sfx_h0264_jp.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>audioclip_sfx_h0265_jp.ab</v>
+        <v>audioclip_sfx_h0264_jp.ab</v>
       </c>
       <c r="C182">
-        <v>1201262</v>
+        <v>973033</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4042,18 +4042,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>36b01de1a2b39e0f7de44d7edc242d5029eb8cac21ed3a33604ec185dc118d8a</v>
+        <v>0448a14211f66d92c46f8d0430373d1b36713c5875506be5502af3cf690292ac</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>audioclip_sfx_h0266_jp.ab</v>
+        <v>audioclip_sfx_h0265_jp.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>audioclip_sfx_h0266_jp.ab</v>
+        <v>audioclip_sfx_h0265_jp.ab</v>
       </c>
       <c r="C183">
-        <v>1292356</v>
+        <v>1201262</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4062,18 +4062,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>585c7fcd0fe3b15fc204e0f74dbd7c90ca5ee1b899777f0a277b3b578729a20e</v>
+        <v>36b01de1a2b39e0f7de44d7edc242d5029eb8cac21ed3a33604ec185dc118d8a</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0266_jp.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0266_jp.ab</v>
       </c>
       <c r="C184">
-        <v>274141</v>
+        <v>1292356</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4082,18 +4082,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
+        <v>585c7fcd0fe3b15fc204e0f74dbd7c90ca5ee1b899777f0a277b3b578729a20e</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C185">
-        <v>220279</v>
+        <v>274141</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4102,18 +4102,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C186">
-        <v>95939</v>
+        <v>220279</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4122,18 +4122,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C187">
-        <v>1390720</v>
+        <v>95939</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4142,18 +4142,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C188">
-        <v>4141827</v>
+        <v>1390720</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4162,18 +4162,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C189">
-        <v>1438365</v>
+        <v>4141827</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4182,18 +4182,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C190">
-        <v>1066358</v>
+        <v>1438364</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4202,18 +4202,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C191">
-        <v>883188</v>
+        <v>1066359</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4222,18 +4222,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C192">
-        <v>903966</v>
+        <v>883189</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4242,18 +4242,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C193">
-        <v>1396256</v>
+        <v>903966</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4262,18 +4262,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C194">
-        <v>995096</v>
+        <v>1396255</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4282,18 +4282,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C195">
-        <v>1222454</v>
+        <v>995096</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4302,18 +4302,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C196">
-        <v>694990</v>
+        <v>1222455</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4322,18 +4322,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C197">
-        <v>3816646</v>
+        <v>694991</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4342,18 +4342,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C198">
-        <v>1950973</v>
+        <v>3816646</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4362,18 +4362,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C199">
-        <v>2974171</v>
+        <v>1950972</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4382,18 +4382,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C200">
-        <v>1992962</v>
+        <v>2974171</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4402,18 +4402,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C201">
-        <v>2340708</v>
+        <v>1992962</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4422,18 +4422,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C202">
-        <v>1950991</v>
+        <v>2340708</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4442,18 +4442,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C203">
-        <v>2527577</v>
+        <v>1950991</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4462,18 +4462,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>6f31b6b3134e7be9114828c534a1bd1df6311033e5cde7af58e453a261307349</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C204">
-        <v>2120062</v>
+        <v>2527577</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4482,18 +4482,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
+        <v>6f31b6b3134e7be9114828c534a1bd1df6311033e5cde7af58e453a261307349</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C205">
-        <v>1952767</v>
+        <v>2120059</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4502,18 +4502,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C206">
-        <v>1736024</v>
+        <v>1952766</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4522,18 +4522,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C207">
-        <v>2460156</v>
+        <v>1736024</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4542,18 +4542,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C208">
-        <v>1973755</v>
+        <v>2460156</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4562,18 +4562,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C209">
-        <v>2403910</v>
+        <v>1973757</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4582,18 +4582,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C210">
-        <v>1290319</v>
+        <v>2403911</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4602,18 +4602,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C211">
-        <v>940739</v>
+        <v>1290319</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4622,18 +4622,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C212">
-        <v>1484342</v>
+        <v>940739</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4642,18 +4642,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C213">
-        <v>1202868</v>
+        <v>1484342</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4662,18 +4662,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>audioclip_sfx_t0218_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>audioclip_sfx_t0218_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C214">
-        <v>619268</v>
+        <v>1202868</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4682,18 +4682,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>76c2f395f7dd3e6968171d854f1a945ff726837685d2a94e2a19c1fe8c217be8</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>audioclip_sfx_t0222_jp.ab</v>
+        <v>audioclip_sfx_t0218_jp.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>audioclip_sfx_t0222_jp.ab</v>
+        <v>audioclip_sfx_t0218_jp.ab</v>
       </c>
       <c r="C215">
-        <v>781277</v>
+        <v>619268</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4702,18 +4702,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>c1be58c088b69a1fd1f997ba5f0d043bb187c8feb06162a49a38b291cde93ed5</v>
+        <v>76c2f395f7dd3e6968171d854f1a945ff726837685d2a94e2a19c1fe8c217be8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>audioclip_sfx_t0223_jp.ab</v>
+        <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>audioclip_sfx_t0223_jp.ab</v>
+        <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="C216">
-        <v>988345</v>
+        <v>781278</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4722,18 +4722,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>1f449da36a5721d749c0a977bfc07acd9568c1e47886840b5d6eca12d7ba7911</v>
+        <v>c1be58c088b69a1fd1f997ba5f0d043bb187c8feb06162a49a38b291cde93ed5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>audioclip_sfx_t0225_jp.ab</v>
+        <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>audioclip_sfx_t0225_jp.ab</v>
+        <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="C217">
-        <v>867411</v>
+        <v>988345</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4742,18 +4742,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>2403978508b152e347b3f46dda625a4f30324882f2594dd64dcade93354bca03</v>
+        <v>1f449da36a5721d749c0a977bfc07acd9568c1e47886840b5d6eca12d7ba7911</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>audioclip_sfx_t0228_jp.ab</v>
+        <v>audioclip_sfx_t0225_jp.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>audioclip_sfx_t0228_jp.ab</v>
+        <v>audioclip_sfx_t0225_jp.ab</v>
       </c>
       <c r="C218">
-        <v>1009845</v>
+        <v>867411</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4762,18 +4762,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>c501f9ab00ed7a5a51aa0e3f5e6c69e2f59abe0a18f0989109e95f748974c93b</v>
+        <v>2403978508b152e347b3f46dda625a4f30324882f2594dd64dcade93354bca03</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>audioclip_sfx_t0229_jp.ab</v>
+        <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>audioclip_sfx_t0229_jp.ab</v>
+        <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="C219">
-        <v>1117663</v>
+        <v>1009843</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4782,18 +4782,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>9f7f6b1d211cc28e51714ec88ca1c3e39dd93ff9915f15d9f74be6b519c65ede</v>
+        <v>c501f9ab00ed7a5a51aa0e3f5e6c69e2f59abe0a18f0989109e95f748974c93b</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>audioclip_sfx_t0231_jp.ab</v>
+        <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>audioclip_sfx_t0231_jp.ab</v>
+        <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="C220">
-        <v>1242757</v>
+        <v>1117663</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4802,18 +4802,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>ce08981162e66466b4ee4e4da78ceb0ffc741426c58cd5e7fd42f26741c67bfb</v>
+        <v>9f7f6b1d211cc28e51714ec88ca1c3e39dd93ff9915f15d9f74be6b519c65ede</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>audioclip_sfx_t0242_jp.ab</v>
+        <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>audioclip_sfx_t0242_jp.ab</v>
+        <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="C221">
-        <v>955689</v>
+        <v>1242758</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4822,18 +4822,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>b7ace3ce40220f62e3d18d05ec7660b190503c1030c184741d45181e67939878</v>
+        <v>ce08981162e66466b4ee4e4da78ceb0ffc741426c58cd5e7fd42f26741c67bfb</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>audioclip_sfx_t0246_jp.ab</v>
+        <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>audioclip_sfx_t0246_jp.ab</v>
+        <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C222">
-        <v>890771</v>
+        <v>955689</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4842,18 +4842,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>983311ac98117dad253ea5b6a92e1c836692f5f1be8f54da5e2c61e3f0085062</v>
+        <v>b7ace3ce40220f62e3d18d05ec7660b190503c1030c184741d45181e67939878</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>audioclip_sfx_t0250_jp.ab</v>
+        <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>audioclip_sfx_t0250_jp.ab</v>
+        <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="C223">
-        <v>1509664</v>
+        <v>890769</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4862,18 +4862,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>1af58272bb08ddde51eb1ba60f0704e4df9b5465bdfeeac1ff193ce56384bdb3</v>
+        <v>983311ac98117dad253ea5b6a92e1c836692f5f1be8f54da5e2c61e3f0085062</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>audioclip_sfx_t0251_jp.ab</v>
+        <v>audioclip_sfx_t0250_jp.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>audioclip_sfx_t0251_jp.ab</v>
+        <v>audioclip_sfx_t0250_jp.ab</v>
       </c>
       <c r="C224">
-        <v>1812579</v>
+        <v>1509664</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4882,18 +4882,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>83103a7a033808c88ac06462bb696421ca4aefe89e7096d385cd786c89d83f7e</v>
+        <v>1af58272bb08ddde51eb1ba60f0704e4df9b5465bdfeeac1ff193ce56384bdb3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>audioclip_sfx_t0252_jp.ab</v>
+        <v>audioclip_sfx_t0251_jp.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>audioclip_sfx_t0252_jp.ab</v>
+        <v>audioclip_sfx_t0251_jp.ab</v>
       </c>
       <c r="C225">
-        <v>2885317</v>
+        <v>1812579</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4902,18 +4902,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>148649f548044e6098a6642c2fa9ad1b9ff8e00150a71f5809dda3927fe4701f</v>
+        <v>83103a7a033808c88ac06462bb696421ca4aefe89e7096d385cd786c89d83f7e</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>audioclip_sfx_t0254_jp.ab</v>
+        <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>audioclip_sfx_t0254_jp.ab</v>
+        <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="C226">
-        <v>1288917</v>
+        <v>2885316</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4922,18 +4922,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>d904be8b981ba87777b1f00a5a758bc50493dacb6f15c975bde4aebd7d563ca8</v>
+        <v>148649f548044e6098a6642c2fa9ad1b9ff8e00150a71f5809dda3927fe4701f</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>audioclip_sfx_t0258_jp.ab</v>
+        <v>audioclip_sfx_t0254_jp.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>audioclip_sfx_t0258_jp.ab</v>
+        <v>audioclip_sfx_t0254_jp.ab</v>
       </c>
       <c r="C227">
-        <v>1912958</v>
+        <v>1288917</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4942,18 +4942,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>b5c1c04a2837264abf5aabfdb7cd0e6b28f8d9c1552e191d433be8dedb7018db</v>
+        <v>d904be8b981ba87777b1f00a5a758bc50493dacb6f15c975bde4aebd7d563ca8</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0258_jp.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0258_jp.ab</v>
       </c>
       <c r="C228">
-        <v>316226</v>
+        <v>1912958</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4962,18 +4962,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
+        <v>b5c1c04a2837264abf5aabfdb7cd0e6b28f8d9c1552e191d433be8dedb7018db</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0263_jp.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0263_jp.ab</v>
       </c>
       <c r="C229">
-        <v>164051</v>
+        <v>1741544</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4982,18 +4982,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
+        <v>a16fb8288cca9c4e0172e756e8f7970aebe0a540486a0136a7e7471ffb57dac4</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C230">
-        <v>214580</v>
+        <v>316226</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -5002,18 +5002,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C231">
-        <v>310407</v>
+        <v>164051</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5022,18 +5022,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C232">
-        <v>288969</v>
+        <v>214580</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5042,18 +5042,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C233">
-        <v>270580</v>
+        <v>310407</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5062,18 +5062,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C234">
-        <v>3127774</v>
+        <v>288968</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5082,18 +5082,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>78e784ceac79715e6f390d5b83f7fb527e8cb5b0404a6f1be45b313a5ba02dc1</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C235">
-        <v>3331653</v>
+        <v>270581</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5102,18 +5102,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>dd04ef36d2763124089134dbe7458b80907450a71e52752c5290f0de6f4e7eae</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C236">
-        <v>3412887</v>
+        <v>3127774</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5122,18 +5122,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>24f9a0b1ca8b96b3da27e0f1d94e381499f584471f56b3c2a7241ae4f6141d8c</v>
+        <v>78e784ceac79715e6f390d5b83f7fb527e8cb5b0404a6f1be45b313a5ba02dc1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C237">
-        <v>4001030</v>
+        <v>3331653</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5142,18 +5142,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>1bb8cecd4d65d3465875868908bde0e58a0c63eb9afd917907feb7180b3b8914</v>
+        <v>dd04ef36d2763124089134dbe7458b80907450a71e52752c5290f0de6f4e7eae</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C238">
-        <v>790826</v>
+        <v>3412887</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5162,18 +5162,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>be4310c123d2b37d7bdd180f406795da17db9276c2abcf6d33c7f2d834798ba0</v>
+        <v>24f9a0b1ca8b96b3da27e0f1d94e381499f584471f56b3c2a7241ae4f6141d8c</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_b0260.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_b0260.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C239">
-        <v>809446</v>
+        <v>4001030</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5182,18 +5182,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>5545e61f9af50ea439bb9425d49679c265b4b04153e748be9d8dff61b7f46113</v>
+        <v>1bb8cecd4d65d3465875868908bde0e58a0c63eb9afd917907feb7180b3b8914</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C240">
-        <v>3558177</v>
+        <v>790826</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5202,18 +5202,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
+        <v>be4310c123d2b37d7bdd180f406795da17db9276c2abcf6d33c7f2d834798ba0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0260.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0260.ab</v>
       </c>
       <c r="C241">
-        <v>797567</v>
+        <v>809446</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5222,18 +5222,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
+        <v>5545e61f9af50ea439bb9425d49679c265b4b04153e748be9d8dff61b7f46113</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C242">
-        <v>208090</v>
+        <v>3558177</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5242,18 +5242,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
+        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C243">
-        <v>3975187</v>
+        <v>797567</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5262,18 +5262,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
+        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C244">
-        <v>4306043</v>
+        <v>208090</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5282,18 +5282,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>8b2ed468e2fcba7d477e3da1fe08a3c2d69c7a5b700f1e557d14a5b1a72ba120</v>
+        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C245">
-        <v>3547758</v>
+        <v>3975188</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5302,18 +5302,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>e3fca3c426d6ee0a3cf9dd6f304f8f25d2fef2a9b1ae6de05627d3db37e3fc6a</v>
+        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C246">
-        <v>3671173</v>
+        <v>4306043</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5322,18 +5322,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>b5b543aee2a4ed561a42e5107bbea10ef79b2ad93842b832eb235533f7ca4f99</v>
+        <v>8b2ed468e2fcba7d477e3da1fe08a3c2d69c7a5b700f1e557d14a5b1a72ba120</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C247">
-        <v>803840</v>
+        <v>3547758</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5342,18 +5342,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>e7a218ee7d7a55f01a0e251a424c46bcf384be8b50176d5cac868f9da0dde6d7</v>
+        <v>e3fca3c426d6ee0a3cf9dd6f304f8f25d2fef2a9b1ae6de05627d3db37e3fc6a</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C248">
-        <v>713224</v>
+        <v>3671173</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5362,18 +5362,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>bbc9c213346cd9c77b113965f05ffa7d0b05ac187f68681435bf67674b00e146</v>
+        <v>b5b543aee2a4ed561a42e5107bbea10ef79b2ad93842b832eb235533f7ca4f99</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C249">
-        <v>831282</v>
+        <v>803840</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5382,18 +5382,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>c38406c3168894ab382175e94b7976eb5ea0caf4f1d7a22fe7b3860d8dc0759e</v>
+        <v>e7a218ee7d7a55f01a0e251a424c46bcf384be8b50176d5cac868f9da0dde6d7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C250">
-        <v>4679298</v>
+        <v>713224</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5402,18 +5402,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>6f4c0ef7a8999f67fbe814d23dd3f4bdd1d22cc0f44a0f13a9953615ce2d6580</v>
+        <v>bbc9c213346cd9c77b113965f05ffa7d0b05ac187f68681435bf67674b00e146</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C251">
-        <v>823851</v>
+        <v>831282</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5422,18 +5422,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>8ce801de023c56fbb01494c4ca701ac2a955973683af0de63eb113c470fe54c3</v>
+        <v>c38406c3168894ab382175e94b7976eb5ea0caf4f1d7a22fe7b3860d8dc0759e</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C252">
-        <v>730593</v>
+        <v>4679298</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5442,18 +5442,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>70018ef62ee1aa1a3b56fd711fb01a33ba58f72ed71b0ee34e169894cad9a529</v>
+        <v>6f4c0ef7a8999f67fbe814d23dd3f4bdd1d22cc0f44a0f13a9953615ce2d6580</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C253">
-        <v>808031</v>
+        <v>823851</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5462,18 +5462,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>da212d22735b71006f7bbebd8d2cf847ddf21d859344229cddf9f6ccf80c5372</v>
+        <v>8ce801de023c56fbb01494c4ca701ac2a955973683af0de63eb113c470fe54c3</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C254">
-        <v>758977</v>
+        <v>730593</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5482,18 +5482,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>8b88365c69bb5344a0f0022c3e0ae2283422666aca080b856f449d7397992782</v>
+        <v>70018ef62ee1aa1a3b56fd711fb01a33ba58f72ed71b0ee34e169894cad9a529</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C255">
-        <v>4615070</v>
+        <v>808031</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5502,18 +5502,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>78559c267f1b3412982acc007d76441d8b75e93eb4bfcdb0e95485e9ecd87318</v>
+        <v>da212d22735b71006f7bbebd8d2cf847ddf21d859344229cddf9f6ccf80c5372</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C256">
-        <v>3928747</v>
+        <v>758977</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5522,18 +5522,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>649021775c3d944ec66710dc2833a8df8f6e11c44878c62f3b931ff660a3c2da</v>
+        <v>8b88365c69bb5344a0f0022c3e0ae2283422666aca080b856f449d7397992782</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C257">
-        <v>4234934</v>
+        <v>4615070</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5542,18 +5542,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>95f82d1cb182f0d594eb6125d7b4f828b8e2b54c03c6a9b2a8a2688ae2b427ef</v>
+        <v>78559c267f1b3412982acc007d76441d8b75e93eb4bfcdb0e95485e9ecd87318</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C258">
-        <v>4332457</v>
+        <v>3928747</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5562,18 +5562,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>4d633e8de21a01527f9364d84f44895010d4a5dec9f0ede8402c19749280609a</v>
+        <v>649021775c3d944ec66710dc2833a8df8f6e11c44878c62f3b931ff660a3c2da</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C259">
-        <v>3265010</v>
+        <v>4234934</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5582,18 +5582,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>ffdbdb5c7c3a5f8aec334500f40226b14d82ac63ff43d51fa83131e6be67c680</v>
+        <v>95f82d1cb182f0d594eb6125d7b4f828b8e2b54c03c6a9b2a8a2688ae2b427ef</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C260">
-        <v>3281917</v>
+        <v>4332457</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5602,18 +5602,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>055d98eaa385323f6b431d57d9158c227ec5ff8f3fa628b8fdac15595b44a475</v>
+        <v>4d633e8de21a01527f9364d84f44895010d4a5dec9f0ede8402c19749280609a</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C261">
-        <v>3268737</v>
+        <v>3265010</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5622,18 +5622,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>2a72b0b0d6249cd756219728440dca77f1388f67427663ba12f8ddac14f3a5c5</v>
+        <v>ffdbdb5c7c3a5f8aec334500f40226b14d82ac63ff43d51fa83131e6be67c680</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C262">
-        <v>3878946</v>
+        <v>3281917</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5642,18 +5642,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>4d62229cbd284aa9391c2ae5728483edcdd7c3664570bc6980b143987362b95d</v>
+        <v>055d98eaa385323f6b431d57d9158c227ec5ff8f3fa628b8fdac15595b44a475</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C263">
-        <v>3068963</v>
+        <v>3268737</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5662,18 +5662,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>d43431a351343bcce91b2b6839f9998d1c36be4e3f4f103a9b7bed45056690a6</v>
+        <v>2a72b0b0d6249cd756219728440dca77f1388f67427663ba12f8ddac14f3a5c5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C264">
-        <v>3311210</v>
+        <v>3878946</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5682,18 +5682,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>f844caa4342233c882176f4b3d3b5df3aa38df5704837c4e17b36f772a18fe85</v>
+        <v>4d62229cbd284aa9391c2ae5728483edcdd7c3664570bc6980b143987362b95d</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C265">
-        <v>3958978</v>
+        <v>3068963</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5702,18 +5702,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>5a7f4c68dffa0013111cececfe93648f43ea44a9d2ecc2f353cf7b7c8cb8f59c</v>
+        <v>d43431a351343bcce91b2b6839f9998d1c36be4e3f4f103a9b7bed45056690a6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C266">
-        <v>2916298</v>
+        <v>3311210</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5722,18 +5722,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>b9696daa9252dec4261611f1f256637ee51cb3b8b33d0b92cfd3bba149001c6e</v>
+        <v>f844caa4342233c882176f4b3d3b5df3aa38df5704837c4e17b36f772a18fe85</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C267">
-        <v>855003</v>
+        <v>3958978</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5742,18 +5742,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>289b0ed905365cd5e8cb89fe42ac33d47e5f572cfc93a7419bb99f39ea7341d1</v>
+        <v>5a7f4c68dffa0013111cececfe93648f43ea44a9d2ecc2f353cf7b7c8cb8f59c</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C268">
-        <v>834045</v>
+        <v>2916298</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5762,18 +5762,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>6b42ad4bbc2598a1f1702e175d9bf9f511e485fa19f3fa86a86c22eb8cc7f23e</v>
+        <v>b9696daa9252dec4261611f1f256637ee51cb3b8b33d0b92cfd3bba149001c6e</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C269">
-        <v>799261</v>
+        <v>855003</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5782,18 +5782,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>5f1d547ddd7b8ce59a4e005ebe350bdc99957ad7f687d685d31014cccf81c0fc</v>
+        <v>289b0ed905365cd5e8cb89fe42ac33d47e5f572cfc93a7419bb99f39ea7341d1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C270">
-        <v>777116</v>
+        <v>834045</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5802,18 +5802,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>ec22258063c80e1c82446b8a02dd46be8a92091df93f324eb9cf423dbee75c4a</v>
+        <v>6b42ad4bbc2598a1f1702e175d9bf9f511e485fa19f3fa86a86c22eb8cc7f23e</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C271">
-        <v>4131491</v>
+        <v>799261</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5822,18 +5822,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>2e3087d8674c5bff6c4f6a7957f7b459bfefc77083b6fa9050da6c234e5fcd06</v>
+        <v>5f1d547ddd7b8ce59a4e005ebe350bdc99957ad7f687d685d31014cccf81c0fc</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C272">
-        <v>806083</v>
+        <v>777116</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5842,18 +5842,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>75ea8ae022a44b3b64d866c990239078893ea0883aa85a84522e0d99fff85500</v>
+        <v>ec22258063c80e1c82446b8a02dd46be8a92091df93f324eb9cf423dbee75c4a</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C273">
-        <v>4289279</v>
+        <v>4131491</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5862,18 +5862,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>3f3f9d99623d7683093487b65cfd461be53bd2b8153a9419bb9880bf3086fee3</v>
+        <v>2e3087d8674c5bff6c4f6a7957f7b459bfefc77083b6fa9050da6c234e5fcd06</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C274">
-        <v>3816882</v>
+        <v>806083</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5882,18 +5882,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>e342bcc9d451f54427e9e676142ce9d3e42283c78c64adf074fd6754f8b711c9</v>
+        <v>75ea8ae022a44b3b64d866c990239078893ea0883aa85a84522e0d99fff85500</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C275">
-        <v>5051199</v>
+        <v>4289279</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5902,18 +5902,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>a85ef6c19ca8f47ed76b9c9f22aa8d48512b3d1dc156cdb37fdebe8d80ff9e1a</v>
+        <v>3f3f9d99623d7683093487b65cfd461be53bd2b8153a9419bb9880bf3086fee3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C276">
-        <v>4176002</v>
+        <v>3816882</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5922,18 +5922,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>206d98bef7c96e960896ee8ee4a7b90e71f4c30bd73f9833cbe46d246c450f78</v>
+        <v>e342bcc9d451f54427e9e676142ce9d3e42283c78c64adf074fd6754f8b711c9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C277">
-        <v>4242518</v>
+        <v>5051199</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5942,18 +5942,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>824b86c0e40aefc0770c167f978bc2fd4c1925a9efe1e9691c60a2eb5122c14e</v>
+        <v>a85ef6c19ca8f47ed76b9c9f22aa8d48512b3d1dc156cdb37fdebe8d80ff9e1a</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C278">
-        <v>3266671</v>
+        <v>4176002</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5962,18 +5962,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>6242bc0a6af6955ac2a0a8d31fee0a742dd006425a34614572a0ff0a6cf3ac30</v>
+        <v>206d98bef7c96e960896ee8ee4a7b90e71f4c30bd73f9833cbe46d246c450f78</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C279">
-        <v>3395405</v>
+        <v>4242518</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5982,18 +5982,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>c07b0a8e238a880228b5a27ac66e50bd4cd42ef64dd35769fbadb7ef4f9419aa</v>
+        <v>824b86c0e40aefc0770c167f978bc2fd4c1925a9efe1e9691c60a2eb5122c14e</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C280">
-        <v>5218305</v>
+        <v>3266671</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -6002,18 +6002,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>0202ec87f638f3fd76d7a98dd5eb291a5d0c8125ded3ecb47f078dccd09f3a0b</v>
+        <v>6242bc0a6af6955ac2a0a8d31fee0a742dd006425a34614572a0ff0a6cf3ac30</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C281">
-        <v>3156222</v>
+        <v>3395405</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6022,18 +6022,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>23b70b245fb51ad1ff3124e47b98d8fd49cfc73ff7c5b97409552acded965e5c</v>
+        <v>c07b0a8e238a880228b5a27ac66e50bd4cd42ef64dd35769fbadb7ef4f9419aa</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C282">
-        <v>4037956</v>
+        <v>5218305</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6042,18 +6042,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>d7d2064c4b7799f6f05c0bea7820d77879988674b6cbb863fc6ffff294516853</v>
+        <v>0202ec87f638f3fd76d7a98dd5eb291a5d0c8125ded3ecb47f078dccd09f3a0b</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C283">
-        <v>2589817</v>
+        <v>4004656</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6062,18 +6062,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>e319306d4c24fd23c4a7473ad0c6218a96d6abcbf8062198b2d17c4362a88c65</v>
+        <v>61e12aaabe2c59ab60d879b18a7d8b89b7ddf9a8a71498e190e883353f7167c5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C284">
-        <v>3232149</v>
+        <v>4037956</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6082,18 +6082,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>3d27bb9df8d360989f595c83964e2a94d8e5fd22b8f7a6c1193e7c4cc257a6dd</v>
+        <v>d7d2064c4b7799f6f05c0bea7820d77879988674b6cbb863fc6ffff294516853</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C285">
-        <v>3117108</v>
+        <v>2589817</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6102,18 +6102,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>2ce3ea84a16615d2d212b5c34a99171686d2a4e36cff83cf509ebbfb367e0b2d</v>
+        <v>e319306d4c24fd23c4a7473ad0c6218a96d6abcbf8062198b2d17c4362a88c65</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C286">
-        <v>4175238</v>
+        <v>3232149</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6122,18 +6122,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>54cf04627438a03b859ddb2f4687af86522a3814168449e0f183e1fc0bb2a847</v>
+        <v>3d27bb9df8d360989f595c83964e2a94d8e5fd22b8f7a6c1193e7c4cc257a6dd</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C287">
-        <v>3438941</v>
+        <v>3117108</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6142,18 +6142,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>69896b88d7b878ed3a9ae0ccaac412a1dcead089da47686152318321fd1de238</v>
+        <v>2ce3ea84a16615d2d212b5c34a99171686d2a4e36cff83cf509ebbfb367e0b2d</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C288">
-        <v>4097341</v>
+        <v>4175238</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6162,18 +6162,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>a660b7d68977f955ba7ceced1adadab138e4fc76cc5208da43d9369b9dc59e23</v>
+        <v>54cf04627438a03b859ddb2f4687af86522a3814168449e0f183e1fc0bb2a847</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C289">
-        <v>750978</v>
+        <v>3438941</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6182,18 +6182,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>38de7487f089a655ef8ef162c0d101525d83e7f406dabf459b3a9c8390380122</v>
+        <v>69896b88d7b878ed3a9ae0ccaac412a1dcead089da47686152318321fd1de238</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C290">
-        <v>2078410</v>
+        <v>4097341</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6202,18 +6202,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>6cb30643d3b6c9be725cce1f64f07b98426ba01da9ad3e9b127862d8b8dbccf8</v>
+        <v>a660b7d68977f955ba7ceced1adadab138e4fc76cc5208da43d9369b9dc59e23</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C291">
-        <v>562150</v>
+        <v>750978</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6222,18 +6222,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>8950a764fe423f950c36d8d8c330f207f071139213a0be60bebb3ded5fe329cd</v>
+        <v>38de7487f089a655ef8ef162c0d101525d83e7f406dabf459b3a9c8390380122</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C292">
-        <v>796221</v>
+        <v>2078410</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6242,18 +6242,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>1e0a607d278479f68829b034dc3e31e3ff73f88dee2ff778c5c4398d845d97e6</v>
+        <v>6cb30643d3b6c9be725cce1f64f07b98426ba01da9ad3e9b127862d8b8dbccf8</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C293">
-        <v>770702</v>
+        <v>562150</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6262,18 +6262,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>e434b87a3241dae1f7d81acd86f8102e93895ec6ab30272f57fd9721c6d1bcfa</v>
+        <v>8950a764fe423f950c36d8d8c330f207f071139213a0be60bebb3ded5fe329cd</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C294">
-        <v>820636</v>
+        <v>796221</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6282,18 +6282,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>c5d28976c731cae2d777b0675466878565052af34c557d71d7009162fbe813e8</v>
+        <v>1e0a607d278479f68829b034dc3e31e3ff73f88dee2ff778c5c4398d845d97e6</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C295">
-        <v>817925</v>
+        <v>770702</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6302,18 +6302,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>d596388ecc3145e4279aed0ec7f8b25c8a5abbfeaf17c76560902f42fd6fd46c</v>
+        <v>e434b87a3241dae1f7d81acd86f8102e93895ec6ab30272f57fd9721c6d1bcfa</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C296">
-        <v>830548</v>
+        <v>820636</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6322,18 +6322,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>694f5ecefeccf73e0d79fcbde42e9a7552d32c2dc69d3894af27e1b92e9c9327</v>
+        <v>c5d28976c731cae2d777b0675466878565052af34c557d71d7009162fbe813e8</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B297" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C297">
-        <v>802577</v>
+        <v>817925</v>
       </c>
       <c r="D297" t="str">
         <v>Stage_1</v>
@@ -6342,18 +6342,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>22ce1b1174d04d190ad9105ae99b8268e4b5b4bce7d43dbd7bac3a6930162aa5</v>
+        <v>d596388ecc3145e4279aed0ec7f8b25c8a5abbfeaf17c76560902f42fd6fd46c</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B298" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C298">
-        <v>782755</v>
+        <v>830548</v>
       </c>
       <c r="D298" t="str">
         <v>Stage_1</v>
@@ -6362,18 +6362,18 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>fa33b1b6747266a27a42f0fe654fadc5c45d1b7ca97b1b8f2d52b3b0d3c7c647</v>
+        <v>694f5ecefeccf73e0d79fcbde42e9a7552d32c2dc69d3894af27e1b92e9c9327</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B299" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C299">
-        <v>783966</v>
+        <v>802577</v>
       </c>
       <c r="D299" t="str">
         <v>Stage_1</v>
@@ -6382,18 +6382,18 @@
         <v>0</v>
       </c>
       <c r="F299" t="str">
-        <v>6c80e0e30faa685a6e8861942e4283309563a109980a7b43ad0f6c8f7b3fd812</v>
+        <v>22ce1b1174d04d190ad9105ae99b8268e4b5b4bce7d43dbd7bac3a6930162aa5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B300" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C300">
-        <v>818586</v>
+        <v>782755</v>
       </c>
       <c r="D300" t="str">
         <v>Stage_1</v>
@@ -6402,18 +6402,18 @@
         <v>0</v>
       </c>
       <c r="F300" t="str">
-        <v>4189f28a4927c0faa536e86f0b2978390507c7e2a3f7182854f18827713a9ae6</v>
+        <v>fa33b1b6747266a27a42f0fe654fadc5c45d1b7ca97b1b8f2d52b3b0d3c7c647</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B301" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C301">
-        <v>804643</v>
+        <v>783966</v>
       </c>
       <c r="D301" t="str">
         <v>Stage_1</v>
@@ -6422,18 +6422,18 @@
         <v>0</v>
       </c>
       <c r="F301" t="str">
-        <v>5779e4f64a588b7ba406c3f77cbe5a7623a881612f260d82d0fdd015454ce4e5</v>
+        <v>6c80e0e30faa685a6e8861942e4283309563a109980a7b43ad0f6c8f7b3fd812</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B302" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C302">
-        <v>815725</v>
+        <v>818586</v>
       </c>
       <c r="D302" t="str">
         <v>Stage_1</v>
@@ -6442,18 +6442,18 @@
         <v>0</v>
       </c>
       <c r="F302" t="str">
-        <v>670e37924a1dc65b3257f7ea9ea57af53ef77c50e363aa558450edda73a3971e</v>
+        <v>4189f28a4927c0faa536e86f0b2978390507c7e2a3f7182854f18827713a9ae6</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B303" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C303">
-        <v>787384</v>
+        <v>804643</v>
       </c>
       <c r="D303" t="str">
         <v>Stage_1</v>
@@ -6462,18 +6462,18 @@
         <v>0</v>
       </c>
       <c r="F303" t="str">
-        <v>72c7aa064bb39180b9f70c05d799875beb09b87e0863e05312f2b613f6296aaa</v>
+        <v>5779e4f64a588b7ba406c3f77cbe5a7623a881612f260d82d0fdd015454ce4e5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B304" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C304">
-        <v>3226990</v>
+        <v>815725</v>
       </c>
       <c r="D304" t="str">
         <v>Stage_1</v>
@@ -6482,18 +6482,18 @@
         <v>0</v>
       </c>
       <c r="F304" t="str">
-        <v>78cff653adce00a0271b9b386462b605c5155aa5328a916a2c1e7472ef53800b</v>
+        <v>670e37924a1dc65b3257f7ea9ea57af53ef77c50e363aa558450edda73a3971e</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B305" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C305">
-        <v>3520720</v>
+        <v>787384</v>
       </c>
       <c r="D305" t="str">
         <v>Stage_1</v>
@@ -6502,18 +6502,18 @@
         <v>0</v>
       </c>
       <c r="F305" t="str">
-        <v>f0b995ef5d339afb76d7292b967c27ba26b3f240505eddecf275b18d014acabe</v>
+        <v>72c7aa064bb39180b9f70c05d799875beb09b87e0863e05312f2b613f6296aaa</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B306" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C306">
-        <v>2771089</v>
+        <v>3226990</v>
       </c>
       <c r="D306" t="str">
         <v>Stage_1</v>
@@ -6522,18 +6522,18 @@
         <v>0</v>
       </c>
       <c r="F306" t="str">
-        <v>bfa55cdf6f0750acee979cdf5cdc7840f4de769c34b7e38431644cf7a21ae6ba</v>
+        <v>78cff653adce00a0271b9b386462b605c5155aa5328a916a2c1e7472ef53800b</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B307" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C307">
-        <v>3669448</v>
+        <v>3520720</v>
       </c>
       <c r="D307" t="str">
         <v>Stage_1</v>
@@ -6542,18 +6542,18 @@
         <v>0</v>
       </c>
       <c r="F307" t="str">
-        <v>d9f408df598bbed9f98731ebbbc24dd54c87d8faf6db4f9f6ed0bbdc627164f9</v>
+        <v>f0b995ef5d339afb76d7292b967c27ba26b3f240505eddecf275b18d014acabe</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B308" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C308">
-        <v>3422472</v>
+        <v>2771089</v>
       </c>
       <c r="D308" t="str">
         <v>Stage_1</v>
@@ -6562,18 +6562,18 @@
         <v>0</v>
       </c>
       <c r="F308" t="str">
-        <v>6a96ed9bc7dae9b6a94560a7a2a2c4c968aa9c666608866700784adbd28efe9e</v>
+        <v>bfa55cdf6f0750acee979cdf5cdc7840f4de769c34b7e38431644cf7a21ae6ba</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B309" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C309">
-        <v>808827</v>
+        <v>3669448</v>
       </c>
       <c r="D309" t="str">
         <v>Stage_1</v>
@@ -6582,18 +6582,18 @@
         <v>0</v>
       </c>
       <c r="F309" t="str">
-        <v>b849caca8249392ed9cb5fbc69ad00daebd22a57c5dbe8dd0ef8e36a983745d0</v>
+        <v>d9f408df598bbed9f98731ebbbc24dd54c87d8faf6db4f9f6ed0bbdc627164f9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B310" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C310">
-        <v>792810</v>
+        <v>3422472</v>
       </c>
       <c r="D310" t="str">
         <v>Stage_1</v>
@@ -6602,18 +6602,18 @@
         <v>0</v>
       </c>
       <c r="F310" t="str">
-        <v>2b02b549d1958dcd7765bd6847f70978d863dd130ffa8e646f5fdc031cdc8351</v>
+        <v>6a96ed9bc7dae9b6a94560a7a2a2c4c968aa9c666608866700784adbd28efe9e</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B311" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C311">
-        <v>725025</v>
+        <v>808827</v>
       </c>
       <c r="D311" t="str">
         <v>Stage_1</v>
@@ -6622,18 +6622,18 @@
         <v>0</v>
       </c>
       <c r="F311" t="str">
-        <v>c54d37a9842bc35f6a53430f7b78bf25398c17e364d4fd7af908f2f9e6a41a4a</v>
+        <v>b849caca8249392ed9cb5fbc69ad00daebd22a57c5dbe8dd0ef8e36a983745d0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B312" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C312">
-        <v>785465</v>
+        <v>792810</v>
       </c>
       <c r="D312" t="str">
         <v>Stage_1</v>
@@ -6642,18 +6642,18 @@
         <v>0</v>
       </c>
       <c r="F312" t="str">
-        <v>36cc8950d881f726e02b7e855085ff44ade33666176018a788d9faec4f87090f</v>
+        <v>2b02b549d1958dcd7765bd6847f70978d863dd130ffa8e646f5fdc031cdc8351</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B313" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C313">
-        <v>815412</v>
+        <v>725025</v>
       </c>
       <c r="D313" t="str">
         <v>Stage_1</v>
@@ -6662,18 +6662,18 @@
         <v>0</v>
       </c>
       <c r="F313" t="str">
-        <v>6a6748aa0319948886214cb8c63c8cec143ea660d596ef8d6d978fdd3511b82a</v>
+        <v>c54d37a9842bc35f6a53430f7b78bf25398c17e364d4fd7af908f2f9e6a41a4a</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B314" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C314">
-        <v>798179</v>
+        <v>785465</v>
       </c>
       <c r="D314" t="str">
         <v>Stage_1</v>
@@ -6682,18 +6682,18 @@
         <v>0</v>
       </c>
       <c r="F314" t="str">
-        <v>c7d74889421f50783e19f16bfee0461d528a543471b9b45ae4aa772b774876c0</v>
+        <v>36cc8950d881f726e02b7e855085ff44ade33666176018a788d9faec4f87090f</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B315" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C315">
-        <v>781740</v>
+        <v>815412</v>
       </c>
       <c r="D315" t="str">
         <v>Stage_1</v>
@@ -6702,18 +6702,18 @@
         <v>0</v>
       </c>
       <c r="F315" t="str">
-        <v>2055d9937e4e0b0a8811536085a0478651eb0f01fc6dfec0c170ac2391a1d44b</v>
+        <v>6a6748aa0319948886214cb8c63c8cec143ea660d596ef8d6d978fdd3511b82a</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B316" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C316">
-        <v>723932</v>
+        <v>798179</v>
       </c>
       <c r="D316" t="str">
         <v>Stage_1</v>
@@ -6722,18 +6722,18 @@
         <v>0</v>
       </c>
       <c r="F316" t="str">
-        <v>54fb809610bab1d842ba2f6c9092c659035994f46801d54970375ee2ea3c5dac</v>
+        <v>c7d74889421f50783e19f16bfee0461d528a543471b9b45ae4aa772b774876c0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B317" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C317">
-        <v>817588</v>
+        <v>781740</v>
       </c>
       <c r="D317" t="str">
         <v>Stage_1</v>
@@ -6742,18 +6742,18 @@
         <v>0</v>
       </c>
       <c r="F317" t="str">
-        <v>b19a3f8eb2a00ec2e2fafcdb4ae347a5e27c5d935a48a989071d64f8daa7c711</v>
+        <v>2055d9937e4e0b0a8811536085a0478651eb0f01fc6dfec0c170ac2391a1d44b</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B318" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C318">
-        <v>835275</v>
+        <v>723932</v>
       </c>
       <c r="D318" t="str">
         <v>Stage_1</v>
@@ -6762,18 +6762,18 @@
         <v>0</v>
       </c>
       <c r="F318" t="str">
-        <v>976aa2fcf5e09deb4a3ab659fb8a8e9afc3c27bbb832920dde15ea1cb2d990db</v>
+        <v>54fb809610bab1d842ba2f6c9092c659035994f46801d54970375ee2ea3c5dac</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B319" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C319">
-        <v>810774</v>
+        <v>817588</v>
       </c>
       <c r="D319" t="str">
         <v>Stage_1</v>
@@ -6782,18 +6782,18 @@
         <v>0</v>
       </c>
       <c r="F319" t="str">
-        <v>8a135d2928943c0ee8f93db24bb041ac0925554dfa5e69c1d8ed784c1517bab2</v>
+        <v>b19a3f8eb2a00ec2e2fafcdb4ae347a5e27c5d935a48a989071d64f8daa7c711</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B320" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C320">
-        <v>782587</v>
+        <v>835275</v>
       </c>
       <c r="D320" t="str">
         <v>Stage_1</v>
@@ -6802,18 +6802,18 @@
         <v>0</v>
       </c>
       <c r="F320" t="str">
-        <v>c8b75ce568e328d85fb21c02c1ab9c4309d261e1771ad612854e065b528e80b6</v>
+        <v>976aa2fcf5e09deb4a3ab659fb8a8e9afc3c27bbb832920dde15ea1cb2d990db</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B321" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C321">
-        <v>832318</v>
+        <v>810774</v>
       </c>
       <c r="D321" t="str">
         <v>Stage_1</v>
@@ -6822,18 +6822,18 @@
         <v>0</v>
       </c>
       <c r="F321" t="str">
-        <v>551c9d38c10aaa35dc668fa95d4ab634ea90021e999ec43e3b3692a33f37308c</v>
+        <v>8a135d2928943c0ee8f93db24bb041ac0925554dfa5e69c1d8ed784c1517bab2</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B322" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C322">
-        <v>825127</v>
+        <v>782587</v>
       </c>
       <c r="D322" t="str">
         <v>Stage_1</v>
@@ -6842,18 +6842,18 @@
         <v>0</v>
       </c>
       <c r="F322" t="str">
-        <v>8589c6aa5e2a1402cd077069b6a7c5b7963e4990bf24ef1ae425fa5b6fe77851</v>
+        <v>c8b75ce568e328d85fb21c02c1ab9c4309d261e1771ad612854e065b528e80b6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B323" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C323">
-        <v>765539</v>
+        <v>832318</v>
       </c>
       <c r="D323" t="str">
         <v>Stage_1</v>
@@ -6862,18 +6862,18 @@
         <v>0</v>
       </c>
       <c r="F323" t="str">
-        <v>7ceaafb884feff69f0cad1625495c0b9623b4abcdb13918dee5ec9782b9e7c6f</v>
+        <v>551c9d38c10aaa35dc668fa95d4ab634ea90021e999ec43e3b3692a33f37308c</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B324" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C324">
-        <v>759394</v>
+        <v>825127</v>
       </c>
       <c r="D324" t="str">
         <v>Stage_1</v>
@@ -6882,18 +6882,18 @@
         <v>0</v>
       </c>
       <c r="F324" t="str">
-        <v>8e6f4b217298f11e5493e50b5f41aefd8b49f8f0d3d68747e30ebde5fcb495af</v>
+        <v>8589c6aa5e2a1402cd077069b6a7c5b7963e4990bf24ef1ae425fa5b6fe77851</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B325" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C325">
-        <v>736440</v>
+        <v>765539</v>
       </c>
       <c r="D325" t="str">
         <v>Stage_1</v>
@@ -6902,18 +6902,18 @@
         <v>0</v>
       </c>
       <c r="F325" t="str">
-        <v>1ba74f46cf112a8fbabd9dbe94f3e47c6b8fae0f59caf2cbd33d263176d536eb</v>
+        <v>7ceaafb884feff69f0cad1625495c0b9623b4abcdb13918dee5ec9782b9e7c6f</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="B326" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="C326">
-        <v>828877</v>
+        <v>759394</v>
       </c>
       <c r="D326" t="str">
         <v>Stage_1</v>
@@ -6922,18 +6922,18 @@
         <v>0</v>
       </c>
       <c r="F326" t="str">
-        <v>84f2c50e0b0f149fc2a5da0a87b10af733ba6c544daf4e3f9dd4c2c2e702fe60</v>
+        <v>8e6f4b217298f11e5493e50b5f41aefd8b49f8f0d3d68747e30ebde5fcb495af</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>character_largeimage_h0219.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="B327" t="str">
-        <v>character_largeimage_h0219.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="C327">
-        <v>817529</v>
+        <v>736440</v>
       </c>
       <c r="D327" t="str">
         <v>Stage_1</v>
@@ -6942,18 +6942,18 @@
         <v>0</v>
       </c>
       <c r="F327" t="str">
-        <v>87101cadb86464c4b19e924805d524f2a1700367f5a505fb1ae5f7bc289886f2</v>
+        <v>1ba74f46cf112a8fbabd9dbe94f3e47c6b8fae0f59caf2cbd33d263176d536eb</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>character_largeimage_h0220.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="B328" t="str">
-        <v>character_largeimage_h0220.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="C328">
-        <v>689304</v>
+        <v>828877</v>
       </c>
       <c r="D328" t="str">
         <v>Stage_1</v>
@@ -6962,18 +6962,18 @@
         <v>0</v>
       </c>
       <c r="F328" t="str">
-        <v>0838c201cac6aa71480937da9424b05a4dfbe7d617bb0811c64a08f8fbc44329</v>
+        <v>84f2c50e0b0f149fc2a5da0a87b10af733ba6c544daf4e3f9dd4c2c2e702fe60</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>character_largeimage_h0221.ab</v>
+        <v>character_largeimage_h0219.ab</v>
       </c>
       <c r="B329" t="str">
-        <v>character_largeimage_h0221.ab</v>
+        <v>character_largeimage_h0219.ab</v>
       </c>
       <c r="C329">
-        <v>774852</v>
+        <v>817529</v>
       </c>
       <c r="D329" t="str">
         <v>Stage_1</v>
@@ -6982,18 +6982,18 @@
         <v>0</v>
       </c>
       <c r="F329" t="str">
-        <v>260c6ef2907458fb0b24e79b4fdc8f2daf248b54e954c202b89e87fa45a79917</v>
+        <v>87101cadb86464c4b19e924805d524f2a1700367f5a505fb1ae5f7bc289886f2</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0220.ab</v>
       </c>
       <c r="B330" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0220.ab</v>
       </c>
       <c r="C330">
-        <v>734210</v>
+        <v>689304</v>
       </c>
       <c r="D330" t="str">
         <v>Stage_1</v>
@@ -7002,18 +7002,18 @@
         <v>0</v>
       </c>
       <c r="F330" t="str">
-        <v>8f88f1319c7298174ac3aa8a82b6986761610cbb74ef14c82c7e1ede1fc0b15d</v>
+        <v>0838c201cac6aa71480937da9424b05a4dfbe7d617bb0811c64a08f8fbc44329</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>character_largeimage_h0226.ab</v>
+        <v>character_largeimage_h0221.ab</v>
       </c>
       <c r="B331" t="str">
-        <v>character_largeimage_h0226.ab</v>
+        <v>character_largeimage_h0221.ab</v>
       </c>
       <c r="C331">
-        <v>761235</v>
+        <v>774852</v>
       </c>
       <c r="D331" t="str">
         <v>Stage_1</v>
@@ -7022,18 +7022,18 @@
         <v>0</v>
       </c>
       <c r="F331" t="str">
-        <v>6bc4336199b83047446c82c6a230574f05b6e130a41d9f33770766aeac9436f2</v>
+        <v>260c6ef2907458fb0b24e79b4fdc8f2daf248b54e954c202b89e87fa45a79917</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>character_largeimage_h0227.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="B332" t="str">
-        <v>character_largeimage_h0227.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="C332">
-        <v>786760</v>
+        <v>734210</v>
       </c>
       <c r="D332" t="str">
         <v>Stage_1</v>
@@ -7042,18 +7042,18 @@
         <v>0</v>
       </c>
       <c r="F332" t="str">
-        <v>0ec3a2ddea2c5f14762b1d53cf2a6c9b959342b7c2d7cb8c53f5de78389a1a9f</v>
+        <v>8f88f1319c7298174ac3aa8a82b6986761610cbb74ef14c82c7e1ede1fc0b15d</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>character_largeimage_h0230.ab</v>
+        <v>character_largeimage_h0226.ab</v>
       </c>
       <c r="B333" t="str">
-        <v>character_largeimage_h0230.ab</v>
+        <v>character_largeimage_h0226.ab</v>
       </c>
       <c r="C333">
-        <v>795281</v>
+        <v>761235</v>
       </c>
       <c r="D333" t="str">
         <v>Stage_1</v>
@@ -7062,18 +7062,18 @@
         <v>0</v>
       </c>
       <c r="F333" t="str">
-        <v>29ca1d6c0d021948d89276ee888dd3f034a0a0efe30c90a4af695d44e14e409d</v>
+        <v>6bc4336199b83047446c82c6a230574f05b6e130a41d9f33770766aeac9436f2</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>character_largeimage_h0232.ab</v>
+        <v>character_largeimage_h0227.ab</v>
       </c>
       <c r="B334" t="str">
-        <v>character_largeimage_h0232.ab</v>
+        <v>character_largeimage_h0227.ab</v>
       </c>
       <c r="C334">
-        <v>2084078</v>
+        <v>786760</v>
       </c>
       <c r="D334" t="str">
         <v>Stage_1</v>
@@ -7082,18 +7082,18 @@
         <v>0</v>
       </c>
       <c r="F334" t="str">
-        <v>dfe3d19d68019845ae4ece6c9574a5495c0a7e2d7b2bd5731672a07a39334105</v>
+        <v>0ec3a2ddea2c5f14762b1d53cf2a6c9b959342b7c2d7cb8c53f5de78389a1a9f</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>character_largeimage_h0233.ab</v>
+        <v>character_largeimage_h0230.ab</v>
       </c>
       <c r="B335" t="str">
-        <v>character_largeimage_h0233.ab</v>
+        <v>character_largeimage_h0230.ab</v>
       </c>
       <c r="C335">
-        <v>3216689</v>
+        <v>795281</v>
       </c>
       <c r="D335" t="str">
         <v>Stage_1</v>
@@ -7102,18 +7102,18 @@
         <v>0</v>
       </c>
       <c r="F335" t="str">
-        <v>aef3828cf7528b7b93a7e0d7408ad22b191692c1de64519b9f768867bc7b11a4</v>
+        <v>29ca1d6c0d021948d89276ee888dd3f034a0a0efe30c90a4af695d44e14e409d</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>character_largeimage_h0234.ab</v>
+        <v>character_largeimage_h0232.ab</v>
       </c>
       <c r="B336" t="str">
-        <v>character_largeimage_h0234.ab</v>
+        <v>character_largeimage_h0232.ab</v>
       </c>
       <c r="C336">
-        <v>3069501</v>
+        <v>2084078</v>
       </c>
       <c r="D336" t="str">
         <v>Stage_1</v>
@@ -7122,18 +7122,18 @@
         <v>0</v>
       </c>
       <c r="F336" t="str">
-        <v>b2537f99faf6708c1597ef8c25e62f4355e6f32459e915e721ed323c337327f5</v>
+        <v>dfe3d19d68019845ae4ece6c9574a5495c0a7e2d7b2bd5731672a07a39334105</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>character_largeimage_h0235.ab</v>
+        <v>character_largeimage_h0233.ab</v>
       </c>
       <c r="B337" t="str">
-        <v>character_largeimage_h0235.ab</v>
+        <v>character_largeimage_h0233.ab</v>
       </c>
       <c r="C337">
-        <v>2226899</v>
+        <v>3216689</v>
       </c>
       <c r="D337" t="str">
         <v>Stage_1</v>
@@ -7142,18 +7142,18 @@
         <v>0</v>
       </c>
       <c r="F337" t="str">
-        <v>465a56a4e220bd39de58cf59e525a9aa2450c8f08870c2d8368c8fd7339d7ac1</v>
+        <v>aef3828cf7528b7b93a7e0d7408ad22b191692c1de64519b9f768867bc7b11a4</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>character_largeimage_h0236.ab</v>
+        <v>character_largeimage_h0234.ab</v>
       </c>
       <c r="B338" t="str">
-        <v>character_largeimage_h0236.ab</v>
+        <v>character_largeimage_h0234.ab</v>
       </c>
       <c r="C338">
-        <v>2098839</v>
+        <v>3069501</v>
       </c>
       <c r="D338" t="str">
         <v>Stage_1</v>
@@ -7162,18 +7162,18 @@
         <v>0</v>
       </c>
       <c r="F338" t="str">
-        <v>861fe308f08e7ddd65e35b46d651cf70e0bf5a6ece93c69910f51b1910bc60b5</v>
+        <v>b2537f99faf6708c1597ef8c25e62f4355e6f32459e915e721ed323c337327f5</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>character_largeimage_h0237.ab</v>
+        <v>character_largeimage_h0235.ab</v>
       </c>
       <c r="B339" t="str">
-        <v>character_largeimage_h0237.ab</v>
+        <v>character_largeimage_h0235.ab</v>
       </c>
       <c r="C339">
-        <v>2342886</v>
+        <v>2226899</v>
       </c>
       <c r="D339" t="str">
         <v>Stage_1</v>
@@ -7182,18 +7182,18 @@
         <v>0</v>
       </c>
       <c r="F339" t="str">
-        <v>8e06426b9ef92077864f5f81f17f7da0e94162e7d8d2e1b0da5e5b0492ef2638</v>
+        <v>465a56a4e220bd39de58cf59e525a9aa2450c8f08870c2d8368c8fd7339d7ac1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>character_largeimage_h0238.ab</v>
+        <v>character_largeimage_h0236.ab</v>
       </c>
       <c r="B340" t="str">
-        <v>character_largeimage_h0238.ab</v>
+        <v>character_largeimage_h0236.ab</v>
       </c>
       <c r="C340">
-        <v>848742</v>
+        <v>2098839</v>
       </c>
       <c r="D340" t="str">
         <v>Stage_1</v>
@@ -7202,18 +7202,18 @@
         <v>0</v>
       </c>
       <c r="F340" t="str">
-        <v>eebcd817999436e6de65383cf189412ca4c12f9058f159cae52fef68555ccbbe</v>
+        <v>861fe308f08e7ddd65e35b46d651cf70e0bf5a6ece93c69910f51b1910bc60b5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>character_largeimage_h0239.ab</v>
+        <v>character_largeimage_h0237.ab</v>
       </c>
       <c r="B341" t="str">
-        <v>character_largeimage_h0239.ab</v>
+        <v>character_largeimage_h0237.ab</v>
       </c>
       <c r="C341">
-        <v>812643</v>
+        <v>2342886</v>
       </c>
       <c r="D341" t="str">
         <v>Stage_1</v>
@@ -7222,18 +7222,18 @@
         <v>0</v>
       </c>
       <c r="F341" t="str">
-        <v>a53f4a28d98d240b9ebf9ab9a21802b22ca3f01a9cbe43c7605471e8b69e8c22</v>
+        <v>8e06426b9ef92077864f5f81f17f7da0e94162e7d8d2e1b0da5e5b0492ef2638</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>character_largeimage_h0240.ab</v>
+        <v>character_largeimage_h0238.ab</v>
       </c>
       <c r="B342" t="str">
-        <v>character_largeimage_h0240.ab</v>
+        <v>character_largeimage_h0238.ab</v>
       </c>
       <c r="C342">
-        <v>819235</v>
+        <v>848742</v>
       </c>
       <c r="D342" t="str">
         <v>Stage_1</v>
@@ -7242,18 +7242,18 @@
         <v>0</v>
       </c>
       <c r="F342" t="str">
-        <v>416f932b7f7a15646a65e059ebb8f7a18b000b78fcdbdf6f5b0f6e99feee60a4</v>
+        <v>eebcd817999436e6de65383cf189412ca4c12f9058f159cae52fef68555ccbbe</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>character_largeimage_h0241.ab</v>
+        <v>character_largeimage_h0239.ab</v>
       </c>
       <c r="B343" t="str">
-        <v>character_largeimage_h0241.ab</v>
+        <v>character_largeimage_h0239.ab</v>
       </c>
       <c r="C343">
-        <v>824553</v>
+        <v>812643</v>
       </c>
       <c r="D343" t="str">
         <v>Stage_1</v>
@@ -7262,18 +7262,18 @@
         <v>0</v>
       </c>
       <c r="F343" t="str">
-        <v>0b513268be4ebfb7b998c19702c89e727831fcc9a6c44799632362eae33a7917</v>
+        <v>a53f4a28d98d240b9ebf9ab9a21802b22ca3f01a9cbe43c7605471e8b69e8c22</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>character_largeimage_h0243.ab</v>
+        <v>character_largeimage_h0240.ab</v>
       </c>
       <c r="B344" t="str">
-        <v>character_largeimage_h0243.ab</v>
+        <v>character_largeimage_h0240.ab</v>
       </c>
       <c r="C344">
-        <v>810706</v>
+        <v>819235</v>
       </c>
       <c r="D344" t="str">
         <v>Stage_1</v>
@@ -7282,18 +7282,18 @@
         <v>0</v>
       </c>
       <c r="F344" t="str">
-        <v>cb1bfb37585c135009aab9b0583e3d251dabfdd75817f9cb75d7b54ab1d86778</v>
+        <v>416f932b7f7a15646a65e059ebb8f7a18b000b78fcdbdf6f5b0f6e99feee60a4</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>character_largeimage_h0244.ab</v>
+        <v>character_largeimage_h0241.ab</v>
       </c>
       <c r="B345" t="str">
-        <v>character_largeimage_h0244.ab</v>
+        <v>character_largeimage_h0241.ab</v>
       </c>
       <c r="C345">
-        <v>778524</v>
+        <v>824553</v>
       </c>
       <c r="D345" t="str">
         <v>Stage_1</v>
@@ -7302,18 +7302,18 @@
         <v>0</v>
       </c>
       <c r="F345" t="str">
-        <v>41a7d16ec3600f10cab4dee7f9c437082021de8e22902f3b82af1db8c5b220fb</v>
+        <v>0b513268be4ebfb7b998c19702c89e727831fcc9a6c44799632362eae33a7917</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>character_largeimage_h0245.ab</v>
+        <v>character_largeimage_h0243.ab</v>
       </c>
       <c r="B346" t="str">
-        <v>character_largeimage_h0245.ab</v>
+        <v>character_largeimage_h0243.ab</v>
       </c>
       <c r="C346">
-        <v>795404</v>
+        <v>810706</v>
       </c>
       <c r="D346" t="str">
         <v>Stage_1</v>
@@ -7322,18 +7322,18 @@
         <v>0</v>
       </c>
       <c r="F346" t="str">
-        <v>22925c8d03dde32eb604d7ecfd799e03d9032c974272d0823790b7d6b18967ba</v>
+        <v>cb1bfb37585c135009aab9b0583e3d251dabfdd75817f9cb75d7b54ab1d86778</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>character_largeimage_h0247.ab</v>
+        <v>character_largeimage_h0244.ab</v>
       </c>
       <c r="B347" t="str">
-        <v>character_largeimage_h0247.ab</v>
+        <v>character_largeimage_h0244.ab</v>
       </c>
       <c r="C347">
-        <v>837487</v>
+        <v>778524</v>
       </c>
       <c r="D347" t="str">
         <v>Stage_1</v>
@@ -7342,18 +7342,18 @@
         <v>0</v>
       </c>
       <c r="F347" t="str">
-        <v>ef401029e4a4b055b381ebbe633554d5daf4a3e23b60c62b852b185c4c663bf5</v>
+        <v>41a7d16ec3600f10cab4dee7f9c437082021de8e22902f3b82af1db8c5b220fb</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>character_largeimage_h0248.ab</v>
+        <v>character_largeimage_h0245.ab</v>
       </c>
       <c r="B348" t="str">
-        <v>character_largeimage_h0248.ab</v>
+        <v>character_largeimage_h0245.ab</v>
       </c>
       <c r="C348">
-        <v>836258</v>
+        <v>795404</v>
       </c>
       <c r="D348" t="str">
         <v>Stage_1</v>
@@ -7362,18 +7362,18 @@
         <v>0</v>
       </c>
       <c r="F348" t="str">
-        <v>f8dc41278c1bfbb1635e74efb4ceb293b4de54b87f0626cf7e2b6c0f4972b150</v>
+        <v>22925c8d03dde32eb604d7ecfd799e03d9032c974272d0823790b7d6b18967ba</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>character_largeimage_h0249.ab</v>
+        <v>character_largeimage_h0247.ab</v>
       </c>
       <c r="B349" t="str">
-        <v>character_largeimage_h0249.ab</v>
+        <v>character_largeimage_h0247.ab</v>
       </c>
       <c r="C349">
-        <v>839134</v>
+        <v>837487</v>
       </c>
       <c r="D349" t="str">
         <v>Stage_1</v>
@@ -7382,18 +7382,18 @@
         <v>0</v>
       </c>
       <c r="F349" t="str">
-        <v>9b91af750de18d7afe93e1d3cba66a0bdd3c7db49a03c5ebcf3b8c44fee32fc4</v>
+        <v>ef401029e4a4b055b381ebbe633554d5daf4a3e23b60c62b852b185c4c663bf5</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>character_largeimage_h0253.ab</v>
+        <v>character_largeimage_h0248.ab</v>
       </c>
       <c r="B350" t="str">
-        <v>character_largeimage_h0253.ab</v>
+        <v>character_largeimage_h0248.ab</v>
       </c>
       <c r="C350">
-        <v>823722</v>
+        <v>836258</v>
       </c>
       <c r="D350" t="str">
         <v>Stage_1</v>
@@ -7402,18 +7402,18 @@
         <v>0</v>
       </c>
       <c r="F350" t="str">
-        <v>9c5c84a37c920c2e4b79f9013c9c5db129735e6375cc195a90117b4cf7802999</v>
+        <v>f8dc41278c1bfbb1635e74efb4ceb293b4de54b87f0626cf7e2b6c0f4972b150</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>character_largeimage_h0255.ab</v>
+        <v>character_largeimage_h0249.ab</v>
       </c>
       <c r="B351" t="str">
-        <v>character_largeimage_h0255.ab</v>
+        <v>character_largeimage_h0249.ab</v>
       </c>
       <c r="C351">
-        <v>800474</v>
+        <v>839134</v>
       </c>
       <c r="D351" t="str">
         <v>Stage_1</v>
@@ -7422,18 +7422,18 @@
         <v>0</v>
       </c>
       <c r="F351" t="str">
-        <v>450ab00dbd5b8f991797ab6c83f3ee7cb54290e9971ebd6d51273ff327ed5e15</v>
+        <v>9b91af750de18d7afe93e1d3cba66a0bdd3c7db49a03c5ebcf3b8c44fee32fc4</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>character_largeimage_h0256.ab</v>
+        <v>character_largeimage_h0253.ab</v>
       </c>
       <c r="B352" t="str">
-        <v>character_largeimage_h0256.ab</v>
+        <v>character_largeimage_h0253.ab</v>
       </c>
       <c r="C352">
-        <v>805509</v>
+        <v>823722</v>
       </c>
       <c r="D352" t="str">
         <v>Stage_1</v>
@@ -7442,18 +7442,18 @@
         <v>0</v>
       </c>
       <c r="F352" t="str">
-        <v>297c419fbd877b05bfc9add448ff76132757333cae20eccc028647aea7da7255</v>
+        <v>9c5c84a37c920c2e4b79f9013c9c5db129735e6375cc195a90117b4cf7802999</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>character_largeimage_h0257.ab</v>
+        <v>character_largeimage_h0255.ab</v>
       </c>
       <c r="B353" t="str">
-        <v>character_largeimage_h0257.ab</v>
+        <v>character_largeimage_h0255.ab</v>
       </c>
       <c r="C353">
-        <v>808381</v>
+        <v>800474</v>
       </c>
       <c r="D353" t="str">
         <v>Stage_1</v>
@@ -7462,18 +7462,18 @@
         <v>0</v>
       </c>
       <c r="F353" t="str">
-        <v>d05147b2b6be03ef2ce9c9de4dec8d3ff71bd96053222a4f476707092d75fa72</v>
+        <v>450ab00dbd5b8f991797ab6c83f3ee7cb54290e9971ebd6d51273ff327ed5e15</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>character_largeimage_h0259.ab</v>
+        <v>character_largeimage_h0256.ab</v>
       </c>
       <c r="B354" t="str">
-        <v>character_largeimage_h0259.ab</v>
+        <v>character_largeimage_h0256.ab</v>
       </c>
       <c r="C354">
-        <v>810068</v>
+        <v>805509</v>
       </c>
       <c r="D354" t="str">
         <v>Stage_1</v>
@@ -7482,18 +7482,18 @@
         <v>0</v>
       </c>
       <c r="F354" t="str">
-        <v>172c2c74277241aa72cedda739d55d17e54f6959a7474b0780a9ed33d03daa33</v>
+        <v>297c419fbd877b05bfc9add448ff76132757333cae20eccc028647aea7da7255</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>character_largeimage_h0262.ab</v>
+        <v>character_largeimage_h0257.ab</v>
       </c>
       <c r="B355" t="str">
-        <v>character_largeimage_h0262.ab</v>
+        <v>character_largeimage_h0257.ab</v>
       </c>
       <c r="C355">
-        <v>847775</v>
+        <v>808381</v>
       </c>
       <c r="D355" t="str">
         <v>Stage_1</v>
@@ -7502,18 +7502,18 @@
         <v>0</v>
       </c>
       <c r="F355" t="str">
-        <v>42dc7a9aeedfb2f6754bbff5a20c0649221fbd710df2fb2229837dbf798d580a</v>
+        <v>d05147b2b6be03ef2ce9c9de4dec8d3ff71bd96053222a4f476707092d75fa72</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>character_largeimage_h0264.ab</v>
+        <v>character_largeimage_h0259.ab</v>
       </c>
       <c r="B356" t="str">
-        <v>character_largeimage_h0264.ab</v>
+        <v>character_largeimage_h0259.ab</v>
       </c>
       <c r="C356">
-        <v>718190</v>
+        <v>810068</v>
       </c>
       <c r="D356" t="str">
         <v>Stage_1</v>
@@ -7522,18 +7522,18 @@
         <v>0</v>
       </c>
       <c r="F356" t="str">
-        <v>ab84d41ed01d417a5c5cd0109bca96e438f4f56f3472560b99958ac4137677ca</v>
+        <v>172c2c74277241aa72cedda739d55d17e54f6959a7474b0780a9ed33d03daa33</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>character_largeimage_h0265.ab</v>
+        <v>character_largeimage_h0261.ab</v>
       </c>
       <c r="B357" t="str">
-        <v>character_largeimage_h0265.ab</v>
+        <v>character_largeimage_h0261.ab</v>
       </c>
       <c r="C357">
-        <v>795432</v>
+        <v>785275</v>
       </c>
       <c r="D357" t="str">
         <v>Stage_1</v>
@@ -7542,18 +7542,18 @@
         <v>0</v>
       </c>
       <c r="F357" t="str">
-        <v>43942d89eafcb8381ae779ac97b86df469078014bca34c2803baa9d16040a97e</v>
+        <v>03b89947a2d5dbfe670810747d52ec50f06c25e91ffe38907f479d65efb03148</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>character_largeimage_h0266.ab</v>
+        <v>character_largeimage_h0262.ab</v>
       </c>
       <c r="B358" t="str">
-        <v>character_largeimage_h0266.ab</v>
+        <v>character_largeimage_h0262.ab</v>
       </c>
       <c r="C358">
-        <v>808588</v>
+        <v>847775</v>
       </c>
       <c r="D358" t="str">
         <v>Stage_1</v>
@@ -7562,18 +7562,18 @@
         <v>0</v>
       </c>
       <c r="F358" t="str">
-        <v>ed1bd287702b2f736b9ad9fb7524ec06f5777b21a9511818d78a3ad00dc9d423</v>
+        <v>42dc7a9aeedfb2f6754bbff5a20c0649221fbd710df2fb2229837dbf798d580a</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0264.ab</v>
       </c>
       <c r="B359" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0264.ab</v>
       </c>
       <c r="C359">
-        <v>3645563</v>
+        <v>718190</v>
       </c>
       <c r="D359" t="str">
         <v>Stage_1</v>
@@ -7582,18 +7582,18 @@
         <v>0</v>
       </c>
       <c r="F359" t="str">
-        <v>6d163c0aa3de03702199280db17c4bbe2fddeea97fa709543044a1864c59ac4e</v>
+        <v>ab84d41ed01d417a5c5cd0109bca96e438f4f56f3472560b99958ac4137677ca</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0265.ab</v>
       </c>
       <c r="B360" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0265.ab</v>
       </c>
       <c r="C360">
-        <v>3192016</v>
+        <v>795432</v>
       </c>
       <c r="D360" t="str">
         <v>Stage_1</v>
@@ -7602,18 +7602,18 @@
         <v>0</v>
       </c>
       <c r="F360" t="str">
-        <v>a95c21cd1ab779a63db9047ad68d79e913fce1d1229cd60959433c515fa2b15f</v>
+        <v>43942d89eafcb8381ae779ac97b86df469078014bca34c2803baa9d16040a97e</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0266.ab</v>
       </c>
       <c r="B361" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0266.ab</v>
       </c>
       <c r="C361">
-        <v>4547639</v>
+        <v>808588</v>
       </c>
       <c r="D361" t="str">
         <v>Stage_1</v>
@@ -7622,18 +7622,18 @@
         <v>0</v>
       </c>
       <c r="F361" t="str">
-        <v>964ea8e902241d88c58f2ac99db9982703da97b02c7609af5438b4a03a8a0efe</v>
+        <v>ed1bd287702b2f736b9ad9fb7524ec06f5777b21a9511818d78a3ad00dc9d423</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B362" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C362">
-        <v>783778</v>
+        <v>3645563</v>
       </c>
       <c r="D362" t="str">
         <v>Stage_1</v>
@@ -7642,18 +7642,18 @@
         <v>0</v>
       </c>
       <c r="F362" t="str">
-        <v>8195c3708ce8e882a3d95cb265160b057eb3bf5d286f64493dab9ff905fdaab6</v>
+        <v>6d163c0aa3de03702199280db17c4bbe2fddeea97fa709543044a1864c59ac4e</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B363" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C363">
-        <v>835262</v>
+        <v>3192016</v>
       </c>
       <c r="D363" t="str">
         <v>Stage_1</v>
@@ -7662,18 +7662,18 @@
         <v>0</v>
       </c>
       <c r="F363" t="str">
-        <v>527e90522ce04f745056b9caedcb86a53d46219da877b5661b2d167770d26dcb</v>
+        <v>a95c21cd1ab779a63db9047ad68d79e913fce1d1229cd60959433c515fa2b15f</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B364" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C364">
-        <v>5048467</v>
+        <v>4547639</v>
       </c>
       <c r="D364" t="str">
         <v>Stage_1</v>
@@ -7682,18 +7682,18 @@
         <v>0</v>
       </c>
       <c r="F364" t="str">
-        <v>569f2fd821c168371bd7ba0fad110a99c067d9153288ec5b7dc7dba7fadbef87</v>
+        <v>964ea8e902241d88c58f2ac99db9982703da97b02c7609af5438b4a03a8a0efe</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B365" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C365">
-        <v>3324659</v>
+        <v>783778</v>
       </c>
       <c r="D365" t="str">
         <v>Stage_1</v>
@@ -7702,18 +7702,18 @@
         <v>0</v>
       </c>
       <c r="F365" t="str">
-        <v>3f68cff42a6b9b5f70e4727bbbc4ca79a4b5e3f36eabee4e6ac677e471042212</v>
+        <v>8195c3708ce8e882a3d95cb265160b057eb3bf5d286f64493dab9ff905fdaab6</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B366" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C366">
-        <v>3241554</v>
+        <v>835262</v>
       </c>
       <c r="D366" t="str">
         <v>Stage_1</v>
@@ -7722,18 +7722,18 @@
         <v>0</v>
       </c>
       <c r="F366" t="str">
-        <v>5c1ed78edf2589ba18b2fd63c792819e2092273556283005ee4e832864ad3852</v>
+        <v>527e90522ce04f745056b9caedcb86a53d46219da877b5661b2d167770d26dcb</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B367" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C367">
-        <v>3632341</v>
+        <v>5048467</v>
       </c>
       <c r="D367" t="str">
         <v>Stage_1</v>
@@ -7742,18 +7742,18 @@
         <v>0</v>
       </c>
       <c r="F367" t="str">
-        <v>3f275335ed88fbd6088516a978efb3cd60af951a07bbdb0cd82a834ccaccbc07</v>
+        <v>569f2fd821c168371bd7ba0fad110a99c067d9153288ec5b7dc7dba7fadbef87</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B368" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C368">
-        <v>3771149</v>
+        <v>3324659</v>
       </c>
       <c r="D368" t="str">
         <v>Stage_1</v>
@@ -7762,18 +7762,18 @@
         <v>0</v>
       </c>
       <c r="F368" t="str">
-        <v>26a7366f49bb32607c93b69268e6fc0693e08fef6296452290871b2fb08fc2c7</v>
+        <v>3f68cff42a6b9b5f70e4727bbbc4ca79a4b5e3f36eabee4e6ac677e471042212</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B369" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C369">
-        <v>813283</v>
+        <v>3241554</v>
       </c>
       <c r="D369" t="str">
         <v>Stage_1</v>
@@ -7782,18 +7782,18 @@
         <v>0</v>
       </c>
       <c r="F369" t="str">
-        <v>5350ab84baed9d974062a833ee3cabfdea3208b429a787505b7863cd88d02e59</v>
+        <v>5c1ed78edf2589ba18b2fd63c792819e2092273556283005ee4e832864ad3852</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B370" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C370">
-        <v>791961</v>
+        <v>3632341</v>
       </c>
       <c r="D370" t="str">
         <v>Stage_1</v>
@@ -7802,18 +7802,18 @@
         <v>0</v>
       </c>
       <c r="F370" t="str">
-        <v>eb3fb4c4fbec62853ced6c63348bda093239167910e1975c24786721e5c36945</v>
+        <v>3f275335ed88fbd6088516a978efb3cd60af951a07bbdb0cd82a834ccaccbc07</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B371" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C371">
-        <v>2772613</v>
+        <v>3771149</v>
       </c>
       <c r="D371" t="str">
         <v>Stage_1</v>
@@ -7822,18 +7822,18 @@
         <v>0</v>
       </c>
       <c r="F371" t="str">
-        <v>95bcb0bd9154f014e06084d19d720ac2bac3315b2829a51f748bab806188e50e</v>
+        <v>26a7366f49bb32607c93b69268e6fc0693e08fef6296452290871b2fb08fc2c7</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B372" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C372">
-        <v>2756611</v>
+        <v>813283</v>
       </c>
       <c r="D372" t="str">
         <v>Stage_1</v>
@@ -7842,18 +7842,18 @@
         <v>0</v>
       </c>
       <c r="F372" t="str">
-        <v>3c97d4a5953e712f3dfdd8ab30d02f527616fcb3d801dd8b86b3c0cf522a0eef</v>
+        <v>5350ab84baed9d974062a833ee3cabfdea3208b429a787505b7863cd88d02e59</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B373" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C373">
-        <v>4381513</v>
+        <v>791961</v>
       </c>
       <c r="D373" t="str">
         <v>Stage_1</v>
@@ -7862,18 +7862,18 @@
         <v>0</v>
       </c>
       <c r="F373" t="str">
-        <v>38ad3eaafbadfa98327d0d5542f2f0d88f7f31f659055e6d5d7f5d8ecadaaf25</v>
+        <v>eb3fb4c4fbec62853ced6c63348bda093239167910e1975c24786721e5c36945</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B374" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C374">
-        <v>2462163</v>
+        <v>2772613</v>
       </c>
       <c r="D374" t="str">
         <v>Stage_1</v>
@@ -7882,18 +7882,18 @@
         <v>0</v>
       </c>
       <c r="F374" t="str">
-        <v>d47db6ea8061d6508d44fdbc8629a568db3385a88c1f450c53188c37a306fbd1</v>
+        <v>95bcb0bd9154f014e06084d19d720ac2bac3315b2829a51f748bab806188e50e</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B375" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C375">
-        <v>5260995</v>
+        <v>2756611</v>
       </c>
       <c r="D375" t="str">
         <v>Stage_1</v>
@@ -7902,18 +7902,18 @@
         <v>0</v>
       </c>
       <c r="F375" t="str">
-        <v>60e32e2c51b82894f308157ead5044b1e8a536bc973703711b4f8eb6ab332f30</v>
+        <v>3c97d4a5953e712f3dfdd8ab30d02f527616fcb3d801dd8b86b3c0cf522a0eef</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B376" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C376">
-        <v>2585586</v>
+        <v>4381513</v>
       </c>
       <c r="D376" t="str">
         <v>Stage_1</v>
@@ -7922,18 +7922,18 @@
         <v>0</v>
       </c>
       <c r="F376" t="str">
-        <v>c5811705c032100ad1a16583021dca2fb02a11ed596ad6f58b79f2775150edc1</v>
+        <v>38ad3eaafbadfa98327d0d5542f2f0d88f7f31f659055e6d5d7f5d8ecadaaf25</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B377" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C377">
-        <v>3294655</v>
+        <v>2462163</v>
       </c>
       <c r="D377" t="str">
         <v>Stage_1</v>
@@ -7942,18 +7942,18 @@
         <v>0</v>
       </c>
       <c r="F377" t="str">
-        <v>3ce7bff8c5c6bff24697ac51035be274c30bba43c89704245ba4d5ece12532a8</v>
+        <v>d47db6ea8061d6508d44fdbc8629a568db3385a88c1f450c53188c37a306fbd1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B378" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C378">
-        <v>2283005</v>
+        <v>5260995</v>
       </c>
       <c r="D378" t="str">
         <v>Stage_1</v>
@@ -7962,18 +7962,18 @@
         <v>0</v>
       </c>
       <c r="F378" t="str">
-        <v>f08896641300c346a1e73ed169d426147c629133d6b99fc0d0b053d6f89dea33</v>
+        <v>60e32e2c51b82894f308157ead5044b1e8a536bc973703711b4f8eb6ab332f30</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B379" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C379">
-        <v>2289827</v>
+        <v>2585586</v>
       </c>
       <c r="D379" t="str">
         <v>Stage_1</v>
@@ -7982,18 +7982,18 @@
         <v>0</v>
       </c>
       <c r="F379" t="str">
-        <v>aa09e9c0a10976e05321eeed5a37397f867e1377acd71dc4e3d2d5d1417daf28</v>
+        <v>c5811705c032100ad1a16583021dca2fb02a11ed596ad6f58b79f2775150edc1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B380" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C380">
-        <v>2887185</v>
+        <v>3294655</v>
       </c>
       <c r="D380" t="str">
         <v>Stage_1</v>
@@ -8002,18 +8002,18 @@
         <v>0</v>
       </c>
       <c r="F380" t="str">
-        <v>84cffe40a80fe5c71df8f44503bbdce8bbffb4c01dc57012fb621fc40fd4230d</v>
+        <v>3ce7bff8c5c6bff24697ac51035be274c30bba43c89704245ba4d5ece12532a8</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B381" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C381">
-        <v>2744938</v>
+        <v>2283005</v>
       </c>
       <c r="D381" t="str">
         <v>Stage_1</v>
@@ -8022,18 +8022,18 @@
         <v>0</v>
       </c>
       <c r="F381" t="str">
-        <v>4f854b7d0c3b92905dd2311a69ab83cea017de02730b719a6608464f27e269d4</v>
+        <v>f08896641300c346a1e73ed169d426147c629133d6b99fc0d0b053d6f89dea33</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B382" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C382">
-        <v>4473711</v>
+        <v>2289827</v>
       </c>
       <c r="D382" t="str">
         <v>Stage_1</v>
@@ -8042,18 +8042,18 @@
         <v>0</v>
       </c>
       <c r="F382" t="str">
-        <v>8fc73aa493d889c8325fbef52adf15dac0c8ee19e212564b6ae16b08b266144f</v>
+        <v>aa09e9c0a10976e05321eeed5a37397f867e1377acd71dc4e3d2d5d1417daf28</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B383" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C383">
-        <v>839510</v>
+        <v>2887185</v>
       </c>
       <c r="D383" t="str">
         <v>Stage_1</v>
@@ -8062,18 +8062,18 @@
         <v>0</v>
       </c>
       <c r="F383" t="str">
-        <v>3339401d70ded15a0020af038f486a0d2a6e2bf7e4ca29d2fc52483eba92f982</v>
+        <v>84cffe40a80fe5c71df8f44503bbdce8bbffb4c01dc57012fb621fc40fd4230d</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B384" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C384">
-        <v>788109</v>
+        <v>2744938</v>
       </c>
       <c r="D384" t="str">
         <v>Stage_1</v>
@@ -8082,18 +8082,18 @@
         <v>0</v>
       </c>
       <c r="F384" t="str">
-        <v>884a61acb6fc59583fb23f817ab1ee2aad0b3edba982eb01c5e3d4409e1db73f</v>
+        <v>4f854b7d0c3b92905dd2311a69ab83cea017de02730b719a6608464f27e269d4</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="B385" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C385">
-        <v>843123</v>
+        <v>4473711</v>
       </c>
       <c r="D385" t="str">
         <v>Stage_1</v>
@@ -8102,18 +8102,18 @@
         <v>0</v>
       </c>
       <c r="F385" t="str">
-        <v>e442a6b286187dcc18ca56751536e1758d5953d5b913e759d2ed412148611a38</v>
+        <v>8fc73aa493d889c8325fbef52adf15dac0c8ee19e212564b6ae16b08b266144f</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>character_largeimage_t0214.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="B386" t="str">
-        <v>character_largeimage_t0214.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C386">
-        <v>828387</v>
+        <v>839510</v>
       </c>
       <c r="D386" t="str">
         <v>Stage_1</v>
@@ -8122,18 +8122,18 @@
         <v>0</v>
       </c>
       <c r="F386" t="str">
-        <v>342fd529c964664d600e232cd94bd8b1675ded9c1b64945ef103993a6b5b300c</v>
+        <v>3339401d70ded15a0020af038f486a0d2a6e2bf7e4ca29d2fc52483eba92f982</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>character_largeimage_t0218.ab</v>
+        <v>character_largeimage_t0207.ab</v>
       </c>
       <c r="B387" t="str">
-        <v>character_largeimage_t0218.ab</v>
+        <v>character_largeimage_t0207.ab</v>
       </c>
       <c r="C387">
-        <v>811612</v>
+        <v>788109</v>
       </c>
       <c r="D387" t="str">
         <v>Stage_1</v>
@@ -8142,18 +8142,18 @@
         <v>0</v>
       </c>
       <c r="F387" t="str">
-        <v>bda0c6f7dc7407f7c344f85b171a48370f75519c50e728784f647c83169bd94c</v>
+        <v>884a61acb6fc59583fb23f817ab1ee2aad0b3edba982eb01c5e3d4409e1db73f</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>character_largeimage_t0222.ab</v>
+        <v>character_largeimage_t0212.ab</v>
       </c>
       <c r="B388" t="str">
-        <v>character_largeimage_t0222.ab</v>
+        <v>character_largeimage_t0212.ab</v>
       </c>
       <c r="C388">
-        <v>774259</v>
+        <v>843123</v>
       </c>
       <c r="D388" t="str">
         <v>Stage_1</v>
@@ -8162,18 +8162,18 @@
         <v>0</v>
       </c>
       <c r="F388" t="str">
-        <v>8ab646da7e9d3f088d7b6a87436ba651ca2f50198534bb4838143a45e096932e</v>
+        <v>e442a6b286187dcc18ca56751536e1758d5953d5b913e759d2ed412148611a38</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>character_largeimage_t0223.ab</v>
+        <v>character_largeimage_t0214.ab</v>
       </c>
       <c r="B389" t="str">
-        <v>character_largeimage_t0223.ab</v>
+        <v>character_largeimage_t0214.ab</v>
       </c>
       <c r="C389">
-        <v>844248</v>
+        <v>828387</v>
       </c>
       <c r="D389" t="str">
         <v>Stage_1</v>
@@ -8182,18 +8182,18 @@
         <v>0</v>
       </c>
       <c r="F389" t="str">
-        <v>18c1161759d4a71ed98ffc241b6626b1e001387f1a6c5ce54150f250abf64248</v>
+        <v>342fd529c964664d600e232cd94bd8b1675ded9c1b64945ef103993a6b5b300c</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>character_largeimage_t0225.ab</v>
+        <v>character_largeimage_t0218.ab</v>
       </c>
       <c r="B390" t="str">
-        <v>character_largeimage_t0225.ab</v>
+        <v>character_largeimage_t0218.ab</v>
       </c>
       <c r="C390">
-        <v>815023</v>
+        <v>811612</v>
       </c>
       <c r="D390" t="str">
         <v>Stage_1</v>
@@ -8202,18 +8202,18 @@
         <v>0</v>
       </c>
       <c r="F390" t="str">
-        <v>f2a096a766a2689633f4d106cf0a6a439a759aea742a118791bd76a6648f267d</v>
+        <v>bda0c6f7dc7407f7c344f85b171a48370f75519c50e728784f647c83169bd94c</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>character_largeimage_t0228.ab</v>
+        <v>character_largeimage_t0222.ab</v>
       </c>
       <c r="B391" t="str">
-        <v>character_largeimage_t0228.ab</v>
+        <v>character_largeimage_t0222.ab</v>
       </c>
       <c r="C391">
-        <v>829894</v>
+        <v>774259</v>
       </c>
       <c r="D391" t="str">
         <v>Stage_1</v>
@@ -8222,18 +8222,18 @@
         <v>0</v>
       </c>
       <c r="F391" t="str">
-        <v>94f3e6cc4c0a6a79f10a543d83f614303bc3a05333d39f4403ef896f4dcf07f5</v>
+        <v>8ab646da7e9d3f088d7b6a87436ba651ca2f50198534bb4838143a45e096932e</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>character_largeimage_t0229.ab</v>
+        <v>character_largeimage_t0223.ab</v>
       </c>
       <c r="B392" t="str">
-        <v>character_largeimage_t0229.ab</v>
+        <v>character_largeimage_t0223.ab</v>
       </c>
       <c r="C392">
-        <v>1662213</v>
+        <v>844248</v>
       </c>
       <c r="D392" t="str">
         <v>Stage_1</v>
@@ -8242,18 +8242,18 @@
         <v>0</v>
       </c>
       <c r="F392" t="str">
-        <v>69e6216c55eeaaab8fd283f59f25c316734a73644b13941d4d1fe1e1c31f8c1f</v>
+        <v>18c1161759d4a71ed98ffc241b6626b1e001387f1a6c5ce54150f250abf64248</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>character_largeimage_t0231.ab</v>
+        <v>character_largeimage_t0225.ab</v>
       </c>
       <c r="B393" t="str">
-        <v>character_largeimage_t0231.ab</v>
+        <v>character_largeimage_t0225.ab</v>
       </c>
       <c r="C393">
-        <v>823425</v>
+        <v>815023</v>
       </c>
       <c r="D393" t="str">
         <v>Stage_1</v>
@@ -8262,18 +8262,18 @@
         <v>0</v>
       </c>
       <c r="F393" t="str">
-        <v>3cb4f02d9303d1a2b5fc53ad0acd0aa27db034c6c97e9bef02dacf3febc0eee6</v>
+        <v>f2a096a766a2689633f4d106cf0a6a439a759aea742a118791bd76a6648f267d</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>character_largeimage_t0242.ab</v>
+        <v>character_largeimage_t0228.ab</v>
       </c>
       <c r="B394" t="str">
-        <v>character_largeimage_t0242.ab</v>
+        <v>character_largeimage_t0228.ab</v>
       </c>
       <c r="C394">
-        <v>777670</v>
+        <v>829894</v>
       </c>
       <c r="D394" t="str">
         <v>Stage_1</v>
@@ -8282,18 +8282,18 @@
         <v>0</v>
       </c>
       <c r="F394" t="str">
-        <v>7c281124753083a4db690ee47b450f4f89e3d56fc805d995ace8e49efa5bc50f</v>
+        <v>94f3e6cc4c0a6a79f10a543d83f614303bc3a05333d39f4403ef896f4dcf07f5</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>character_largeimage_t0246.ab</v>
+        <v>character_largeimage_t0229.ab</v>
       </c>
       <c r="B395" t="str">
-        <v>character_largeimage_t0246.ab</v>
+        <v>character_largeimage_t0229.ab</v>
       </c>
       <c r="C395">
-        <v>819675</v>
+        <v>1662213</v>
       </c>
       <c r="D395" t="str">
         <v>Stage_1</v>
@@ -8302,18 +8302,18 @@
         <v>0</v>
       </c>
       <c r="F395" t="str">
-        <v>c9ff420c4cd5404f687592c9851a9c3c9b90d6aba4ec3215e4213794c4ec8651</v>
+        <v>69e6216c55eeaaab8fd283f59f25c316734a73644b13941d4d1fe1e1c31f8c1f</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>character_largeimage_t0250.ab</v>
+        <v>character_largeimage_t0231.ab</v>
       </c>
       <c r="B396" t="str">
-        <v>character_largeimage_t0250.ab</v>
+        <v>character_largeimage_t0231.ab</v>
       </c>
       <c r="C396">
-        <v>835064</v>
+        <v>823425</v>
       </c>
       <c r="D396" t="str">
         <v>Stage_1</v>
@@ -8322,18 +8322,18 @@
         <v>0</v>
       </c>
       <c r="F396" t="str">
-        <v>cabd53f65c1283e0ac5773bc89f0d3baf8df60f587a2629bb61ff5df5f38e998</v>
+        <v>3cb4f02d9303d1a2b5fc53ad0acd0aa27db034c6c97e9bef02dacf3febc0eee6</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>character_largeimage_t0251.ab</v>
+        <v>character_largeimage_t0242.ab</v>
       </c>
       <c r="B397" t="str">
-        <v>character_largeimage_t0251.ab</v>
+        <v>character_largeimage_t0242.ab</v>
       </c>
       <c r="C397">
-        <v>817439</v>
+        <v>777670</v>
       </c>
       <c r="D397" t="str">
         <v>Stage_1</v>
@@ -8342,18 +8342,18 @@
         <v>0</v>
       </c>
       <c r="F397" t="str">
-        <v>35de9505e776e1b88eff26e7adc6f554d89c0d74424c46ac4d6b966cac281dae</v>
+        <v>7c281124753083a4db690ee47b450f4f89e3d56fc805d995ace8e49efa5bc50f</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>character_largeimage_t0252.ab</v>
+        <v>character_largeimage_t0246.ab</v>
       </c>
       <c r="B398" t="str">
-        <v>character_largeimage_t0252.ab</v>
+        <v>character_largeimage_t0246.ab</v>
       </c>
       <c r="C398">
-        <v>3182222</v>
+        <v>819675</v>
       </c>
       <c r="D398" t="str">
         <v>Stage_1</v>
@@ -8362,18 +8362,18 @@
         <v>0</v>
       </c>
       <c r="F398" t="str">
-        <v>041e2f53d9fa84b5baeb43cbf5b681fe1c1a09fc422e5db7e8abc8f70bc26348</v>
+        <v>c9ff420c4cd5404f687592c9851a9c3c9b90d6aba4ec3215e4213794c4ec8651</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>character_largeimage_t0254.ab</v>
+        <v>character_largeimage_t0250.ab</v>
       </c>
       <c r="B399" t="str">
-        <v>character_largeimage_t0254.ab</v>
+        <v>character_largeimage_t0250.ab</v>
       </c>
       <c r="C399">
-        <v>821577</v>
+        <v>835064</v>
       </c>
       <c r="D399" t="str">
         <v>Stage_1</v>
@@ -8382,18 +8382,18 @@
         <v>0</v>
       </c>
       <c r="F399" t="str">
-        <v>0ec094e49c6f0bef8aeec78857eeaae95127b56d79ef9f59be4ec966f8258c66</v>
+        <v>cabd53f65c1283e0ac5773bc89f0d3baf8df60f587a2629bb61ff5df5f38e998</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>character_largeimage_t0258.ab</v>
+        <v>character_largeimage_t0251.ab</v>
       </c>
       <c r="B400" t="str">
-        <v>character_largeimage_t0258.ab</v>
+        <v>character_largeimage_t0251.ab</v>
       </c>
       <c r="C400">
-        <v>799096</v>
+        <v>817439</v>
       </c>
       <c r="D400" t="str">
         <v>Stage_1</v>
@@ -8402,18 +8402,18 @@
         <v>0</v>
       </c>
       <c r="F400" t="str">
-        <v>18672ae7cdd8fbc33c3c3fb113d9cc3cb1797d9336d487d7d2cc71564bb4a621</v>
+        <v>35de9505e776e1b88eff26e7adc6f554d89c0d74424c46ac4d6b966cac281dae</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0252.ab</v>
       </c>
       <c r="B401" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0252.ab</v>
       </c>
       <c r="C401">
-        <v>173461</v>
+        <v>3182222</v>
       </c>
       <c r="D401" t="str">
         <v>Stage_1</v>
@@ -8422,33 +8422,113 @@
         <v>0</v>
       </c>
       <c r="F401" t="str">
-        <v>9c40f907ab459375c76b4a51919f83aa971bac3c394a4d64e8e549d7879abebf</v>
+        <v>041e2f53d9fa84b5baeb43cbf5b681fe1c1a09fc422e5db7e8abc8f70bc26348</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
+        <v>character_largeimage_t0254.ab</v>
+      </c>
+      <c r="B402" t="str">
+        <v>character_largeimage_t0254.ab</v>
+      </c>
+      <c r="C402">
+        <v>821577</v>
+      </c>
+      <c r="D402" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402" t="str">
+        <v>0ec094e49c6f0bef8aeec78857eeaae95127b56d79ef9f59be4ec966f8258c66</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>character_largeimage_t0258.ab</v>
+      </c>
+      <c r="B403" t="str">
+        <v>character_largeimage_t0258.ab</v>
+      </c>
+      <c r="C403">
+        <v>799096</v>
+      </c>
+      <c r="D403" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403" t="str">
+        <v>18672ae7cdd8fbc33c3c3fb113d9cc3cb1797d9336d487d7d2cc71564bb4a621</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>character_largeimage_t0263.ab</v>
+      </c>
+      <c r="B404" t="str">
+        <v>character_largeimage_t0263.ab</v>
+      </c>
+      <c r="C404">
+        <v>819892</v>
+      </c>
+      <c r="D404" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404" t="str">
+        <v>e8bb91ba644af38d3523e9355cc207668ab626f2304399ef855def2eeb181356</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>character_largeimage_uncategorized_0.ab</v>
+      </c>
+      <c r="B405" t="str">
+        <v>character_largeimage_uncategorized_0.ab</v>
+      </c>
+      <c r="C405">
+        <v>173461</v>
+      </c>
+      <c r="D405" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405" t="str">
+        <v>9c40f907ab459375c76b4a51919f83aa971bac3c394a4d64e8e549d7879abebf</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
         <v>character_largeimage_uncategorized_3.ab</v>
       </c>
-      <c r="B402" t="str">
+      <c r="B406" t="str">
         <v>character_largeimage_uncategorized_3.ab</v>
       </c>
-      <c r="C402">
+      <c r="C406">
         <v>214292</v>
       </c>
-      <c r="D402" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E402">
-        <v>0</v>
-      </c>
-      <c r="F402" t="str">
+      <c r="D406" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406" t="str">
         <v>baa10ce33b3b4d5a88452011578fd5a338303e27f2f7e58822f6cbbf2f359f10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F402"/>
+  <autoFilter ref="A1:F406"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F402"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F406"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -1193,7 +1193,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123385</v>
+        <v>123387</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1453,7 +1453,7 @@
         <v>audioclip_sfx_b0015_jp.ab</v>
       </c>
       <c r="C53">
-        <v>116863</v>
+        <v>116862</v>
       </c>
       <c r="D53" t="str">
         <v>Stage_1</v>
@@ -1473,7 +1473,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875308</v>
+        <v>875307</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1493,7 +1493,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>2011713</v>
+        <v>2011712</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1633,7 +1633,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C62">
-        <v>250851</v>
+        <v>250849</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1713,7 +1713,7 @@
         <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C66">
-        <v>643325</v>
+        <v>643327</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1733,7 +1733,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C67">
-        <v>1029442</v>
+        <v>1029444</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1773,7 +1773,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>1013614</v>
+        <v>1013619</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1813,7 +1813,7 @@
         <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C71">
-        <v>349414</v>
+        <v>349413</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1873,7 +1873,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C74">
-        <v>740116</v>
+        <v>740114</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1893,7 +1893,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>940881</v>
+        <v>940883</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1913,7 +1913,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C76">
-        <v>446594</v>
+        <v>446592</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1933,7 +1933,7 @@
         <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C77">
-        <v>698681</v>
+        <v>698679</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1953,7 +1953,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C78">
-        <v>891814</v>
+        <v>891812</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -2013,7 +2013,7 @@
         <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C81">
-        <v>985555</v>
+        <v>985554</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2033,7 +2033,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1374151</v>
+        <v>1374150</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2053,7 +2053,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1572148</v>
+        <v>1572146</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2073,7 +2073,7 @@
         <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C84">
-        <v>938020</v>
+        <v>938019</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2093,7 +2093,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1291353</v>
+        <v>1291354</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2113,7 +2113,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>1189227</v>
+        <v>1189229</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2133,7 +2133,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C87">
-        <v>1039749</v>
+        <v>1039750</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2153,7 +2153,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C88">
-        <v>785947</v>
+        <v>785948</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2193,7 +2193,7 @@
         <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C90">
-        <v>611356</v>
+        <v>611358</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2253,7 +2253,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>955388</v>
+        <v>955385</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2313,7 +2313,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C96">
-        <v>538569</v>
+        <v>538568</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2333,7 +2333,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>8510835</v>
+        <v>8510836</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2353,7 +2353,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1635039</v>
+        <v>1635041</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2373,7 +2373,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C99">
-        <v>276295</v>
+        <v>276296</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2393,7 +2393,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C100">
-        <v>2057509</v>
+        <v>2057511</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2433,7 +2433,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1334023</v>
+        <v>1334022</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2453,7 +2453,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1204320</v>
+        <v>1204319</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2513,7 +2513,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2046305</v>
+        <v>2046304</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2533,7 +2533,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1236790</v>
+        <v>1236789</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2553,7 +2553,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C108">
-        <v>2757250</v>
+        <v>2757251</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2573,7 +2573,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1924709</v>
+        <v>1924707</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2593,7 +2593,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1987359</v>
+        <v>1987360</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2633,7 +2633,7 @@
         <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1681371</v>
+        <v>1681370</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2653,7 +2653,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1893111</v>
+        <v>1893110</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2673,7 +2673,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1944101</v>
+        <v>1944103</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2713,7 +2713,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C116">
-        <v>966709</v>
+        <v>966710</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022201</v>
+        <v>1022204</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2753,7 +2753,7 @@
         <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C118">
-        <v>735096</v>
+        <v>735094</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2773,7 +2773,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C119">
-        <v>884678</v>
+        <v>884679</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2813,7 +2813,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C121">
-        <v>929591</v>
+        <v>929593</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2833,7 +2833,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1438189</v>
+        <v>1438191</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2853,7 +2853,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1738274</v>
+        <v>1738272</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2873,7 +2873,7 @@
         <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C124">
-        <v>1379889</v>
+        <v>1379888</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2893,7 +2893,7 @@
         <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C125">
-        <v>1668214</v>
+        <v>1668215</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2973,7 +2973,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1837986</v>
+        <v>1837989</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -3033,7 +3033,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C132">
-        <v>1892918</v>
+        <v>1892917</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3153,7 +3153,7 @@
         <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1046814</v>
+        <v>1046813</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3193,7 +3193,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1081025</v>
+        <v>1081026</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3253,7 +3253,7 @@
         <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C143">
-        <v>810576</v>
+        <v>810575</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3273,7 +3273,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967999</v>
+        <v>967998</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774135</v>
+        <v>774137</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3313,7 +3313,7 @@
         <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1046540</v>
+        <v>1046541</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3393,7 +3393,7 @@
         <v>audioclip_sfx_h0216_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1220953</v>
+        <v>1220952</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3473,7 +3473,7 @@
         <v>audioclip_sfx_h0221_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1054459</v>
+        <v>1054460</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3493,7 +3493,7 @@
         <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1031308</v>
+        <v>1031309</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3513,7 +3513,7 @@
         <v>audioclip_sfx_h0226_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1134472</v>
+        <v>1134470</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3553,7 +3553,7 @@
         <v>audioclip_sfx_h0230_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1022961</v>
+        <v>1022960</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3573,7 +3573,7 @@
         <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1390239</v>
+        <v>1390238</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3593,7 +3593,7 @@
         <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1911213</v>
+        <v>1911214</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3613,7 +3613,7 @@
         <v>audioclip_sfx_h0234_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1859303</v>
+        <v>1859302</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3633,7 +3633,7 @@
         <v>audioclip_sfx_h0235_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2384177</v>
+        <v>2384176</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3673,7 +3673,7 @@
         <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2431130</v>
+        <v>2431131</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3713,7 +3713,7 @@
         <v>audioclip_sfx_h0239_jp.ab</v>
       </c>
       <c r="C166">
-        <v>5844653</v>
+        <v>5844651</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3833,7 +3833,7 @@
         <v>audioclip_sfx_h0247_jp.ab</v>
       </c>
       <c r="C172">
-        <v>939767</v>
+        <v>939768</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3873,7 +3873,7 @@
         <v>audioclip_sfx_h0249_jp.ab</v>
       </c>
       <c r="C174">
-        <v>899108</v>
+        <v>899107</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3953,7 +3953,7 @@
         <v>audioclip_sfx_h0257_jp.ab</v>
       </c>
       <c r="C178">
-        <v>1131208</v>
+        <v>1131207</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3973,7 +3973,7 @@
         <v>audioclip_sfx_h0259_jp.ab</v>
       </c>
       <c r="C179">
-        <v>1446713</v>
+        <v>1446712</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -4013,7 +4013,7 @@
         <v>audioclip_sfx_h0262_jp.ab</v>
       </c>
       <c r="C181">
-        <v>1140807</v>
+        <v>1140808</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4113,7 +4113,7 @@
         <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C186">
-        <v>220279</v>
+        <v>220278</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4153,7 +4153,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C188">
-        <v>1390720</v>
+        <v>1390722</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4173,7 +4173,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C189">
-        <v>4141827</v>
+        <v>4141828</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4193,7 +4193,7 @@
         <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C190">
-        <v>1438364</v>
+        <v>1438365</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4213,7 +4213,7 @@
         <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C191">
-        <v>1066359</v>
+        <v>1066358</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4233,7 +4233,7 @@
         <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C192">
-        <v>883189</v>
+        <v>883188</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4253,7 +4253,7 @@
         <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C193">
-        <v>903966</v>
+        <v>903968</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4273,7 +4273,7 @@
         <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C194">
-        <v>1396255</v>
+        <v>1396256</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4293,7 +4293,7 @@
         <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C195">
-        <v>995096</v>
+        <v>995098</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4373,7 +4373,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C199">
-        <v>1950972</v>
+        <v>1950973</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4393,7 +4393,7 @@
         <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C200">
-        <v>2974171</v>
+        <v>2974172</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4413,7 +4413,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C201">
-        <v>1992962</v>
+        <v>1992961</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4453,7 +4453,7 @@
         <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C203">
-        <v>1950991</v>
+        <v>1950993</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4473,7 +4473,7 @@
         <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C204">
-        <v>2527577</v>
+        <v>2527578</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4493,7 +4493,7 @@
         <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C205">
-        <v>2120059</v>
+        <v>2120060</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4513,7 +4513,7 @@
         <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C206">
-        <v>1952766</v>
+        <v>1952768</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4573,7 +4573,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C209">
-        <v>1973757</v>
+        <v>1973759</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4793,7 +4793,7 @@
         <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="C220">
-        <v>1117663</v>
+        <v>1117664</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -5073,7 +5073,7 @@
         <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C234">
-        <v>288968</v>
+        <v>288969</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5093,7 +5093,7 @@
         <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C235">
-        <v>270581</v>
+        <v>270580</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5293,7 +5293,7 @@
         <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C245">
-        <v>3975188</v>
+        <v>3975187</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5633,7 +5633,7 @@
         <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C262">
-        <v>3281917</v>
+        <v>3281918</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5673,7 +5673,7 @@
         <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C264">
-        <v>3878946</v>
+        <v>3878944</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -7973,7 +7973,7 @@
         <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C379">
-        <v>2585586</v>
+        <v>2585585</v>
       </c>
       <c r="D379" t="str">
         <v>Stage_1</v>

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -1193,7 +1193,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123387</v>
+        <v>123384</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1493,7 +1493,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>2011712</v>
+        <v>2011714</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1513,7 +1513,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272281</v>
+        <v>1272283</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1573,7 +1573,7 @@
         <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C59">
-        <v>662049</v>
+        <v>662050</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1633,7 +1633,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C62">
-        <v>250849</v>
+        <v>250850</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1793,7 +1793,7 @@
         <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C70">
-        <v>678622</v>
+        <v>678623</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1833,7 +1833,7 @@
         <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C72">
-        <v>453782</v>
+        <v>453780</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1853,7 +1853,7 @@
         <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C73">
-        <v>1074575</v>
+        <v>1074574</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1873,7 +1873,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C74">
-        <v>740114</v>
+        <v>740115</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1893,7 +1893,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>940883</v>
+        <v>940885</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1913,7 +1913,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C76">
-        <v>446592</v>
+        <v>446591</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1953,7 +1953,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C78">
-        <v>891812</v>
+        <v>891813</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1993,7 +1993,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1196245</v>
+        <v>1196247</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -2013,7 +2013,7 @@
         <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C81">
-        <v>985554</v>
+        <v>985555</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2033,7 +2033,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1374150</v>
+        <v>1374153</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2053,7 +2053,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1572146</v>
+        <v>1572145</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2113,7 +2113,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>1189229</v>
+        <v>1189226</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2133,7 +2133,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C87">
-        <v>1039750</v>
+        <v>1039749</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2193,7 +2193,7 @@
         <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C90">
-        <v>611358</v>
+        <v>611357</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2313,7 +2313,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C96">
-        <v>538568</v>
+        <v>538569</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2333,7 +2333,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>8510836</v>
+        <v>8510835</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2353,7 +2353,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1635041</v>
+        <v>1635040</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2373,7 +2373,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C99">
-        <v>276296</v>
+        <v>276294</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2433,7 +2433,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1334022</v>
+        <v>1334023</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2453,7 +2453,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1204319</v>
+        <v>1204321</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2493,7 +2493,7 @@
         <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1316078</v>
+        <v>1316079</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2573,7 +2573,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1924707</v>
+        <v>1924706</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2593,7 +2593,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1987360</v>
+        <v>1987358</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2653,7 +2653,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1893110</v>
+        <v>1893114</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2673,7 +2673,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1944103</v>
+        <v>1944100</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2693,7 +2693,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1305067</v>
+        <v>1305069</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2713,7 +2713,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C116">
-        <v>966710</v>
+        <v>966707</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022204</v>
+        <v>1022201</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2773,7 +2773,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C119">
-        <v>884679</v>
+        <v>884678</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2813,7 +2813,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C121">
-        <v>929593</v>
+        <v>929592</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2833,7 +2833,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1438191</v>
+        <v>1438189</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2853,7 +2853,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1738272</v>
+        <v>1738273</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2873,7 +2873,7 @@
         <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C124">
-        <v>1379888</v>
+        <v>1379889</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2953,7 +2953,7 @@
         <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1465823</v>
+        <v>1465820</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2973,7 +2973,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1837989</v>
+        <v>1837986</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2993,7 +2993,7 @@
         <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C130">
-        <v>2327470</v>
+        <v>2327471</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -3033,7 +3033,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C132">
-        <v>1892917</v>
+        <v>1892918</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3153,7 +3153,7 @@
         <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1046813</v>
+        <v>1046814</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3213,7 +3213,7 @@
         <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C141">
-        <v>922796</v>
+        <v>922797</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3253,7 +3253,7 @@
         <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C143">
-        <v>810575</v>
+        <v>810576</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3273,7 +3273,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967998</v>
+        <v>967999</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774137</v>
+        <v>774136</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3313,7 +3313,7 @@
         <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1046541</v>
+        <v>1046540</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3633,7 +3633,7 @@
         <v>audioclip_sfx_h0235_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2384176</v>
+        <v>2384177</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3653,7 +3653,7 @@
         <v>audioclip_sfx_h0236_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2245978</v>
+        <v>2245979</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3693,7 +3693,7 @@
         <v>audioclip_sfx_h0238_jp.ab</v>
       </c>
       <c r="C165">
-        <v>867922</v>
+        <v>867921</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3793,7 +3793,7 @@
         <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1110561</v>
+        <v>1110560</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3873,7 +3873,7 @@
         <v>audioclip_sfx_h0249_jp.ab</v>
       </c>
       <c r="C174">
-        <v>899107</v>
+        <v>899109</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3953,7 +3953,7 @@
         <v>audioclip_sfx_h0257_jp.ab</v>
       </c>
       <c r="C178">
-        <v>1131207</v>
+        <v>1131208</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3973,7 +3973,7 @@
         <v>audioclip_sfx_h0259_jp.ab</v>
       </c>
       <c r="C179">
-        <v>1446712</v>
+        <v>1446713</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -4153,7 +4153,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C188">
-        <v>1390722</v>
+        <v>1390720</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4173,7 +4173,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C189">
-        <v>4141828</v>
+        <v>4141825</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4193,7 +4193,7 @@
         <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C190">
-        <v>1438365</v>
+        <v>1438364</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4233,7 +4233,7 @@
         <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C192">
-        <v>883188</v>
+        <v>883187</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4253,7 +4253,7 @@
         <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C193">
-        <v>903968</v>
+        <v>903966</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4293,7 +4293,7 @@
         <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C195">
-        <v>995098</v>
+        <v>995097</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4373,7 +4373,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C199">
-        <v>1950973</v>
+        <v>1950974</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4413,7 +4413,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C201">
-        <v>1992961</v>
+        <v>1992962</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4453,7 +4453,7 @@
         <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C203">
-        <v>1950993</v>
+        <v>1950997</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4513,7 +4513,7 @@
         <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C206">
-        <v>1952768</v>
+        <v>1952766</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4533,7 +4533,7 @@
         <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C207">
-        <v>1736024</v>
+        <v>1736023</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4573,7 +4573,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C209">
-        <v>1973759</v>
+        <v>1973761</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4593,7 +4593,7 @@
         <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C210">
-        <v>2403911</v>
+        <v>2403910</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4613,7 +4613,7 @@
         <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C211">
-        <v>1290319</v>
+        <v>1290320</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4713,7 +4713,7 @@
         <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="C216">
-        <v>781278</v>
+        <v>781279</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4813,7 +4813,7 @@
         <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="C221">
-        <v>1242758</v>
+        <v>1242757</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4833,7 +4833,7 @@
         <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C222">
-        <v>955689</v>
+        <v>955690</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4853,7 +4853,7 @@
         <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="C223">
-        <v>890769</v>
+        <v>890771</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4993,7 +4993,7 @@
         <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C230">
-        <v>316226</v>
+        <v>316225</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -5013,7 +5013,7 @@
         <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C231">
-        <v>164051</v>
+        <v>164050</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5073,7 +5073,7 @@
         <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C234">
-        <v>288969</v>
+        <v>288968</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5633,7 +5633,7 @@
         <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C262">
-        <v>3281918</v>
+        <v>3281917</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5673,7 +5673,7 @@
         <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C264">
-        <v>3878944</v>
+        <v>3878946</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -7953,7 +7953,7 @@
         <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C378">
-        <v>5260995</v>
+        <v>5260994</v>
       </c>
       <c r="D378" t="str">
         <v>Stage_1</v>

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$406</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$408</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F406"/>
+  <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1453,7 @@
         <v>audioclip_sfx_b0015_jp.ab</v>
       </c>
       <c r="C53">
-        <v>116862</v>
+        <v>116861</v>
       </c>
       <c r="D53" t="str">
         <v>Stage_1</v>
@@ -1513,7 +1513,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272283</v>
+        <v>1272282</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1573,7 +1573,7 @@
         <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C59">
-        <v>662050</v>
+        <v>662049</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1633,7 +1633,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C62">
-        <v>250850</v>
+        <v>250849</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1733,7 +1733,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C67">
-        <v>1029444</v>
+        <v>1029442</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1753,7 +1753,7 @@
         <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C68">
-        <v>872452</v>
+        <v>872451</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1773,7 +1773,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>1013619</v>
+        <v>1013613</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1833,7 +1833,7 @@
         <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C72">
-        <v>453780</v>
+        <v>453783</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1853,7 +1853,7 @@
         <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C73">
-        <v>1074574</v>
+        <v>1074573</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1913,7 +1913,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C76">
-        <v>446591</v>
+        <v>446593</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1953,7 +1953,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C78">
-        <v>891813</v>
+        <v>891812</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1993,7 +1993,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1196247</v>
+        <v>1196248</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -2033,7 +2033,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1374153</v>
+        <v>1374152</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2053,7 +2053,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1572145</v>
+        <v>1572147</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2113,7 +2113,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>1189226</v>
+        <v>1189228</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2193,7 +2193,7 @@
         <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C90">
-        <v>611357</v>
+        <v>611358</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2253,7 +2253,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>955385</v>
+        <v>955387</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2333,7 +2333,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>8510835</v>
+        <v>8510834</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2353,7 +2353,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1635040</v>
+        <v>1635039</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2373,7 +2373,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C99">
-        <v>276294</v>
+        <v>276296</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2393,7 +2393,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C100">
-        <v>2057511</v>
+        <v>2057509</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2433,7 +2433,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1334023</v>
+        <v>1334022</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2453,7 +2453,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1204321</v>
+        <v>1204319</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2473,7 +2473,7 @@
         <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C104">
-        <v>2285418</v>
+        <v>2285419</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2493,7 +2493,7 @@
         <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1316079</v>
+        <v>1316078</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2513,7 +2513,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2046304</v>
+        <v>2046305</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2533,7 +2533,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1236789</v>
+        <v>1236788</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2553,7 +2553,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C108">
-        <v>2757251</v>
+        <v>2757247</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2593,7 +2593,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1987358</v>
+        <v>1987359</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2653,7 +2653,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1893114</v>
+        <v>1893112</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2693,7 +2693,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1305069</v>
+        <v>1305067</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022201</v>
+        <v>1022204</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2773,7 +2773,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C119">
-        <v>884678</v>
+        <v>884679</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2793,7 +2793,7 @@
         <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C120">
-        <v>747235</v>
+        <v>747236</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2833,7 +2833,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1438189</v>
+        <v>1438191</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2853,7 +2853,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1738273</v>
+        <v>1738272</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2893,7 +2893,7 @@
         <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C125">
-        <v>1668215</v>
+        <v>1668214</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2953,7 +2953,7 @@
         <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1465820</v>
+        <v>1465823</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2973,7 +2973,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1837986</v>
+        <v>1837987</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2993,7 +2993,7 @@
         <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C130">
-        <v>2327471</v>
+        <v>2327470</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -3053,7 +3053,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C133">
-        <v>2643057</v>
+        <v>2643056</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3113,7 +3113,7 @@
         <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1562440</v>
+        <v>1562442</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3193,7 +3193,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1081026</v>
+        <v>1081025</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3253,7 +3253,7 @@
         <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C143">
-        <v>810576</v>
+        <v>810575</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3273,7 +3273,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967999</v>
+        <v>967998</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774136</v>
+        <v>774135</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3453,7 +3453,7 @@
         <v>audioclip_sfx_h0220_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1002160</v>
+        <v>1002159</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3473,7 +3473,7 @@
         <v>audioclip_sfx_h0221_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1054460</v>
+        <v>1054459</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3593,7 +3593,7 @@
         <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1911214</v>
+        <v>1911213</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3653,7 +3653,7 @@
         <v>audioclip_sfx_h0236_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2245979</v>
+        <v>2245978</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3673,7 +3673,7 @@
         <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2431131</v>
+        <v>2431133</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3693,7 +3693,7 @@
         <v>audioclip_sfx_h0238_jp.ab</v>
       </c>
       <c r="C165">
-        <v>867921</v>
+        <v>867922</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3713,7 +3713,7 @@
         <v>audioclip_sfx_h0239_jp.ab</v>
       </c>
       <c r="C166">
-        <v>5844651</v>
+        <v>5844653</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3733,7 +3733,7 @@
         <v>audioclip_sfx_h0240_jp.ab</v>
       </c>
       <c r="C167">
-        <v>924349</v>
+        <v>924348</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3793,7 +3793,7 @@
         <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1110560</v>
+        <v>1110561</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3853,7 +3853,7 @@
         <v>audioclip_sfx_h0248_jp.ab</v>
       </c>
       <c r="C173">
-        <v>1234716</v>
+        <v>1234718</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -4087,13 +4087,13 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0271_jp.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0271_jp.ab</v>
       </c>
       <c r="C185">
-        <v>274141</v>
+        <v>1584334</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4102,18 +4102,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
+        <v>fe6cb7b3ffa1d73d7394443c9ba60ca8d28358c796d1588f9a064e8a8db621f6</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C186">
-        <v>220278</v>
+        <v>274141</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4122,18 +4122,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C187">
-        <v>95939</v>
+        <v>220278</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4142,18 +4142,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C188">
-        <v>1390720</v>
+        <v>95939</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4162,18 +4162,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C189">
-        <v>4141825</v>
+        <v>1390722</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4182,18 +4182,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C190">
-        <v>1438364</v>
+        <v>4141826</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4202,18 +4202,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C191">
-        <v>1066358</v>
+        <v>1438365</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4222,18 +4222,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C192">
-        <v>883187</v>
+        <v>1066358</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4242,18 +4242,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C193">
-        <v>903966</v>
+        <v>883189</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4262,18 +4262,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C194">
-        <v>1396256</v>
+        <v>903968</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4282,18 +4282,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C195">
-        <v>995097</v>
+        <v>1396255</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4302,18 +4302,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C196">
-        <v>1222455</v>
+        <v>995098</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4322,18 +4322,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C197">
-        <v>694991</v>
+        <v>1222456</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4342,18 +4342,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C198">
-        <v>3816646</v>
+        <v>694991</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4362,18 +4362,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C199">
-        <v>1950974</v>
+        <v>3816646</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4382,18 +4382,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C200">
-        <v>2974172</v>
+        <v>1950970</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4402,18 +4402,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C201">
-        <v>1992962</v>
+        <v>2974172</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4422,18 +4422,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C202">
-        <v>2340708</v>
+        <v>1992961</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4442,18 +4442,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C203">
-        <v>1950997</v>
+        <v>2340710</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4462,18 +4462,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C204">
-        <v>2527578</v>
+        <v>1950991</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4482,18 +4482,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>6f31b6b3134e7be9114828c534a1bd1df6311033e5cde7af58e453a261307349</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C205">
-        <v>2120060</v>
+        <v>2527578</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4502,18 +4502,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
+        <v>6f31b6b3134e7be9114828c534a1bd1df6311033e5cde7af58e453a261307349</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C206">
-        <v>1952766</v>
+        <v>2120060</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4522,18 +4522,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C207">
-        <v>1736023</v>
+        <v>1952767</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4542,18 +4542,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C208">
-        <v>2460156</v>
+        <v>1736025</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4562,18 +4562,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C209">
-        <v>1973761</v>
+        <v>2460155</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4582,18 +4582,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C210">
-        <v>2403910</v>
+        <v>1973757</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4602,18 +4602,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C211">
-        <v>1290320</v>
+        <v>2403911</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4622,18 +4622,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C212">
-        <v>940739</v>
+        <v>1290320</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4642,18 +4642,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C213">
-        <v>1484342</v>
+        <v>940739</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4662,18 +4662,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C214">
-        <v>1202868</v>
+        <v>1484342</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4682,18 +4682,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>audioclip_sfx_t0218_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>audioclip_sfx_t0218_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C215">
-        <v>619268</v>
+        <v>1202868</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4702,18 +4702,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>76c2f395f7dd3e6968171d854f1a945ff726837685d2a94e2a19c1fe8c217be8</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>audioclip_sfx_t0222_jp.ab</v>
+        <v>audioclip_sfx_t0218_jp.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>audioclip_sfx_t0222_jp.ab</v>
+        <v>audioclip_sfx_t0218_jp.ab</v>
       </c>
       <c r="C216">
-        <v>781279</v>
+        <v>619268</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4722,18 +4722,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>c1be58c088b69a1fd1f997ba5f0d043bb187c8feb06162a49a38b291cde93ed5</v>
+        <v>76c2f395f7dd3e6968171d854f1a945ff726837685d2a94e2a19c1fe8c217be8</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>audioclip_sfx_t0223_jp.ab</v>
+        <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>audioclip_sfx_t0223_jp.ab</v>
+        <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="C217">
-        <v>988345</v>
+        <v>781280</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4742,18 +4742,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>1f449da36a5721d749c0a977bfc07acd9568c1e47886840b5d6eca12d7ba7911</v>
+        <v>c1be58c088b69a1fd1f997ba5f0d043bb187c8feb06162a49a38b291cde93ed5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>audioclip_sfx_t0225_jp.ab</v>
+        <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>audioclip_sfx_t0225_jp.ab</v>
+        <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="C218">
-        <v>867411</v>
+        <v>988344</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4762,18 +4762,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>2403978508b152e347b3f46dda625a4f30324882f2594dd64dcade93354bca03</v>
+        <v>1f449da36a5721d749c0a977bfc07acd9568c1e47886840b5d6eca12d7ba7911</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>audioclip_sfx_t0228_jp.ab</v>
+        <v>audioclip_sfx_t0225_jp.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>audioclip_sfx_t0228_jp.ab</v>
+        <v>audioclip_sfx_t0225_jp.ab</v>
       </c>
       <c r="C219">
-        <v>1009843</v>
+        <v>867411</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4782,18 +4782,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>c501f9ab00ed7a5a51aa0e3f5e6c69e2f59abe0a18f0989109e95f748974c93b</v>
+        <v>2403978508b152e347b3f46dda625a4f30324882f2594dd64dcade93354bca03</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>audioclip_sfx_t0229_jp.ab</v>
+        <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>audioclip_sfx_t0229_jp.ab</v>
+        <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="C220">
-        <v>1117664</v>
+        <v>1009843</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4802,18 +4802,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>9f7f6b1d211cc28e51714ec88ca1c3e39dd93ff9915f15d9f74be6b519c65ede</v>
+        <v>c501f9ab00ed7a5a51aa0e3f5e6c69e2f59abe0a18f0989109e95f748974c93b</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>audioclip_sfx_t0231_jp.ab</v>
+        <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>audioclip_sfx_t0231_jp.ab</v>
+        <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="C221">
-        <v>1242757</v>
+        <v>1117663</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4822,18 +4822,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>ce08981162e66466b4ee4e4da78ceb0ffc741426c58cd5e7fd42f26741c67bfb</v>
+        <v>9f7f6b1d211cc28e51714ec88ca1c3e39dd93ff9915f15d9f74be6b519c65ede</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>audioclip_sfx_t0242_jp.ab</v>
+        <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>audioclip_sfx_t0242_jp.ab</v>
+        <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="C222">
-        <v>955690</v>
+        <v>1242758</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4842,18 +4842,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>b7ace3ce40220f62e3d18d05ec7660b190503c1030c184741d45181e67939878</v>
+        <v>ce08981162e66466b4ee4e4da78ceb0ffc741426c58cd5e7fd42f26741c67bfb</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>audioclip_sfx_t0246_jp.ab</v>
+        <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>audioclip_sfx_t0246_jp.ab</v>
+        <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C223">
-        <v>890771</v>
+        <v>955690</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4862,18 +4862,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>983311ac98117dad253ea5b6a92e1c836692f5f1be8f54da5e2c61e3f0085062</v>
+        <v>b7ace3ce40220f62e3d18d05ec7660b190503c1030c184741d45181e67939878</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>audioclip_sfx_t0250_jp.ab</v>
+        <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>audioclip_sfx_t0250_jp.ab</v>
+        <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="C224">
-        <v>1509664</v>
+        <v>890771</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4882,18 +4882,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>1af58272bb08ddde51eb1ba60f0704e4df9b5465bdfeeac1ff193ce56384bdb3</v>
+        <v>983311ac98117dad253ea5b6a92e1c836692f5f1be8f54da5e2c61e3f0085062</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>audioclip_sfx_t0251_jp.ab</v>
+        <v>audioclip_sfx_t0250_jp.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>audioclip_sfx_t0251_jp.ab</v>
+        <v>audioclip_sfx_t0250_jp.ab</v>
       </c>
       <c r="C225">
-        <v>1812579</v>
+        <v>1509664</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4902,18 +4902,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>83103a7a033808c88ac06462bb696421ca4aefe89e7096d385cd786c89d83f7e</v>
+        <v>1af58272bb08ddde51eb1ba60f0704e4df9b5465bdfeeac1ff193ce56384bdb3</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>audioclip_sfx_t0252_jp.ab</v>
+        <v>audioclip_sfx_t0251_jp.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>audioclip_sfx_t0252_jp.ab</v>
+        <v>audioclip_sfx_t0251_jp.ab</v>
       </c>
       <c r="C226">
-        <v>2885316</v>
+        <v>1812579</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4922,18 +4922,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>148649f548044e6098a6642c2fa9ad1b9ff8e00150a71f5809dda3927fe4701f</v>
+        <v>83103a7a033808c88ac06462bb696421ca4aefe89e7096d385cd786c89d83f7e</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>audioclip_sfx_t0254_jp.ab</v>
+        <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>audioclip_sfx_t0254_jp.ab</v>
+        <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="C227">
-        <v>1288917</v>
+        <v>2885317</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4942,18 +4942,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>d904be8b981ba87777b1f00a5a758bc50493dacb6f15c975bde4aebd7d563ca8</v>
+        <v>148649f548044e6098a6642c2fa9ad1b9ff8e00150a71f5809dda3927fe4701f</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>audioclip_sfx_t0258_jp.ab</v>
+        <v>audioclip_sfx_t0254_jp.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>audioclip_sfx_t0258_jp.ab</v>
+        <v>audioclip_sfx_t0254_jp.ab</v>
       </c>
       <c r="C228">
-        <v>1912958</v>
+        <v>1288917</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4962,18 +4962,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>b5c1c04a2837264abf5aabfdb7cd0e6b28f8d9c1552e191d433be8dedb7018db</v>
+        <v>d904be8b981ba87777b1f00a5a758bc50493dacb6f15c975bde4aebd7d563ca8</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>audioclip_sfx_t0263_jp.ab</v>
+        <v>audioclip_sfx_t0258_jp.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>audioclip_sfx_t0263_jp.ab</v>
+        <v>audioclip_sfx_t0258_jp.ab</v>
       </c>
       <c r="C229">
-        <v>1741544</v>
+        <v>1912958</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4982,18 +4982,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>a16fb8288cca9c4e0172e756e8f7970aebe0a540486a0136a7e7471ffb57dac4</v>
+        <v>b5c1c04a2837264abf5aabfdb7cd0e6b28f8d9c1552e191d433be8dedb7018db</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0263_jp.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0263_jp.ab</v>
       </c>
       <c r="C230">
-        <v>316225</v>
+        <v>1741544</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -5002,18 +5002,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
+        <v>a16fb8288cca9c4e0172e756e8f7970aebe0a540486a0136a7e7471ffb57dac4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C231">
-        <v>164050</v>
+        <v>316226</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5022,18 +5022,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C232">
-        <v>214580</v>
+        <v>164051</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5042,18 +5042,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C233">
-        <v>310407</v>
+        <v>214580</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5062,18 +5062,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C234">
-        <v>288968</v>
+        <v>310407</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5082,18 +5082,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C235">
-        <v>270580</v>
+        <v>288968</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5102,18 +5102,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C236">
-        <v>3127774</v>
+        <v>270581</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5122,18 +5122,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>78e784ceac79715e6f390d5b83f7fb527e8cb5b0404a6f1be45b313a5ba02dc1</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C237">
-        <v>3331653</v>
+        <v>3127774</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5142,18 +5142,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>dd04ef36d2763124089134dbe7458b80907450a71e52752c5290f0de6f4e7eae</v>
+        <v>78e784ceac79715e6f390d5b83f7fb527e8cb5b0404a6f1be45b313a5ba02dc1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C238">
-        <v>3412887</v>
+        <v>3331653</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5162,18 +5162,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>24f9a0b1ca8b96b3da27e0f1d94e381499f584471f56b3c2a7241ae4f6141d8c</v>
+        <v>dd04ef36d2763124089134dbe7458b80907450a71e52752c5290f0de6f4e7eae</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C239">
-        <v>4001030</v>
+        <v>3412887</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5182,18 +5182,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>1bb8cecd4d65d3465875868908bde0e58a0c63eb9afd917907feb7180b3b8914</v>
+        <v>24f9a0b1ca8b96b3da27e0f1d94e381499f584471f56b3c2a7241ae4f6141d8c</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C240">
-        <v>790826</v>
+        <v>4001030</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5202,18 +5202,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>be4310c123d2b37d7bdd180f406795da17db9276c2abcf6d33c7f2d834798ba0</v>
+        <v>1bb8cecd4d65d3465875868908bde0e58a0c63eb9afd917907feb7180b3b8914</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_b0260.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_b0260.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C241">
-        <v>809446</v>
+        <v>790826</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5222,18 +5222,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>5545e61f9af50ea439bb9425d49679c265b4b04153e748be9d8dff61b7f46113</v>
+        <v>be4310c123d2b37d7bdd180f406795da17db9276c2abcf6d33c7f2d834798ba0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0260.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0260.ab</v>
       </c>
       <c r="C242">
-        <v>3558177</v>
+        <v>809446</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5242,18 +5242,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
+        <v>5545e61f9af50ea439bb9425d49679c265b4b04153e748be9d8dff61b7f46113</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C243">
-        <v>797567</v>
+        <v>3558177</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5262,18 +5262,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
+        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C244">
-        <v>208090</v>
+        <v>797567</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5282,18 +5282,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
+        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C245">
-        <v>3975187</v>
+        <v>208090</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5302,18 +5302,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
+        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C246">
-        <v>4306043</v>
+        <v>3975188</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5322,18 +5322,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>8b2ed468e2fcba7d477e3da1fe08a3c2d69c7a5b700f1e557d14a5b1a72ba120</v>
+        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C247">
-        <v>3547758</v>
+        <v>4306043</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5342,18 +5342,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>e3fca3c426d6ee0a3cf9dd6f304f8f25d2fef2a9b1ae6de05627d3db37e3fc6a</v>
+        <v>8b2ed468e2fcba7d477e3da1fe08a3c2d69c7a5b700f1e557d14a5b1a72ba120</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C248">
-        <v>3671173</v>
+        <v>3547758</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5362,18 +5362,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>b5b543aee2a4ed561a42e5107bbea10ef79b2ad93842b832eb235533f7ca4f99</v>
+        <v>e3fca3c426d6ee0a3cf9dd6f304f8f25d2fef2a9b1ae6de05627d3db37e3fc6a</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C249">
-        <v>803840</v>
+        <v>3671173</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5382,18 +5382,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>e7a218ee7d7a55f01a0e251a424c46bcf384be8b50176d5cac868f9da0dde6d7</v>
+        <v>b5b543aee2a4ed561a42e5107bbea10ef79b2ad93842b832eb235533f7ca4f99</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C250">
-        <v>713224</v>
+        <v>803840</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5402,18 +5402,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>bbc9c213346cd9c77b113965f05ffa7d0b05ac187f68681435bf67674b00e146</v>
+        <v>e7a218ee7d7a55f01a0e251a424c46bcf384be8b50176d5cac868f9da0dde6d7</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C251">
-        <v>831282</v>
+        <v>713224</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5422,18 +5422,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>c38406c3168894ab382175e94b7976eb5ea0caf4f1d7a22fe7b3860d8dc0759e</v>
+        <v>bbc9c213346cd9c77b113965f05ffa7d0b05ac187f68681435bf67674b00e146</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C252">
-        <v>4679298</v>
+        <v>831282</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5442,18 +5442,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>6f4c0ef7a8999f67fbe814d23dd3f4bdd1d22cc0f44a0f13a9953615ce2d6580</v>
+        <v>c38406c3168894ab382175e94b7976eb5ea0caf4f1d7a22fe7b3860d8dc0759e</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C253">
-        <v>823851</v>
+        <v>4679298</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5462,18 +5462,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>8ce801de023c56fbb01494c4ca701ac2a955973683af0de63eb113c470fe54c3</v>
+        <v>6f4c0ef7a8999f67fbe814d23dd3f4bdd1d22cc0f44a0f13a9953615ce2d6580</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C254">
-        <v>730593</v>
+        <v>823851</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5482,18 +5482,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>70018ef62ee1aa1a3b56fd711fb01a33ba58f72ed71b0ee34e169894cad9a529</v>
+        <v>8ce801de023c56fbb01494c4ca701ac2a955973683af0de63eb113c470fe54c3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C255">
-        <v>808031</v>
+        <v>730593</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5502,18 +5502,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>da212d22735b71006f7bbebd8d2cf847ddf21d859344229cddf9f6ccf80c5372</v>
+        <v>70018ef62ee1aa1a3b56fd711fb01a33ba58f72ed71b0ee34e169894cad9a529</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C256">
-        <v>758977</v>
+        <v>808031</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5522,18 +5522,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>8b88365c69bb5344a0f0022c3e0ae2283422666aca080b856f449d7397992782</v>
+        <v>da212d22735b71006f7bbebd8d2cf847ddf21d859344229cddf9f6ccf80c5372</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C257">
-        <v>4615070</v>
+        <v>758977</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5542,18 +5542,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>78559c267f1b3412982acc007d76441d8b75e93eb4bfcdb0e95485e9ecd87318</v>
+        <v>8b88365c69bb5344a0f0022c3e0ae2283422666aca080b856f449d7397992782</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C258">
-        <v>3928747</v>
+        <v>4615070</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5562,18 +5562,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>649021775c3d944ec66710dc2833a8df8f6e11c44878c62f3b931ff660a3c2da</v>
+        <v>78559c267f1b3412982acc007d76441d8b75e93eb4bfcdb0e95485e9ecd87318</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C259">
-        <v>4234934</v>
+        <v>3928747</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5582,18 +5582,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>95f82d1cb182f0d594eb6125d7b4f828b8e2b54c03c6a9b2a8a2688ae2b427ef</v>
+        <v>649021775c3d944ec66710dc2833a8df8f6e11c44878c62f3b931ff660a3c2da</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C260">
-        <v>4332457</v>
+        <v>4234934</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5602,18 +5602,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>4d633e8de21a01527f9364d84f44895010d4a5dec9f0ede8402c19749280609a</v>
+        <v>95f82d1cb182f0d594eb6125d7b4f828b8e2b54c03c6a9b2a8a2688ae2b427ef</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C261">
-        <v>3265010</v>
+        <v>4332457</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5622,18 +5622,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>ffdbdb5c7c3a5f8aec334500f40226b14d82ac63ff43d51fa83131e6be67c680</v>
+        <v>4d633e8de21a01527f9364d84f44895010d4a5dec9f0ede8402c19749280609a</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C262">
-        <v>3281917</v>
+        <v>3265010</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5642,18 +5642,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>055d98eaa385323f6b431d57d9158c227ec5ff8f3fa628b8fdac15595b44a475</v>
+        <v>ffdbdb5c7c3a5f8aec334500f40226b14d82ac63ff43d51fa83131e6be67c680</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C263">
-        <v>3268737</v>
+        <v>3281918</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5662,18 +5662,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>2a72b0b0d6249cd756219728440dca77f1388f67427663ba12f8ddac14f3a5c5</v>
+        <v>055d98eaa385323f6b431d57d9158c227ec5ff8f3fa628b8fdac15595b44a475</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C264">
-        <v>3878946</v>
+        <v>3268737</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5682,18 +5682,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>4d62229cbd284aa9391c2ae5728483edcdd7c3664570bc6980b143987362b95d</v>
+        <v>2a72b0b0d6249cd756219728440dca77f1388f67427663ba12f8ddac14f3a5c5</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C265">
-        <v>3068963</v>
+        <v>3878944</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5702,18 +5702,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>d43431a351343bcce91b2b6839f9998d1c36be4e3f4f103a9b7bed45056690a6</v>
+        <v>4d62229cbd284aa9391c2ae5728483edcdd7c3664570bc6980b143987362b95d</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C266">
-        <v>3311210</v>
+        <v>3068963</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5722,18 +5722,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>f844caa4342233c882176f4b3d3b5df3aa38df5704837c4e17b36f772a18fe85</v>
+        <v>d43431a351343bcce91b2b6839f9998d1c36be4e3f4f103a9b7bed45056690a6</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C267">
-        <v>3958978</v>
+        <v>3311210</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5742,18 +5742,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>5a7f4c68dffa0013111cececfe93648f43ea44a9d2ecc2f353cf7b7c8cb8f59c</v>
+        <v>f844caa4342233c882176f4b3d3b5df3aa38df5704837c4e17b36f772a18fe85</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C268">
-        <v>2916298</v>
+        <v>3958978</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5762,18 +5762,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>b9696daa9252dec4261611f1f256637ee51cb3b8b33d0b92cfd3bba149001c6e</v>
+        <v>5a7f4c68dffa0013111cececfe93648f43ea44a9d2ecc2f353cf7b7c8cb8f59c</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C269">
-        <v>855003</v>
+        <v>2916298</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5782,18 +5782,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>289b0ed905365cd5e8cb89fe42ac33d47e5f572cfc93a7419bb99f39ea7341d1</v>
+        <v>b9696daa9252dec4261611f1f256637ee51cb3b8b33d0b92cfd3bba149001c6e</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C270">
-        <v>834045</v>
+        <v>855003</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5802,18 +5802,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>6b42ad4bbc2598a1f1702e175d9bf9f511e485fa19f3fa86a86c22eb8cc7f23e</v>
+        <v>289b0ed905365cd5e8cb89fe42ac33d47e5f572cfc93a7419bb99f39ea7341d1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C271">
-        <v>799261</v>
+        <v>834045</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5822,18 +5822,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>5f1d547ddd7b8ce59a4e005ebe350bdc99957ad7f687d685d31014cccf81c0fc</v>
+        <v>6b42ad4bbc2598a1f1702e175d9bf9f511e485fa19f3fa86a86c22eb8cc7f23e</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C272">
-        <v>777116</v>
+        <v>799261</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5842,18 +5842,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>ec22258063c80e1c82446b8a02dd46be8a92091df93f324eb9cf423dbee75c4a</v>
+        <v>5f1d547ddd7b8ce59a4e005ebe350bdc99957ad7f687d685d31014cccf81c0fc</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C273">
-        <v>4131491</v>
+        <v>777116</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5862,18 +5862,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>2e3087d8674c5bff6c4f6a7957f7b459bfefc77083b6fa9050da6c234e5fcd06</v>
+        <v>ec22258063c80e1c82446b8a02dd46be8a92091df93f324eb9cf423dbee75c4a</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C274">
-        <v>806083</v>
+        <v>4131491</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5882,18 +5882,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>75ea8ae022a44b3b64d866c990239078893ea0883aa85a84522e0d99fff85500</v>
+        <v>2e3087d8674c5bff6c4f6a7957f7b459bfefc77083b6fa9050da6c234e5fcd06</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C275">
-        <v>4289279</v>
+        <v>806083</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5902,18 +5902,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>3f3f9d99623d7683093487b65cfd461be53bd2b8153a9419bb9880bf3086fee3</v>
+        <v>75ea8ae022a44b3b64d866c990239078893ea0883aa85a84522e0d99fff85500</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C276">
-        <v>3816882</v>
+        <v>4289279</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5922,18 +5922,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>e342bcc9d451f54427e9e676142ce9d3e42283c78c64adf074fd6754f8b711c9</v>
+        <v>3f3f9d99623d7683093487b65cfd461be53bd2b8153a9419bb9880bf3086fee3</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C277">
-        <v>5051199</v>
+        <v>3816882</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5942,18 +5942,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>a85ef6c19ca8f47ed76b9c9f22aa8d48512b3d1dc156cdb37fdebe8d80ff9e1a</v>
+        <v>e342bcc9d451f54427e9e676142ce9d3e42283c78c64adf074fd6754f8b711c9</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C278">
-        <v>4176002</v>
+        <v>5051199</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5962,18 +5962,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>206d98bef7c96e960896ee8ee4a7b90e71f4c30bd73f9833cbe46d246c450f78</v>
+        <v>a85ef6c19ca8f47ed76b9c9f22aa8d48512b3d1dc156cdb37fdebe8d80ff9e1a</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C279">
-        <v>4242518</v>
+        <v>4176002</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5982,18 +5982,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>824b86c0e40aefc0770c167f978bc2fd4c1925a9efe1e9691c60a2eb5122c14e</v>
+        <v>206d98bef7c96e960896ee8ee4a7b90e71f4c30bd73f9833cbe46d246c450f78</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C280">
-        <v>3266671</v>
+        <v>4242518</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -6002,18 +6002,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>6242bc0a6af6955ac2a0a8d31fee0a742dd006425a34614572a0ff0a6cf3ac30</v>
+        <v>824b86c0e40aefc0770c167f978bc2fd4c1925a9efe1e9691c60a2eb5122c14e</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C281">
-        <v>3395405</v>
+        <v>3266671</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6022,18 +6022,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>c07b0a8e238a880228b5a27ac66e50bd4cd42ef64dd35769fbadb7ef4f9419aa</v>
+        <v>6242bc0a6af6955ac2a0a8d31fee0a742dd006425a34614572a0ff0a6cf3ac30</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C282">
-        <v>5218305</v>
+        <v>3395405</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6042,18 +6042,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>0202ec87f638f3fd76d7a98dd5eb291a5d0c8125ded3ecb47f078dccd09f3a0b</v>
+        <v>c07b0a8e238a880228b5a27ac66e50bd4cd42ef64dd35769fbadb7ef4f9419aa</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C283">
-        <v>4004656</v>
+        <v>5218305</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6062,18 +6062,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>61e12aaabe2c59ab60d879b18a7d8b89b7ddf9a8a71498e190e883353f7167c5</v>
+        <v>0202ec87f638f3fd76d7a98dd5eb291a5d0c8125ded3ecb47f078dccd09f3a0b</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C284">
-        <v>4037956</v>
+        <v>4004656</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6082,18 +6082,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>d7d2064c4b7799f6f05c0bea7820d77879988674b6cbb863fc6ffff294516853</v>
+        <v>61e12aaabe2c59ab60d879b18a7d8b89b7ddf9a8a71498e190e883353f7167c5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C285">
-        <v>2589817</v>
+        <v>4037956</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6102,18 +6102,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>e319306d4c24fd23c4a7473ad0c6218a96d6abcbf8062198b2d17c4362a88c65</v>
+        <v>d7d2064c4b7799f6f05c0bea7820d77879988674b6cbb863fc6ffff294516853</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C286">
-        <v>3232149</v>
+        <v>2589817</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6122,18 +6122,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>3d27bb9df8d360989f595c83964e2a94d8e5fd22b8f7a6c1193e7c4cc257a6dd</v>
+        <v>e319306d4c24fd23c4a7473ad0c6218a96d6abcbf8062198b2d17c4362a88c65</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C287">
-        <v>3117108</v>
+        <v>3232149</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6142,18 +6142,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>2ce3ea84a16615d2d212b5c34a99171686d2a4e36cff83cf509ebbfb367e0b2d</v>
+        <v>3d27bb9df8d360989f595c83964e2a94d8e5fd22b8f7a6c1193e7c4cc257a6dd</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C288">
-        <v>4175238</v>
+        <v>3117108</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6162,18 +6162,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>54cf04627438a03b859ddb2f4687af86522a3814168449e0f183e1fc0bb2a847</v>
+        <v>2ce3ea84a16615d2d212b5c34a99171686d2a4e36cff83cf509ebbfb367e0b2d</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C289">
-        <v>3438941</v>
+        <v>4175238</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6182,18 +6182,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>69896b88d7b878ed3a9ae0ccaac412a1dcead089da47686152318321fd1de238</v>
+        <v>54cf04627438a03b859ddb2f4687af86522a3814168449e0f183e1fc0bb2a847</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C290">
-        <v>4097341</v>
+        <v>3438941</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6202,18 +6202,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>a660b7d68977f955ba7ceced1adadab138e4fc76cc5208da43d9369b9dc59e23</v>
+        <v>69896b88d7b878ed3a9ae0ccaac412a1dcead089da47686152318321fd1de238</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C291">
-        <v>750978</v>
+        <v>4097341</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6222,18 +6222,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>38de7487f089a655ef8ef162c0d101525d83e7f406dabf459b3a9c8390380122</v>
+        <v>a660b7d68977f955ba7ceced1adadab138e4fc76cc5208da43d9369b9dc59e23</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C292">
-        <v>2078410</v>
+        <v>750978</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6242,18 +6242,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>6cb30643d3b6c9be725cce1f64f07b98426ba01da9ad3e9b127862d8b8dbccf8</v>
+        <v>38de7487f089a655ef8ef162c0d101525d83e7f406dabf459b3a9c8390380122</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C293">
-        <v>562150</v>
+        <v>2078410</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6262,18 +6262,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>8950a764fe423f950c36d8d8c330f207f071139213a0be60bebb3ded5fe329cd</v>
+        <v>6cb30643d3b6c9be725cce1f64f07b98426ba01da9ad3e9b127862d8b8dbccf8</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C294">
-        <v>796221</v>
+        <v>562150</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6282,18 +6282,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>1e0a607d278479f68829b034dc3e31e3ff73f88dee2ff778c5c4398d845d97e6</v>
+        <v>8950a764fe423f950c36d8d8c330f207f071139213a0be60bebb3ded5fe329cd</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C295">
-        <v>770702</v>
+        <v>796221</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6302,18 +6302,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>e434b87a3241dae1f7d81acd86f8102e93895ec6ab30272f57fd9721c6d1bcfa</v>
+        <v>1e0a607d278479f68829b034dc3e31e3ff73f88dee2ff778c5c4398d845d97e6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C296">
-        <v>820636</v>
+        <v>770702</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6322,18 +6322,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>c5d28976c731cae2d777b0675466878565052af34c557d71d7009162fbe813e8</v>
+        <v>e434b87a3241dae1f7d81acd86f8102e93895ec6ab30272f57fd9721c6d1bcfa</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B297" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C297">
-        <v>817925</v>
+        <v>820636</v>
       </c>
       <c r="D297" t="str">
         <v>Stage_1</v>
@@ -6342,18 +6342,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>d596388ecc3145e4279aed0ec7f8b25c8a5abbfeaf17c76560902f42fd6fd46c</v>
+        <v>c5d28976c731cae2d777b0675466878565052af34c557d71d7009162fbe813e8</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B298" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C298">
-        <v>830548</v>
+        <v>817925</v>
       </c>
       <c r="D298" t="str">
         <v>Stage_1</v>
@@ -6362,18 +6362,18 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>694f5ecefeccf73e0d79fcbde42e9a7552d32c2dc69d3894af27e1b92e9c9327</v>
+        <v>d596388ecc3145e4279aed0ec7f8b25c8a5abbfeaf17c76560902f42fd6fd46c</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B299" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C299">
-        <v>802577</v>
+        <v>830548</v>
       </c>
       <c r="D299" t="str">
         <v>Stage_1</v>
@@ -6382,18 +6382,18 @@
         <v>0</v>
       </c>
       <c r="F299" t="str">
-        <v>22ce1b1174d04d190ad9105ae99b8268e4b5b4bce7d43dbd7bac3a6930162aa5</v>
+        <v>694f5ecefeccf73e0d79fcbde42e9a7552d32c2dc69d3894af27e1b92e9c9327</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B300" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C300">
-        <v>782755</v>
+        <v>802577</v>
       </c>
       <c r="D300" t="str">
         <v>Stage_1</v>
@@ -6402,18 +6402,18 @@
         <v>0</v>
       </c>
       <c r="F300" t="str">
-        <v>fa33b1b6747266a27a42f0fe654fadc5c45d1b7ca97b1b8f2d52b3b0d3c7c647</v>
+        <v>22ce1b1174d04d190ad9105ae99b8268e4b5b4bce7d43dbd7bac3a6930162aa5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B301" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C301">
-        <v>783966</v>
+        <v>782755</v>
       </c>
       <c r="D301" t="str">
         <v>Stage_1</v>
@@ -6422,18 +6422,18 @@
         <v>0</v>
       </c>
       <c r="F301" t="str">
-        <v>6c80e0e30faa685a6e8861942e4283309563a109980a7b43ad0f6c8f7b3fd812</v>
+        <v>fa33b1b6747266a27a42f0fe654fadc5c45d1b7ca97b1b8f2d52b3b0d3c7c647</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B302" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C302">
-        <v>818586</v>
+        <v>783966</v>
       </c>
       <c r="D302" t="str">
         <v>Stage_1</v>
@@ -6442,18 +6442,18 @@
         <v>0</v>
       </c>
       <c r="F302" t="str">
-        <v>4189f28a4927c0faa536e86f0b2978390507c7e2a3f7182854f18827713a9ae6</v>
+        <v>6c80e0e30faa685a6e8861942e4283309563a109980a7b43ad0f6c8f7b3fd812</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B303" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C303">
-        <v>804643</v>
+        <v>818586</v>
       </c>
       <c r="D303" t="str">
         <v>Stage_1</v>
@@ -6462,18 +6462,18 @@
         <v>0</v>
       </c>
       <c r="F303" t="str">
-        <v>5779e4f64a588b7ba406c3f77cbe5a7623a881612f260d82d0fdd015454ce4e5</v>
+        <v>4189f28a4927c0faa536e86f0b2978390507c7e2a3f7182854f18827713a9ae6</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B304" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C304">
-        <v>815725</v>
+        <v>804643</v>
       </c>
       <c r="D304" t="str">
         <v>Stage_1</v>
@@ -6482,18 +6482,18 @@
         <v>0</v>
       </c>
       <c r="F304" t="str">
-        <v>670e37924a1dc65b3257f7ea9ea57af53ef77c50e363aa558450edda73a3971e</v>
+        <v>5779e4f64a588b7ba406c3f77cbe5a7623a881612f260d82d0fdd015454ce4e5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B305" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C305">
-        <v>787384</v>
+        <v>815725</v>
       </c>
       <c r="D305" t="str">
         <v>Stage_1</v>
@@ -6502,18 +6502,18 @@
         <v>0</v>
       </c>
       <c r="F305" t="str">
-        <v>72c7aa064bb39180b9f70c05d799875beb09b87e0863e05312f2b613f6296aaa</v>
+        <v>670e37924a1dc65b3257f7ea9ea57af53ef77c50e363aa558450edda73a3971e</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B306" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C306">
-        <v>3226990</v>
+        <v>787384</v>
       </c>
       <c r="D306" t="str">
         <v>Stage_1</v>
@@ -6522,18 +6522,18 @@
         <v>0</v>
       </c>
       <c r="F306" t="str">
-        <v>78cff653adce00a0271b9b386462b605c5155aa5328a916a2c1e7472ef53800b</v>
+        <v>72c7aa064bb39180b9f70c05d799875beb09b87e0863e05312f2b613f6296aaa</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B307" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C307">
-        <v>3520720</v>
+        <v>3226990</v>
       </c>
       <c r="D307" t="str">
         <v>Stage_1</v>
@@ -6542,18 +6542,18 @@
         <v>0</v>
       </c>
       <c r="F307" t="str">
-        <v>f0b995ef5d339afb76d7292b967c27ba26b3f240505eddecf275b18d014acabe</v>
+        <v>78cff653adce00a0271b9b386462b605c5155aa5328a916a2c1e7472ef53800b</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B308" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C308">
-        <v>2771089</v>
+        <v>3520720</v>
       </c>
       <c r="D308" t="str">
         <v>Stage_1</v>
@@ -6562,18 +6562,18 @@
         <v>0</v>
       </c>
       <c r="F308" t="str">
-        <v>bfa55cdf6f0750acee979cdf5cdc7840f4de769c34b7e38431644cf7a21ae6ba</v>
+        <v>f0b995ef5d339afb76d7292b967c27ba26b3f240505eddecf275b18d014acabe</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B309" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C309">
-        <v>3669448</v>
+        <v>2771089</v>
       </c>
       <c r="D309" t="str">
         <v>Stage_1</v>
@@ -6582,18 +6582,18 @@
         <v>0</v>
       </c>
       <c r="F309" t="str">
-        <v>d9f408df598bbed9f98731ebbbc24dd54c87d8faf6db4f9f6ed0bbdc627164f9</v>
+        <v>bfa55cdf6f0750acee979cdf5cdc7840f4de769c34b7e38431644cf7a21ae6ba</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B310" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C310">
-        <v>3422472</v>
+        <v>3669448</v>
       </c>
       <c r="D310" t="str">
         <v>Stage_1</v>
@@ -6602,18 +6602,18 @@
         <v>0</v>
       </c>
       <c r="F310" t="str">
-        <v>6a96ed9bc7dae9b6a94560a7a2a2c4c968aa9c666608866700784adbd28efe9e</v>
+        <v>d9f408df598bbed9f98731ebbbc24dd54c87d8faf6db4f9f6ed0bbdc627164f9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B311" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C311">
-        <v>808827</v>
+        <v>3422472</v>
       </c>
       <c r="D311" t="str">
         <v>Stage_1</v>
@@ -6622,18 +6622,18 @@
         <v>0</v>
       </c>
       <c r="F311" t="str">
-        <v>b849caca8249392ed9cb5fbc69ad00daebd22a57c5dbe8dd0ef8e36a983745d0</v>
+        <v>6a96ed9bc7dae9b6a94560a7a2a2c4c968aa9c666608866700784adbd28efe9e</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B312" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C312">
-        <v>792810</v>
+        <v>808827</v>
       </c>
       <c r="D312" t="str">
         <v>Stage_1</v>
@@ -6642,18 +6642,18 @@
         <v>0</v>
       </c>
       <c r="F312" t="str">
-        <v>2b02b549d1958dcd7765bd6847f70978d863dd130ffa8e646f5fdc031cdc8351</v>
+        <v>b849caca8249392ed9cb5fbc69ad00daebd22a57c5dbe8dd0ef8e36a983745d0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B313" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C313">
-        <v>725025</v>
+        <v>792810</v>
       </c>
       <c r="D313" t="str">
         <v>Stage_1</v>
@@ -6662,18 +6662,18 @@
         <v>0</v>
       </c>
       <c r="F313" t="str">
-        <v>c54d37a9842bc35f6a53430f7b78bf25398c17e364d4fd7af908f2f9e6a41a4a</v>
+        <v>2b02b549d1958dcd7765bd6847f70978d863dd130ffa8e646f5fdc031cdc8351</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B314" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C314">
-        <v>785465</v>
+        <v>725025</v>
       </c>
       <c r="D314" t="str">
         <v>Stage_1</v>
@@ -6682,18 +6682,18 @@
         <v>0</v>
       </c>
       <c r="F314" t="str">
-        <v>36cc8950d881f726e02b7e855085ff44ade33666176018a788d9faec4f87090f</v>
+        <v>c54d37a9842bc35f6a53430f7b78bf25398c17e364d4fd7af908f2f9e6a41a4a</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B315" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C315">
-        <v>815412</v>
+        <v>785465</v>
       </c>
       <c r="D315" t="str">
         <v>Stage_1</v>
@@ -6702,18 +6702,18 @@
         <v>0</v>
       </c>
       <c r="F315" t="str">
-        <v>6a6748aa0319948886214cb8c63c8cec143ea660d596ef8d6d978fdd3511b82a</v>
+        <v>36cc8950d881f726e02b7e855085ff44ade33666176018a788d9faec4f87090f</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B316" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C316">
-        <v>798179</v>
+        <v>815412</v>
       </c>
       <c r="D316" t="str">
         <v>Stage_1</v>
@@ -6722,18 +6722,18 @@
         <v>0</v>
       </c>
       <c r="F316" t="str">
-        <v>c7d74889421f50783e19f16bfee0461d528a543471b9b45ae4aa772b774876c0</v>
+        <v>6a6748aa0319948886214cb8c63c8cec143ea660d596ef8d6d978fdd3511b82a</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B317" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C317">
-        <v>781740</v>
+        <v>798179</v>
       </c>
       <c r="D317" t="str">
         <v>Stage_1</v>
@@ -6742,18 +6742,18 @@
         <v>0</v>
       </c>
       <c r="F317" t="str">
-        <v>2055d9937e4e0b0a8811536085a0478651eb0f01fc6dfec0c170ac2391a1d44b</v>
+        <v>c7d74889421f50783e19f16bfee0461d528a543471b9b45ae4aa772b774876c0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B318" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C318">
-        <v>723932</v>
+        <v>781740</v>
       </c>
       <c r="D318" t="str">
         <v>Stage_1</v>
@@ -6762,18 +6762,18 @@
         <v>0</v>
       </c>
       <c r="F318" t="str">
-        <v>54fb809610bab1d842ba2f6c9092c659035994f46801d54970375ee2ea3c5dac</v>
+        <v>2055d9937e4e0b0a8811536085a0478651eb0f01fc6dfec0c170ac2391a1d44b</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B319" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C319">
-        <v>817588</v>
+        <v>723932</v>
       </c>
       <c r="D319" t="str">
         <v>Stage_1</v>
@@ -6782,18 +6782,18 @@
         <v>0</v>
       </c>
       <c r="F319" t="str">
-        <v>b19a3f8eb2a00ec2e2fafcdb4ae347a5e27c5d935a48a989071d64f8daa7c711</v>
+        <v>54fb809610bab1d842ba2f6c9092c659035994f46801d54970375ee2ea3c5dac</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B320" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C320">
-        <v>835275</v>
+        <v>817588</v>
       </c>
       <c r="D320" t="str">
         <v>Stage_1</v>
@@ -6802,18 +6802,18 @@
         <v>0</v>
       </c>
       <c r="F320" t="str">
-        <v>976aa2fcf5e09deb4a3ab659fb8a8e9afc3c27bbb832920dde15ea1cb2d990db</v>
+        <v>b19a3f8eb2a00ec2e2fafcdb4ae347a5e27c5d935a48a989071d64f8daa7c711</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B321" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C321">
-        <v>810774</v>
+        <v>835275</v>
       </c>
       <c r="D321" t="str">
         <v>Stage_1</v>
@@ -6822,18 +6822,18 @@
         <v>0</v>
       </c>
       <c r="F321" t="str">
-        <v>8a135d2928943c0ee8f93db24bb041ac0925554dfa5e69c1d8ed784c1517bab2</v>
+        <v>976aa2fcf5e09deb4a3ab659fb8a8e9afc3c27bbb832920dde15ea1cb2d990db</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B322" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C322">
-        <v>782587</v>
+        <v>810774</v>
       </c>
       <c r="D322" t="str">
         <v>Stage_1</v>
@@ -6842,18 +6842,18 @@
         <v>0</v>
       </c>
       <c r="F322" t="str">
-        <v>c8b75ce568e328d85fb21c02c1ab9c4309d261e1771ad612854e065b528e80b6</v>
+        <v>8a135d2928943c0ee8f93db24bb041ac0925554dfa5e69c1d8ed784c1517bab2</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B323" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C323">
-        <v>832318</v>
+        <v>782587</v>
       </c>
       <c r="D323" t="str">
         <v>Stage_1</v>
@@ -6862,18 +6862,18 @@
         <v>0</v>
       </c>
       <c r="F323" t="str">
-        <v>551c9d38c10aaa35dc668fa95d4ab634ea90021e999ec43e3b3692a33f37308c</v>
+        <v>c8b75ce568e328d85fb21c02c1ab9c4309d261e1771ad612854e065b528e80b6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B324" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C324">
-        <v>825127</v>
+        <v>832318</v>
       </c>
       <c r="D324" t="str">
         <v>Stage_1</v>
@@ -6882,18 +6882,18 @@
         <v>0</v>
       </c>
       <c r="F324" t="str">
-        <v>8589c6aa5e2a1402cd077069b6a7c5b7963e4990bf24ef1ae425fa5b6fe77851</v>
+        <v>551c9d38c10aaa35dc668fa95d4ab634ea90021e999ec43e3b3692a33f37308c</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B325" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C325">
-        <v>765539</v>
+        <v>825127</v>
       </c>
       <c r="D325" t="str">
         <v>Stage_1</v>
@@ -6902,18 +6902,18 @@
         <v>0</v>
       </c>
       <c r="F325" t="str">
-        <v>7ceaafb884feff69f0cad1625495c0b9623b4abcdb13918dee5ec9782b9e7c6f</v>
+        <v>8589c6aa5e2a1402cd077069b6a7c5b7963e4990bf24ef1ae425fa5b6fe77851</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B326" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C326">
-        <v>759394</v>
+        <v>765539</v>
       </c>
       <c r="D326" t="str">
         <v>Stage_1</v>
@@ -6922,18 +6922,18 @@
         <v>0</v>
       </c>
       <c r="F326" t="str">
-        <v>8e6f4b217298f11e5493e50b5f41aefd8b49f8f0d3d68747e30ebde5fcb495af</v>
+        <v>7ceaafb884feff69f0cad1625495c0b9623b4abcdb13918dee5ec9782b9e7c6f</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="B327" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="C327">
-        <v>736440</v>
+        <v>759394</v>
       </c>
       <c r="D327" t="str">
         <v>Stage_1</v>
@@ -6942,18 +6942,18 @@
         <v>0</v>
       </c>
       <c r="F327" t="str">
-        <v>1ba74f46cf112a8fbabd9dbe94f3e47c6b8fae0f59caf2cbd33d263176d536eb</v>
+        <v>8e6f4b217298f11e5493e50b5f41aefd8b49f8f0d3d68747e30ebde5fcb495af</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="B328" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="C328">
-        <v>828877</v>
+        <v>736440</v>
       </c>
       <c r="D328" t="str">
         <v>Stage_1</v>
@@ -6962,18 +6962,18 @@
         <v>0</v>
       </c>
       <c r="F328" t="str">
-        <v>84f2c50e0b0f149fc2a5da0a87b10af733ba6c544daf4e3f9dd4c2c2e702fe60</v>
+        <v>1ba74f46cf112a8fbabd9dbe94f3e47c6b8fae0f59caf2cbd33d263176d536eb</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>character_largeimage_h0219.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="B329" t="str">
-        <v>character_largeimage_h0219.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="C329">
-        <v>817529</v>
+        <v>828877</v>
       </c>
       <c r="D329" t="str">
         <v>Stage_1</v>
@@ -6982,18 +6982,18 @@
         <v>0</v>
       </c>
       <c r="F329" t="str">
-        <v>87101cadb86464c4b19e924805d524f2a1700367f5a505fb1ae5f7bc289886f2</v>
+        <v>84f2c50e0b0f149fc2a5da0a87b10af733ba6c544daf4e3f9dd4c2c2e702fe60</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>character_largeimage_h0220.ab</v>
+        <v>character_largeimage_h0219.ab</v>
       </c>
       <c r="B330" t="str">
-        <v>character_largeimage_h0220.ab</v>
+        <v>character_largeimage_h0219.ab</v>
       </c>
       <c r="C330">
-        <v>689304</v>
+        <v>817529</v>
       </c>
       <c r="D330" t="str">
         <v>Stage_1</v>
@@ -7002,18 +7002,18 @@
         <v>0</v>
       </c>
       <c r="F330" t="str">
-        <v>0838c201cac6aa71480937da9424b05a4dfbe7d617bb0811c64a08f8fbc44329</v>
+        <v>87101cadb86464c4b19e924805d524f2a1700367f5a505fb1ae5f7bc289886f2</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>character_largeimage_h0221.ab</v>
+        <v>character_largeimage_h0220.ab</v>
       </c>
       <c r="B331" t="str">
-        <v>character_largeimage_h0221.ab</v>
+        <v>character_largeimage_h0220.ab</v>
       </c>
       <c r="C331">
-        <v>774852</v>
+        <v>689304</v>
       </c>
       <c r="D331" t="str">
         <v>Stage_1</v>
@@ -7022,18 +7022,18 @@
         <v>0</v>
       </c>
       <c r="F331" t="str">
-        <v>260c6ef2907458fb0b24e79b4fdc8f2daf248b54e954c202b89e87fa45a79917</v>
+        <v>0838c201cac6aa71480937da9424b05a4dfbe7d617bb0811c64a08f8fbc44329</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0221.ab</v>
       </c>
       <c r="B332" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0221.ab</v>
       </c>
       <c r="C332">
-        <v>734210</v>
+        <v>774852</v>
       </c>
       <c r="D332" t="str">
         <v>Stage_1</v>
@@ -7042,18 +7042,18 @@
         <v>0</v>
       </c>
       <c r="F332" t="str">
-        <v>8f88f1319c7298174ac3aa8a82b6986761610cbb74ef14c82c7e1ede1fc0b15d</v>
+        <v>260c6ef2907458fb0b24e79b4fdc8f2daf248b54e954c202b89e87fa45a79917</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>character_largeimage_h0226.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="B333" t="str">
-        <v>character_largeimage_h0226.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="C333">
-        <v>761235</v>
+        <v>734210</v>
       </c>
       <c r="D333" t="str">
         <v>Stage_1</v>
@@ -7062,18 +7062,18 @@
         <v>0</v>
       </c>
       <c r="F333" t="str">
-        <v>6bc4336199b83047446c82c6a230574f05b6e130a41d9f33770766aeac9436f2</v>
+        <v>8f88f1319c7298174ac3aa8a82b6986761610cbb74ef14c82c7e1ede1fc0b15d</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>character_largeimage_h0227.ab</v>
+        <v>character_largeimage_h0226.ab</v>
       </c>
       <c r="B334" t="str">
-        <v>character_largeimage_h0227.ab</v>
+        <v>character_largeimage_h0226.ab</v>
       </c>
       <c r="C334">
-        <v>786760</v>
+        <v>761235</v>
       </c>
       <c r="D334" t="str">
         <v>Stage_1</v>
@@ -7082,18 +7082,18 @@
         <v>0</v>
       </c>
       <c r="F334" t="str">
-        <v>0ec3a2ddea2c5f14762b1d53cf2a6c9b959342b7c2d7cb8c53f5de78389a1a9f</v>
+        <v>6bc4336199b83047446c82c6a230574f05b6e130a41d9f33770766aeac9436f2</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>character_largeimage_h0230.ab</v>
+        <v>character_largeimage_h0227.ab</v>
       </c>
       <c r="B335" t="str">
-        <v>character_largeimage_h0230.ab</v>
+        <v>character_largeimage_h0227.ab</v>
       </c>
       <c r="C335">
-        <v>795281</v>
+        <v>786760</v>
       </c>
       <c r="D335" t="str">
         <v>Stage_1</v>
@@ -7102,18 +7102,18 @@
         <v>0</v>
       </c>
       <c r="F335" t="str">
-        <v>29ca1d6c0d021948d89276ee888dd3f034a0a0efe30c90a4af695d44e14e409d</v>
+        <v>0ec3a2ddea2c5f14762b1d53cf2a6c9b959342b7c2d7cb8c53f5de78389a1a9f</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>character_largeimage_h0232.ab</v>
+        <v>character_largeimage_h0230.ab</v>
       </c>
       <c r="B336" t="str">
-        <v>character_largeimage_h0232.ab</v>
+        <v>character_largeimage_h0230.ab</v>
       </c>
       <c r="C336">
-        <v>2084078</v>
+        <v>795281</v>
       </c>
       <c r="D336" t="str">
         <v>Stage_1</v>
@@ -7122,18 +7122,18 @@
         <v>0</v>
       </c>
       <c r="F336" t="str">
-        <v>dfe3d19d68019845ae4ece6c9574a5495c0a7e2d7b2bd5731672a07a39334105</v>
+        <v>29ca1d6c0d021948d89276ee888dd3f034a0a0efe30c90a4af695d44e14e409d</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>character_largeimage_h0233.ab</v>
+        <v>character_largeimage_h0232.ab</v>
       </c>
       <c r="B337" t="str">
-        <v>character_largeimage_h0233.ab</v>
+        <v>character_largeimage_h0232.ab</v>
       </c>
       <c r="C337">
-        <v>3216689</v>
+        <v>2084078</v>
       </c>
       <c r="D337" t="str">
         <v>Stage_1</v>
@@ -7142,18 +7142,18 @@
         <v>0</v>
       </c>
       <c r="F337" t="str">
-        <v>aef3828cf7528b7b93a7e0d7408ad22b191692c1de64519b9f768867bc7b11a4</v>
+        <v>dfe3d19d68019845ae4ece6c9574a5495c0a7e2d7b2bd5731672a07a39334105</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>character_largeimage_h0234.ab</v>
+        <v>character_largeimage_h0233.ab</v>
       </c>
       <c r="B338" t="str">
-        <v>character_largeimage_h0234.ab</v>
+        <v>character_largeimage_h0233.ab</v>
       </c>
       <c r="C338">
-        <v>3069501</v>
+        <v>3216689</v>
       </c>
       <c r="D338" t="str">
         <v>Stage_1</v>
@@ -7162,18 +7162,18 @@
         <v>0</v>
       </c>
       <c r="F338" t="str">
-        <v>b2537f99faf6708c1597ef8c25e62f4355e6f32459e915e721ed323c337327f5</v>
+        <v>aef3828cf7528b7b93a7e0d7408ad22b191692c1de64519b9f768867bc7b11a4</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>character_largeimage_h0235.ab</v>
+        <v>character_largeimage_h0234.ab</v>
       </c>
       <c r="B339" t="str">
-        <v>character_largeimage_h0235.ab</v>
+        <v>character_largeimage_h0234.ab</v>
       </c>
       <c r="C339">
-        <v>2226899</v>
+        <v>3069501</v>
       </c>
       <c r="D339" t="str">
         <v>Stage_1</v>
@@ -7182,18 +7182,18 @@
         <v>0</v>
       </c>
       <c r="F339" t="str">
-        <v>465a56a4e220bd39de58cf59e525a9aa2450c8f08870c2d8368c8fd7339d7ac1</v>
+        <v>b2537f99faf6708c1597ef8c25e62f4355e6f32459e915e721ed323c337327f5</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>character_largeimage_h0236.ab</v>
+        <v>character_largeimage_h0235.ab</v>
       </c>
       <c r="B340" t="str">
-        <v>character_largeimage_h0236.ab</v>
+        <v>character_largeimage_h0235.ab</v>
       </c>
       <c r="C340">
-        <v>2098839</v>
+        <v>2226899</v>
       </c>
       <c r="D340" t="str">
         <v>Stage_1</v>
@@ -7202,18 +7202,18 @@
         <v>0</v>
       </c>
       <c r="F340" t="str">
-        <v>861fe308f08e7ddd65e35b46d651cf70e0bf5a6ece93c69910f51b1910bc60b5</v>
+        <v>465a56a4e220bd39de58cf59e525a9aa2450c8f08870c2d8368c8fd7339d7ac1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>character_largeimage_h0237.ab</v>
+        <v>character_largeimage_h0236.ab</v>
       </c>
       <c r="B341" t="str">
-        <v>character_largeimage_h0237.ab</v>
+        <v>character_largeimage_h0236.ab</v>
       </c>
       <c r="C341">
-        <v>2342886</v>
+        <v>2098839</v>
       </c>
       <c r="D341" t="str">
         <v>Stage_1</v>
@@ -7222,18 +7222,18 @@
         <v>0</v>
       </c>
       <c r="F341" t="str">
-        <v>8e06426b9ef92077864f5f81f17f7da0e94162e7d8d2e1b0da5e5b0492ef2638</v>
+        <v>861fe308f08e7ddd65e35b46d651cf70e0bf5a6ece93c69910f51b1910bc60b5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>character_largeimage_h0238.ab</v>
+        <v>character_largeimage_h0237.ab</v>
       </c>
       <c r="B342" t="str">
-        <v>character_largeimage_h0238.ab</v>
+        <v>character_largeimage_h0237.ab</v>
       </c>
       <c r="C342">
-        <v>848742</v>
+        <v>2342886</v>
       </c>
       <c r="D342" t="str">
         <v>Stage_1</v>
@@ -7242,18 +7242,18 @@
         <v>0</v>
       </c>
       <c r="F342" t="str">
-        <v>eebcd817999436e6de65383cf189412ca4c12f9058f159cae52fef68555ccbbe</v>
+        <v>8e06426b9ef92077864f5f81f17f7da0e94162e7d8d2e1b0da5e5b0492ef2638</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>character_largeimage_h0239.ab</v>
+        <v>character_largeimage_h0238.ab</v>
       </c>
       <c r="B343" t="str">
-        <v>character_largeimage_h0239.ab</v>
+        <v>character_largeimage_h0238.ab</v>
       </c>
       <c r="C343">
-        <v>812643</v>
+        <v>848742</v>
       </c>
       <c r="D343" t="str">
         <v>Stage_1</v>
@@ -7262,18 +7262,18 @@
         <v>0</v>
       </c>
       <c r="F343" t="str">
-        <v>a53f4a28d98d240b9ebf9ab9a21802b22ca3f01a9cbe43c7605471e8b69e8c22</v>
+        <v>eebcd817999436e6de65383cf189412ca4c12f9058f159cae52fef68555ccbbe</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>character_largeimage_h0240.ab</v>
+        <v>character_largeimage_h0239.ab</v>
       </c>
       <c r="B344" t="str">
-        <v>character_largeimage_h0240.ab</v>
+        <v>character_largeimage_h0239.ab</v>
       </c>
       <c r="C344">
-        <v>819235</v>
+        <v>812643</v>
       </c>
       <c r="D344" t="str">
         <v>Stage_1</v>
@@ -7282,18 +7282,18 @@
         <v>0</v>
       </c>
       <c r="F344" t="str">
-        <v>416f932b7f7a15646a65e059ebb8f7a18b000b78fcdbdf6f5b0f6e99feee60a4</v>
+        <v>a53f4a28d98d240b9ebf9ab9a21802b22ca3f01a9cbe43c7605471e8b69e8c22</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>character_largeimage_h0241.ab</v>
+        <v>character_largeimage_h0240.ab</v>
       </c>
       <c r="B345" t="str">
-        <v>character_largeimage_h0241.ab</v>
+        <v>character_largeimage_h0240.ab</v>
       </c>
       <c r="C345">
-        <v>824553</v>
+        <v>819235</v>
       </c>
       <c r="D345" t="str">
         <v>Stage_1</v>
@@ -7302,18 +7302,18 @@
         <v>0</v>
       </c>
       <c r="F345" t="str">
-        <v>0b513268be4ebfb7b998c19702c89e727831fcc9a6c44799632362eae33a7917</v>
+        <v>416f932b7f7a15646a65e059ebb8f7a18b000b78fcdbdf6f5b0f6e99feee60a4</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>character_largeimage_h0243.ab</v>
+        <v>character_largeimage_h0241.ab</v>
       </c>
       <c r="B346" t="str">
-        <v>character_largeimage_h0243.ab</v>
+        <v>character_largeimage_h0241.ab</v>
       </c>
       <c r="C346">
-        <v>810706</v>
+        <v>824553</v>
       </c>
       <c r="D346" t="str">
         <v>Stage_1</v>
@@ -7322,18 +7322,18 @@
         <v>0</v>
       </c>
       <c r="F346" t="str">
-        <v>cb1bfb37585c135009aab9b0583e3d251dabfdd75817f9cb75d7b54ab1d86778</v>
+        <v>0b513268be4ebfb7b998c19702c89e727831fcc9a6c44799632362eae33a7917</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>character_largeimage_h0244.ab</v>
+        <v>character_largeimage_h0243.ab</v>
       </c>
       <c r="B347" t="str">
-        <v>character_largeimage_h0244.ab</v>
+        <v>character_largeimage_h0243.ab</v>
       </c>
       <c r="C347">
-        <v>778524</v>
+        <v>810706</v>
       </c>
       <c r="D347" t="str">
         <v>Stage_1</v>
@@ -7342,18 +7342,18 @@
         <v>0</v>
       </c>
       <c r="F347" t="str">
-        <v>41a7d16ec3600f10cab4dee7f9c437082021de8e22902f3b82af1db8c5b220fb</v>
+        <v>cb1bfb37585c135009aab9b0583e3d251dabfdd75817f9cb75d7b54ab1d86778</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>character_largeimage_h0245.ab</v>
+        <v>character_largeimage_h0244.ab</v>
       </c>
       <c r="B348" t="str">
-        <v>character_largeimage_h0245.ab</v>
+        <v>character_largeimage_h0244.ab</v>
       </c>
       <c r="C348">
-        <v>795404</v>
+        <v>778524</v>
       </c>
       <c r="D348" t="str">
         <v>Stage_1</v>
@@ -7362,18 +7362,18 @@
         <v>0</v>
       </c>
       <c r="F348" t="str">
-        <v>22925c8d03dde32eb604d7ecfd799e03d9032c974272d0823790b7d6b18967ba</v>
+        <v>41a7d16ec3600f10cab4dee7f9c437082021de8e22902f3b82af1db8c5b220fb</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>character_largeimage_h0247.ab</v>
+        <v>character_largeimage_h0245.ab</v>
       </c>
       <c r="B349" t="str">
-        <v>character_largeimage_h0247.ab</v>
+        <v>character_largeimage_h0245.ab</v>
       </c>
       <c r="C349">
-        <v>837487</v>
+        <v>795404</v>
       </c>
       <c r="D349" t="str">
         <v>Stage_1</v>
@@ -7382,18 +7382,18 @@
         <v>0</v>
       </c>
       <c r="F349" t="str">
-        <v>ef401029e4a4b055b381ebbe633554d5daf4a3e23b60c62b852b185c4c663bf5</v>
+        <v>22925c8d03dde32eb604d7ecfd799e03d9032c974272d0823790b7d6b18967ba</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>character_largeimage_h0248.ab</v>
+        <v>character_largeimage_h0247.ab</v>
       </c>
       <c r="B350" t="str">
-        <v>character_largeimage_h0248.ab</v>
+        <v>character_largeimage_h0247.ab</v>
       </c>
       <c r="C350">
-        <v>836258</v>
+        <v>837487</v>
       </c>
       <c r="D350" t="str">
         <v>Stage_1</v>
@@ -7402,18 +7402,18 @@
         <v>0</v>
       </c>
       <c r="F350" t="str">
-        <v>f8dc41278c1bfbb1635e74efb4ceb293b4de54b87f0626cf7e2b6c0f4972b150</v>
+        <v>ef401029e4a4b055b381ebbe633554d5daf4a3e23b60c62b852b185c4c663bf5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>character_largeimage_h0249.ab</v>
+        <v>character_largeimage_h0248.ab</v>
       </c>
       <c r="B351" t="str">
-        <v>character_largeimage_h0249.ab</v>
+        <v>character_largeimage_h0248.ab</v>
       </c>
       <c r="C351">
-        <v>839134</v>
+        <v>836258</v>
       </c>
       <c r="D351" t="str">
         <v>Stage_1</v>
@@ -7422,18 +7422,18 @@
         <v>0</v>
       </c>
       <c r="F351" t="str">
-        <v>9b91af750de18d7afe93e1d3cba66a0bdd3c7db49a03c5ebcf3b8c44fee32fc4</v>
+        <v>f8dc41278c1bfbb1635e74efb4ceb293b4de54b87f0626cf7e2b6c0f4972b150</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>character_largeimage_h0253.ab</v>
+        <v>character_largeimage_h0249.ab</v>
       </c>
       <c r="B352" t="str">
-        <v>character_largeimage_h0253.ab</v>
+        <v>character_largeimage_h0249.ab</v>
       </c>
       <c r="C352">
-        <v>823722</v>
+        <v>839134</v>
       </c>
       <c r="D352" t="str">
         <v>Stage_1</v>
@@ -7442,18 +7442,18 @@
         <v>0</v>
       </c>
       <c r="F352" t="str">
-        <v>9c5c84a37c920c2e4b79f9013c9c5db129735e6375cc195a90117b4cf7802999</v>
+        <v>9b91af750de18d7afe93e1d3cba66a0bdd3c7db49a03c5ebcf3b8c44fee32fc4</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>character_largeimage_h0255.ab</v>
+        <v>character_largeimage_h0253.ab</v>
       </c>
       <c r="B353" t="str">
-        <v>character_largeimage_h0255.ab</v>
+        <v>character_largeimage_h0253.ab</v>
       </c>
       <c r="C353">
-        <v>800474</v>
+        <v>823722</v>
       </c>
       <c r="D353" t="str">
         <v>Stage_1</v>
@@ -7462,18 +7462,18 @@
         <v>0</v>
       </c>
       <c r="F353" t="str">
-        <v>450ab00dbd5b8f991797ab6c83f3ee7cb54290e9971ebd6d51273ff327ed5e15</v>
+        <v>9c5c84a37c920c2e4b79f9013c9c5db129735e6375cc195a90117b4cf7802999</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>character_largeimage_h0256.ab</v>
+        <v>character_largeimage_h0255.ab</v>
       </c>
       <c r="B354" t="str">
-        <v>character_largeimage_h0256.ab</v>
+        <v>character_largeimage_h0255.ab</v>
       </c>
       <c r="C354">
-        <v>805509</v>
+        <v>800474</v>
       </c>
       <c r="D354" t="str">
         <v>Stage_1</v>
@@ -7482,18 +7482,18 @@
         <v>0</v>
       </c>
       <c r="F354" t="str">
-        <v>297c419fbd877b05bfc9add448ff76132757333cae20eccc028647aea7da7255</v>
+        <v>450ab00dbd5b8f991797ab6c83f3ee7cb54290e9971ebd6d51273ff327ed5e15</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>character_largeimage_h0257.ab</v>
+        <v>character_largeimage_h0256.ab</v>
       </c>
       <c r="B355" t="str">
-        <v>character_largeimage_h0257.ab</v>
+        <v>character_largeimage_h0256.ab</v>
       </c>
       <c r="C355">
-        <v>808381</v>
+        <v>805509</v>
       </c>
       <c r="D355" t="str">
         <v>Stage_1</v>
@@ -7502,18 +7502,18 @@
         <v>0</v>
       </c>
       <c r="F355" t="str">
-        <v>d05147b2b6be03ef2ce9c9de4dec8d3ff71bd96053222a4f476707092d75fa72</v>
+        <v>297c419fbd877b05bfc9add448ff76132757333cae20eccc028647aea7da7255</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>character_largeimage_h0259.ab</v>
+        <v>character_largeimage_h0257.ab</v>
       </c>
       <c r="B356" t="str">
-        <v>character_largeimage_h0259.ab</v>
+        <v>character_largeimage_h0257.ab</v>
       </c>
       <c r="C356">
-        <v>810068</v>
+        <v>808381</v>
       </c>
       <c r="D356" t="str">
         <v>Stage_1</v>
@@ -7522,18 +7522,18 @@
         <v>0</v>
       </c>
       <c r="F356" t="str">
-        <v>172c2c74277241aa72cedda739d55d17e54f6959a7474b0780a9ed33d03daa33</v>
+        <v>d05147b2b6be03ef2ce9c9de4dec8d3ff71bd96053222a4f476707092d75fa72</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>character_largeimage_h0261.ab</v>
+        <v>character_largeimage_h0259.ab</v>
       </c>
       <c r="B357" t="str">
-        <v>character_largeimage_h0261.ab</v>
+        <v>character_largeimage_h0259.ab</v>
       </c>
       <c r="C357">
-        <v>785275</v>
+        <v>810068</v>
       </c>
       <c r="D357" t="str">
         <v>Stage_1</v>
@@ -7542,18 +7542,18 @@
         <v>0</v>
       </c>
       <c r="F357" t="str">
-        <v>03b89947a2d5dbfe670810747d52ec50f06c25e91ffe38907f479d65efb03148</v>
+        <v>172c2c74277241aa72cedda739d55d17e54f6959a7474b0780a9ed33d03daa33</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>character_largeimage_h0262.ab</v>
+        <v>character_largeimage_h0261.ab</v>
       </c>
       <c r="B358" t="str">
-        <v>character_largeimage_h0262.ab</v>
+        <v>character_largeimage_h0261.ab</v>
       </c>
       <c r="C358">
-        <v>847775</v>
+        <v>785275</v>
       </c>
       <c r="D358" t="str">
         <v>Stage_1</v>
@@ -7562,18 +7562,18 @@
         <v>0</v>
       </c>
       <c r="F358" t="str">
-        <v>42dc7a9aeedfb2f6754bbff5a20c0649221fbd710df2fb2229837dbf798d580a</v>
+        <v>03b89947a2d5dbfe670810747d52ec50f06c25e91ffe38907f479d65efb03148</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>character_largeimage_h0264.ab</v>
+        <v>character_largeimage_h0262.ab</v>
       </c>
       <c r="B359" t="str">
-        <v>character_largeimage_h0264.ab</v>
+        <v>character_largeimage_h0262.ab</v>
       </c>
       <c r="C359">
-        <v>718190</v>
+        <v>847775</v>
       </c>
       <c r="D359" t="str">
         <v>Stage_1</v>
@@ -7582,18 +7582,18 @@
         <v>0</v>
       </c>
       <c r="F359" t="str">
-        <v>ab84d41ed01d417a5c5cd0109bca96e438f4f56f3472560b99958ac4137677ca</v>
+        <v>42dc7a9aeedfb2f6754bbff5a20c0649221fbd710df2fb2229837dbf798d580a</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>character_largeimage_h0265.ab</v>
+        <v>character_largeimage_h0264.ab</v>
       </c>
       <c r="B360" t="str">
-        <v>character_largeimage_h0265.ab</v>
+        <v>character_largeimage_h0264.ab</v>
       </c>
       <c r="C360">
-        <v>795432</v>
+        <v>718190</v>
       </c>
       <c r="D360" t="str">
         <v>Stage_1</v>
@@ -7602,18 +7602,18 @@
         <v>0</v>
       </c>
       <c r="F360" t="str">
-        <v>43942d89eafcb8381ae779ac97b86df469078014bca34c2803baa9d16040a97e</v>
+        <v>ab84d41ed01d417a5c5cd0109bca96e438f4f56f3472560b99958ac4137677ca</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>character_largeimage_h0266.ab</v>
+        <v>character_largeimage_h0265.ab</v>
       </c>
       <c r="B361" t="str">
-        <v>character_largeimage_h0266.ab</v>
+        <v>character_largeimage_h0265.ab</v>
       </c>
       <c r="C361">
-        <v>808588</v>
+        <v>795432</v>
       </c>
       <c r="D361" t="str">
         <v>Stage_1</v>
@@ -7622,18 +7622,18 @@
         <v>0</v>
       </c>
       <c r="F361" t="str">
-        <v>ed1bd287702b2f736b9ad9fb7524ec06f5777b21a9511818d78a3ad00dc9d423</v>
+        <v>43942d89eafcb8381ae779ac97b86df469078014bca34c2803baa9d16040a97e</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0266.ab</v>
       </c>
       <c r="B362" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0266.ab</v>
       </c>
       <c r="C362">
-        <v>3645563</v>
+        <v>808588</v>
       </c>
       <c r="D362" t="str">
         <v>Stage_1</v>
@@ -7642,18 +7642,18 @@
         <v>0</v>
       </c>
       <c r="F362" t="str">
-        <v>6d163c0aa3de03702199280db17c4bbe2fddeea97fa709543044a1864c59ac4e</v>
+        <v>ed1bd287702b2f736b9ad9fb7524ec06f5777b21a9511818d78a3ad00dc9d423</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0271.ab</v>
       </c>
       <c r="B363" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0271.ab</v>
       </c>
       <c r="C363">
-        <v>3192016</v>
+        <v>820733</v>
       </c>
       <c r="D363" t="str">
         <v>Stage_1</v>
@@ -7662,18 +7662,18 @@
         <v>0</v>
       </c>
       <c r="F363" t="str">
-        <v>a95c21cd1ab779a63db9047ad68d79e913fce1d1229cd60959433c515fa2b15f</v>
+        <v>04260aa0eb4d75fb007447059b3aaed6316a2c062babec302361c33db8578284</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B364" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C364">
-        <v>4547639</v>
+        <v>3645563</v>
       </c>
       <c r="D364" t="str">
         <v>Stage_1</v>
@@ -7682,18 +7682,18 @@
         <v>0</v>
       </c>
       <c r="F364" t="str">
-        <v>964ea8e902241d88c58f2ac99db9982703da97b02c7609af5438b4a03a8a0efe</v>
+        <v>6d163c0aa3de03702199280db17c4bbe2fddeea97fa709543044a1864c59ac4e</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B365" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C365">
-        <v>783778</v>
+        <v>3192016</v>
       </c>
       <c r="D365" t="str">
         <v>Stage_1</v>
@@ -7702,18 +7702,18 @@
         <v>0</v>
       </c>
       <c r="F365" t="str">
-        <v>8195c3708ce8e882a3d95cb265160b057eb3bf5d286f64493dab9ff905fdaab6</v>
+        <v>a95c21cd1ab779a63db9047ad68d79e913fce1d1229cd60959433c515fa2b15f</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B366" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C366">
-        <v>835262</v>
+        <v>4547639</v>
       </c>
       <c r="D366" t="str">
         <v>Stage_1</v>
@@ -7722,18 +7722,18 @@
         <v>0</v>
       </c>
       <c r="F366" t="str">
-        <v>527e90522ce04f745056b9caedcb86a53d46219da877b5661b2d167770d26dcb</v>
+        <v>964ea8e902241d88c58f2ac99db9982703da97b02c7609af5438b4a03a8a0efe</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B367" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C367">
-        <v>5048467</v>
+        <v>783778</v>
       </c>
       <c r="D367" t="str">
         <v>Stage_1</v>
@@ -7742,18 +7742,18 @@
         <v>0</v>
       </c>
       <c r="F367" t="str">
-        <v>569f2fd821c168371bd7ba0fad110a99c067d9153288ec5b7dc7dba7fadbef87</v>
+        <v>8195c3708ce8e882a3d95cb265160b057eb3bf5d286f64493dab9ff905fdaab6</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B368" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C368">
-        <v>3324659</v>
+        <v>835262</v>
       </c>
       <c r="D368" t="str">
         <v>Stage_1</v>
@@ -7762,18 +7762,18 @@
         <v>0</v>
       </c>
       <c r="F368" t="str">
-        <v>3f68cff42a6b9b5f70e4727bbbc4ca79a4b5e3f36eabee4e6ac677e471042212</v>
+        <v>527e90522ce04f745056b9caedcb86a53d46219da877b5661b2d167770d26dcb</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B369" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C369">
-        <v>3241554</v>
+        <v>5048467</v>
       </c>
       <c r="D369" t="str">
         <v>Stage_1</v>
@@ -7782,18 +7782,18 @@
         <v>0</v>
       </c>
       <c r="F369" t="str">
-        <v>5c1ed78edf2589ba18b2fd63c792819e2092273556283005ee4e832864ad3852</v>
+        <v>569f2fd821c168371bd7ba0fad110a99c067d9153288ec5b7dc7dba7fadbef87</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B370" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C370">
-        <v>3632341</v>
+        <v>3324659</v>
       </c>
       <c r="D370" t="str">
         <v>Stage_1</v>
@@ -7802,18 +7802,18 @@
         <v>0</v>
       </c>
       <c r="F370" t="str">
-        <v>3f275335ed88fbd6088516a978efb3cd60af951a07bbdb0cd82a834ccaccbc07</v>
+        <v>3f68cff42a6b9b5f70e4727bbbc4ca79a4b5e3f36eabee4e6ac677e471042212</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B371" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C371">
-        <v>3771149</v>
+        <v>3241554</v>
       </c>
       <c r="D371" t="str">
         <v>Stage_1</v>
@@ -7822,18 +7822,18 @@
         <v>0</v>
       </c>
       <c r="F371" t="str">
-        <v>26a7366f49bb32607c93b69268e6fc0693e08fef6296452290871b2fb08fc2c7</v>
+        <v>5c1ed78edf2589ba18b2fd63c792819e2092273556283005ee4e832864ad3852</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B372" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C372">
-        <v>813283</v>
+        <v>3632341</v>
       </c>
       <c r="D372" t="str">
         <v>Stage_1</v>
@@ -7842,18 +7842,18 @@
         <v>0</v>
       </c>
       <c r="F372" t="str">
-        <v>5350ab84baed9d974062a833ee3cabfdea3208b429a787505b7863cd88d02e59</v>
+        <v>3f275335ed88fbd6088516a978efb3cd60af951a07bbdb0cd82a834ccaccbc07</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B373" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C373">
-        <v>791961</v>
+        <v>3771149</v>
       </c>
       <c r="D373" t="str">
         <v>Stage_1</v>
@@ -7862,18 +7862,18 @@
         <v>0</v>
       </c>
       <c r="F373" t="str">
-        <v>eb3fb4c4fbec62853ced6c63348bda093239167910e1975c24786721e5c36945</v>
+        <v>26a7366f49bb32607c93b69268e6fc0693e08fef6296452290871b2fb08fc2c7</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B374" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C374">
-        <v>2772613</v>
+        <v>813283</v>
       </c>
       <c r="D374" t="str">
         <v>Stage_1</v>
@@ -7882,18 +7882,18 @@
         <v>0</v>
       </c>
       <c r="F374" t="str">
-        <v>95bcb0bd9154f014e06084d19d720ac2bac3315b2829a51f748bab806188e50e</v>
+        <v>5350ab84baed9d974062a833ee3cabfdea3208b429a787505b7863cd88d02e59</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B375" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C375">
-        <v>2756611</v>
+        <v>791961</v>
       </c>
       <c r="D375" t="str">
         <v>Stage_1</v>
@@ -7902,18 +7902,18 @@
         <v>0</v>
       </c>
       <c r="F375" t="str">
-        <v>3c97d4a5953e712f3dfdd8ab30d02f527616fcb3d801dd8b86b3c0cf522a0eef</v>
+        <v>eb3fb4c4fbec62853ced6c63348bda093239167910e1975c24786721e5c36945</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B376" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C376">
-        <v>4381513</v>
+        <v>2772613</v>
       </c>
       <c r="D376" t="str">
         <v>Stage_1</v>
@@ -7922,18 +7922,18 @@
         <v>0</v>
       </c>
       <c r="F376" t="str">
-        <v>38ad3eaafbadfa98327d0d5542f2f0d88f7f31f659055e6d5d7f5d8ecadaaf25</v>
+        <v>95bcb0bd9154f014e06084d19d720ac2bac3315b2829a51f748bab806188e50e</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B377" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C377">
-        <v>2462163</v>
+        <v>2756611</v>
       </c>
       <c r="D377" t="str">
         <v>Stage_1</v>
@@ -7942,18 +7942,18 @@
         <v>0</v>
       </c>
       <c r="F377" t="str">
-        <v>d47db6ea8061d6508d44fdbc8629a568db3385a88c1f450c53188c37a306fbd1</v>
+        <v>3c97d4a5953e712f3dfdd8ab30d02f527616fcb3d801dd8b86b3c0cf522a0eef</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B378" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C378">
-        <v>5260994</v>
+        <v>4381513</v>
       </c>
       <c r="D378" t="str">
         <v>Stage_1</v>
@@ -7962,18 +7962,18 @@
         <v>0</v>
       </c>
       <c r="F378" t="str">
-        <v>60e32e2c51b82894f308157ead5044b1e8a536bc973703711b4f8eb6ab332f30</v>
+        <v>38ad3eaafbadfa98327d0d5542f2f0d88f7f31f659055e6d5d7f5d8ecadaaf25</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B379" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C379">
-        <v>2585585</v>
+        <v>2462163</v>
       </c>
       <c r="D379" t="str">
         <v>Stage_1</v>
@@ -7982,18 +7982,18 @@
         <v>0</v>
       </c>
       <c r="F379" t="str">
-        <v>c5811705c032100ad1a16583021dca2fb02a11ed596ad6f58b79f2775150edc1</v>
+        <v>d47db6ea8061d6508d44fdbc8629a568db3385a88c1f450c53188c37a306fbd1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B380" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C380">
-        <v>3294655</v>
+        <v>5260995</v>
       </c>
       <c r="D380" t="str">
         <v>Stage_1</v>
@@ -8002,18 +8002,18 @@
         <v>0</v>
       </c>
       <c r="F380" t="str">
-        <v>3ce7bff8c5c6bff24697ac51035be274c30bba43c89704245ba4d5ece12532a8</v>
+        <v>60e32e2c51b82894f308157ead5044b1e8a536bc973703711b4f8eb6ab332f30</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B381" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C381">
-        <v>2283005</v>
+        <v>2585585</v>
       </c>
       <c r="D381" t="str">
         <v>Stage_1</v>
@@ -8022,18 +8022,18 @@
         <v>0</v>
       </c>
       <c r="F381" t="str">
-        <v>f08896641300c346a1e73ed169d426147c629133d6b99fc0d0b053d6f89dea33</v>
+        <v>c5811705c032100ad1a16583021dca2fb02a11ed596ad6f58b79f2775150edc1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B382" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C382">
-        <v>2289827</v>
+        <v>3294655</v>
       </c>
       <c r="D382" t="str">
         <v>Stage_1</v>
@@ -8042,18 +8042,18 @@
         <v>0</v>
       </c>
       <c r="F382" t="str">
-        <v>aa09e9c0a10976e05321eeed5a37397f867e1377acd71dc4e3d2d5d1417daf28</v>
+        <v>3ce7bff8c5c6bff24697ac51035be274c30bba43c89704245ba4d5ece12532a8</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B383" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C383">
-        <v>2887185</v>
+        <v>2283005</v>
       </c>
       <c r="D383" t="str">
         <v>Stage_1</v>
@@ -8062,18 +8062,18 @@
         <v>0</v>
       </c>
       <c r="F383" t="str">
-        <v>84cffe40a80fe5c71df8f44503bbdce8bbffb4c01dc57012fb621fc40fd4230d</v>
+        <v>f08896641300c346a1e73ed169d426147c629133d6b99fc0d0b053d6f89dea33</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B384" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C384">
-        <v>2744938</v>
+        <v>2289827</v>
       </c>
       <c r="D384" t="str">
         <v>Stage_1</v>
@@ -8082,18 +8082,18 @@
         <v>0</v>
       </c>
       <c r="F384" t="str">
-        <v>4f854b7d0c3b92905dd2311a69ab83cea017de02730b719a6608464f27e269d4</v>
+        <v>aa09e9c0a10976e05321eeed5a37397f867e1377acd71dc4e3d2d5d1417daf28</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B385" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C385">
-        <v>4473711</v>
+        <v>2887185</v>
       </c>
       <c r="D385" t="str">
         <v>Stage_1</v>
@@ -8102,18 +8102,18 @@
         <v>0</v>
       </c>
       <c r="F385" t="str">
-        <v>8fc73aa493d889c8325fbef52adf15dac0c8ee19e212564b6ae16b08b266144f</v>
+        <v>84cffe40a80fe5c71df8f44503bbdce8bbffb4c01dc57012fb621fc40fd4230d</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B386" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C386">
-        <v>839510</v>
+        <v>2744938</v>
       </c>
       <c r="D386" t="str">
         <v>Stage_1</v>
@@ -8122,18 +8122,18 @@
         <v>0</v>
       </c>
       <c r="F386" t="str">
-        <v>3339401d70ded15a0020af038f486a0d2a6e2bf7e4ca29d2fc52483eba92f982</v>
+        <v>4f854b7d0c3b92905dd2311a69ab83cea017de02730b719a6608464f27e269d4</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="B387" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C387">
-        <v>788109</v>
+        <v>4473711</v>
       </c>
       <c r="D387" t="str">
         <v>Stage_1</v>
@@ -8142,18 +8142,18 @@
         <v>0</v>
       </c>
       <c r="F387" t="str">
-        <v>884a61acb6fc59583fb23f817ab1ee2aad0b3edba982eb01c5e3d4409e1db73f</v>
+        <v>8fc73aa493d889c8325fbef52adf15dac0c8ee19e212564b6ae16b08b266144f</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="B388" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C388">
-        <v>843123</v>
+        <v>839510</v>
       </c>
       <c r="D388" t="str">
         <v>Stage_1</v>
@@ -8162,18 +8162,18 @@
         <v>0</v>
       </c>
       <c r="F388" t="str">
-        <v>e442a6b286187dcc18ca56751536e1758d5953d5b913e759d2ed412148611a38</v>
+        <v>3339401d70ded15a0020af038f486a0d2a6e2bf7e4ca29d2fc52483eba92f982</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>character_largeimage_t0214.ab</v>
+        <v>character_largeimage_t0207.ab</v>
       </c>
       <c r="B389" t="str">
-        <v>character_largeimage_t0214.ab</v>
+        <v>character_largeimage_t0207.ab</v>
       </c>
       <c r="C389">
-        <v>828387</v>
+        <v>788109</v>
       </c>
       <c r="D389" t="str">
         <v>Stage_1</v>
@@ -8182,18 +8182,18 @@
         <v>0</v>
       </c>
       <c r="F389" t="str">
-        <v>342fd529c964664d600e232cd94bd8b1675ded9c1b64945ef103993a6b5b300c</v>
+        <v>884a61acb6fc59583fb23f817ab1ee2aad0b3edba982eb01c5e3d4409e1db73f</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>character_largeimage_t0218.ab</v>
+        <v>character_largeimage_t0212.ab</v>
       </c>
       <c r="B390" t="str">
-        <v>character_largeimage_t0218.ab</v>
+        <v>character_largeimage_t0212.ab</v>
       </c>
       <c r="C390">
-        <v>811612</v>
+        <v>843123</v>
       </c>
       <c r="D390" t="str">
         <v>Stage_1</v>
@@ -8202,18 +8202,18 @@
         <v>0</v>
       </c>
       <c r="F390" t="str">
-        <v>bda0c6f7dc7407f7c344f85b171a48370f75519c50e728784f647c83169bd94c</v>
+        <v>e442a6b286187dcc18ca56751536e1758d5953d5b913e759d2ed412148611a38</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>character_largeimage_t0222.ab</v>
+        <v>character_largeimage_t0214.ab</v>
       </c>
       <c r="B391" t="str">
-        <v>character_largeimage_t0222.ab</v>
+        <v>character_largeimage_t0214.ab</v>
       </c>
       <c r="C391">
-        <v>774259</v>
+        <v>828387</v>
       </c>
       <c r="D391" t="str">
         <v>Stage_1</v>
@@ -8222,18 +8222,18 @@
         <v>0</v>
       </c>
       <c r="F391" t="str">
-        <v>8ab646da7e9d3f088d7b6a87436ba651ca2f50198534bb4838143a45e096932e</v>
+        <v>342fd529c964664d600e232cd94bd8b1675ded9c1b64945ef103993a6b5b300c</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>character_largeimage_t0223.ab</v>
+        <v>character_largeimage_t0218.ab</v>
       </c>
       <c r="B392" t="str">
-        <v>character_largeimage_t0223.ab</v>
+        <v>character_largeimage_t0218.ab</v>
       </c>
       <c r="C392">
-        <v>844248</v>
+        <v>811612</v>
       </c>
       <c r="D392" t="str">
         <v>Stage_1</v>
@@ -8242,18 +8242,18 @@
         <v>0</v>
       </c>
       <c r="F392" t="str">
-        <v>18c1161759d4a71ed98ffc241b6626b1e001387f1a6c5ce54150f250abf64248</v>
+        <v>bda0c6f7dc7407f7c344f85b171a48370f75519c50e728784f647c83169bd94c</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>character_largeimage_t0225.ab</v>
+        <v>character_largeimage_t0222.ab</v>
       </c>
       <c r="B393" t="str">
-        <v>character_largeimage_t0225.ab</v>
+        <v>character_largeimage_t0222.ab</v>
       </c>
       <c r="C393">
-        <v>815023</v>
+        <v>774259</v>
       </c>
       <c r="D393" t="str">
         <v>Stage_1</v>
@@ -8262,18 +8262,18 @@
         <v>0</v>
       </c>
       <c r="F393" t="str">
-        <v>f2a096a766a2689633f4d106cf0a6a439a759aea742a118791bd76a6648f267d</v>
+        <v>8ab646da7e9d3f088d7b6a87436ba651ca2f50198534bb4838143a45e096932e</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>character_largeimage_t0228.ab</v>
+        <v>character_largeimage_t0223.ab</v>
       </c>
       <c r="B394" t="str">
-        <v>character_largeimage_t0228.ab</v>
+        <v>character_largeimage_t0223.ab</v>
       </c>
       <c r="C394">
-        <v>829894</v>
+        <v>844248</v>
       </c>
       <c r="D394" t="str">
         <v>Stage_1</v>
@@ -8282,18 +8282,18 @@
         <v>0</v>
       </c>
       <c r="F394" t="str">
-        <v>94f3e6cc4c0a6a79f10a543d83f614303bc3a05333d39f4403ef896f4dcf07f5</v>
+        <v>18c1161759d4a71ed98ffc241b6626b1e001387f1a6c5ce54150f250abf64248</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>character_largeimage_t0229.ab</v>
+        <v>character_largeimage_t0225.ab</v>
       </c>
       <c r="B395" t="str">
-        <v>character_largeimage_t0229.ab</v>
+        <v>character_largeimage_t0225.ab</v>
       </c>
       <c r="C395">
-        <v>1662213</v>
+        <v>815023</v>
       </c>
       <c r="D395" t="str">
         <v>Stage_1</v>
@@ -8302,18 +8302,18 @@
         <v>0</v>
       </c>
       <c r="F395" t="str">
-        <v>69e6216c55eeaaab8fd283f59f25c316734a73644b13941d4d1fe1e1c31f8c1f</v>
+        <v>f2a096a766a2689633f4d106cf0a6a439a759aea742a118791bd76a6648f267d</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>character_largeimage_t0231.ab</v>
+        <v>character_largeimage_t0228.ab</v>
       </c>
       <c r="B396" t="str">
-        <v>character_largeimage_t0231.ab</v>
+        <v>character_largeimage_t0228.ab</v>
       </c>
       <c r="C396">
-        <v>823425</v>
+        <v>829894</v>
       </c>
       <c r="D396" t="str">
         <v>Stage_1</v>
@@ -8322,18 +8322,18 @@
         <v>0</v>
       </c>
       <c r="F396" t="str">
-        <v>3cb4f02d9303d1a2b5fc53ad0acd0aa27db034c6c97e9bef02dacf3febc0eee6</v>
+        <v>94f3e6cc4c0a6a79f10a543d83f614303bc3a05333d39f4403ef896f4dcf07f5</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>character_largeimage_t0242.ab</v>
+        <v>character_largeimage_t0229.ab</v>
       </c>
       <c r="B397" t="str">
-        <v>character_largeimage_t0242.ab</v>
+        <v>character_largeimage_t0229.ab</v>
       </c>
       <c r="C397">
-        <v>777670</v>
+        <v>1662213</v>
       </c>
       <c r="D397" t="str">
         <v>Stage_1</v>
@@ -8342,18 +8342,18 @@
         <v>0</v>
       </c>
       <c r="F397" t="str">
-        <v>7c281124753083a4db690ee47b450f4f89e3d56fc805d995ace8e49efa5bc50f</v>
+        <v>69e6216c55eeaaab8fd283f59f25c316734a73644b13941d4d1fe1e1c31f8c1f</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>character_largeimage_t0246.ab</v>
+        <v>character_largeimage_t0231.ab</v>
       </c>
       <c r="B398" t="str">
-        <v>character_largeimage_t0246.ab</v>
+        <v>character_largeimage_t0231.ab</v>
       </c>
       <c r="C398">
-        <v>819675</v>
+        <v>823425</v>
       </c>
       <c r="D398" t="str">
         <v>Stage_1</v>
@@ -8362,18 +8362,18 @@
         <v>0</v>
       </c>
       <c r="F398" t="str">
-        <v>c9ff420c4cd5404f687592c9851a9c3c9b90d6aba4ec3215e4213794c4ec8651</v>
+        <v>3cb4f02d9303d1a2b5fc53ad0acd0aa27db034c6c97e9bef02dacf3febc0eee6</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>character_largeimage_t0250.ab</v>
+        <v>character_largeimage_t0242.ab</v>
       </c>
       <c r="B399" t="str">
-        <v>character_largeimage_t0250.ab</v>
+        <v>character_largeimage_t0242.ab</v>
       </c>
       <c r="C399">
-        <v>835064</v>
+        <v>777670</v>
       </c>
       <c r="D399" t="str">
         <v>Stage_1</v>
@@ -8382,18 +8382,18 @@
         <v>0</v>
       </c>
       <c r="F399" t="str">
-        <v>cabd53f65c1283e0ac5773bc89f0d3baf8df60f587a2629bb61ff5df5f38e998</v>
+        <v>7c281124753083a4db690ee47b450f4f89e3d56fc805d995ace8e49efa5bc50f</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>character_largeimage_t0251.ab</v>
+        <v>character_largeimage_t0246.ab</v>
       </c>
       <c r="B400" t="str">
-        <v>character_largeimage_t0251.ab</v>
+        <v>character_largeimage_t0246.ab</v>
       </c>
       <c r="C400">
-        <v>817439</v>
+        <v>819675</v>
       </c>
       <c r="D400" t="str">
         <v>Stage_1</v>
@@ -8402,18 +8402,18 @@
         <v>0</v>
       </c>
       <c r="F400" t="str">
-        <v>35de9505e776e1b88eff26e7adc6f554d89c0d74424c46ac4d6b966cac281dae</v>
+        <v>c9ff420c4cd5404f687592c9851a9c3c9b90d6aba4ec3215e4213794c4ec8651</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>character_largeimage_t0252.ab</v>
+        <v>character_largeimage_t0250.ab</v>
       </c>
       <c r="B401" t="str">
-        <v>character_largeimage_t0252.ab</v>
+        <v>character_largeimage_t0250.ab</v>
       </c>
       <c r="C401">
-        <v>3182222</v>
+        <v>835064</v>
       </c>
       <c r="D401" t="str">
         <v>Stage_1</v>
@@ -8422,18 +8422,18 @@
         <v>0</v>
       </c>
       <c r="F401" t="str">
-        <v>041e2f53d9fa84b5baeb43cbf5b681fe1c1a09fc422e5db7e8abc8f70bc26348</v>
+        <v>cabd53f65c1283e0ac5773bc89f0d3baf8df60f587a2629bb61ff5df5f38e998</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>character_largeimage_t0254.ab</v>
+        <v>character_largeimage_t0251.ab</v>
       </c>
       <c r="B402" t="str">
-        <v>character_largeimage_t0254.ab</v>
+        <v>character_largeimage_t0251.ab</v>
       </c>
       <c r="C402">
-        <v>821577</v>
+        <v>817439</v>
       </c>
       <c r="D402" t="str">
         <v>Stage_1</v>
@@ -8442,18 +8442,18 @@
         <v>0</v>
       </c>
       <c r="F402" t="str">
-        <v>0ec094e49c6f0bef8aeec78857eeaae95127b56d79ef9f59be4ec966f8258c66</v>
+        <v>35de9505e776e1b88eff26e7adc6f554d89c0d74424c46ac4d6b966cac281dae</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>character_largeimage_t0258.ab</v>
+        <v>character_largeimage_t0252.ab</v>
       </c>
       <c r="B403" t="str">
-        <v>character_largeimage_t0258.ab</v>
+        <v>character_largeimage_t0252.ab</v>
       </c>
       <c r="C403">
-        <v>799096</v>
+        <v>3182222</v>
       </c>
       <c r="D403" t="str">
         <v>Stage_1</v>
@@ -8462,18 +8462,18 @@
         <v>0</v>
       </c>
       <c r="F403" t="str">
-        <v>18672ae7cdd8fbc33c3c3fb113d9cc3cb1797d9336d487d7d2cc71564bb4a621</v>
+        <v>041e2f53d9fa84b5baeb43cbf5b681fe1c1a09fc422e5db7e8abc8f70bc26348</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>character_largeimage_t0263.ab</v>
+        <v>character_largeimage_t0254.ab</v>
       </c>
       <c r="B404" t="str">
-        <v>character_largeimage_t0263.ab</v>
+        <v>character_largeimage_t0254.ab</v>
       </c>
       <c r="C404">
-        <v>819892</v>
+        <v>821577</v>
       </c>
       <c r="D404" t="str">
         <v>Stage_1</v>
@@ -8482,18 +8482,18 @@
         <v>0</v>
       </c>
       <c r="F404" t="str">
-        <v>e8bb91ba644af38d3523e9355cc207668ab626f2304399ef855def2eeb181356</v>
+        <v>0ec094e49c6f0bef8aeec78857eeaae95127b56d79ef9f59be4ec966f8258c66</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0258.ab</v>
       </c>
       <c r="B405" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0258.ab</v>
       </c>
       <c r="C405">
-        <v>173461</v>
+        <v>799096</v>
       </c>
       <c r="D405" t="str">
         <v>Stage_1</v>
@@ -8502,33 +8502,73 @@
         <v>0</v>
       </c>
       <c r="F405" t="str">
-        <v>9c40f907ab459375c76b4a51919f83aa971bac3c394a4d64e8e549d7879abebf</v>
+        <v>18672ae7cdd8fbc33c3c3fb113d9cc3cb1797d9336d487d7d2cc71564bb4a621</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
+        <v>character_largeimage_t0263.ab</v>
+      </c>
+      <c r="B406" t="str">
+        <v>character_largeimage_t0263.ab</v>
+      </c>
+      <c r="C406">
+        <v>819892</v>
+      </c>
+      <c r="D406" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406" t="str">
+        <v>e8bb91ba644af38d3523e9355cc207668ab626f2304399ef855def2eeb181356</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>character_largeimage_uncategorized_0.ab</v>
+      </c>
+      <c r="B407" t="str">
+        <v>character_largeimage_uncategorized_0.ab</v>
+      </c>
+      <c r="C407">
+        <v>173461</v>
+      </c>
+      <c r="D407" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407" t="str">
+        <v>9c40f907ab459375c76b4a51919f83aa971bac3c394a4d64e8e549d7879abebf</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
         <v>character_largeimage_uncategorized_3.ab</v>
       </c>
-      <c r="B406" t="str">
+      <c r="B408" t="str">
         <v>character_largeimage_uncategorized_3.ab</v>
       </c>
-      <c r="C406">
+      <c r="C408">
         <v>214292</v>
       </c>
-      <c r="D406" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E406">
-        <v>0</v>
-      </c>
-      <c r="F406" t="str">
+      <c r="D408" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408" t="str">
         <v>baa10ce33b3b4d5a88452011578fd5a338303e27f2f7e58822f6cbbf2f359f10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F406"/>
+  <autoFilter ref="A1:F408"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F406"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F408"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -453,7 +453,7 @@
         <v>audioclip_sfx_10_jp.ab</v>
       </c>
       <c r="C3">
-        <v>61210</v>
+        <v>61211</v>
       </c>
       <c r="D3" t="str">
         <v>Stage_1</v>
@@ -1193,7 +1193,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123384</v>
+        <v>123386</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1453,7 +1453,7 @@
         <v>audioclip_sfx_b0015_jp.ab</v>
       </c>
       <c r="C53">
-        <v>116861</v>
+        <v>116862</v>
       </c>
       <c r="D53" t="str">
         <v>Stage_1</v>
@@ -1473,7 +1473,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875307</v>
+        <v>875308</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1493,7 +1493,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>2011714</v>
+        <v>2011712</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1573,7 +1573,7 @@
         <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C59">
-        <v>662049</v>
+        <v>662050</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1593,7 +1593,7 @@
         <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="C60">
-        <v>3100225</v>
+        <v>3100224</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1633,7 +1633,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C62">
-        <v>250849</v>
+        <v>250850</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1753,7 +1753,7 @@
         <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C68">
-        <v>872451</v>
+        <v>872452</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1773,7 +1773,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>1013613</v>
+        <v>1013618</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1793,7 +1793,7 @@
         <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C70">
-        <v>678623</v>
+        <v>678622</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1833,7 +1833,7 @@
         <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C72">
-        <v>453783</v>
+        <v>453782</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1853,7 +1853,7 @@
         <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C73">
-        <v>1074573</v>
+        <v>1074575</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1873,7 +1873,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C74">
-        <v>740115</v>
+        <v>740117</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1893,7 +1893,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>940885</v>
+        <v>940881</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1913,7 +1913,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C76">
-        <v>446593</v>
+        <v>446592</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1993,7 +1993,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1196248</v>
+        <v>1196249</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -2073,7 +2073,7 @@
         <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C84">
-        <v>938019</v>
+        <v>938020</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2093,7 +2093,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1291354</v>
+        <v>1291353</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2133,7 +2133,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C87">
-        <v>1039749</v>
+        <v>1039750</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2153,7 +2153,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C88">
-        <v>785948</v>
+        <v>785947</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2253,7 +2253,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>955387</v>
+        <v>955386</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2313,7 +2313,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C96">
-        <v>538569</v>
+        <v>538568</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2333,7 +2333,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>8510834</v>
+        <v>8510836</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2353,7 +2353,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1635039</v>
+        <v>1635041</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2373,7 +2373,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C99">
-        <v>276296</v>
+        <v>276294</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2433,7 +2433,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1334022</v>
+        <v>1334023</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2453,7 +2453,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1204319</v>
+        <v>1204318</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2513,7 +2513,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2046305</v>
+        <v>2046304</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2533,7 +2533,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1236788</v>
+        <v>1236791</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2553,7 +2553,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C108">
-        <v>2757247</v>
+        <v>2757250</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2573,7 +2573,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1924706</v>
+        <v>1924708</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2593,7 +2593,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1987359</v>
+        <v>1987360</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2633,7 +2633,7 @@
         <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1681370</v>
+        <v>1681371</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2653,7 +2653,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1893112</v>
+        <v>1893111</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2693,7 +2693,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1305067</v>
+        <v>1305068</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2713,7 +2713,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C116">
-        <v>966707</v>
+        <v>966709</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022204</v>
+        <v>1022206</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2853,7 +2853,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1738272</v>
+        <v>1738274</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2873,7 +2873,7 @@
         <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C124">
-        <v>1379889</v>
+        <v>1379888</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2953,7 +2953,7 @@
         <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1465823</v>
+        <v>1465822</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2973,7 +2973,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1837987</v>
+        <v>1837986</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -3013,7 +3013,7 @@
         <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C131">
-        <v>1563967</v>
+        <v>1563972</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3033,7 +3033,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C132">
-        <v>1892918</v>
+        <v>1892917</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3053,7 +3053,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C133">
-        <v>2643056</v>
+        <v>2643057</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774135</v>
+        <v>774137</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3493,7 +3493,7 @@
         <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1031309</v>
+        <v>1031308</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3553,7 +3553,7 @@
         <v>audioclip_sfx_h0230_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1022960</v>
+        <v>1022961</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3573,7 +3573,7 @@
         <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1390238</v>
+        <v>1390239</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3593,7 +3593,7 @@
         <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1911213</v>
+        <v>1911214</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3653,7 +3653,7 @@
         <v>audioclip_sfx_h0236_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2245978</v>
+        <v>2245979</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3673,7 +3673,7 @@
         <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2431133</v>
+        <v>2431130</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3713,7 +3713,7 @@
         <v>audioclip_sfx_h0239_jp.ab</v>
       </c>
       <c r="C166">
-        <v>5844653</v>
+        <v>5844651</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3793,7 +3793,7 @@
         <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1110561</v>
+        <v>1110559</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3873,7 +3873,7 @@
         <v>audioclip_sfx_h0249_jp.ab</v>
       </c>
       <c r="C174">
-        <v>899109</v>
+        <v>899107</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -4093,7 +4093,7 @@
         <v>audioclip_sfx_h0271_jp.ab</v>
       </c>
       <c r="C185">
-        <v>1584334</v>
+        <v>1584336</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4173,7 +4173,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C189">
-        <v>1390722</v>
+        <v>1390720</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4193,7 +4193,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C190">
-        <v>4141826</v>
+        <v>4141830</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4233,7 +4233,7 @@
         <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C192">
-        <v>1066358</v>
+        <v>1066359</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4253,7 +4253,7 @@
         <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C193">
-        <v>883189</v>
+        <v>883190</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4273,7 +4273,7 @@
         <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C194">
-        <v>903968</v>
+        <v>903966</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4313,7 +4313,7 @@
         <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C196">
-        <v>995098</v>
+        <v>995096</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4333,7 +4333,7 @@
         <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C197">
-        <v>1222456</v>
+        <v>1222454</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4393,7 +4393,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C200">
-        <v>1950970</v>
+        <v>1950972</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4453,7 +4453,7 @@
         <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C203">
-        <v>2340710</v>
+        <v>2340709</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4473,7 +4473,7 @@
         <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C204">
-        <v>1950991</v>
+        <v>1950992</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4493,7 +4493,7 @@
         <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C205">
-        <v>2527578</v>
+        <v>2527577</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4553,7 +4553,7 @@
         <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C208">
-        <v>1736025</v>
+        <v>1736021</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4593,7 +4593,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C210">
-        <v>1973757</v>
+        <v>1973758</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4633,7 +4633,7 @@
         <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C212">
-        <v>1290320</v>
+        <v>1290319</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4793,7 +4793,7 @@
         <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="C220">
-        <v>1009843</v>
+        <v>1009845</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4813,7 +4813,7 @@
         <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="C221">
-        <v>1117663</v>
+        <v>1117664</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4853,7 +4853,7 @@
         <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C223">
-        <v>955690</v>
+        <v>955689</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4933,7 +4933,7 @@
         <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="C227">
-        <v>2885317</v>
+        <v>2885316</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -5013,7 +5013,7 @@
         <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C231">
-        <v>316226</v>
+        <v>316225</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5113,7 +5113,7 @@
         <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C236">
-        <v>270581</v>
+        <v>270580</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5313,7 +5313,7 @@
         <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C246">
-        <v>3975188</v>
+        <v>3975187</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5653,7 +5653,7 @@
         <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C263">
-        <v>3281918</v>
+        <v>3281917</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5693,7 +5693,7 @@
         <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C265">
-        <v>3878944</v>
+        <v>3878946</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$410</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F408"/>
+  <dimension ref="A1:F410"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +453,7 @@
         <v>audioclip_sfx_10_jp.ab</v>
       </c>
       <c r="C3">
-        <v>61211</v>
+        <v>61210</v>
       </c>
       <c r="D3" t="str">
         <v>Stage_1</v>
@@ -1193,7 +1193,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123386</v>
+        <v>123387</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1493,7 +1493,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>2011712</v>
+        <v>2011713</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1513,7 +1513,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272282</v>
+        <v>1272281</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1633,7 +1633,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C62">
-        <v>250850</v>
+        <v>250849</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1753,7 +1753,7 @@
         <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C68">
-        <v>872452</v>
+        <v>872451</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1773,7 +1773,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>1013618</v>
+        <v>1013616</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1793,7 +1793,7 @@
         <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C70">
-        <v>678622</v>
+        <v>678623</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1833,7 +1833,7 @@
         <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C72">
-        <v>453782</v>
+        <v>453783</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1873,7 +1873,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C74">
-        <v>740117</v>
+        <v>740116</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1893,7 +1893,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>940881</v>
+        <v>940885</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1933,7 +1933,7 @@
         <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C77">
-        <v>698679</v>
+        <v>698680</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1993,7 +1993,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1196249</v>
+        <v>1196247</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -2013,7 +2013,7 @@
         <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C81">
-        <v>985555</v>
+        <v>985554</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2033,7 +2033,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1374152</v>
+        <v>1374151</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2073,7 +2073,7 @@
         <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C84">
-        <v>938020</v>
+        <v>938018</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2093,7 +2093,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1291353</v>
+        <v>1291354</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2113,7 +2113,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>1189228</v>
+        <v>1189225</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2133,7 +2133,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C87">
-        <v>1039750</v>
+        <v>1039749</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2153,7 +2153,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C88">
-        <v>785947</v>
+        <v>785946</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2253,7 +2253,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>955386</v>
+        <v>955385</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2273,7 +2273,7 @@
         <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C94">
-        <v>2421243</v>
+        <v>2421241</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2313,7 +2313,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C96">
-        <v>538568</v>
+        <v>538569</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2333,7 +2333,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>8510836</v>
+        <v>8510835</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2353,7 +2353,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1635041</v>
+        <v>1635039</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2373,7 +2373,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C99">
-        <v>276294</v>
+        <v>276295</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2473,7 +2473,7 @@
         <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C104">
-        <v>2285419</v>
+        <v>2285418</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2493,7 +2493,7 @@
         <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1316078</v>
+        <v>1316079</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2513,7 +2513,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2046304</v>
+        <v>2046305</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2533,7 +2533,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1236791</v>
+        <v>1236789</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2553,7 +2553,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C108">
-        <v>2757250</v>
+        <v>2757249</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2573,7 +2573,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1924708</v>
+        <v>1924709</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2593,7 +2593,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1987360</v>
+        <v>1987359</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2633,7 +2633,7 @@
         <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1681371</v>
+        <v>1681370</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2653,7 +2653,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1893111</v>
+        <v>1893112</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2673,7 +2673,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1944100</v>
+        <v>1944102</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2693,7 +2693,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1305068</v>
+        <v>1305067</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2713,7 +2713,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C116">
-        <v>966709</v>
+        <v>966708</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022206</v>
+        <v>1022204</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2773,7 +2773,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C119">
-        <v>884679</v>
+        <v>884678</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2793,7 +2793,7 @@
         <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C120">
-        <v>747236</v>
+        <v>747235</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2813,7 +2813,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C121">
-        <v>929592</v>
+        <v>929594</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2833,7 +2833,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1438191</v>
+        <v>1438187</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2853,7 +2853,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1738274</v>
+        <v>1738273</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2893,7 +2893,7 @@
         <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C125">
-        <v>1668214</v>
+        <v>1668215</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2973,7 +2973,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1837986</v>
+        <v>1837989</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2993,7 +2993,7 @@
         <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C130">
-        <v>2327470</v>
+        <v>2327471</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -3013,7 +3013,7 @@
         <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C131">
-        <v>1563972</v>
+        <v>1563968</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3053,7 +3053,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C133">
-        <v>2643057</v>
+        <v>2643058</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3113,7 +3113,7 @@
         <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1562442</v>
+        <v>1562441</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3193,7 +3193,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1081025</v>
+        <v>1081026</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3273,7 +3273,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967998</v>
+        <v>967999</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774137</v>
+        <v>774136</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3313,7 +3313,7 @@
         <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1046540</v>
+        <v>1046541</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3473,7 +3473,7 @@
         <v>audioclip_sfx_h0221_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1054459</v>
+        <v>1054460</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3513,7 +3513,7 @@
         <v>audioclip_sfx_h0226_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1134470</v>
+        <v>1134471</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3553,7 +3553,7 @@
         <v>audioclip_sfx_h0230_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1022961</v>
+        <v>1022962</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3573,7 +3573,7 @@
         <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1390239</v>
+        <v>1390238</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3653,7 +3653,7 @@
         <v>audioclip_sfx_h0236_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2245979</v>
+        <v>2245977</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3673,7 +3673,7 @@
         <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2431130</v>
+        <v>2431132</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3733,7 +3733,7 @@
         <v>audioclip_sfx_h0240_jp.ab</v>
       </c>
       <c r="C167">
-        <v>924348</v>
+        <v>924349</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3793,7 +3793,7 @@
         <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1110559</v>
+        <v>1110561</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3853,7 +3853,7 @@
         <v>audioclip_sfx_h0248_jp.ab</v>
       </c>
       <c r="C173">
-        <v>1234718</v>
+        <v>1234716</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3873,7 +3873,7 @@
         <v>audioclip_sfx_h0249_jp.ab</v>
       </c>
       <c r="C174">
-        <v>899107</v>
+        <v>899110</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3973,7 +3973,7 @@
         <v>audioclip_sfx_h0259_jp.ab</v>
       </c>
       <c r="C179">
-        <v>1446713</v>
+        <v>1446712</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -4073,7 +4073,7 @@
         <v>audioclip_sfx_h0266_jp.ab</v>
       </c>
       <c r="C184">
-        <v>1292356</v>
+        <v>1292355</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4087,13 +4087,13 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>audioclip_sfx_h0271_jp.ab</v>
+        <v>audioclip_sfx_h0270_jp.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>audioclip_sfx_h0271_jp.ab</v>
+        <v>audioclip_sfx_h0270_jp.ab</v>
       </c>
       <c r="C185">
-        <v>1584336</v>
+        <v>1391873</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4102,18 +4102,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>fe6cb7b3ffa1d73d7394443c9ba60ca8d28358c796d1588f9a064e8a8db621f6</v>
+        <v>97d24d0fb39e9c99882381fffa21f2b65603391fa5f4b4bfbc96e43926731f38</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0271_jp.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0271_jp.ab</v>
       </c>
       <c r="C186">
-        <v>274141</v>
+        <v>1584334</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4122,18 +4122,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
+        <v>fe6cb7b3ffa1d73d7394443c9ba60ca8d28358c796d1588f9a064e8a8db621f6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C187">
-        <v>220278</v>
+        <v>274141</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4142,18 +4142,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C188">
-        <v>95939</v>
+        <v>220278</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4162,18 +4162,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C189">
-        <v>1390720</v>
+        <v>95939</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4182,18 +4182,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C190">
-        <v>4141830</v>
+        <v>1390721</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4202,18 +4202,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C191">
-        <v>1438365</v>
+        <v>4141829</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4222,18 +4222,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C192">
-        <v>1066359</v>
+        <v>1438364</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4242,18 +4242,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C193">
-        <v>883190</v>
+        <v>1066357</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4262,18 +4262,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C194">
-        <v>903966</v>
+        <v>883187</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4282,18 +4282,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C195">
-        <v>1396255</v>
+        <v>903966</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4302,18 +4302,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C196">
-        <v>995096</v>
+        <v>1396254</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4322,18 +4322,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C197">
-        <v>1222454</v>
+        <v>995097</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4342,18 +4342,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C198">
-        <v>694991</v>
+        <v>1222457</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4362,18 +4362,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C199">
-        <v>3816646</v>
+        <v>694991</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4382,18 +4382,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C200">
-        <v>1950972</v>
+        <v>3816646</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4402,18 +4402,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C201">
-        <v>2974172</v>
+        <v>1950972</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4422,18 +4422,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C202">
-        <v>1992961</v>
+        <v>2974171</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4442,18 +4442,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C203">
-        <v>2340709</v>
+        <v>1992963</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4462,18 +4462,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C204">
-        <v>1950992</v>
+        <v>2340708</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4482,18 +4482,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C205">
-        <v>2527577</v>
+        <v>1950991</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4502,18 +4502,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>6f31b6b3134e7be9114828c534a1bd1df6311033e5cde7af58e453a261307349</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C206">
-        <v>2120060</v>
+        <v>2527578</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4522,18 +4522,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
+        <v>6f31b6b3134e7be9114828c534a1bd1df6311033e5cde7af58e453a261307349</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C207">
-        <v>1952767</v>
+        <v>2120060</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4542,18 +4542,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C208">
-        <v>1736021</v>
+        <v>1952767</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4562,18 +4562,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C209">
-        <v>2460155</v>
+        <v>1736024</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4582,18 +4582,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C210">
-        <v>1973758</v>
+        <v>2460156</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4602,18 +4602,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C211">
-        <v>2403911</v>
+        <v>1973758</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4622,18 +4622,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C212">
-        <v>1290319</v>
+        <v>2403911</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4642,18 +4642,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C213">
-        <v>940739</v>
+        <v>1290320</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4662,18 +4662,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C214">
-        <v>1484342</v>
+        <v>940739</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4682,18 +4682,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C215">
-        <v>1202868</v>
+        <v>1484342</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4702,18 +4702,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>audioclip_sfx_t0218_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>audioclip_sfx_t0218_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C216">
-        <v>619268</v>
+        <v>1202868</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4722,18 +4722,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>76c2f395f7dd3e6968171d854f1a945ff726837685d2a94e2a19c1fe8c217be8</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>audioclip_sfx_t0222_jp.ab</v>
+        <v>audioclip_sfx_t0218_jp.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>audioclip_sfx_t0222_jp.ab</v>
+        <v>audioclip_sfx_t0218_jp.ab</v>
       </c>
       <c r="C217">
-        <v>781280</v>
+        <v>619268</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4742,18 +4742,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>c1be58c088b69a1fd1f997ba5f0d043bb187c8feb06162a49a38b291cde93ed5</v>
+        <v>76c2f395f7dd3e6968171d854f1a945ff726837685d2a94e2a19c1fe8c217be8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>audioclip_sfx_t0223_jp.ab</v>
+        <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>audioclip_sfx_t0223_jp.ab</v>
+        <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="C218">
-        <v>988344</v>
+        <v>781279</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4762,18 +4762,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>1f449da36a5721d749c0a977bfc07acd9568c1e47886840b5d6eca12d7ba7911</v>
+        <v>c1be58c088b69a1fd1f997ba5f0d043bb187c8feb06162a49a38b291cde93ed5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>audioclip_sfx_t0225_jp.ab</v>
+        <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>audioclip_sfx_t0225_jp.ab</v>
+        <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="C219">
-        <v>867411</v>
+        <v>988344</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4782,18 +4782,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>2403978508b152e347b3f46dda625a4f30324882f2594dd64dcade93354bca03</v>
+        <v>1f449da36a5721d749c0a977bfc07acd9568c1e47886840b5d6eca12d7ba7911</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>audioclip_sfx_t0228_jp.ab</v>
+        <v>audioclip_sfx_t0225_jp.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>audioclip_sfx_t0228_jp.ab</v>
+        <v>audioclip_sfx_t0225_jp.ab</v>
       </c>
       <c r="C220">
-        <v>1009845</v>
+        <v>867411</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4802,18 +4802,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>c501f9ab00ed7a5a51aa0e3f5e6c69e2f59abe0a18f0989109e95f748974c93b</v>
+        <v>2403978508b152e347b3f46dda625a4f30324882f2594dd64dcade93354bca03</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>audioclip_sfx_t0229_jp.ab</v>
+        <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>audioclip_sfx_t0229_jp.ab</v>
+        <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="C221">
-        <v>1117664</v>
+        <v>1009845</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4822,18 +4822,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>9f7f6b1d211cc28e51714ec88ca1c3e39dd93ff9915f15d9f74be6b519c65ede</v>
+        <v>c501f9ab00ed7a5a51aa0e3f5e6c69e2f59abe0a18f0989109e95f748974c93b</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>audioclip_sfx_t0231_jp.ab</v>
+        <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>audioclip_sfx_t0231_jp.ab</v>
+        <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="C222">
-        <v>1242758</v>
+        <v>1117663</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4842,18 +4842,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>ce08981162e66466b4ee4e4da78ceb0ffc741426c58cd5e7fd42f26741c67bfb</v>
+        <v>9f7f6b1d211cc28e51714ec88ca1c3e39dd93ff9915f15d9f74be6b519c65ede</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>audioclip_sfx_t0242_jp.ab</v>
+        <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>audioclip_sfx_t0242_jp.ab</v>
+        <v>audioclip_sfx_t0231_jp.ab</v>
       </c>
       <c r="C223">
-        <v>955689</v>
+        <v>1242758</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4862,18 +4862,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>b7ace3ce40220f62e3d18d05ec7660b190503c1030c184741d45181e67939878</v>
+        <v>ce08981162e66466b4ee4e4da78ceb0ffc741426c58cd5e7fd42f26741c67bfb</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>audioclip_sfx_t0246_jp.ab</v>
+        <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>audioclip_sfx_t0246_jp.ab</v>
+        <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C224">
-        <v>890771</v>
+        <v>955689</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4882,18 +4882,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>983311ac98117dad253ea5b6a92e1c836692f5f1be8f54da5e2c61e3f0085062</v>
+        <v>b7ace3ce40220f62e3d18d05ec7660b190503c1030c184741d45181e67939878</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>audioclip_sfx_t0250_jp.ab</v>
+        <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>audioclip_sfx_t0250_jp.ab</v>
+        <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="C225">
-        <v>1509664</v>
+        <v>890769</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4902,18 +4902,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>1af58272bb08ddde51eb1ba60f0704e4df9b5465bdfeeac1ff193ce56384bdb3</v>
+        <v>983311ac98117dad253ea5b6a92e1c836692f5f1be8f54da5e2c61e3f0085062</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>audioclip_sfx_t0251_jp.ab</v>
+        <v>audioclip_sfx_t0250_jp.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>audioclip_sfx_t0251_jp.ab</v>
+        <v>audioclip_sfx_t0250_jp.ab</v>
       </c>
       <c r="C226">
-        <v>1812579</v>
+        <v>1509664</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4922,18 +4922,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>83103a7a033808c88ac06462bb696421ca4aefe89e7096d385cd786c89d83f7e</v>
+        <v>1af58272bb08ddde51eb1ba60f0704e4df9b5465bdfeeac1ff193ce56384bdb3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>audioclip_sfx_t0252_jp.ab</v>
+        <v>audioclip_sfx_t0251_jp.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>audioclip_sfx_t0252_jp.ab</v>
+        <v>audioclip_sfx_t0251_jp.ab</v>
       </c>
       <c r="C227">
-        <v>2885316</v>
+        <v>1812579</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4942,18 +4942,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>148649f548044e6098a6642c2fa9ad1b9ff8e00150a71f5809dda3927fe4701f</v>
+        <v>83103a7a033808c88ac06462bb696421ca4aefe89e7096d385cd786c89d83f7e</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>audioclip_sfx_t0254_jp.ab</v>
+        <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>audioclip_sfx_t0254_jp.ab</v>
+        <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="C228">
-        <v>1288917</v>
+        <v>2885317</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4962,18 +4962,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>d904be8b981ba87777b1f00a5a758bc50493dacb6f15c975bde4aebd7d563ca8</v>
+        <v>148649f548044e6098a6642c2fa9ad1b9ff8e00150a71f5809dda3927fe4701f</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>audioclip_sfx_t0258_jp.ab</v>
+        <v>audioclip_sfx_t0254_jp.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>audioclip_sfx_t0258_jp.ab</v>
+        <v>audioclip_sfx_t0254_jp.ab</v>
       </c>
       <c r="C229">
-        <v>1912958</v>
+        <v>1288917</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4982,18 +4982,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>b5c1c04a2837264abf5aabfdb7cd0e6b28f8d9c1552e191d433be8dedb7018db</v>
+        <v>d904be8b981ba87777b1f00a5a758bc50493dacb6f15c975bde4aebd7d563ca8</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>audioclip_sfx_t0263_jp.ab</v>
+        <v>audioclip_sfx_t0258_jp.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>audioclip_sfx_t0263_jp.ab</v>
+        <v>audioclip_sfx_t0258_jp.ab</v>
       </c>
       <c r="C230">
-        <v>1741544</v>
+        <v>1912958</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -5002,18 +5002,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>a16fb8288cca9c4e0172e756e8f7970aebe0a540486a0136a7e7471ffb57dac4</v>
+        <v>b5c1c04a2837264abf5aabfdb7cd0e6b28f8d9c1552e191d433be8dedb7018db</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0263_jp.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0263_jp.ab</v>
       </c>
       <c r="C231">
-        <v>316225</v>
+        <v>1741544</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5022,18 +5022,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
+        <v>a16fb8288cca9c4e0172e756e8f7970aebe0a540486a0136a7e7471ffb57dac4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C232">
-        <v>164051</v>
+        <v>316225</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5042,18 +5042,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C233">
-        <v>214580</v>
+        <v>164051</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5062,18 +5062,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C234">
-        <v>310407</v>
+        <v>214580</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5082,18 +5082,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C235">
-        <v>288968</v>
+        <v>310407</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5102,18 +5102,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C236">
-        <v>270580</v>
+        <v>288969</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5122,18 +5122,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C237">
-        <v>3127774</v>
+        <v>270581</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5142,18 +5142,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>78e784ceac79715e6f390d5b83f7fb527e8cb5b0404a6f1be45b313a5ba02dc1</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C238">
-        <v>3331653</v>
+        <v>3127774</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5162,18 +5162,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>dd04ef36d2763124089134dbe7458b80907450a71e52752c5290f0de6f4e7eae</v>
+        <v>78e784ceac79715e6f390d5b83f7fb527e8cb5b0404a6f1be45b313a5ba02dc1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C239">
-        <v>3412887</v>
+        <v>3331653</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5182,18 +5182,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>24f9a0b1ca8b96b3da27e0f1d94e381499f584471f56b3c2a7241ae4f6141d8c</v>
+        <v>dd04ef36d2763124089134dbe7458b80907450a71e52752c5290f0de6f4e7eae</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C240">
-        <v>4001030</v>
+        <v>3412887</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5202,18 +5202,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>1bb8cecd4d65d3465875868908bde0e58a0c63eb9afd917907feb7180b3b8914</v>
+        <v>24f9a0b1ca8b96b3da27e0f1d94e381499f584471f56b3c2a7241ae4f6141d8c</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C241">
-        <v>790826</v>
+        <v>4001030</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5222,18 +5222,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>be4310c123d2b37d7bdd180f406795da17db9276c2abcf6d33c7f2d834798ba0</v>
+        <v>1bb8cecd4d65d3465875868908bde0e58a0c63eb9afd917907feb7180b3b8914</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_b0260.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_b0260.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C242">
-        <v>809446</v>
+        <v>790826</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5242,18 +5242,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>5545e61f9af50ea439bb9425d49679c265b4b04153e748be9d8dff61b7f46113</v>
+        <v>be4310c123d2b37d7bdd180f406795da17db9276c2abcf6d33c7f2d834798ba0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0260.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0260.ab</v>
       </c>
       <c r="C243">
-        <v>3558177</v>
+        <v>809446</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5262,18 +5262,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
+        <v>5545e61f9af50ea439bb9425d49679c265b4b04153e748be9d8dff61b7f46113</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C244">
-        <v>797567</v>
+        <v>3558177</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5282,18 +5282,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
+        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C245">
-        <v>208090</v>
+        <v>797567</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5302,18 +5302,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
+        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C246">
-        <v>3975187</v>
+        <v>208090</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5322,18 +5322,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
+        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C247">
-        <v>4306043</v>
+        <v>3975188</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5342,18 +5342,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>8b2ed468e2fcba7d477e3da1fe08a3c2d69c7a5b700f1e557d14a5b1a72ba120</v>
+        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C248">
-        <v>3547758</v>
+        <v>4306043</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5362,18 +5362,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>e3fca3c426d6ee0a3cf9dd6f304f8f25d2fef2a9b1ae6de05627d3db37e3fc6a</v>
+        <v>8b2ed468e2fcba7d477e3da1fe08a3c2d69c7a5b700f1e557d14a5b1a72ba120</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C249">
-        <v>3671173</v>
+        <v>3547758</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5382,18 +5382,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>b5b543aee2a4ed561a42e5107bbea10ef79b2ad93842b832eb235533f7ca4f99</v>
+        <v>e3fca3c426d6ee0a3cf9dd6f304f8f25d2fef2a9b1ae6de05627d3db37e3fc6a</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C250">
-        <v>803840</v>
+        <v>3671173</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5402,18 +5402,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>e7a218ee7d7a55f01a0e251a424c46bcf384be8b50176d5cac868f9da0dde6d7</v>
+        <v>b5b543aee2a4ed561a42e5107bbea10ef79b2ad93842b832eb235533f7ca4f99</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C251">
-        <v>713224</v>
+        <v>803840</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5422,18 +5422,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>bbc9c213346cd9c77b113965f05ffa7d0b05ac187f68681435bf67674b00e146</v>
+        <v>e7a218ee7d7a55f01a0e251a424c46bcf384be8b50176d5cac868f9da0dde6d7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C252">
-        <v>831282</v>
+        <v>713224</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5442,18 +5442,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>c38406c3168894ab382175e94b7976eb5ea0caf4f1d7a22fe7b3860d8dc0759e</v>
+        <v>bbc9c213346cd9c77b113965f05ffa7d0b05ac187f68681435bf67674b00e146</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C253">
-        <v>4679298</v>
+        <v>831282</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5462,18 +5462,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>6f4c0ef7a8999f67fbe814d23dd3f4bdd1d22cc0f44a0f13a9953615ce2d6580</v>
+        <v>c38406c3168894ab382175e94b7976eb5ea0caf4f1d7a22fe7b3860d8dc0759e</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C254">
-        <v>823851</v>
+        <v>4679298</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5482,18 +5482,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>8ce801de023c56fbb01494c4ca701ac2a955973683af0de63eb113c470fe54c3</v>
+        <v>6f4c0ef7a8999f67fbe814d23dd3f4bdd1d22cc0f44a0f13a9953615ce2d6580</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C255">
-        <v>730593</v>
+        <v>823851</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5502,18 +5502,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>70018ef62ee1aa1a3b56fd711fb01a33ba58f72ed71b0ee34e169894cad9a529</v>
+        <v>8ce801de023c56fbb01494c4ca701ac2a955973683af0de63eb113c470fe54c3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C256">
-        <v>808031</v>
+        <v>730593</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5522,18 +5522,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>da212d22735b71006f7bbebd8d2cf847ddf21d859344229cddf9f6ccf80c5372</v>
+        <v>70018ef62ee1aa1a3b56fd711fb01a33ba58f72ed71b0ee34e169894cad9a529</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C257">
-        <v>758977</v>
+        <v>808031</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5542,18 +5542,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>8b88365c69bb5344a0f0022c3e0ae2283422666aca080b856f449d7397992782</v>
+        <v>da212d22735b71006f7bbebd8d2cf847ddf21d859344229cddf9f6ccf80c5372</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C258">
-        <v>4615070</v>
+        <v>758977</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5562,18 +5562,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>78559c267f1b3412982acc007d76441d8b75e93eb4bfcdb0e95485e9ecd87318</v>
+        <v>8b88365c69bb5344a0f0022c3e0ae2283422666aca080b856f449d7397992782</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C259">
-        <v>3928747</v>
+        <v>4615070</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5582,18 +5582,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>649021775c3d944ec66710dc2833a8df8f6e11c44878c62f3b931ff660a3c2da</v>
+        <v>78559c267f1b3412982acc007d76441d8b75e93eb4bfcdb0e95485e9ecd87318</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C260">
-        <v>4234934</v>
+        <v>3928747</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5602,18 +5602,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>95f82d1cb182f0d594eb6125d7b4f828b8e2b54c03c6a9b2a8a2688ae2b427ef</v>
+        <v>649021775c3d944ec66710dc2833a8df8f6e11c44878c62f3b931ff660a3c2da</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C261">
-        <v>4332457</v>
+        <v>4234934</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5622,18 +5622,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>4d633e8de21a01527f9364d84f44895010d4a5dec9f0ede8402c19749280609a</v>
+        <v>95f82d1cb182f0d594eb6125d7b4f828b8e2b54c03c6a9b2a8a2688ae2b427ef</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C262">
-        <v>3265010</v>
+        <v>4332457</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5642,18 +5642,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>ffdbdb5c7c3a5f8aec334500f40226b14d82ac63ff43d51fa83131e6be67c680</v>
+        <v>4d633e8de21a01527f9364d84f44895010d4a5dec9f0ede8402c19749280609a</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C263">
-        <v>3281917</v>
+        <v>3265010</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5662,18 +5662,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>055d98eaa385323f6b431d57d9158c227ec5ff8f3fa628b8fdac15595b44a475</v>
+        <v>ffdbdb5c7c3a5f8aec334500f40226b14d82ac63ff43d51fa83131e6be67c680</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C264">
-        <v>3268737</v>
+        <v>3281917</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5682,18 +5682,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>2a72b0b0d6249cd756219728440dca77f1388f67427663ba12f8ddac14f3a5c5</v>
+        <v>055d98eaa385323f6b431d57d9158c227ec5ff8f3fa628b8fdac15595b44a475</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C265">
-        <v>3878946</v>
+        <v>3268737</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5702,18 +5702,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>4d62229cbd284aa9391c2ae5728483edcdd7c3664570bc6980b143987362b95d</v>
+        <v>2a72b0b0d6249cd756219728440dca77f1388f67427663ba12f8ddac14f3a5c5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C266">
-        <v>3068963</v>
+        <v>3878946</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5722,18 +5722,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>d43431a351343bcce91b2b6839f9998d1c36be4e3f4f103a9b7bed45056690a6</v>
+        <v>4d62229cbd284aa9391c2ae5728483edcdd7c3664570bc6980b143987362b95d</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C267">
-        <v>3311210</v>
+        <v>3068963</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5742,18 +5742,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>f844caa4342233c882176f4b3d3b5df3aa38df5704837c4e17b36f772a18fe85</v>
+        <v>d43431a351343bcce91b2b6839f9998d1c36be4e3f4f103a9b7bed45056690a6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C268">
-        <v>3958978</v>
+        <v>3311210</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5762,18 +5762,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>5a7f4c68dffa0013111cececfe93648f43ea44a9d2ecc2f353cf7b7c8cb8f59c</v>
+        <v>f844caa4342233c882176f4b3d3b5df3aa38df5704837c4e17b36f772a18fe85</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C269">
-        <v>2916298</v>
+        <v>3958978</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5782,18 +5782,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>b9696daa9252dec4261611f1f256637ee51cb3b8b33d0b92cfd3bba149001c6e</v>
+        <v>5a7f4c68dffa0013111cececfe93648f43ea44a9d2ecc2f353cf7b7c8cb8f59c</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C270">
-        <v>855003</v>
+        <v>2916298</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5802,18 +5802,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>289b0ed905365cd5e8cb89fe42ac33d47e5f572cfc93a7419bb99f39ea7341d1</v>
+        <v>b9696daa9252dec4261611f1f256637ee51cb3b8b33d0b92cfd3bba149001c6e</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C271">
-        <v>834045</v>
+        <v>855003</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5822,18 +5822,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>6b42ad4bbc2598a1f1702e175d9bf9f511e485fa19f3fa86a86c22eb8cc7f23e</v>
+        <v>289b0ed905365cd5e8cb89fe42ac33d47e5f572cfc93a7419bb99f39ea7341d1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C272">
-        <v>799261</v>
+        <v>834045</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5842,18 +5842,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>5f1d547ddd7b8ce59a4e005ebe350bdc99957ad7f687d685d31014cccf81c0fc</v>
+        <v>6b42ad4bbc2598a1f1702e175d9bf9f511e485fa19f3fa86a86c22eb8cc7f23e</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C273">
-        <v>777116</v>
+        <v>799261</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5862,18 +5862,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>ec22258063c80e1c82446b8a02dd46be8a92091df93f324eb9cf423dbee75c4a</v>
+        <v>5f1d547ddd7b8ce59a4e005ebe350bdc99957ad7f687d685d31014cccf81c0fc</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C274">
-        <v>4131491</v>
+        <v>777116</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5882,18 +5882,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>2e3087d8674c5bff6c4f6a7957f7b459bfefc77083b6fa9050da6c234e5fcd06</v>
+        <v>ec22258063c80e1c82446b8a02dd46be8a92091df93f324eb9cf423dbee75c4a</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C275">
-        <v>806083</v>
+        <v>4131491</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5902,18 +5902,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>75ea8ae022a44b3b64d866c990239078893ea0883aa85a84522e0d99fff85500</v>
+        <v>2e3087d8674c5bff6c4f6a7957f7b459bfefc77083b6fa9050da6c234e5fcd06</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C276">
-        <v>4289279</v>
+        <v>806083</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5922,18 +5922,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>3f3f9d99623d7683093487b65cfd461be53bd2b8153a9419bb9880bf3086fee3</v>
+        <v>75ea8ae022a44b3b64d866c990239078893ea0883aa85a84522e0d99fff85500</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C277">
-        <v>3816882</v>
+        <v>4289279</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5942,18 +5942,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>e342bcc9d451f54427e9e676142ce9d3e42283c78c64adf074fd6754f8b711c9</v>
+        <v>3f3f9d99623d7683093487b65cfd461be53bd2b8153a9419bb9880bf3086fee3</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C278">
-        <v>5051199</v>
+        <v>3816882</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5962,18 +5962,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>a85ef6c19ca8f47ed76b9c9f22aa8d48512b3d1dc156cdb37fdebe8d80ff9e1a</v>
+        <v>e342bcc9d451f54427e9e676142ce9d3e42283c78c64adf074fd6754f8b711c9</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C279">
-        <v>4176002</v>
+        <v>5051199</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5982,18 +5982,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>206d98bef7c96e960896ee8ee4a7b90e71f4c30bd73f9833cbe46d246c450f78</v>
+        <v>a85ef6c19ca8f47ed76b9c9f22aa8d48512b3d1dc156cdb37fdebe8d80ff9e1a</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C280">
-        <v>4242518</v>
+        <v>4176002</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -6002,18 +6002,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>824b86c0e40aefc0770c167f978bc2fd4c1925a9efe1e9691c60a2eb5122c14e</v>
+        <v>206d98bef7c96e960896ee8ee4a7b90e71f4c30bd73f9833cbe46d246c450f78</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C281">
-        <v>3266671</v>
+        <v>4242518</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6022,18 +6022,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>6242bc0a6af6955ac2a0a8d31fee0a742dd006425a34614572a0ff0a6cf3ac30</v>
+        <v>824b86c0e40aefc0770c167f978bc2fd4c1925a9efe1e9691c60a2eb5122c14e</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C282">
-        <v>3395405</v>
+        <v>3266671</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6042,18 +6042,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>c07b0a8e238a880228b5a27ac66e50bd4cd42ef64dd35769fbadb7ef4f9419aa</v>
+        <v>6242bc0a6af6955ac2a0a8d31fee0a742dd006425a34614572a0ff0a6cf3ac30</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C283">
-        <v>5218305</v>
+        <v>3395405</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6062,18 +6062,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>0202ec87f638f3fd76d7a98dd5eb291a5d0c8125ded3ecb47f078dccd09f3a0b</v>
+        <v>c07b0a8e238a880228b5a27ac66e50bd4cd42ef64dd35769fbadb7ef4f9419aa</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C284">
-        <v>4004656</v>
+        <v>5218305</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6082,18 +6082,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>61e12aaabe2c59ab60d879b18a7d8b89b7ddf9a8a71498e190e883353f7167c5</v>
+        <v>0202ec87f638f3fd76d7a98dd5eb291a5d0c8125ded3ecb47f078dccd09f3a0b</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C285">
-        <v>4037956</v>
+        <v>4004656</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6102,18 +6102,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>d7d2064c4b7799f6f05c0bea7820d77879988674b6cbb863fc6ffff294516853</v>
+        <v>61e12aaabe2c59ab60d879b18a7d8b89b7ddf9a8a71498e190e883353f7167c5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C286">
-        <v>2589817</v>
+        <v>4037956</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6122,18 +6122,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>e319306d4c24fd23c4a7473ad0c6218a96d6abcbf8062198b2d17c4362a88c65</v>
+        <v>d7d2064c4b7799f6f05c0bea7820d77879988674b6cbb863fc6ffff294516853</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C287">
-        <v>3232149</v>
+        <v>2589817</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6142,18 +6142,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>3d27bb9df8d360989f595c83964e2a94d8e5fd22b8f7a6c1193e7c4cc257a6dd</v>
+        <v>e319306d4c24fd23c4a7473ad0c6218a96d6abcbf8062198b2d17c4362a88c65</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C288">
-        <v>3117108</v>
+        <v>3232149</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6162,18 +6162,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>2ce3ea84a16615d2d212b5c34a99171686d2a4e36cff83cf509ebbfb367e0b2d</v>
+        <v>3d27bb9df8d360989f595c83964e2a94d8e5fd22b8f7a6c1193e7c4cc257a6dd</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C289">
-        <v>4175238</v>
+        <v>3117108</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6182,18 +6182,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>54cf04627438a03b859ddb2f4687af86522a3814168449e0f183e1fc0bb2a847</v>
+        <v>2ce3ea84a16615d2d212b5c34a99171686d2a4e36cff83cf509ebbfb367e0b2d</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C290">
-        <v>3438941</v>
+        <v>4175238</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6202,18 +6202,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>69896b88d7b878ed3a9ae0ccaac412a1dcead089da47686152318321fd1de238</v>
+        <v>54cf04627438a03b859ddb2f4687af86522a3814168449e0f183e1fc0bb2a847</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C291">
-        <v>4097341</v>
+        <v>3438941</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6222,18 +6222,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>a660b7d68977f955ba7ceced1adadab138e4fc76cc5208da43d9369b9dc59e23</v>
+        <v>69896b88d7b878ed3a9ae0ccaac412a1dcead089da47686152318321fd1de238</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C292">
-        <v>750978</v>
+        <v>4097341</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6242,18 +6242,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>38de7487f089a655ef8ef162c0d101525d83e7f406dabf459b3a9c8390380122</v>
+        <v>a660b7d68977f955ba7ceced1adadab138e4fc76cc5208da43d9369b9dc59e23</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C293">
-        <v>2078410</v>
+        <v>750978</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6262,18 +6262,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>6cb30643d3b6c9be725cce1f64f07b98426ba01da9ad3e9b127862d8b8dbccf8</v>
+        <v>38de7487f089a655ef8ef162c0d101525d83e7f406dabf459b3a9c8390380122</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C294">
-        <v>562150</v>
+        <v>2078410</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6282,18 +6282,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>8950a764fe423f950c36d8d8c330f207f071139213a0be60bebb3ded5fe329cd</v>
+        <v>6cb30643d3b6c9be725cce1f64f07b98426ba01da9ad3e9b127862d8b8dbccf8</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C295">
-        <v>796221</v>
+        <v>562150</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6302,18 +6302,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>1e0a607d278479f68829b034dc3e31e3ff73f88dee2ff778c5c4398d845d97e6</v>
+        <v>8950a764fe423f950c36d8d8c330f207f071139213a0be60bebb3ded5fe329cd</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C296">
-        <v>770702</v>
+        <v>796221</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6322,18 +6322,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>e434b87a3241dae1f7d81acd86f8102e93895ec6ab30272f57fd9721c6d1bcfa</v>
+        <v>1e0a607d278479f68829b034dc3e31e3ff73f88dee2ff778c5c4398d845d97e6</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B297" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C297">
-        <v>820636</v>
+        <v>770702</v>
       </c>
       <c r="D297" t="str">
         <v>Stage_1</v>
@@ -6342,18 +6342,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>c5d28976c731cae2d777b0675466878565052af34c557d71d7009162fbe813e8</v>
+        <v>e434b87a3241dae1f7d81acd86f8102e93895ec6ab30272f57fd9721c6d1bcfa</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B298" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C298">
-        <v>817925</v>
+        <v>820636</v>
       </c>
       <c r="D298" t="str">
         <v>Stage_1</v>
@@ -6362,18 +6362,18 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>d596388ecc3145e4279aed0ec7f8b25c8a5abbfeaf17c76560902f42fd6fd46c</v>
+        <v>c5d28976c731cae2d777b0675466878565052af34c557d71d7009162fbe813e8</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B299" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C299">
-        <v>830548</v>
+        <v>817925</v>
       </c>
       <c r="D299" t="str">
         <v>Stage_1</v>
@@ -6382,18 +6382,18 @@
         <v>0</v>
       </c>
       <c r="F299" t="str">
-        <v>694f5ecefeccf73e0d79fcbde42e9a7552d32c2dc69d3894af27e1b92e9c9327</v>
+        <v>d596388ecc3145e4279aed0ec7f8b25c8a5abbfeaf17c76560902f42fd6fd46c</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B300" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C300">
-        <v>802577</v>
+        <v>830548</v>
       </c>
       <c r="D300" t="str">
         <v>Stage_1</v>
@@ -6402,18 +6402,18 @@
         <v>0</v>
       </c>
       <c r="F300" t="str">
-        <v>22ce1b1174d04d190ad9105ae99b8268e4b5b4bce7d43dbd7bac3a6930162aa5</v>
+        <v>694f5ecefeccf73e0d79fcbde42e9a7552d32c2dc69d3894af27e1b92e9c9327</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B301" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C301">
-        <v>782755</v>
+        <v>802577</v>
       </c>
       <c r="D301" t="str">
         <v>Stage_1</v>
@@ -6422,18 +6422,18 @@
         <v>0</v>
       </c>
       <c r="F301" t="str">
-        <v>fa33b1b6747266a27a42f0fe654fadc5c45d1b7ca97b1b8f2d52b3b0d3c7c647</v>
+        <v>22ce1b1174d04d190ad9105ae99b8268e4b5b4bce7d43dbd7bac3a6930162aa5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B302" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C302">
-        <v>783966</v>
+        <v>782755</v>
       </c>
       <c r="D302" t="str">
         <v>Stage_1</v>
@@ -6442,18 +6442,18 @@
         <v>0</v>
       </c>
       <c r="F302" t="str">
-        <v>6c80e0e30faa685a6e8861942e4283309563a109980a7b43ad0f6c8f7b3fd812</v>
+        <v>fa33b1b6747266a27a42f0fe654fadc5c45d1b7ca97b1b8f2d52b3b0d3c7c647</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B303" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C303">
-        <v>818586</v>
+        <v>783966</v>
       </c>
       <c r="D303" t="str">
         <v>Stage_1</v>
@@ -6462,18 +6462,18 @@
         <v>0</v>
       </c>
       <c r="F303" t="str">
-        <v>4189f28a4927c0faa536e86f0b2978390507c7e2a3f7182854f18827713a9ae6</v>
+        <v>6c80e0e30faa685a6e8861942e4283309563a109980a7b43ad0f6c8f7b3fd812</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B304" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C304">
-        <v>804643</v>
+        <v>818586</v>
       </c>
       <c r="D304" t="str">
         <v>Stage_1</v>
@@ -6482,18 +6482,18 @@
         <v>0</v>
       </c>
       <c r="F304" t="str">
-        <v>5779e4f64a588b7ba406c3f77cbe5a7623a881612f260d82d0fdd015454ce4e5</v>
+        <v>4189f28a4927c0faa536e86f0b2978390507c7e2a3f7182854f18827713a9ae6</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B305" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C305">
-        <v>815725</v>
+        <v>804643</v>
       </c>
       <c r="D305" t="str">
         <v>Stage_1</v>
@@ -6502,18 +6502,18 @@
         <v>0</v>
       </c>
       <c r="F305" t="str">
-        <v>670e37924a1dc65b3257f7ea9ea57af53ef77c50e363aa558450edda73a3971e</v>
+        <v>5779e4f64a588b7ba406c3f77cbe5a7623a881612f260d82d0fdd015454ce4e5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B306" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C306">
-        <v>787384</v>
+        <v>815725</v>
       </c>
       <c r="D306" t="str">
         <v>Stage_1</v>
@@ -6522,18 +6522,18 @@
         <v>0</v>
       </c>
       <c r="F306" t="str">
-        <v>72c7aa064bb39180b9f70c05d799875beb09b87e0863e05312f2b613f6296aaa</v>
+        <v>670e37924a1dc65b3257f7ea9ea57af53ef77c50e363aa558450edda73a3971e</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B307" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C307">
-        <v>3226990</v>
+        <v>787384</v>
       </c>
       <c r="D307" t="str">
         <v>Stage_1</v>
@@ -6542,18 +6542,18 @@
         <v>0</v>
       </c>
       <c r="F307" t="str">
-        <v>78cff653adce00a0271b9b386462b605c5155aa5328a916a2c1e7472ef53800b</v>
+        <v>72c7aa064bb39180b9f70c05d799875beb09b87e0863e05312f2b613f6296aaa</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B308" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C308">
-        <v>3520720</v>
+        <v>3226990</v>
       </c>
       <c r="D308" t="str">
         <v>Stage_1</v>
@@ -6562,18 +6562,18 @@
         <v>0</v>
       </c>
       <c r="F308" t="str">
-        <v>f0b995ef5d339afb76d7292b967c27ba26b3f240505eddecf275b18d014acabe</v>
+        <v>78cff653adce00a0271b9b386462b605c5155aa5328a916a2c1e7472ef53800b</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B309" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C309">
-        <v>2771089</v>
+        <v>3520720</v>
       </c>
       <c r="D309" t="str">
         <v>Stage_1</v>
@@ -6582,18 +6582,18 @@
         <v>0</v>
       </c>
       <c r="F309" t="str">
-        <v>bfa55cdf6f0750acee979cdf5cdc7840f4de769c34b7e38431644cf7a21ae6ba</v>
+        <v>f0b995ef5d339afb76d7292b967c27ba26b3f240505eddecf275b18d014acabe</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B310" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C310">
-        <v>3669448</v>
+        <v>2771089</v>
       </c>
       <c r="D310" t="str">
         <v>Stage_1</v>
@@ -6602,18 +6602,18 @@
         <v>0</v>
       </c>
       <c r="F310" t="str">
-        <v>d9f408df598bbed9f98731ebbbc24dd54c87d8faf6db4f9f6ed0bbdc627164f9</v>
+        <v>bfa55cdf6f0750acee979cdf5cdc7840f4de769c34b7e38431644cf7a21ae6ba</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B311" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C311">
-        <v>3422472</v>
+        <v>3669448</v>
       </c>
       <c r="D311" t="str">
         <v>Stage_1</v>
@@ -6622,18 +6622,18 @@
         <v>0</v>
       </c>
       <c r="F311" t="str">
-        <v>6a96ed9bc7dae9b6a94560a7a2a2c4c968aa9c666608866700784adbd28efe9e</v>
+        <v>d9f408df598bbed9f98731ebbbc24dd54c87d8faf6db4f9f6ed0bbdc627164f9</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B312" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C312">
-        <v>808827</v>
+        <v>3422472</v>
       </c>
       <c r="D312" t="str">
         <v>Stage_1</v>
@@ -6642,18 +6642,18 @@
         <v>0</v>
       </c>
       <c r="F312" t="str">
-        <v>b849caca8249392ed9cb5fbc69ad00daebd22a57c5dbe8dd0ef8e36a983745d0</v>
+        <v>6a96ed9bc7dae9b6a94560a7a2a2c4c968aa9c666608866700784adbd28efe9e</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B313" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C313">
-        <v>792810</v>
+        <v>808827</v>
       </c>
       <c r="D313" t="str">
         <v>Stage_1</v>
@@ -6662,18 +6662,18 @@
         <v>0</v>
       </c>
       <c r="F313" t="str">
-        <v>2b02b549d1958dcd7765bd6847f70978d863dd130ffa8e646f5fdc031cdc8351</v>
+        <v>b849caca8249392ed9cb5fbc69ad00daebd22a57c5dbe8dd0ef8e36a983745d0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B314" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C314">
-        <v>725025</v>
+        <v>792810</v>
       </c>
       <c r="D314" t="str">
         <v>Stage_1</v>
@@ -6682,18 +6682,18 @@
         <v>0</v>
       </c>
       <c r="F314" t="str">
-        <v>c54d37a9842bc35f6a53430f7b78bf25398c17e364d4fd7af908f2f9e6a41a4a</v>
+        <v>2b02b549d1958dcd7765bd6847f70978d863dd130ffa8e646f5fdc031cdc8351</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B315" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C315">
-        <v>785465</v>
+        <v>725025</v>
       </c>
       <c r="D315" t="str">
         <v>Stage_1</v>
@@ -6702,18 +6702,18 @@
         <v>0</v>
       </c>
       <c r="F315" t="str">
-        <v>36cc8950d881f726e02b7e855085ff44ade33666176018a788d9faec4f87090f</v>
+        <v>c54d37a9842bc35f6a53430f7b78bf25398c17e364d4fd7af908f2f9e6a41a4a</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B316" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C316">
-        <v>815412</v>
+        <v>785465</v>
       </c>
       <c r="D316" t="str">
         <v>Stage_1</v>
@@ -6722,18 +6722,18 @@
         <v>0</v>
       </c>
       <c r="F316" t="str">
-        <v>6a6748aa0319948886214cb8c63c8cec143ea660d596ef8d6d978fdd3511b82a</v>
+        <v>36cc8950d881f726e02b7e855085ff44ade33666176018a788d9faec4f87090f</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B317" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C317">
-        <v>798179</v>
+        <v>815412</v>
       </c>
       <c r="D317" t="str">
         <v>Stage_1</v>
@@ -6742,18 +6742,18 @@
         <v>0</v>
       </c>
       <c r="F317" t="str">
-        <v>c7d74889421f50783e19f16bfee0461d528a543471b9b45ae4aa772b774876c0</v>
+        <v>6a6748aa0319948886214cb8c63c8cec143ea660d596ef8d6d978fdd3511b82a</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B318" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C318">
-        <v>781740</v>
+        <v>798179</v>
       </c>
       <c r="D318" t="str">
         <v>Stage_1</v>
@@ -6762,18 +6762,18 @@
         <v>0</v>
       </c>
       <c r="F318" t="str">
-        <v>2055d9937e4e0b0a8811536085a0478651eb0f01fc6dfec0c170ac2391a1d44b</v>
+        <v>c7d74889421f50783e19f16bfee0461d528a543471b9b45ae4aa772b774876c0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B319" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C319">
-        <v>723932</v>
+        <v>781740</v>
       </c>
       <c r="D319" t="str">
         <v>Stage_1</v>
@@ -6782,18 +6782,18 @@
         <v>0</v>
       </c>
       <c r="F319" t="str">
-        <v>54fb809610bab1d842ba2f6c9092c659035994f46801d54970375ee2ea3c5dac</v>
+        <v>2055d9937e4e0b0a8811536085a0478651eb0f01fc6dfec0c170ac2391a1d44b</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B320" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C320">
-        <v>817588</v>
+        <v>723932</v>
       </c>
       <c r="D320" t="str">
         <v>Stage_1</v>
@@ -6802,18 +6802,18 @@
         <v>0</v>
       </c>
       <c r="F320" t="str">
-        <v>b19a3f8eb2a00ec2e2fafcdb4ae347a5e27c5d935a48a989071d64f8daa7c711</v>
+        <v>54fb809610bab1d842ba2f6c9092c659035994f46801d54970375ee2ea3c5dac</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B321" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C321">
-        <v>835275</v>
+        <v>817588</v>
       </c>
       <c r="D321" t="str">
         <v>Stage_1</v>
@@ -6822,18 +6822,18 @@
         <v>0</v>
       </c>
       <c r="F321" t="str">
-        <v>976aa2fcf5e09deb4a3ab659fb8a8e9afc3c27bbb832920dde15ea1cb2d990db</v>
+        <v>b19a3f8eb2a00ec2e2fafcdb4ae347a5e27c5d935a48a989071d64f8daa7c711</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B322" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C322">
-        <v>810774</v>
+        <v>835275</v>
       </c>
       <c r="D322" t="str">
         <v>Stage_1</v>
@@ -6842,18 +6842,18 @@
         <v>0</v>
       </c>
       <c r="F322" t="str">
-        <v>8a135d2928943c0ee8f93db24bb041ac0925554dfa5e69c1d8ed784c1517bab2</v>
+        <v>976aa2fcf5e09deb4a3ab659fb8a8e9afc3c27bbb832920dde15ea1cb2d990db</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B323" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C323">
-        <v>782587</v>
+        <v>810774</v>
       </c>
       <c r="D323" t="str">
         <v>Stage_1</v>
@@ -6862,18 +6862,18 @@
         <v>0</v>
       </c>
       <c r="F323" t="str">
-        <v>c8b75ce568e328d85fb21c02c1ab9c4309d261e1771ad612854e065b528e80b6</v>
+        <v>8a135d2928943c0ee8f93db24bb041ac0925554dfa5e69c1d8ed784c1517bab2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B324" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C324">
-        <v>832318</v>
+        <v>782587</v>
       </c>
       <c r="D324" t="str">
         <v>Stage_1</v>
@@ -6882,18 +6882,18 @@
         <v>0</v>
       </c>
       <c r="F324" t="str">
-        <v>551c9d38c10aaa35dc668fa95d4ab634ea90021e999ec43e3b3692a33f37308c</v>
+        <v>c8b75ce568e328d85fb21c02c1ab9c4309d261e1771ad612854e065b528e80b6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B325" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C325">
-        <v>825127</v>
+        <v>832318</v>
       </c>
       <c r="D325" t="str">
         <v>Stage_1</v>
@@ -6902,18 +6902,18 @@
         <v>0</v>
       </c>
       <c r="F325" t="str">
-        <v>8589c6aa5e2a1402cd077069b6a7c5b7963e4990bf24ef1ae425fa5b6fe77851</v>
+        <v>551c9d38c10aaa35dc668fa95d4ab634ea90021e999ec43e3b3692a33f37308c</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B326" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C326">
-        <v>765539</v>
+        <v>825127</v>
       </c>
       <c r="D326" t="str">
         <v>Stage_1</v>
@@ -6922,18 +6922,18 @@
         <v>0</v>
       </c>
       <c r="F326" t="str">
-        <v>7ceaafb884feff69f0cad1625495c0b9623b4abcdb13918dee5ec9782b9e7c6f</v>
+        <v>8589c6aa5e2a1402cd077069b6a7c5b7963e4990bf24ef1ae425fa5b6fe77851</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B327" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C327">
-        <v>759394</v>
+        <v>765539</v>
       </c>
       <c r="D327" t="str">
         <v>Stage_1</v>
@@ -6942,18 +6942,18 @@
         <v>0</v>
       </c>
       <c r="F327" t="str">
-        <v>8e6f4b217298f11e5493e50b5f41aefd8b49f8f0d3d68747e30ebde5fcb495af</v>
+        <v>7ceaafb884feff69f0cad1625495c0b9623b4abcdb13918dee5ec9782b9e7c6f</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="B328" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="C328">
-        <v>736440</v>
+        <v>759394</v>
       </c>
       <c r="D328" t="str">
         <v>Stage_1</v>
@@ -6962,18 +6962,18 @@
         <v>0</v>
       </c>
       <c r="F328" t="str">
-        <v>1ba74f46cf112a8fbabd9dbe94f3e47c6b8fae0f59caf2cbd33d263176d536eb</v>
+        <v>8e6f4b217298f11e5493e50b5f41aefd8b49f8f0d3d68747e30ebde5fcb495af</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="B329" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="C329">
-        <v>828877</v>
+        <v>736440</v>
       </c>
       <c r="D329" t="str">
         <v>Stage_1</v>
@@ -6982,18 +6982,18 @@
         <v>0</v>
       </c>
       <c r="F329" t="str">
-        <v>84f2c50e0b0f149fc2a5da0a87b10af733ba6c544daf4e3f9dd4c2c2e702fe60</v>
+        <v>1ba74f46cf112a8fbabd9dbe94f3e47c6b8fae0f59caf2cbd33d263176d536eb</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>character_largeimage_h0219.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="B330" t="str">
-        <v>character_largeimage_h0219.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="C330">
-        <v>817529</v>
+        <v>828877</v>
       </c>
       <c r="D330" t="str">
         <v>Stage_1</v>
@@ -7002,18 +7002,18 @@
         <v>0</v>
       </c>
       <c r="F330" t="str">
-        <v>87101cadb86464c4b19e924805d524f2a1700367f5a505fb1ae5f7bc289886f2</v>
+        <v>84f2c50e0b0f149fc2a5da0a87b10af733ba6c544daf4e3f9dd4c2c2e702fe60</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>character_largeimage_h0220.ab</v>
+        <v>character_largeimage_h0219.ab</v>
       </c>
       <c r="B331" t="str">
-        <v>character_largeimage_h0220.ab</v>
+        <v>character_largeimage_h0219.ab</v>
       </c>
       <c r="C331">
-        <v>689304</v>
+        <v>817529</v>
       </c>
       <c r="D331" t="str">
         <v>Stage_1</v>
@@ -7022,18 +7022,18 @@
         <v>0</v>
       </c>
       <c r="F331" t="str">
-        <v>0838c201cac6aa71480937da9424b05a4dfbe7d617bb0811c64a08f8fbc44329</v>
+        <v>87101cadb86464c4b19e924805d524f2a1700367f5a505fb1ae5f7bc289886f2</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>character_largeimage_h0221.ab</v>
+        <v>character_largeimage_h0220.ab</v>
       </c>
       <c r="B332" t="str">
-        <v>character_largeimage_h0221.ab</v>
+        <v>character_largeimage_h0220.ab</v>
       </c>
       <c r="C332">
-        <v>774852</v>
+        <v>689304</v>
       </c>
       <c r="D332" t="str">
         <v>Stage_1</v>
@@ -7042,18 +7042,18 @@
         <v>0</v>
       </c>
       <c r="F332" t="str">
-        <v>260c6ef2907458fb0b24e79b4fdc8f2daf248b54e954c202b89e87fa45a79917</v>
+        <v>0838c201cac6aa71480937da9424b05a4dfbe7d617bb0811c64a08f8fbc44329</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0221.ab</v>
       </c>
       <c r="B333" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0221.ab</v>
       </c>
       <c r="C333">
-        <v>734210</v>
+        <v>774852</v>
       </c>
       <c r="D333" t="str">
         <v>Stage_1</v>
@@ -7062,18 +7062,18 @@
         <v>0</v>
       </c>
       <c r="F333" t="str">
-        <v>8f88f1319c7298174ac3aa8a82b6986761610cbb74ef14c82c7e1ede1fc0b15d</v>
+        <v>260c6ef2907458fb0b24e79b4fdc8f2daf248b54e954c202b89e87fa45a79917</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>character_largeimage_h0226.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="B334" t="str">
-        <v>character_largeimage_h0226.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="C334">
-        <v>761235</v>
+        <v>734210</v>
       </c>
       <c r="D334" t="str">
         <v>Stage_1</v>
@@ -7082,18 +7082,18 @@
         <v>0</v>
       </c>
       <c r="F334" t="str">
-        <v>6bc4336199b83047446c82c6a230574f05b6e130a41d9f33770766aeac9436f2</v>
+        <v>8f88f1319c7298174ac3aa8a82b6986761610cbb74ef14c82c7e1ede1fc0b15d</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>character_largeimage_h0227.ab</v>
+        <v>character_largeimage_h0226.ab</v>
       </c>
       <c r="B335" t="str">
-        <v>character_largeimage_h0227.ab</v>
+        <v>character_largeimage_h0226.ab</v>
       </c>
       <c r="C335">
-        <v>786760</v>
+        <v>761235</v>
       </c>
       <c r="D335" t="str">
         <v>Stage_1</v>
@@ -7102,18 +7102,18 @@
         <v>0</v>
       </c>
       <c r="F335" t="str">
-        <v>0ec3a2ddea2c5f14762b1d53cf2a6c9b959342b7c2d7cb8c53f5de78389a1a9f</v>
+        <v>6bc4336199b83047446c82c6a230574f05b6e130a41d9f33770766aeac9436f2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>character_largeimage_h0230.ab</v>
+        <v>character_largeimage_h0227.ab</v>
       </c>
       <c r="B336" t="str">
-        <v>character_largeimage_h0230.ab</v>
+        <v>character_largeimage_h0227.ab</v>
       </c>
       <c r="C336">
-        <v>795281</v>
+        <v>786760</v>
       </c>
       <c r="D336" t="str">
         <v>Stage_1</v>
@@ -7122,18 +7122,18 @@
         <v>0</v>
       </c>
       <c r="F336" t="str">
-        <v>29ca1d6c0d021948d89276ee888dd3f034a0a0efe30c90a4af695d44e14e409d</v>
+        <v>0ec3a2ddea2c5f14762b1d53cf2a6c9b959342b7c2d7cb8c53f5de78389a1a9f</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>character_largeimage_h0232.ab</v>
+        <v>character_largeimage_h0230.ab</v>
       </c>
       <c r="B337" t="str">
-        <v>character_largeimage_h0232.ab</v>
+        <v>character_largeimage_h0230.ab</v>
       </c>
       <c r="C337">
-        <v>2084078</v>
+        <v>795281</v>
       </c>
       <c r="D337" t="str">
         <v>Stage_1</v>
@@ -7142,18 +7142,18 @@
         <v>0</v>
       </c>
       <c r="F337" t="str">
-        <v>dfe3d19d68019845ae4ece6c9574a5495c0a7e2d7b2bd5731672a07a39334105</v>
+        <v>29ca1d6c0d021948d89276ee888dd3f034a0a0efe30c90a4af695d44e14e409d</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>character_largeimage_h0233.ab</v>
+        <v>character_largeimage_h0232.ab</v>
       </c>
       <c r="B338" t="str">
-        <v>character_largeimage_h0233.ab</v>
+        <v>character_largeimage_h0232.ab</v>
       </c>
       <c r="C338">
-        <v>3216689</v>
+        <v>2084078</v>
       </c>
       <c r="D338" t="str">
         <v>Stage_1</v>
@@ -7162,18 +7162,18 @@
         <v>0</v>
       </c>
       <c r="F338" t="str">
-        <v>aef3828cf7528b7b93a7e0d7408ad22b191692c1de64519b9f768867bc7b11a4</v>
+        <v>dfe3d19d68019845ae4ece6c9574a5495c0a7e2d7b2bd5731672a07a39334105</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>character_largeimage_h0234.ab</v>
+        <v>character_largeimage_h0233.ab</v>
       </c>
       <c r="B339" t="str">
-        <v>character_largeimage_h0234.ab</v>
+        <v>character_largeimage_h0233.ab</v>
       </c>
       <c r="C339">
-        <v>3069501</v>
+        <v>3216689</v>
       </c>
       <c r="D339" t="str">
         <v>Stage_1</v>
@@ -7182,18 +7182,18 @@
         <v>0</v>
       </c>
       <c r="F339" t="str">
-        <v>b2537f99faf6708c1597ef8c25e62f4355e6f32459e915e721ed323c337327f5</v>
+        <v>aef3828cf7528b7b93a7e0d7408ad22b191692c1de64519b9f768867bc7b11a4</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>character_largeimage_h0235.ab</v>
+        <v>character_largeimage_h0234.ab</v>
       </c>
       <c r="B340" t="str">
-        <v>character_largeimage_h0235.ab</v>
+        <v>character_largeimage_h0234.ab</v>
       </c>
       <c r="C340">
-        <v>2226899</v>
+        <v>3069501</v>
       </c>
       <c r="D340" t="str">
         <v>Stage_1</v>
@@ -7202,18 +7202,18 @@
         <v>0</v>
       </c>
       <c r="F340" t="str">
-        <v>465a56a4e220bd39de58cf59e525a9aa2450c8f08870c2d8368c8fd7339d7ac1</v>
+        <v>b2537f99faf6708c1597ef8c25e62f4355e6f32459e915e721ed323c337327f5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>character_largeimage_h0236.ab</v>
+        <v>character_largeimage_h0235.ab</v>
       </c>
       <c r="B341" t="str">
-        <v>character_largeimage_h0236.ab</v>
+        <v>character_largeimage_h0235.ab</v>
       </c>
       <c r="C341">
-        <v>2098839</v>
+        <v>2226899</v>
       </c>
       <c r="D341" t="str">
         <v>Stage_1</v>
@@ -7222,18 +7222,18 @@
         <v>0</v>
       </c>
       <c r="F341" t="str">
-        <v>861fe308f08e7ddd65e35b46d651cf70e0bf5a6ece93c69910f51b1910bc60b5</v>
+        <v>465a56a4e220bd39de58cf59e525a9aa2450c8f08870c2d8368c8fd7339d7ac1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>character_largeimage_h0237.ab</v>
+        <v>character_largeimage_h0236.ab</v>
       </c>
       <c r="B342" t="str">
-        <v>character_largeimage_h0237.ab</v>
+        <v>character_largeimage_h0236.ab</v>
       </c>
       <c r="C342">
-        <v>2342886</v>
+        <v>2098839</v>
       </c>
       <c r="D342" t="str">
         <v>Stage_1</v>
@@ -7242,18 +7242,18 @@
         <v>0</v>
       </c>
       <c r="F342" t="str">
-        <v>8e06426b9ef92077864f5f81f17f7da0e94162e7d8d2e1b0da5e5b0492ef2638</v>
+        <v>861fe308f08e7ddd65e35b46d651cf70e0bf5a6ece93c69910f51b1910bc60b5</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>character_largeimage_h0238.ab</v>
+        <v>character_largeimage_h0237.ab</v>
       </c>
       <c r="B343" t="str">
-        <v>character_largeimage_h0238.ab</v>
+        <v>character_largeimage_h0237.ab</v>
       </c>
       <c r="C343">
-        <v>848742</v>
+        <v>2342886</v>
       </c>
       <c r="D343" t="str">
         <v>Stage_1</v>
@@ -7262,18 +7262,18 @@
         <v>0</v>
       </c>
       <c r="F343" t="str">
-        <v>eebcd817999436e6de65383cf189412ca4c12f9058f159cae52fef68555ccbbe</v>
+        <v>8e06426b9ef92077864f5f81f17f7da0e94162e7d8d2e1b0da5e5b0492ef2638</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>character_largeimage_h0239.ab</v>
+        <v>character_largeimage_h0238.ab</v>
       </c>
       <c r="B344" t="str">
-        <v>character_largeimage_h0239.ab</v>
+        <v>character_largeimage_h0238.ab</v>
       </c>
       <c r="C344">
-        <v>812643</v>
+        <v>848742</v>
       </c>
       <c r="D344" t="str">
         <v>Stage_1</v>
@@ -7282,18 +7282,18 @@
         <v>0</v>
       </c>
       <c r="F344" t="str">
-        <v>a53f4a28d98d240b9ebf9ab9a21802b22ca3f01a9cbe43c7605471e8b69e8c22</v>
+        <v>eebcd817999436e6de65383cf189412ca4c12f9058f159cae52fef68555ccbbe</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>character_largeimage_h0240.ab</v>
+        <v>character_largeimage_h0239.ab</v>
       </c>
       <c r="B345" t="str">
-        <v>character_largeimage_h0240.ab</v>
+        <v>character_largeimage_h0239.ab</v>
       </c>
       <c r="C345">
-        <v>819235</v>
+        <v>812643</v>
       </c>
       <c r="D345" t="str">
         <v>Stage_1</v>
@@ -7302,18 +7302,18 @@
         <v>0</v>
       </c>
       <c r="F345" t="str">
-        <v>416f932b7f7a15646a65e059ebb8f7a18b000b78fcdbdf6f5b0f6e99feee60a4</v>
+        <v>a53f4a28d98d240b9ebf9ab9a21802b22ca3f01a9cbe43c7605471e8b69e8c22</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>character_largeimage_h0241.ab</v>
+        <v>character_largeimage_h0240.ab</v>
       </c>
       <c r="B346" t="str">
-        <v>character_largeimage_h0241.ab</v>
+        <v>character_largeimage_h0240.ab</v>
       </c>
       <c r="C346">
-        <v>824553</v>
+        <v>819235</v>
       </c>
       <c r="D346" t="str">
         <v>Stage_1</v>
@@ -7322,18 +7322,18 @@
         <v>0</v>
       </c>
       <c r="F346" t="str">
-        <v>0b513268be4ebfb7b998c19702c89e727831fcc9a6c44799632362eae33a7917</v>
+        <v>416f932b7f7a15646a65e059ebb8f7a18b000b78fcdbdf6f5b0f6e99feee60a4</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>character_largeimage_h0243.ab</v>
+        <v>character_largeimage_h0241.ab</v>
       </c>
       <c r="B347" t="str">
-        <v>character_largeimage_h0243.ab</v>
+        <v>character_largeimage_h0241.ab</v>
       </c>
       <c r="C347">
-        <v>810706</v>
+        <v>824553</v>
       </c>
       <c r="D347" t="str">
         <v>Stage_1</v>
@@ -7342,18 +7342,18 @@
         <v>0</v>
       </c>
       <c r="F347" t="str">
-        <v>cb1bfb37585c135009aab9b0583e3d251dabfdd75817f9cb75d7b54ab1d86778</v>
+        <v>0b513268be4ebfb7b998c19702c89e727831fcc9a6c44799632362eae33a7917</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>character_largeimage_h0244.ab</v>
+        <v>character_largeimage_h0243.ab</v>
       </c>
       <c r="B348" t="str">
-        <v>character_largeimage_h0244.ab</v>
+        <v>character_largeimage_h0243.ab</v>
       </c>
       <c r="C348">
-        <v>778524</v>
+        <v>810706</v>
       </c>
       <c r="D348" t="str">
         <v>Stage_1</v>
@@ -7362,18 +7362,18 @@
         <v>0</v>
       </c>
       <c r="F348" t="str">
-        <v>41a7d16ec3600f10cab4dee7f9c437082021de8e22902f3b82af1db8c5b220fb</v>
+        <v>cb1bfb37585c135009aab9b0583e3d251dabfdd75817f9cb75d7b54ab1d86778</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>character_largeimage_h0245.ab</v>
+        <v>character_largeimage_h0244.ab</v>
       </c>
       <c r="B349" t="str">
-        <v>character_largeimage_h0245.ab</v>
+        <v>character_largeimage_h0244.ab</v>
       </c>
       <c r="C349">
-        <v>795404</v>
+        <v>778524</v>
       </c>
       <c r="D349" t="str">
         <v>Stage_1</v>
@@ -7382,18 +7382,18 @@
         <v>0</v>
       </c>
       <c r="F349" t="str">
-        <v>22925c8d03dde32eb604d7ecfd799e03d9032c974272d0823790b7d6b18967ba</v>
+        <v>41a7d16ec3600f10cab4dee7f9c437082021de8e22902f3b82af1db8c5b220fb</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>character_largeimage_h0247.ab</v>
+        <v>character_largeimage_h0245.ab</v>
       </c>
       <c r="B350" t="str">
-        <v>character_largeimage_h0247.ab</v>
+        <v>character_largeimage_h0245.ab</v>
       </c>
       <c r="C350">
-        <v>837487</v>
+        <v>795404</v>
       </c>
       <c r="D350" t="str">
         <v>Stage_1</v>
@@ -7402,18 +7402,18 @@
         <v>0</v>
       </c>
       <c r="F350" t="str">
-        <v>ef401029e4a4b055b381ebbe633554d5daf4a3e23b60c62b852b185c4c663bf5</v>
+        <v>22925c8d03dde32eb604d7ecfd799e03d9032c974272d0823790b7d6b18967ba</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>character_largeimage_h0248.ab</v>
+        <v>character_largeimage_h0247.ab</v>
       </c>
       <c r="B351" t="str">
-        <v>character_largeimage_h0248.ab</v>
+        <v>character_largeimage_h0247.ab</v>
       </c>
       <c r="C351">
-        <v>836258</v>
+        <v>837487</v>
       </c>
       <c r="D351" t="str">
         <v>Stage_1</v>
@@ -7422,18 +7422,18 @@
         <v>0</v>
       </c>
       <c r="F351" t="str">
-        <v>f8dc41278c1bfbb1635e74efb4ceb293b4de54b87f0626cf7e2b6c0f4972b150</v>
+        <v>ef401029e4a4b055b381ebbe633554d5daf4a3e23b60c62b852b185c4c663bf5</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>character_largeimage_h0249.ab</v>
+        <v>character_largeimage_h0248.ab</v>
       </c>
       <c r="B352" t="str">
-        <v>character_largeimage_h0249.ab</v>
+        <v>character_largeimage_h0248.ab</v>
       </c>
       <c r="C352">
-        <v>839134</v>
+        <v>836258</v>
       </c>
       <c r="D352" t="str">
         <v>Stage_1</v>
@@ -7442,18 +7442,18 @@
         <v>0</v>
       </c>
       <c r="F352" t="str">
-        <v>9b91af750de18d7afe93e1d3cba66a0bdd3c7db49a03c5ebcf3b8c44fee32fc4</v>
+        <v>f8dc41278c1bfbb1635e74efb4ceb293b4de54b87f0626cf7e2b6c0f4972b150</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>character_largeimage_h0253.ab</v>
+        <v>character_largeimage_h0249.ab</v>
       </c>
       <c r="B353" t="str">
-        <v>character_largeimage_h0253.ab</v>
+        <v>character_largeimage_h0249.ab</v>
       </c>
       <c r="C353">
-        <v>823722</v>
+        <v>839134</v>
       </c>
       <c r="D353" t="str">
         <v>Stage_1</v>
@@ -7462,18 +7462,18 @@
         <v>0</v>
       </c>
       <c r="F353" t="str">
-        <v>9c5c84a37c920c2e4b79f9013c9c5db129735e6375cc195a90117b4cf7802999</v>
+        <v>9b91af750de18d7afe93e1d3cba66a0bdd3c7db49a03c5ebcf3b8c44fee32fc4</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>character_largeimage_h0255.ab</v>
+        <v>character_largeimage_h0253.ab</v>
       </c>
       <c r="B354" t="str">
-        <v>character_largeimage_h0255.ab</v>
+        <v>character_largeimage_h0253.ab</v>
       </c>
       <c r="C354">
-        <v>800474</v>
+        <v>823722</v>
       </c>
       <c r="D354" t="str">
         <v>Stage_1</v>
@@ -7482,18 +7482,18 @@
         <v>0</v>
       </c>
       <c r="F354" t="str">
-        <v>450ab00dbd5b8f991797ab6c83f3ee7cb54290e9971ebd6d51273ff327ed5e15</v>
+        <v>9c5c84a37c920c2e4b79f9013c9c5db129735e6375cc195a90117b4cf7802999</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>character_largeimage_h0256.ab</v>
+        <v>character_largeimage_h0255.ab</v>
       </c>
       <c r="B355" t="str">
-        <v>character_largeimage_h0256.ab</v>
+        <v>character_largeimage_h0255.ab</v>
       </c>
       <c r="C355">
-        <v>805509</v>
+        <v>800474</v>
       </c>
       <c r="D355" t="str">
         <v>Stage_1</v>
@@ -7502,18 +7502,18 @@
         <v>0</v>
       </c>
       <c r="F355" t="str">
-        <v>297c419fbd877b05bfc9add448ff76132757333cae20eccc028647aea7da7255</v>
+        <v>450ab00dbd5b8f991797ab6c83f3ee7cb54290e9971ebd6d51273ff327ed5e15</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>character_largeimage_h0257.ab</v>
+        <v>character_largeimage_h0256.ab</v>
       </c>
       <c r="B356" t="str">
-        <v>character_largeimage_h0257.ab</v>
+        <v>character_largeimage_h0256.ab</v>
       </c>
       <c r="C356">
-        <v>808381</v>
+        <v>805509</v>
       </c>
       <c r="D356" t="str">
         <v>Stage_1</v>
@@ -7522,18 +7522,18 @@
         <v>0</v>
       </c>
       <c r="F356" t="str">
-        <v>d05147b2b6be03ef2ce9c9de4dec8d3ff71bd96053222a4f476707092d75fa72</v>
+        <v>297c419fbd877b05bfc9add448ff76132757333cae20eccc028647aea7da7255</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>character_largeimage_h0259.ab</v>
+        <v>character_largeimage_h0257.ab</v>
       </c>
       <c r="B357" t="str">
-        <v>character_largeimage_h0259.ab</v>
+        <v>character_largeimage_h0257.ab</v>
       </c>
       <c r="C357">
-        <v>810068</v>
+        <v>808381</v>
       </c>
       <c r="D357" t="str">
         <v>Stage_1</v>
@@ -7542,18 +7542,18 @@
         <v>0</v>
       </c>
       <c r="F357" t="str">
-        <v>172c2c74277241aa72cedda739d55d17e54f6959a7474b0780a9ed33d03daa33</v>
+        <v>d05147b2b6be03ef2ce9c9de4dec8d3ff71bd96053222a4f476707092d75fa72</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>character_largeimage_h0261.ab</v>
+        <v>character_largeimage_h0259.ab</v>
       </c>
       <c r="B358" t="str">
-        <v>character_largeimage_h0261.ab</v>
+        <v>character_largeimage_h0259.ab</v>
       </c>
       <c r="C358">
-        <v>785275</v>
+        <v>810068</v>
       </c>
       <c r="D358" t="str">
         <v>Stage_1</v>
@@ -7562,18 +7562,18 @@
         <v>0</v>
       </c>
       <c r="F358" t="str">
-        <v>03b89947a2d5dbfe670810747d52ec50f06c25e91ffe38907f479d65efb03148</v>
+        <v>172c2c74277241aa72cedda739d55d17e54f6959a7474b0780a9ed33d03daa33</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>character_largeimage_h0262.ab</v>
+        <v>character_largeimage_h0261.ab</v>
       </c>
       <c r="B359" t="str">
-        <v>character_largeimage_h0262.ab</v>
+        <v>character_largeimage_h0261.ab</v>
       </c>
       <c r="C359">
-        <v>847775</v>
+        <v>785275</v>
       </c>
       <c r="D359" t="str">
         <v>Stage_1</v>
@@ -7582,18 +7582,18 @@
         <v>0</v>
       </c>
       <c r="F359" t="str">
-        <v>42dc7a9aeedfb2f6754bbff5a20c0649221fbd710df2fb2229837dbf798d580a</v>
+        <v>03b89947a2d5dbfe670810747d52ec50f06c25e91ffe38907f479d65efb03148</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>character_largeimage_h0264.ab</v>
+        <v>character_largeimage_h0262.ab</v>
       </c>
       <c r="B360" t="str">
-        <v>character_largeimage_h0264.ab</v>
+        <v>character_largeimage_h0262.ab</v>
       </c>
       <c r="C360">
-        <v>718190</v>
+        <v>847775</v>
       </c>
       <c r="D360" t="str">
         <v>Stage_1</v>
@@ -7602,18 +7602,18 @@
         <v>0</v>
       </c>
       <c r="F360" t="str">
-        <v>ab84d41ed01d417a5c5cd0109bca96e438f4f56f3472560b99958ac4137677ca</v>
+        <v>42dc7a9aeedfb2f6754bbff5a20c0649221fbd710df2fb2229837dbf798d580a</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>character_largeimage_h0265.ab</v>
+        <v>character_largeimage_h0264.ab</v>
       </c>
       <c r="B361" t="str">
-        <v>character_largeimage_h0265.ab</v>
+        <v>character_largeimage_h0264.ab</v>
       </c>
       <c r="C361">
-        <v>795432</v>
+        <v>718190</v>
       </c>
       <c r="D361" t="str">
         <v>Stage_1</v>
@@ -7622,18 +7622,18 @@
         <v>0</v>
       </c>
       <c r="F361" t="str">
-        <v>43942d89eafcb8381ae779ac97b86df469078014bca34c2803baa9d16040a97e</v>
+        <v>ab84d41ed01d417a5c5cd0109bca96e438f4f56f3472560b99958ac4137677ca</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>character_largeimage_h0266.ab</v>
+        <v>character_largeimage_h0265.ab</v>
       </c>
       <c r="B362" t="str">
-        <v>character_largeimage_h0266.ab</v>
+        <v>character_largeimage_h0265.ab</v>
       </c>
       <c r="C362">
-        <v>808588</v>
+        <v>795432</v>
       </c>
       <c r="D362" t="str">
         <v>Stage_1</v>
@@ -7642,18 +7642,18 @@
         <v>0</v>
       </c>
       <c r="F362" t="str">
-        <v>ed1bd287702b2f736b9ad9fb7524ec06f5777b21a9511818d78a3ad00dc9d423</v>
+        <v>43942d89eafcb8381ae779ac97b86df469078014bca34c2803baa9d16040a97e</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>character_largeimage_h0271.ab</v>
+        <v>character_largeimage_h0266.ab</v>
       </c>
       <c r="B363" t="str">
-        <v>character_largeimage_h0271.ab</v>
+        <v>character_largeimage_h0266.ab</v>
       </c>
       <c r="C363">
-        <v>820733</v>
+        <v>808588</v>
       </c>
       <c r="D363" t="str">
         <v>Stage_1</v>
@@ -7662,18 +7662,18 @@
         <v>0</v>
       </c>
       <c r="F363" t="str">
-        <v>04260aa0eb4d75fb007447059b3aaed6316a2c062babec302361c33db8578284</v>
+        <v>ed1bd287702b2f736b9ad9fb7524ec06f5777b21a9511818d78a3ad00dc9d423</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0270.ab</v>
       </c>
       <c r="B364" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0270.ab</v>
       </c>
       <c r="C364">
-        <v>3645563</v>
+        <v>789665</v>
       </c>
       <c r="D364" t="str">
         <v>Stage_1</v>
@@ -7682,18 +7682,18 @@
         <v>0</v>
       </c>
       <c r="F364" t="str">
-        <v>6d163c0aa3de03702199280db17c4bbe2fddeea97fa709543044a1864c59ac4e</v>
+        <v>1061859969e3ff3ae1b28bcaa8c6e3a8aa5203c6699e037ab0a1a30dd0ea1e6d</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0271.ab</v>
       </c>
       <c r="B365" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0271.ab</v>
       </c>
       <c r="C365">
-        <v>3192016</v>
+        <v>820733</v>
       </c>
       <c r="D365" t="str">
         <v>Stage_1</v>
@@ -7702,18 +7702,18 @@
         <v>0</v>
       </c>
       <c r="F365" t="str">
-        <v>a95c21cd1ab779a63db9047ad68d79e913fce1d1229cd60959433c515fa2b15f</v>
+        <v>04260aa0eb4d75fb007447059b3aaed6316a2c062babec302361c33db8578284</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B366" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C366">
-        <v>4547639</v>
+        <v>3645563</v>
       </c>
       <c r="D366" t="str">
         <v>Stage_1</v>
@@ -7722,18 +7722,18 @@
         <v>0</v>
       </c>
       <c r="F366" t="str">
-        <v>964ea8e902241d88c58f2ac99db9982703da97b02c7609af5438b4a03a8a0efe</v>
+        <v>6d163c0aa3de03702199280db17c4bbe2fddeea97fa709543044a1864c59ac4e</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B367" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C367">
-        <v>783778</v>
+        <v>3192016</v>
       </c>
       <c r="D367" t="str">
         <v>Stage_1</v>
@@ -7742,18 +7742,18 @@
         <v>0</v>
       </c>
       <c r="F367" t="str">
-        <v>8195c3708ce8e882a3d95cb265160b057eb3bf5d286f64493dab9ff905fdaab6</v>
+        <v>a95c21cd1ab779a63db9047ad68d79e913fce1d1229cd60959433c515fa2b15f</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B368" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C368">
-        <v>835262</v>
+        <v>4547639</v>
       </c>
       <c r="D368" t="str">
         <v>Stage_1</v>
@@ -7762,18 +7762,18 @@
         <v>0</v>
       </c>
       <c r="F368" t="str">
-        <v>527e90522ce04f745056b9caedcb86a53d46219da877b5661b2d167770d26dcb</v>
+        <v>964ea8e902241d88c58f2ac99db9982703da97b02c7609af5438b4a03a8a0efe</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B369" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C369">
-        <v>5048467</v>
+        <v>783778</v>
       </c>
       <c r="D369" t="str">
         <v>Stage_1</v>
@@ -7782,18 +7782,18 @@
         <v>0</v>
       </c>
       <c r="F369" t="str">
-        <v>569f2fd821c168371bd7ba0fad110a99c067d9153288ec5b7dc7dba7fadbef87</v>
+        <v>8195c3708ce8e882a3d95cb265160b057eb3bf5d286f64493dab9ff905fdaab6</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B370" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C370">
-        <v>3324659</v>
+        <v>835262</v>
       </c>
       <c r="D370" t="str">
         <v>Stage_1</v>
@@ -7802,18 +7802,18 @@
         <v>0</v>
       </c>
       <c r="F370" t="str">
-        <v>3f68cff42a6b9b5f70e4727bbbc4ca79a4b5e3f36eabee4e6ac677e471042212</v>
+        <v>527e90522ce04f745056b9caedcb86a53d46219da877b5661b2d167770d26dcb</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B371" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C371">
-        <v>3241554</v>
+        <v>5048467</v>
       </c>
       <c r="D371" t="str">
         <v>Stage_1</v>
@@ -7822,18 +7822,18 @@
         <v>0</v>
       </c>
       <c r="F371" t="str">
-        <v>5c1ed78edf2589ba18b2fd63c792819e2092273556283005ee4e832864ad3852</v>
+        <v>569f2fd821c168371bd7ba0fad110a99c067d9153288ec5b7dc7dba7fadbef87</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B372" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C372">
-        <v>3632341</v>
+        <v>3324659</v>
       </c>
       <c r="D372" t="str">
         <v>Stage_1</v>
@@ -7842,18 +7842,18 @@
         <v>0</v>
       </c>
       <c r="F372" t="str">
-        <v>3f275335ed88fbd6088516a978efb3cd60af951a07bbdb0cd82a834ccaccbc07</v>
+        <v>3f68cff42a6b9b5f70e4727bbbc4ca79a4b5e3f36eabee4e6ac677e471042212</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B373" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C373">
-        <v>3771149</v>
+        <v>3241554</v>
       </c>
       <c r="D373" t="str">
         <v>Stage_1</v>
@@ -7862,18 +7862,18 @@
         <v>0</v>
       </c>
       <c r="F373" t="str">
-        <v>26a7366f49bb32607c93b69268e6fc0693e08fef6296452290871b2fb08fc2c7</v>
+        <v>5c1ed78edf2589ba18b2fd63c792819e2092273556283005ee4e832864ad3852</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B374" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C374">
-        <v>813283</v>
+        <v>3632341</v>
       </c>
       <c r="D374" t="str">
         <v>Stage_1</v>
@@ -7882,18 +7882,18 @@
         <v>0</v>
       </c>
       <c r="F374" t="str">
-        <v>5350ab84baed9d974062a833ee3cabfdea3208b429a787505b7863cd88d02e59</v>
+        <v>3f275335ed88fbd6088516a978efb3cd60af951a07bbdb0cd82a834ccaccbc07</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B375" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C375">
-        <v>791961</v>
+        <v>3771149</v>
       </c>
       <c r="D375" t="str">
         <v>Stage_1</v>
@@ -7902,18 +7902,18 @@
         <v>0</v>
       </c>
       <c r="F375" t="str">
-        <v>eb3fb4c4fbec62853ced6c63348bda093239167910e1975c24786721e5c36945</v>
+        <v>26a7366f49bb32607c93b69268e6fc0693e08fef6296452290871b2fb08fc2c7</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B376" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C376">
-        <v>2772613</v>
+        <v>813283</v>
       </c>
       <c r="D376" t="str">
         <v>Stage_1</v>
@@ -7922,18 +7922,18 @@
         <v>0</v>
       </c>
       <c r="F376" t="str">
-        <v>95bcb0bd9154f014e06084d19d720ac2bac3315b2829a51f748bab806188e50e</v>
+        <v>5350ab84baed9d974062a833ee3cabfdea3208b429a787505b7863cd88d02e59</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B377" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C377">
-        <v>2756611</v>
+        <v>791961</v>
       </c>
       <c r="D377" t="str">
         <v>Stage_1</v>
@@ -7942,18 +7942,18 @@
         <v>0</v>
       </c>
       <c r="F377" t="str">
-        <v>3c97d4a5953e712f3dfdd8ab30d02f527616fcb3d801dd8b86b3c0cf522a0eef</v>
+        <v>eb3fb4c4fbec62853ced6c63348bda093239167910e1975c24786721e5c36945</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B378" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C378">
-        <v>4381513</v>
+        <v>2772613</v>
       </c>
       <c r="D378" t="str">
         <v>Stage_1</v>
@@ -7962,18 +7962,18 @@
         <v>0</v>
       </c>
       <c r="F378" t="str">
-        <v>38ad3eaafbadfa98327d0d5542f2f0d88f7f31f659055e6d5d7f5d8ecadaaf25</v>
+        <v>95bcb0bd9154f014e06084d19d720ac2bac3315b2829a51f748bab806188e50e</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B379" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C379">
-        <v>2462163</v>
+        <v>2756611</v>
       </c>
       <c r="D379" t="str">
         <v>Stage_1</v>
@@ -7982,18 +7982,18 @@
         <v>0</v>
       </c>
       <c r="F379" t="str">
-        <v>d47db6ea8061d6508d44fdbc8629a568db3385a88c1f450c53188c37a306fbd1</v>
+        <v>3c97d4a5953e712f3dfdd8ab30d02f527616fcb3d801dd8b86b3c0cf522a0eef</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B380" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C380">
-        <v>5260995</v>
+        <v>4381513</v>
       </c>
       <c r="D380" t="str">
         <v>Stage_1</v>
@@ -8002,18 +8002,18 @@
         <v>0</v>
       </c>
       <c r="F380" t="str">
-        <v>60e32e2c51b82894f308157ead5044b1e8a536bc973703711b4f8eb6ab332f30</v>
+        <v>38ad3eaafbadfa98327d0d5542f2f0d88f7f31f659055e6d5d7f5d8ecadaaf25</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B381" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C381">
-        <v>2585585</v>
+        <v>2462163</v>
       </c>
       <c r="D381" t="str">
         <v>Stage_1</v>
@@ -8022,18 +8022,18 @@
         <v>0</v>
       </c>
       <c r="F381" t="str">
-        <v>c5811705c032100ad1a16583021dca2fb02a11ed596ad6f58b79f2775150edc1</v>
+        <v>d47db6ea8061d6508d44fdbc8629a568db3385a88c1f450c53188c37a306fbd1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B382" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C382">
-        <v>3294655</v>
+        <v>5260995</v>
       </c>
       <c r="D382" t="str">
         <v>Stage_1</v>
@@ -8042,18 +8042,18 @@
         <v>0</v>
       </c>
       <c r="F382" t="str">
-        <v>3ce7bff8c5c6bff24697ac51035be274c30bba43c89704245ba4d5ece12532a8</v>
+        <v>60e32e2c51b82894f308157ead5044b1e8a536bc973703711b4f8eb6ab332f30</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B383" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C383">
-        <v>2283005</v>
+        <v>2585586</v>
       </c>
       <c r="D383" t="str">
         <v>Stage_1</v>
@@ -8062,18 +8062,18 @@
         <v>0</v>
       </c>
       <c r="F383" t="str">
-        <v>f08896641300c346a1e73ed169d426147c629133d6b99fc0d0b053d6f89dea33</v>
+        <v>c5811705c032100ad1a16583021dca2fb02a11ed596ad6f58b79f2775150edc1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B384" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C384">
-        <v>2289827</v>
+        <v>3294655</v>
       </c>
       <c r="D384" t="str">
         <v>Stage_1</v>
@@ -8082,18 +8082,18 @@
         <v>0</v>
       </c>
       <c r="F384" t="str">
-        <v>aa09e9c0a10976e05321eeed5a37397f867e1377acd71dc4e3d2d5d1417daf28</v>
+        <v>3ce7bff8c5c6bff24697ac51035be274c30bba43c89704245ba4d5ece12532a8</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B385" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C385">
-        <v>2887185</v>
+        <v>2283005</v>
       </c>
       <c r="D385" t="str">
         <v>Stage_1</v>
@@ -8102,18 +8102,18 @@
         <v>0</v>
       </c>
       <c r="F385" t="str">
-        <v>84cffe40a80fe5c71df8f44503bbdce8bbffb4c01dc57012fb621fc40fd4230d</v>
+        <v>f08896641300c346a1e73ed169d426147c629133d6b99fc0d0b053d6f89dea33</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B386" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C386">
-        <v>2744938</v>
+        <v>2289827</v>
       </c>
       <c r="D386" t="str">
         <v>Stage_1</v>
@@ -8122,18 +8122,18 @@
         <v>0</v>
       </c>
       <c r="F386" t="str">
-        <v>4f854b7d0c3b92905dd2311a69ab83cea017de02730b719a6608464f27e269d4</v>
+        <v>aa09e9c0a10976e05321eeed5a37397f867e1377acd71dc4e3d2d5d1417daf28</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B387" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C387">
-        <v>4473711</v>
+        <v>2887185</v>
       </c>
       <c r="D387" t="str">
         <v>Stage_1</v>
@@ -8142,18 +8142,18 @@
         <v>0</v>
       </c>
       <c r="F387" t="str">
-        <v>8fc73aa493d889c8325fbef52adf15dac0c8ee19e212564b6ae16b08b266144f</v>
+        <v>84cffe40a80fe5c71df8f44503bbdce8bbffb4c01dc57012fb621fc40fd4230d</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B388" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C388">
-        <v>839510</v>
+        <v>2744938</v>
       </c>
       <c r="D388" t="str">
         <v>Stage_1</v>
@@ -8162,18 +8162,18 @@
         <v>0</v>
       </c>
       <c r="F388" t="str">
-        <v>3339401d70ded15a0020af038f486a0d2a6e2bf7e4ca29d2fc52483eba92f982</v>
+        <v>4f854b7d0c3b92905dd2311a69ab83cea017de02730b719a6608464f27e269d4</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="B389" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C389">
-        <v>788109</v>
+        <v>4473711</v>
       </c>
       <c r="D389" t="str">
         <v>Stage_1</v>
@@ -8182,18 +8182,18 @@
         <v>0</v>
       </c>
       <c r="F389" t="str">
-        <v>884a61acb6fc59583fb23f817ab1ee2aad0b3edba982eb01c5e3d4409e1db73f</v>
+        <v>8fc73aa493d889c8325fbef52adf15dac0c8ee19e212564b6ae16b08b266144f</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="B390" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C390">
-        <v>843123</v>
+        <v>839510</v>
       </c>
       <c r="D390" t="str">
         <v>Stage_1</v>
@@ -8202,18 +8202,18 @@
         <v>0</v>
       </c>
       <c r="F390" t="str">
-        <v>e442a6b286187dcc18ca56751536e1758d5953d5b913e759d2ed412148611a38</v>
+        <v>3339401d70ded15a0020af038f486a0d2a6e2bf7e4ca29d2fc52483eba92f982</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>character_largeimage_t0214.ab</v>
+        <v>character_largeimage_t0207.ab</v>
       </c>
       <c r="B391" t="str">
-        <v>character_largeimage_t0214.ab</v>
+        <v>character_largeimage_t0207.ab</v>
       </c>
       <c r="C391">
-        <v>828387</v>
+        <v>788109</v>
       </c>
       <c r="D391" t="str">
         <v>Stage_1</v>
@@ -8222,18 +8222,18 @@
         <v>0</v>
       </c>
       <c r="F391" t="str">
-        <v>342fd529c964664d600e232cd94bd8b1675ded9c1b64945ef103993a6b5b300c</v>
+        <v>884a61acb6fc59583fb23f817ab1ee2aad0b3edba982eb01c5e3d4409e1db73f</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>character_largeimage_t0218.ab</v>
+        <v>character_largeimage_t0212.ab</v>
       </c>
       <c r="B392" t="str">
-        <v>character_largeimage_t0218.ab</v>
+        <v>character_largeimage_t0212.ab</v>
       </c>
       <c r="C392">
-        <v>811612</v>
+        <v>843123</v>
       </c>
       <c r="D392" t="str">
         <v>Stage_1</v>
@@ -8242,18 +8242,18 @@
         <v>0</v>
       </c>
       <c r="F392" t="str">
-        <v>bda0c6f7dc7407f7c344f85b171a48370f75519c50e728784f647c83169bd94c</v>
+        <v>e442a6b286187dcc18ca56751536e1758d5953d5b913e759d2ed412148611a38</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>character_largeimage_t0222.ab</v>
+        <v>character_largeimage_t0214.ab</v>
       </c>
       <c r="B393" t="str">
-        <v>character_largeimage_t0222.ab</v>
+        <v>character_largeimage_t0214.ab</v>
       </c>
       <c r="C393">
-        <v>774259</v>
+        <v>828387</v>
       </c>
       <c r="D393" t="str">
         <v>Stage_1</v>
@@ -8262,18 +8262,18 @@
         <v>0</v>
       </c>
       <c r="F393" t="str">
-        <v>8ab646da7e9d3f088d7b6a87436ba651ca2f50198534bb4838143a45e096932e</v>
+        <v>342fd529c964664d600e232cd94bd8b1675ded9c1b64945ef103993a6b5b300c</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>character_largeimage_t0223.ab</v>
+        <v>character_largeimage_t0218.ab</v>
       </c>
       <c r="B394" t="str">
-        <v>character_largeimage_t0223.ab</v>
+        <v>character_largeimage_t0218.ab</v>
       </c>
       <c r="C394">
-        <v>844248</v>
+        <v>811612</v>
       </c>
       <c r="D394" t="str">
         <v>Stage_1</v>
@@ -8282,18 +8282,18 @@
         <v>0</v>
       </c>
       <c r="F394" t="str">
-        <v>18c1161759d4a71ed98ffc241b6626b1e001387f1a6c5ce54150f250abf64248</v>
+        <v>bda0c6f7dc7407f7c344f85b171a48370f75519c50e728784f647c83169bd94c</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>character_largeimage_t0225.ab</v>
+        <v>character_largeimage_t0222.ab</v>
       </c>
       <c r="B395" t="str">
-        <v>character_largeimage_t0225.ab</v>
+        <v>character_largeimage_t0222.ab</v>
       </c>
       <c r="C395">
-        <v>815023</v>
+        <v>774259</v>
       </c>
       <c r="D395" t="str">
         <v>Stage_1</v>
@@ -8302,18 +8302,18 @@
         <v>0</v>
       </c>
       <c r="F395" t="str">
-        <v>f2a096a766a2689633f4d106cf0a6a439a759aea742a118791bd76a6648f267d</v>
+        <v>8ab646da7e9d3f088d7b6a87436ba651ca2f50198534bb4838143a45e096932e</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>character_largeimage_t0228.ab</v>
+        <v>character_largeimage_t0223.ab</v>
       </c>
       <c r="B396" t="str">
-        <v>character_largeimage_t0228.ab</v>
+        <v>character_largeimage_t0223.ab</v>
       </c>
       <c r="C396">
-        <v>829894</v>
+        <v>844248</v>
       </c>
       <c r="D396" t="str">
         <v>Stage_1</v>
@@ -8322,18 +8322,18 @@
         <v>0</v>
       </c>
       <c r="F396" t="str">
-        <v>94f3e6cc4c0a6a79f10a543d83f614303bc3a05333d39f4403ef896f4dcf07f5</v>
+        <v>18c1161759d4a71ed98ffc241b6626b1e001387f1a6c5ce54150f250abf64248</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>character_largeimage_t0229.ab</v>
+        <v>character_largeimage_t0225.ab</v>
       </c>
       <c r="B397" t="str">
-        <v>character_largeimage_t0229.ab</v>
+        <v>character_largeimage_t0225.ab</v>
       </c>
       <c r="C397">
-        <v>1662213</v>
+        <v>815023</v>
       </c>
       <c r="D397" t="str">
         <v>Stage_1</v>
@@ -8342,18 +8342,18 @@
         <v>0</v>
       </c>
       <c r="F397" t="str">
-        <v>69e6216c55eeaaab8fd283f59f25c316734a73644b13941d4d1fe1e1c31f8c1f</v>
+        <v>f2a096a766a2689633f4d106cf0a6a439a759aea742a118791bd76a6648f267d</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>character_largeimage_t0231.ab</v>
+        <v>character_largeimage_t0228.ab</v>
       </c>
       <c r="B398" t="str">
-        <v>character_largeimage_t0231.ab</v>
+        <v>character_largeimage_t0228.ab</v>
       </c>
       <c r="C398">
-        <v>823425</v>
+        <v>829894</v>
       </c>
       <c r="D398" t="str">
         <v>Stage_1</v>
@@ -8362,18 +8362,18 @@
         <v>0</v>
       </c>
       <c r="F398" t="str">
-        <v>3cb4f02d9303d1a2b5fc53ad0acd0aa27db034c6c97e9bef02dacf3febc0eee6</v>
+        <v>94f3e6cc4c0a6a79f10a543d83f614303bc3a05333d39f4403ef896f4dcf07f5</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>character_largeimage_t0242.ab</v>
+        <v>character_largeimage_t0229.ab</v>
       </c>
       <c r="B399" t="str">
-        <v>character_largeimage_t0242.ab</v>
+        <v>character_largeimage_t0229.ab</v>
       </c>
       <c r="C399">
-        <v>777670</v>
+        <v>1662213</v>
       </c>
       <c r="D399" t="str">
         <v>Stage_1</v>
@@ -8382,18 +8382,18 @@
         <v>0</v>
       </c>
       <c r="F399" t="str">
-        <v>7c281124753083a4db690ee47b450f4f89e3d56fc805d995ace8e49efa5bc50f</v>
+        <v>69e6216c55eeaaab8fd283f59f25c316734a73644b13941d4d1fe1e1c31f8c1f</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>character_largeimage_t0246.ab</v>
+        <v>character_largeimage_t0231.ab</v>
       </c>
       <c r="B400" t="str">
-        <v>character_largeimage_t0246.ab</v>
+        <v>character_largeimage_t0231.ab</v>
       </c>
       <c r="C400">
-        <v>819675</v>
+        <v>823425</v>
       </c>
       <c r="D400" t="str">
         <v>Stage_1</v>
@@ -8402,18 +8402,18 @@
         <v>0</v>
       </c>
       <c r="F400" t="str">
-        <v>c9ff420c4cd5404f687592c9851a9c3c9b90d6aba4ec3215e4213794c4ec8651</v>
+        <v>3cb4f02d9303d1a2b5fc53ad0acd0aa27db034c6c97e9bef02dacf3febc0eee6</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>character_largeimage_t0250.ab</v>
+        <v>character_largeimage_t0242.ab</v>
       </c>
       <c r="B401" t="str">
-        <v>character_largeimage_t0250.ab</v>
+        <v>character_largeimage_t0242.ab</v>
       </c>
       <c r="C401">
-        <v>835064</v>
+        <v>777670</v>
       </c>
       <c r="D401" t="str">
         <v>Stage_1</v>
@@ -8422,18 +8422,18 @@
         <v>0</v>
       </c>
       <c r="F401" t="str">
-        <v>cabd53f65c1283e0ac5773bc89f0d3baf8df60f587a2629bb61ff5df5f38e998</v>
+        <v>7c281124753083a4db690ee47b450f4f89e3d56fc805d995ace8e49efa5bc50f</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>character_largeimage_t0251.ab</v>
+        <v>character_largeimage_t0246.ab</v>
       </c>
       <c r="B402" t="str">
-        <v>character_largeimage_t0251.ab</v>
+        <v>character_largeimage_t0246.ab</v>
       </c>
       <c r="C402">
-        <v>817439</v>
+        <v>819675</v>
       </c>
       <c r="D402" t="str">
         <v>Stage_1</v>
@@ -8442,18 +8442,18 @@
         <v>0</v>
       </c>
       <c r="F402" t="str">
-        <v>35de9505e776e1b88eff26e7adc6f554d89c0d74424c46ac4d6b966cac281dae</v>
+        <v>c9ff420c4cd5404f687592c9851a9c3c9b90d6aba4ec3215e4213794c4ec8651</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>character_largeimage_t0252.ab</v>
+        <v>character_largeimage_t0250.ab</v>
       </c>
       <c r="B403" t="str">
-        <v>character_largeimage_t0252.ab</v>
+        <v>character_largeimage_t0250.ab</v>
       </c>
       <c r="C403">
-        <v>3182222</v>
+        <v>835064</v>
       </c>
       <c r="D403" t="str">
         <v>Stage_1</v>
@@ -8462,18 +8462,18 @@
         <v>0</v>
       </c>
       <c r="F403" t="str">
-        <v>041e2f53d9fa84b5baeb43cbf5b681fe1c1a09fc422e5db7e8abc8f70bc26348</v>
+        <v>cabd53f65c1283e0ac5773bc89f0d3baf8df60f587a2629bb61ff5df5f38e998</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>character_largeimage_t0254.ab</v>
+        <v>character_largeimage_t0251.ab</v>
       </c>
       <c r="B404" t="str">
-        <v>character_largeimage_t0254.ab</v>
+        <v>character_largeimage_t0251.ab</v>
       </c>
       <c r="C404">
-        <v>821577</v>
+        <v>817439</v>
       </c>
       <c r="D404" t="str">
         <v>Stage_1</v>
@@ -8482,18 +8482,18 @@
         <v>0</v>
       </c>
       <c r="F404" t="str">
-        <v>0ec094e49c6f0bef8aeec78857eeaae95127b56d79ef9f59be4ec966f8258c66</v>
+        <v>35de9505e776e1b88eff26e7adc6f554d89c0d74424c46ac4d6b966cac281dae</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>character_largeimage_t0258.ab</v>
+        <v>character_largeimage_t0252.ab</v>
       </c>
       <c r="B405" t="str">
-        <v>character_largeimage_t0258.ab</v>
+        <v>character_largeimage_t0252.ab</v>
       </c>
       <c r="C405">
-        <v>799096</v>
+        <v>3182222</v>
       </c>
       <c r="D405" t="str">
         <v>Stage_1</v>
@@ -8502,18 +8502,18 @@
         <v>0</v>
       </c>
       <c r="F405" t="str">
-        <v>18672ae7cdd8fbc33c3c3fb113d9cc3cb1797d9336d487d7d2cc71564bb4a621</v>
+        <v>041e2f53d9fa84b5baeb43cbf5b681fe1c1a09fc422e5db7e8abc8f70bc26348</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>character_largeimage_t0263.ab</v>
+        <v>character_largeimage_t0254.ab</v>
       </c>
       <c r="B406" t="str">
-        <v>character_largeimage_t0263.ab</v>
+        <v>character_largeimage_t0254.ab</v>
       </c>
       <c r="C406">
-        <v>819892</v>
+        <v>821577</v>
       </c>
       <c r="D406" t="str">
         <v>Stage_1</v>
@@ -8522,18 +8522,18 @@
         <v>0</v>
       </c>
       <c r="F406" t="str">
-        <v>e8bb91ba644af38d3523e9355cc207668ab626f2304399ef855def2eeb181356</v>
+        <v>0ec094e49c6f0bef8aeec78857eeaae95127b56d79ef9f59be4ec966f8258c66</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0258.ab</v>
       </c>
       <c r="B407" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0258.ab</v>
       </c>
       <c r="C407">
-        <v>173461</v>
+        <v>799096</v>
       </c>
       <c r="D407" t="str">
         <v>Stage_1</v>
@@ -8542,33 +8542,73 @@
         <v>0</v>
       </c>
       <c r="F407" t="str">
-        <v>9c40f907ab459375c76b4a51919f83aa971bac3c394a4d64e8e549d7879abebf</v>
+        <v>18672ae7cdd8fbc33c3c3fb113d9cc3cb1797d9336d487d7d2cc71564bb4a621</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
+        <v>character_largeimage_t0263.ab</v>
+      </c>
+      <c r="B408" t="str">
+        <v>character_largeimage_t0263.ab</v>
+      </c>
+      <c r="C408">
+        <v>819892</v>
+      </c>
+      <c r="D408" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408" t="str">
+        <v>e8bb91ba644af38d3523e9355cc207668ab626f2304399ef855def2eeb181356</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>character_largeimage_uncategorized_0.ab</v>
+      </c>
+      <c r="B409" t="str">
+        <v>character_largeimage_uncategorized_0.ab</v>
+      </c>
+      <c r="C409">
+        <v>173461</v>
+      </c>
+      <c r="D409" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409" t="str">
+        <v>9c40f907ab459375c76b4a51919f83aa971bac3c394a4d64e8e549d7879abebf</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
         <v>character_largeimage_uncategorized_3.ab</v>
       </c>
-      <c r="B408" t="str">
+      <c r="B410" t="str">
         <v>character_largeimage_uncategorized_3.ab</v>
       </c>
-      <c r="C408">
+      <c r="C410">
         <v>214292</v>
       </c>
-      <c r="D408" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E408">
-        <v>0</v>
-      </c>
-      <c r="F408" t="str">
+      <c r="D410" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410" t="str">
         <v>baa10ce33b3b4d5a88452011578fd5a338303e27f2f7e58822f6cbbf2f359f10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F408"/>
+  <autoFilter ref="A1:F410"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F408"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F410"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -673,7 +673,7 @@
         <v>audioclip_sfx_20_jp.ab</v>
       </c>
       <c r="C14">
-        <v>147265</v>
+        <v>147264</v>
       </c>
       <c r="D14" t="str">
         <v>Stage_1</v>
@@ -1193,7 +1193,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123387</v>
+        <v>123386</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1473,7 +1473,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875308</v>
+        <v>875307</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1513,7 +1513,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272281</v>
+        <v>1272282</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1633,7 +1633,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C62">
-        <v>250849</v>
+        <v>250850</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1713,7 +1713,7 @@
         <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C66">
-        <v>643327</v>
+        <v>643325</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1733,7 +1733,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C67">
-        <v>1029442</v>
+        <v>1029444</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1773,7 +1773,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>1013616</v>
+        <v>1013613</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1833,7 +1833,7 @@
         <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C72">
-        <v>453783</v>
+        <v>453782</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1853,7 +1853,7 @@
         <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C73">
-        <v>1074575</v>
+        <v>1074574</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1893,7 +1893,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>940885</v>
+        <v>940883</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1913,7 +1913,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C76">
-        <v>446592</v>
+        <v>446591</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1933,7 +1933,7 @@
         <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C77">
-        <v>698680</v>
+        <v>698679</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1953,7 +1953,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C78">
-        <v>891812</v>
+        <v>891814</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1993,7 +1993,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1196247</v>
+        <v>1196248</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -2033,7 +2033,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1374151</v>
+        <v>1374152</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2053,7 +2053,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1572147</v>
+        <v>1572146</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2093,7 +2093,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1291354</v>
+        <v>1291353</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2113,7 +2113,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>1189225</v>
+        <v>1189227</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2153,7 +2153,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C88">
-        <v>785946</v>
+        <v>785948</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2173,7 +2173,7 @@
         <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C89">
-        <v>743620</v>
+        <v>743618</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2193,7 +2193,7 @@
         <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C90">
-        <v>611358</v>
+        <v>611357</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2253,7 +2253,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>955385</v>
+        <v>955387</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2273,7 +2273,7 @@
         <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C94">
-        <v>2421241</v>
+        <v>2421243</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2293,7 +2293,7 @@
         <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C95">
-        <v>619213</v>
+        <v>619212</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2393,7 +2393,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C100">
-        <v>2057509</v>
+        <v>2057511</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2433,7 +2433,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1334023</v>
+        <v>1334021</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2453,7 +2453,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1204318</v>
+        <v>1204319</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2513,7 +2513,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2046305</v>
+        <v>2046304</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2533,7 +2533,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1236789</v>
+        <v>1236790</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2553,7 +2553,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C108">
-        <v>2757249</v>
+        <v>2757248</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2573,7 +2573,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1924709</v>
+        <v>1924708</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2593,7 +2593,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1987359</v>
+        <v>1987360</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2653,7 +2653,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1893112</v>
+        <v>1893113</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2673,7 +2673,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1944102</v>
+        <v>1944100</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022204</v>
+        <v>1022203</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2813,7 +2813,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C121">
-        <v>929594</v>
+        <v>929593</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2833,7 +2833,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1438187</v>
+        <v>1438191</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2893,7 +2893,7 @@
         <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C125">
-        <v>1668215</v>
+        <v>1668214</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2953,7 +2953,7 @@
         <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1465822</v>
+        <v>1465823</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2993,7 +2993,7 @@
         <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C130">
-        <v>2327471</v>
+        <v>2327470</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -3033,7 +3033,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C132">
-        <v>1892917</v>
+        <v>1892918</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3053,7 +3053,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C133">
-        <v>2643058</v>
+        <v>2643057</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3113,7 +3113,7 @@
         <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1562441</v>
+        <v>1562440</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3193,7 +3193,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1081026</v>
+        <v>1081025</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3273,7 +3273,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967999</v>
+        <v>967998</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774136</v>
+        <v>774137</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3513,7 +3513,7 @@
         <v>audioclip_sfx_h0226_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1134471</v>
+        <v>1134470</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3553,7 +3553,7 @@
         <v>audioclip_sfx_h0230_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1022962</v>
+        <v>1022961</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3653,7 +3653,7 @@
         <v>audioclip_sfx_h0236_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2245977</v>
+        <v>2245978</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3713,7 +3713,7 @@
         <v>audioclip_sfx_h0239_jp.ab</v>
       </c>
       <c r="C166">
-        <v>5844651</v>
+        <v>5844653</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3733,7 +3733,7 @@
         <v>audioclip_sfx_h0240_jp.ab</v>
       </c>
       <c r="C167">
-        <v>924349</v>
+        <v>924348</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3793,7 +3793,7 @@
         <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1110561</v>
+        <v>1110560</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3853,7 +3853,7 @@
         <v>audioclip_sfx_h0248_jp.ab</v>
       </c>
       <c r="C173">
-        <v>1234716</v>
+        <v>1234718</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3993,7 +3993,7 @@
         <v>audioclip_sfx_h0261_jp.ab</v>
       </c>
       <c r="C180">
-        <v>1220852</v>
+        <v>1220853</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -4113,7 +4113,7 @@
         <v>audioclip_sfx_h0271_jp.ab</v>
       </c>
       <c r="C186">
-        <v>1584334</v>
+        <v>1584336</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4193,7 +4193,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C190">
-        <v>1390721</v>
+        <v>1390722</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4213,7 +4213,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C191">
-        <v>4141829</v>
+        <v>4141827</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4313,7 +4313,7 @@
         <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C196">
-        <v>1396254</v>
+        <v>1396253</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4353,7 +4353,7 @@
         <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C198">
-        <v>1222457</v>
+        <v>1222455</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4413,7 +4413,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C201">
-        <v>1950972</v>
+        <v>1950974</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4433,7 +4433,7 @@
         <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C202">
-        <v>2974171</v>
+        <v>2974170</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4453,7 +4453,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C203">
-        <v>1992963</v>
+        <v>1992962</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4533,7 +4533,7 @@
         <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C207">
-        <v>2120060</v>
+        <v>2120062</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4573,7 +4573,7 @@
         <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C209">
-        <v>1736024</v>
+        <v>1736023</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4613,7 +4613,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C211">
-        <v>1973758</v>
+        <v>1973760</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4633,7 +4633,7 @@
         <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C212">
-        <v>2403911</v>
+        <v>2403910</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4653,7 +4653,7 @@
         <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C213">
-        <v>1290320</v>
+        <v>1290319</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4753,7 +4753,7 @@
         <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="C218">
-        <v>781279</v>
+        <v>781277</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4773,7 +4773,7 @@
         <v>audioclip_sfx_t0223_jp.ab</v>
       </c>
       <c r="C219">
-        <v>988344</v>
+        <v>988345</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4833,7 +4833,7 @@
         <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="C222">
-        <v>1117663</v>
+        <v>1117664</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4873,7 +4873,7 @@
         <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C224">
-        <v>955689</v>
+        <v>955690</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4893,7 +4893,7 @@
         <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="C225">
-        <v>890769</v>
+        <v>890771</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4953,7 +4953,7 @@
         <v>audioclip_sfx_t0252_jp.ab</v>
       </c>
       <c r="C228">
-        <v>2885317</v>
+        <v>2885316</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -5033,7 +5033,7 @@
         <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C232">
-        <v>316225</v>
+        <v>316226</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5073,7 +5073,7 @@
         <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C234">
-        <v>214580</v>
+        <v>214579</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5133,7 +5133,7 @@
         <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C237">
-        <v>270581</v>
+        <v>270580</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5333,7 +5333,7 @@
         <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C247">
-        <v>3975188</v>
+        <v>3975187</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -1473,7 +1473,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875307</v>
+        <v>875309</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1493,7 +1493,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>2011713</v>
+        <v>2011714</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1513,7 +1513,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272282</v>
+        <v>1272283</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1593,7 +1593,7 @@
         <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="C60">
-        <v>3100224</v>
+        <v>3100225</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1713,7 +1713,7 @@
         <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C66">
-        <v>643325</v>
+        <v>643327</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1753,7 +1753,7 @@
         <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C68">
-        <v>872451</v>
+        <v>872452</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1773,7 +1773,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>1013613</v>
+        <v>1013617</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1793,7 +1793,7 @@
         <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C70">
-        <v>678623</v>
+        <v>678622</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1853,7 +1853,7 @@
         <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C73">
-        <v>1074574</v>
+        <v>1074575</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1873,7 +1873,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C74">
-        <v>740116</v>
+        <v>740117</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1893,7 +1893,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>940883</v>
+        <v>940881</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1913,7 +1913,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C76">
-        <v>446591</v>
+        <v>446592</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1933,7 +1933,7 @@
         <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C77">
-        <v>698679</v>
+        <v>698681</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1953,7 +1953,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C78">
-        <v>891814</v>
+        <v>891812</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1993,7 +1993,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1196248</v>
+        <v>1196246</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -2033,7 +2033,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1374152</v>
+        <v>1374151</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2053,7 +2053,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1572146</v>
+        <v>1572147</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2113,7 +2113,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>1189227</v>
+        <v>1189230</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2133,7 +2133,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C87">
-        <v>1039749</v>
+        <v>1039750</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2173,7 +2173,7 @@
         <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C89">
-        <v>743618</v>
+        <v>743620</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2253,7 +2253,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>955387</v>
+        <v>955386</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2273,7 +2273,7 @@
         <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C94">
-        <v>2421243</v>
+        <v>2421241</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2333,7 +2333,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>8510835</v>
+        <v>8510836</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2353,7 +2353,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1635039</v>
+        <v>1635040</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2373,7 +2373,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C99">
-        <v>276295</v>
+        <v>276296</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2433,7 +2433,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1334021</v>
+        <v>1334023</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2533,7 +2533,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1236790</v>
+        <v>1236791</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2553,7 +2553,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C108">
-        <v>2757248</v>
+        <v>2757250</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2573,7 +2573,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1924708</v>
+        <v>1924707</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2673,7 +2673,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1944100</v>
+        <v>1944103</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2693,7 +2693,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1305067</v>
+        <v>1305068</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2713,7 +2713,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C116">
-        <v>966708</v>
+        <v>966709</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022203</v>
+        <v>1022205</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2773,7 +2773,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C119">
-        <v>884678</v>
+        <v>884679</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2813,7 +2813,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C121">
-        <v>929593</v>
+        <v>929591</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2833,7 +2833,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1438191</v>
+        <v>1438189</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2913,7 +2913,7 @@
         <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1253485</v>
+        <v>1253486</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -3013,7 +3013,7 @@
         <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C131">
-        <v>1563968</v>
+        <v>1563971</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3053,7 +3053,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C133">
-        <v>2643057</v>
+        <v>2643059</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3113,7 +3113,7 @@
         <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1562440</v>
+        <v>1562442</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3193,7 +3193,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1081025</v>
+        <v>1081026</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774137</v>
+        <v>774136</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3393,7 +3393,7 @@
         <v>audioclip_sfx_h0216_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1220952</v>
+        <v>1220953</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3433,7 +3433,7 @@
         <v>audioclip_sfx_h0219_jp.ab</v>
       </c>
       <c r="C152">
-        <v>977561</v>
+        <v>977562</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3493,7 +3493,7 @@
         <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1031308</v>
+        <v>1031309</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3513,7 +3513,7 @@
         <v>audioclip_sfx_h0226_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1134470</v>
+        <v>1134471</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3573,7 +3573,7 @@
         <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1390238</v>
+        <v>1390239</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3673,7 +3673,7 @@
         <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2431132</v>
+        <v>2431130</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3693,7 +3693,7 @@
         <v>audioclip_sfx_h0238_jp.ab</v>
       </c>
       <c r="C165">
-        <v>867922</v>
+        <v>867921</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3753,7 +3753,7 @@
         <v>audioclip_sfx_h0241_jp.ab</v>
       </c>
       <c r="C168">
-        <v>1125056</v>
+        <v>1125057</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3793,7 +3793,7 @@
         <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1110560</v>
+        <v>1110559</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3953,7 +3953,7 @@
         <v>audioclip_sfx_h0257_jp.ab</v>
       </c>
       <c r="C178">
-        <v>1131208</v>
+        <v>1131207</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3993,7 +3993,7 @@
         <v>audioclip_sfx_h0261_jp.ab</v>
       </c>
       <c r="C180">
-        <v>1220853</v>
+        <v>1220852</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -4073,7 +4073,7 @@
         <v>audioclip_sfx_h0266_jp.ab</v>
       </c>
       <c r="C184">
-        <v>1292355</v>
+        <v>1292356</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4213,7 +4213,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C191">
-        <v>4141827</v>
+        <v>4141826</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4233,7 +4233,7 @@
         <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C192">
-        <v>1438364</v>
+        <v>1438365</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4253,7 +4253,7 @@
         <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C193">
-        <v>1066357</v>
+        <v>1066358</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4273,7 +4273,7 @@
         <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C194">
-        <v>883187</v>
+        <v>883185</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4313,7 +4313,7 @@
         <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C196">
-        <v>1396253</v>
+        <v>1396256</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4333,7 +4333,7 @@
         <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C197">
-        <v>995097</v>
+        <v>995095</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4413,7 +4413,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C201">
-        <v>1950974</v>
+        <v>1950975</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4433,7 +4433,7 @@
         <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C202">
-        <v>2974170</v>
+        <v>2974171</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4453,7 +4453,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C203">
-        <v>1992962</v>
+        <v>1992961</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4513,7 +4513,7 @@
         <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C206">
-        <v>2527578</v>
+        <v>2527577</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4533,7 +4533,7 @@
         <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C207">
-        <v>2120062</v>
+        <v>2120063</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4573,7 +4573,7 @@
         <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C209">
-        <v>1736023</v>
+        <v>1736024</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4593,7 +4593,7 @@
         <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C210">
-        <v>2460156</v>
+        <v>2460157</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4633,7 +4633,7 @@
         <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C212">
-        <v>2403910</v>
+        <v>2403908</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4753,7 +4753,7 @@
         <v>audioclip_sfx_t0222_jp.ab</v>
       </c>
       <c r="C218">
-        <v>781277</v>
+        <v>781279</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4833,7 +4833,7 @@
         <v>audioclip_sfx_t0229_jp.ab</v>
       </c>
       <c r="C222">
-        <v>1117664</v>
+        <v>1117665</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4873,7 +4873,7 @@
         <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C224">
-        <v>955690</v>
+        <v>955689</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4893,7 +4893,7 @@
         <v>audioclip_sfx_t0246_jp.ab</v>
       </c>
       <c r="C225">
-        <v>890771</v>
+        <v>890769</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -5053,7 +5053,7 @@
         <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C233">
-        <v>164051</v>
+        <v>164050</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5073,7 +5073,7 @@
         <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C234">
-        <v>214579</v>
+        <v>214580</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5113,7 +5113,7 @@
         <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C236">
-        <v>288969</v>
+        <v>288967</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>

--- a/client_gamedata/ios/iosExp.xlsx
+++ b/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$411</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F410"/>
+  <dimension ref="A1:F411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -673,7 +673,7 @@
         <v>audioclip_sfx_20_jp.ab</v>
       </c>
       <c r="C14">
-        <v>147264</v>
+        <v>147265</v>
       </c>
       <c r="D14" t="str">
         <v>Stage_1</v>
@@ -1473,7 +1473,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875309</v>
+        <v>875308</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1513,7 +1513,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272283</v>
+        <v>1272281</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1553,7 +1553,7 @@
         <v>audioclip_sfx_b0267_jp.ab</v>
       </c>
       <c r="C58">
-        <v>230609</v>
+        <v>1368973</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>f628e764479d5dde0841aa0803ecf053c265ffd80ed19d87174d81d177fdbcf4</v>
+        <v>12f9592a14155fd9d1bb1d09ae707af469b1aabca9174c413e503a7823d28b42</v>
       </c>
     </row>
     <row r="59">
@@ -1573,7 +1573,7 @@
         <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C59">
-        <v>662050</v>
+        <v>662049</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1733,7 +1733,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C67">
-        <v>1029444</v>
+        <v>1029442</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1773,7 +1773,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C69">
-        <v>1013617</v>
+        <v>1013616</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1873,7 +1873,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C74">
-        <v>740117</v>
+        <v>740115</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1893,7 +1893,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C75">
-        <v>940881</v>
+        <v>940883</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1913,7 +1913,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C76">
-        <v>446592</v>
+        <v>446594</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1933,7 +1933,7 @@
         <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C77">
-        <v>698681</v>
+        <v>698680</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1953,7 +1953,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C78">
-        <v>891812</v>
+        <v>891813</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1993,7 +1993,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1196246</v>
+        <v>1196249</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -2013,7 +2013,7 @@
         <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C81">
-        <v>985554</v>
+        <v>985555</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2033,7 +2033,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1374151</v>
+        <v>1374150</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2053,7 +2053,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1572147</v>
+        <v>1572148</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2093,7 +2093,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1291353</v>
+        <v>1291352</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2113,7 +2113,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C86">
-        <v>1189230</v>
+        <v>1189228</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2133,7 +2133,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C87">
-        <v>1039750</v>
+        <v>1039749</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2153,7 +2153,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C88">
-        <v>785948</v>
+        <v>785946</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2173,7 +2173,7 @@
         <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C89">
-        <v>743620</v>
+        <v>743618</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2253,7 +2253,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C93">
-        <v>955386</v>
+        <v>955385</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2293,7 +2293,7 @@
         <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C95">
-        <v>619212</v>
+        <v>619213</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2313,7 +2313,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C96">
-        <v>538569</v>
+        <v>538568</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2333,7 +2333,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C97">
-        <v>8510836</v>
+        <v>8510835</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2353,7 +2353,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1635040</v>
+        <v>1635039</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2473,7 +2473,7 @@
         <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C104">
-        <v>2285418</v>
+        <v>2285419</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2493,7 +2493,7 @@
         <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1316079</v>
+        <v>1316077</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2513,7 +2513,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2046304</v>
+        <v>2046305</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2533,7 +2533,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1236791</v>
+        <v>1236789</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2553,7 +2553,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C108">
-        <v>2757250</v>
+        <v>2757251</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2573,7 +2573,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1924707</v>
+        <v>1924706</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2593,7 +2593,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1987360</v>
+        <v>1987358</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2653,7 +2653,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1893113</v>
+        <v>1893111</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2673,7 +2673,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1944103</v>
+        <v>1944102</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2713,7 +2713,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C116">
-        <v>966709</v>
+        <v>966708</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2733,7 +2733,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1022205</v>
+        <v>1022203</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2793,7 +2793,7 @@
         <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C120">
-        <v>747235</v>
+        <v>747236</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2813,7 +2813,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C121">
-        <v>929591</v>
+        <v>929592</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2833,7 +2833,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1438189</v>
+        <v>1438188</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2853,7 +2853,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1738273</v>
+        <v>1738272</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2873,7 +2873,7 @@
         <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C124">
-        <v>1379888</v>
+        <v>1379889</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2913,7 +2913,7 @@
         <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1253486</v>
+        <v>1253485</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2953,7 +2953,7 @@
         <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1465823</v>
+        <v>1465822</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2973,7 +2973,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1837989</v>
+        <v>1837992</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2993,7 +2993,7 @@
         <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C130">
-        <v>2327470</v>
+        <v>2327471</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -3033,7 +3033,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C132">
-        <v>1892918</v>
+        <v>1892917</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3153,7 +3153,7 @@
         <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1046814</v>
+        <v>1046813</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3213,7 +3213,7 @@
         <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C141">
-        <v>922797</v>
+        <v>922796</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3253,7 +3253,7 @@
         <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C143">
-        <v>810575</v>
+        <v>810576</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3273,7 +3273,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967998</v>
+        <v>967999</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3293,7 +3293,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C145">
-        <v>774136</v>
+        <v>774137</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3313,7 +3313,7 @@
         <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1046541</v>
+        <v>1046540</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3373,7 +3373,7 @@
         <v>audioclip_sfx_h0215_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1225724</v>
+        <v>1225722</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3433,7 +3433,7 @@
         <v>audioclip_sfx_h0219_jp.ab</v>
       </c>
       <c r="C152">
-        <v>977562</v>
+        <v>977561</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3513,7 +3513,7 @@
         <v>audioclip_sfx_h0226_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1134471</v>
+        <v>1134470</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3553,7 +3553,7 @@
         <v>audioclip_sfx_h0230_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1022961</v>
+        <v>1022962</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3573,7 +3573,7 @@
         <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1390239</v>
+        <v>1390241</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3593,7 +3593,7 @@
         <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1911214</v>
+        <v>1911213</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3633,7 +3633,7 @@
         <v>audioclip_sfx_h0235_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2384177</v>
+        <v>2384176</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3653,7 +3653,7 @@
         <v>audioclip_sfx_h0236_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2245978</v>
+        <v>2245977</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3673,7 +3673,7 @@
         <v>audioclip_sfx_h0237_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2431130</v>
+        <v>2431132</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3693,7 +3693,7 @@
         <v>audioclip_sfx_h0238_jp.ab</v>
       </c>
       <c r="C165">
-        <v>867921</v>
+        <v>867922</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3733,7 +3733,7 @@
         <v>audioclip_sfx_h0240_jp.ab</v>
       </c>
       <c r="C167">
-        <v>924348</v>
+        <v>924349</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3793,7 +3793,7 @@
         <v>audioclip_sfx_h0244_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1110559</v>
+        <v>1110558</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3853,7 +3853,7 @@
         <v>audioclip_sfx_h0248_jp.ab</v>
       </c>
       <c r="C173">
-        <v>1234718</v>
+        <v>1234716</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3873,7 +3873,7 @@
         <v>audioclip_sfx_h0249_jp.ab</v>
       </c>
       <c r="C174">
-        <v>899110</v>
+        <v>899109</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3973,7 +3973,7 @@
         <v>audioclip_sfx_h0259_jp.ab</v>
       </c>
       <c r="C179">
-        <v>1446712</v>
+        <v>1446713</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3993,7 +3993,7 @@
         <v>audioclip_sfx_h0261_jp.ab</v>
       </c>
       <c r="C180">
-        <v>1220852</v>
+        <v>1220853</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -4213,7 +4213,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C191">
-        <v>4141826</v>
+        <v>4141829</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4233,7 +4233,7 @@
         <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C192">
-        <v>1438365</v>
+        <v>1438364</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4253,7 +4253,7 @@
         <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C193">
-        <v>1066358</v>
+        <v>1066359</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4273,7 +4273,7 @@
         <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C194">
-        <v>883185</v>
+        <v>883186</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4293,7 +4293,7 @@
         <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C195">
-        <v>903966</v>
+        <v>903968</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4333,7 +4333,7 @@
         <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C197">
-        <v>995095</v>
+        <v>995097</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4373,7 +4373,7 @@
         <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C199">
-        <v>694991</v>
+        <v>694990</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4413,7 +4413,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C201">
-        <v>1950975</v>
+        <v>1950974</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4433,7 +4433,7 @@
         <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C202">
-        <v>2974171</v>
+        <v>2974172</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4453,7 +4453,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C203">
-        <v>1992961</v>
+        <v>1992962</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4533,7 +4533,7 @@
         <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C207">
-        <v>2120063</v>
+        <v>2120059</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4553,7 +4553,7 @@
         <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C208">
-        <v>1952767</v>
+        <v>1952766</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4633,7 +4633,7 @@
         <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C212">
-        <v>2403908</v>
+        <v>2403911</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4813,7 +4813,7 @@
         <v>audioclip_sfx_t0228_jp.ab</v>
       </c>
       <c r="C221">
-        <v>1009845</v>
+        <v>1009843</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4873,7 +4873,7 @@
         <v>audioclip_sfx_t0242_jp.ab</v>
       </c>
       <c r="C224">
-        <v>955689</v>
+        <v>955690</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -5033,7 +5033,7 @@
         <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C232">
-        <v>316226</v>
+        <v>316225</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5053,7 +5053,7 @@
         <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C233">
-        <v>164050</v>
+        <v>164051</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5113,7 +5113,7 @@
         <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C236">
-        <v>288967</v>
+        <v>288966</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5133,7 +5133,7 @@
         <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C237">
-        <v>270580</v>
+        <v>270581</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5267,13 +5267,13 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0267.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0267.ab</v>
       </c>
       <c r="C244">
-        <v>3558177</v>
+        <v>807588</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5282,18 +5282,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
+        <v>41783a35c310ec26aa7c60cd2aa8afe413a9e2d08aa19271636c7777f8768534</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C245">
-        <v>797567</v>
+        <v>3558177</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5302,18 +5302,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
+        <v>a51d1503e3559c8ce675afeeed8f729155eed27a8fbebb35148b3dc87f8492e1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C246">
-        <v>208090</v>
+        <v>797567</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5322,18 +5322,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
+        <v>a59b46fa5f54c534a9098787a6bf734026c5260a26fe4ed54fab45eb22d26dd3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C247">
-        <v>3975187</v>
+        <v>208090</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5342,18 +5342,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
+        <v>a83767d3a6a982d3509d5ed4c329a744963271116b14d342654d3bd0bc612c66</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C248">
-        <v>4306043</v>
+        <v>3975187</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5362,18 +5362,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>8b2ed468e2fcba7d477e3da1fe08a3c2d69c7a5b700f1e557d14a5b1a72ba120</v>
+        <v>c7a8bfc4a28e3f884b3fd89a9d5988d4b86952038ef16422caddaee083cf9588</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v